--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="220">
   <si>
     <t>Logo</t>
   </si>
@@ -627,9 +627,6 @@
     <t>ĐĂNG KÝ ĐỂ GỌI TAXI</t>
   </si>
   <si>
-    <t>Welcome to Uber, the easiest way to get around at the tap of a button.</t>
-  </si>
-  <si>
     <t>Create your account and get moving in minutes.</t>
   </si>
   <si>
@@ -850,6 +847,27 @@
   </si>
   <si>
     <t>Có 2 trường Tên và Họ</t>
+  </si>
+  <si>
+    <t>Welcome to TaxiNet, the easiest way to get around at the tap of a button.</t>
+  </si>
+  <si>
+    <t>Hình thức thanh toán</t>
+  </si>
+  <si>
+    <t>Thẻ tín dụng</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>Tài khoản ngân hàng</t>
+  </si>
+  <si>
+    <t>Trực tiếp</t>
+  </si>
+  <si>
+    <t>Khi người dùng lựa chọn hình thức thanh toán là thẻ tín dụng, các trường số thẻ.. Sẽ được hiển thị và yêu cầu người dùng phải nhập</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1561,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1831,7 +1849,26 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1864,24 +1901,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1897,6 +1916,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1906,27 +1934,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1934,21 +1941,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1974,6 +1966,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2035,7 +2054,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2394,13 +2415,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4313,22 +4334,22 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="181" t="s">
+      <c r="M1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -5612,14 +5633,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="222"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="214"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="8"/>
@@ -5662,12 +5683,12 @@
       <c r="AR1" s="16"/>
     </row>
     <row r="2" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="192"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="15"/>
@@ -5700,23 +5721,23 @@
       </c>
       <c r="AJ2" s="15"/>
       <c r="AK2" s="15"/>
-      <c r="AL2" s="209" t="s">
+      <c r="AL2" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="209"/>
-      <c r="AN2" s="209"/>
-      <c r="AO2" s="209"/>
-      <c r="AP2" s="209"/>
-      <c r="AQ2" s="209"/>
-      <c r="AR2" s="210"/>
+      <c r="AM2" s="221"/>
+      <c r="AN2" s="221"/>
+      <c r="AO2" s="221"/>
+      <c r="AP2" s="221"/>
+      <c r="AQ2" s="221"/>
+      <c r="AR2" s="222"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="15"/>
@@ -5747,21 +5768,21 @@
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
-      <c r="AL3" s="209"/>
-      <c r="AM3" s="209"/>
-      <c r="AN3" s="209"/>
-      <c r="AO3" s="209"/>
-      <c r="AP3" s="209"/>
-      <c r="AQ3" s="209"/>
-      <c r="AR3" s="210"/>
+      <c r="AL3" s="221"/>
+      <c r="AM3" s="221"/>
+      <c r="AN3" s="221"/>
+      <c r="AO3" s="221"/>
+      <c r="AP3" s="221"/>
+      <c r="AQ3" s="221"/>
+      <c r="AR3" s="222"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="192"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="15"/>
@@ -5791,21 +5812,21 @@
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
-      <c r="AL4" s="209"/>
-      <c r="AM4" s="209"/>
-      <c r="AN4" s="209"/>
-      <c r="AO4" s="209"/>
-      <c r="AP4" s="209"/>
-      <c r="AQ4" s="209"/>
-      <c r="AR4" s="210"/>
+      <c r="AL4" s="221"/>
+      <c r="AM4" s="221"/>
+      <c r="AN4" s="221"/>
+      <c r="AO4" s="221"/>
+      <c r="AP4" s="221"/>
+      <c r="AQ4" s="221"/>
+      <c r="AR4" s="222"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="21"/>
@@ -5836,13 +5857,13 @@
       <c r="AI5" s="21"/>
       <c r="AJ5" s="21"/>
       <c r="AK5" s="21"/>
-      <c r="AL5" s="211"/>
-      <c r="AM5" s="211"/>
-      <c r="AN5" s="211"/>
-      <c r="AO5" s="211"/>
-      <c r="AP5" s="211"/>
-      <c r="AQ5" s="211"/>
-      <c r="AR5" s="212"/>
+      <c r="AL5" s="223"/>
+      <c r="AM5" s="223"/>
+      <c r="AN5" s="223"/>
+      <c r="AO5" s="223"/>
+      <c r="AP5" s="223"/>
+      <c r="AQ5" s="223"/>
+      <c r="AR5" s="224"/>
     </row>
     <row r="6" spans="2:44" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
@@ -5890,51 +5911,51 @@
       <c r="AR6" s="16"/>
     </row>
     <row r="7" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="214"/>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="232"/>
-      <c r="S7" s="233"/>
-      <c r="T7" s="233"/>
-      <c r="U7" s="234"/>
-      <c r="V7" s="213"/>
-      <c r="W7" s="214"/>
-      <c r="X7" s="214"/>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="215"/>
-      <c r="AA7" s="213"/>
-      <c r="AB7" s="214"/>
-      <c r="AC7" s="214"/>
-      <c r="AD7" s="214"/>
-      <c r="AE7" s="214"/>
-      <c r="AF7" s="215"/>
-      <c r="AG7" s="213"/>
-      <c r="AH7" s="214"/>
-      <c r="AI7" s="214"/>
-      <c r="AJ7" s="214"/>
-      <c r="AK7" s="214"/>
-      <c r="AL7" s="215"/>
-      <c r="AM7" s="213"/>
-      <c r="AN7" s="214"/>
-      <c r="AO7" s="214"/>
-      <c r="AP7" s="214"/>
-      <c r="AQ7" s="214"/>
-      <c r="AR7" s="215"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="212"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="234"/>
+      <c r="T7" s="234"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="210"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="211"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="212"/>
+      <c r="AA7" s="210"/>
+      <c r="AB7" s="211"/>
+      <c r="AC7" s="211"/>
+      <c r="AD7" s="211"/>
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="212"/>
+      <c r="AG7" s="210"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="211"/>
+      <c r="AJ7" s="211"/>
+      <c r="AK7" s="211"/>
+      <c r="AL7" s="212"/>
+      <c r="AM7" s="210"/>
+      <c r="AN7" s="211"/>
+      <c r="AO7" s="211"/>
+      <c r="AP7" s="211"/>
+      <c r="AQ7" s="211"/>
+      <c r="AR7" s="212"/>
     </row>
     <row r="8" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
@@ -5948,30 +5969,30 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
-      <c r="O8" s="231"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="231"/>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="231"/>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="231"/>
-      <c r="AB8" s="231"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="231"/>
-      <c r="AF8" s="231"/>
-      <c r="AG8" s="231"/>
-      <c r="AH8" s="231"/>
-      <c r="AI8" s="231"/>
-      <c r="AJ8" s="231"/>
+      <c r="M8" s="232"/>
+      <c r="N8" s="232"/>
+      <c r="O8" s="232"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="232"/>
+      <c r="R8" s="232"/>
+      <c r="S8" s="232"/>
+      <c r="T8" s="232"/>
+      <c r="U8" s="232"/>
+      <c r="V8" s="232"/>
+      <c r="W8" s="232"/>
+      <c r="X8" s="232"/>
+      <c r="Y8" s="232"/>
+      <c r="Z8" s="232"/>
+      <c r="AA8" s="232"/>
+      <c r="AB8" s="232"/>
+      <c r="AC8" s="232"/>
+      <c r="AD8" s="232"/>
+      <c r="AE8" s="232"/>
+      <c r="AF8" s="232"/>
+      <c r="AG8" s="232"/>
+      <c r="AH8" s="232"/>
+      <c r="AI8" s="232"/>
+      <c r="AJ8" s="232"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15"/>
       <c r="AM8" s="15"/>
@@ -5995,32 +6016,32 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="217" t="s">
+      <c r="M9" s="226" t="s">
         <v>182</v>
       </c>
-      <c r="N9" s="217"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="217"/>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="217"/>
-      <c r="AE9" s="217"/>
-      <c r="AF9" s="217"/>
-      <c r="AG9" s="217"/>
-      <c r="AH9" s="217"/>
-      <c r="AI9" s="217"/>
-      <c r="AJ9" s="217"/>
+      <c r="N9" s="226"/>
+      <c r="O9" s="226"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="226"/>
+      <c r="S9" s="226"/>
+      <c r="T9" s="226"/>
+      <c r="U9" s="226"/>
+      <c r="V9" s="226"/>
+      <c r="W9" s="226"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="226"/>
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="226"/>
+      <c r="AC9" s="226"/>
+      <c r="AD9" s="226"/>
+      <c r="AE9" s="226"/>
+      <c r="AF9" s="226"/>
+      <c r="AG9" s="226"/>
+      <c r="AH9" s="226"/>
+      <c r="AI9" s="226"/>
+      <c r="AJ9" s="226"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
       <c r="AM9" s="15"/>
@@ -6032,7 +6053,7 @@
     </row>
     <row r="10" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
-      <c r="C10" s="249" t="s">
+      <c r="C10" s="181" t="s">
         <v>175</v>
       </c>
       <c r="G10" s="24"/>
@@ -6119,7 +6140,7 @@
     </row>
     <row r="12" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
-      <c r="C12" s="249" t="s">
+      <c r="C12" s="181" t="s">
         <v>178</v>
       </c>
       <c r="G12" s="24"/>
@@ -6775,43 +6796,43 @@
       <c r="B26" s="14"/>
       <c r="G26" s="24"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="229" t="s">
+      <c r="I26" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="J26" s="229"/>
-      <c r="K26" s="229"/>
-      <c r="L26" s="229"/>
-      <c r="M26" s="229"/>
-      <c r="N26" s="229"/>
-      <c r="O26" s="229"/>
-      <c r="P26" s="229"/>
-      <c r="Q26" s="229"/>
-      <c r="R26" s="229"/>
-      <c r="S26" s="229"/>
-      <c r="T26" s="229"/>
-      <c r="U26" s="229"/>
-      <c r="V26" s="229"/>
-      <c r="W26" s="229"/>
-      <c r="X26" s="229"/>
-      <c r="Y26" s="229"/>
-      <c r="Z26" s="229"/>
-      <c r="AA26" s="229"/>
-      <c r="AB26" s="229"/>
-      <c r="AC26" s="229"/>
-      <c r="AD26" s="229"/>
-      <c r="AE26" s="229"/>
-      <c r="AF26" s="229"/>
-      <c r="AG26" s="229"/>
-      <c r="AH26" s="229"/>
-      <c r="AI26" s="229"/>
-      <c r="AJ26" s="229"/>
-      <c r="AK26" s="229"/>
-      <c r="AL26" s="229"/>
-      <c r="AM26" s="229"/>
-      <c r="AN26" s="229"/>
-      <c r="AO26" s="229"/>
-      <c r="AP26" s="229"/>
-      <c r="AQ26" s="229"/>
+      <c r="J26" s="230"/>
+      <c r="K26" s="230"/>
+      <c r="L26" s="230"/>
+      <c r="M26" s="230"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="230"/>
+      <c r="P26" s="230"/>
+      <c r="Q26" s="230"/>
+      <c r="R26" s="230"/>
+      <c r="S26" s="230"/>
+      <c r="T26" s="230"/>
+      <c r="U26" s="230"/>
+      <c r="V26" s="230"/>
+      <c r="W26" s="230"/>
+      <c r="X26" s="230"/>
+      <c r="Y26" s="230"/>
+      <c r="Z26" s="230"/>
+      <c r="AA26" s="230"/>
+      <c r="AB26" s="230"/>
+      <c r="AC26" s="230"/>
+      <c r="AD26" s="230"/>
+      <c r="AE26" s="230"/>
+      <c r="AF26" s="230"/>
+      <c r="AG26" s="230"/>
+      <c r="AH26" s="230"/>
+      <c r="AI26" s="230"/>
+      <c r="AJ26" s="230"/>
+      <c r="AK26" s="230"/>
+      <c r="AL26" s="230"/>
+      <c r="AM26" s="230"/>
+      <c r="AN26" s="230"/>
+      <c r="AO26" s="230"/>
+      <c r="AP26" s="230"/>
+      <c r="AQ26" s="230"/>
       <c r="AR26" s="16"/>
       <c r="AT26" s="71"/>
       <c r="AU26" s="127"/>
@@ -6992,20 +7013,20 @@
       <c r="G30" s="24"/>
       <c r="H30" s="15"/>
       <c r="I30" s="125"/>
-      <c r="J30" s="230" t="s">
+      <c r="J30" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="K30" s="230"/>
-      <c r="L30" s="230"/>
-      <c r="M30" s="230"/>
-      <c r="N30" s="230"/>
-      <c r="O30" s="230"/>
-      <c r="P30" s="230"/>
-      <c r="Q30" s="230"/>
-      <c r="R30" s="230"/>
-      <c r="S30" s="230"/>
-      <c r="T30" s="230"/>
-      <c r="U30" s="230"/>
+      <c r="K30" s="231"/>
+      <c r="L30" s="231"/>
+      <c r="M30" s="231"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="231"/>
+      <c r="P30" s="231"/>
+      <c r="Q30" s="231"/>
+      <c r="R30" s="231"/>
+      <c r="S30" s="231"/>
+      <c r="T30" s="231"/>
+      <c r="U30" s="231"/>
       <c r="V30" s="125"/>
       <c r="W30" s="125"/>
       <c r="X30" s="125"/>
@@ -8320,15 +8341,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="208"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="206"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="86" t="s">
@@ -8336,7 +8357,7 @@
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" s="87"/>
       <c r="F3" s="87"/>
@@ -8349,7 +8370,7 @@
       </c>
       <c r="C4" s="90"/>
       <c r="D4" s="91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -8854,14 +8875,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="222"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="214"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="8"/>
@@ -8904,12 +8925,12 @@
       <c r="AR1" s="16"/>
     </row>
     <row r="2" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="192"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="15"/>
@@ -8942,23 +8963,23 @@
       </c>
       <c r="AJ2" s="15"/>
       <c r="AK2" s="15"/>
-      <c r="AL2" s="209" t="s">
+      <c r="AL2" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="209"/>
-      <c r="AN2" s="209"/>
-      <c r="AO2" s="209"/>
-      <c r="AP2" s="209"/>
-      <c r="AQ2" s="209"/>
-      <c r="AR2" s="210"/>
+      <c r="AM2" s="221"/>
+      <c r="AN2" s="221"/>
+      <c r="AO2" s="221"/>
+      <c r="AP2" s="221"/>
+      <c r="AQ2" s="221"/>
+      <c r="AR2" s="222"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="15"/>
@@ -8989,21 +9010,21 @@
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
-      <c r="AL3" s="209"/>
-      <c r="AM3" s="209"/>
-      <c r="AN3" s="209"/>
-      <c r="AO3" s="209"/>
-      <c r="AP3" s="209"/>
-      <c r="AQ3" s="209"/>
-      <c r="AR3" s="210"/>
+      <c r="AL3" s="221"/>
+      <c r="AM3" s="221"/>
+      <c r="AN3" s="221"/>
+      <c r="AO3" s="221"/>
+      <c r="AP3" s="221"/>
+      <c r="AQ3" s="221"/>
+      <c r="AR3" s="222"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="192"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="15"/>
@@ -9033,21 +9054,21 @@
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
-      <c r="AL4" s="209"/>
-      <c r="AM4" s="209"/>
-      <c r="AN4" s="209"/>
-      <c r="AO4" s="209"/>
-      <c r="AP4" s="209"/>
-      <c r="AQ4" s="209"/>
-      <c r="AR4" s="210"/>
+      <c r="AL4" s="221"/>
+      <c r="AM4" s="221"/>
+      <c r="AN4" s="221"/>
+      <c r="AO4" s="221"/>
+      <c r="AP4" s="221"/>
+      <c r="AQ4" s="221"/>
+      <c r="AR4" s="222"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="21"/>
@@ -9078,13 +9099,13 @@
       <c r="AI5" s="21"/>
       <c r="AJ5" s="21"/>
       <c r="AK5" s="21"/>
-      <c r="AL5" s="211"/>
-      <c r="AM5" s="211"/>
-      <c r="AN5" s="211"/>
-      <c r="AO5" s="211"/>
-      <c r="AP5" s="211"/>
-      <c r="AQ5" s="211"/>
-      <c r="AR5" s="212"/>
+      <c r="AL5" s="223"/>
+      <c r="AM5" s="223"/>
+      <c r="AN5" s="223"/>
+      <c r="AO5" s="223"/>
+      <c r="AP5" s="223"/>
+      <c r="AQ5" s="223"/>
+      <c r="AR5" s="224"/>
     </row>
     <row r="6" spans="2:44" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
@@ -9132,51 +9153,51 @@
       <c r="AR6" s="16"/>
     </row>
     <row r="7" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="214"/>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="232"/>
-      <c r="S7" s="233"/>
-      <c r="T7" s="233"/>
-      <c r="U7" s="234"/>
-      <c r="V7" s="213"/>
-      <c r="W7" s="214"/>
-      <c r="X7" s="214"/>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="215"/>
-      <c r="AA7" s="213"/>
-      <c r="AB7" s="214"/>
-      <c r="AC7" s="214"/>
-      <c r="AD7" s="214"/>
-      <c r="AE7" s="214"/>
-      <c r="AF7" s="215"/>
-      <c r="AG7" s="213"/>
-      <c r="AH7" s="214"/>
-      <c r="AI7" s="214"/>
-      <c r="AJ7" s="214"/>
-      <c r="AK7" s="214"/>
-      <c r="AL7" s="215"/>
-      <c r="AM7" s="213"/>
-      <c r="AN7" s="214"/>
-      <c r="AO7" s="214"/>
-      <c r="AP7" s="214"/>
-      <c r="AQ7" s="214"/>
-      <c r="AR7" s="215"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="212"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="234"/>
+      <c r="T7" s="234"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="210"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="211"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="212"/>
+      <c r="AA7" s="210"/>
+      <c r="AB7" s="211"/>
+      <c r="AC7" s="211"/>
+      <c r="AD7" s="211"/>
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="212"/>
+      <c r="AG7" s="210"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="211"/>
+      <c r="AJ7" s="211"/>
+      <c r="AK7" s="211"/>
+      <c r="AL7" s="212"/>
+      <c r="AM7" s="210"/>
+      <c r="AN7" s="211"/>
+      <c r="AO7" s="211"/>
+      <c r="AP7" s="211"/>
+      <c r="AQ7" s="211"/>
+      <c r="AR7" s="212"/>
     </row>
     <row r="8" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
@@ -9190,30 +9211,30 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
-      <c r="O8" s="231"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="231"/>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="231"/>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="231"/>
-      <c r="AB8" s="231"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="231"/>
-      <c r="AF8" s="231"/>
-      <c r="AG8" s="231"/>
-      <c r="AH8" s="231"/>
-      <c r="AI8" s="231"/>
-      <c r="AJ8" s="231"/>
+      <c r="M8" s="232"/>
+      <c r="N8" s="232"/>
+      <c r="O8" s="232"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="232"/>
+      <c r="R8" s="232"/>
+      <c r="S8" s="232"/>
+      <c r="T8" s="232"/>
+      <c r="U8" s="232"/>
+      <c r="V8" s="232"/>
+      <c r="W8" s="232"/>
+      <c r="X8" s="232"/>
+      <c r="Y8" s="232"/>
+      <c r="Z8" s="232"/>
+      <c r="AA8" s="232"/>
+      <c r="AB8" s="232"/>
+      <c r="AC8" s="232"/>
+      <c r="AD8" s="232"/>
+      <c r="AE8" s="232"/>
+      <c r="AF8" s="232"/>
+      <c r="AG8" s="232"/>
+      <c r="AH8" s="232"/>
+      <c r="AI8" s="232"/>
+      <c r="AJ8" s="232"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15"/>
       <c r="AM8" s="15"/>
@@ -9237,32 +9258,32 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="217" t="s">
+      <c r="M9" s="226" t="s">
         <v>177</v>
       </c>
-      <c r="N9" s="217"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="217"/>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="217"/>
-      <c r="AE9" s="217"/>
-      <c r="AF9" s="217"/>
-      <c r="AG9" s="217"/>
-      <c r="AH9" s="217"/>
-      <c r="AI9" s="217"/>
-      <c r="AJ9" s="217"/>
+      <c r="N9" s="226"/>
+      <c r="O9" s="226"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="226"/>
+      <c r="S9" s="226"/>
+      <c r="T9" s="226"/>
+      <c r="U9" s="226"/>
+      <c r="V9" s="226"/>
+      <c r="W9" s="226"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="226"/>
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="226"/>
+      <c r="AC9" s="226"/>
+      <c r="AD9" s="226"/>
+      <c r="AE9" s="226"/>
+      <c r="AF9" s="226"/>
+      <c r="AG9" s="226"/>
+      <c r="AH9" s="226"/>
+      <c r="AI9" s="226"/>
+      <c r="AJ9" s="226"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
       <c r="AM9" s="15"/>
@@ -9971,41 +9992,41 @@
       <c r="B26" s="14"/>
       <c r="G26" s="24"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="229"/>
-      <c r="J26" s="229"/>
-      <c r="K26" s="229"/>
-      <c r="L26" s="229"/>
-      <c r="M26" s="229"/>
-      <c r="N26" s="229"/>
-      <c r="O26" s="229"/>
-      <c r="P26" s="229"/>
-      <c r="Q26" s="229"/>
-      <c r="R26" s="229"/>
-      <c r="S26" s="229"/>
-      <c r="T26" s="229"/>
-      <c r="U26" s="229"/>
-      <c r="V26" s="229"/>
-      <c r="W26" s="229"/>
-      <c r="X26" s="229"/>
-      <c r="Y26" s="229"/>
-      <c r="Z26" s="229"/>
-      <c r="AA26" s="229"/>
-      <c r="AB26" s="229"/>
-      <c r="AC26" s="229"/>
-      <c r="AD26" s="229"/>
-      <c r="AE26" s="229"/>
-      <c r="AF26" s="229"/>
-      <c r="AG26" s="229"/>
-      <c r="AH26" s="229"/>
-      <c r="AI26" s="229"/>
-      <c r="AJ26" s="229"/>
-      <c r="AK26" s="229"/>
-      <c r="AL26" s="229"/>
-      <c r="AM26" s="229"/>
-      <c r="AN26" s="229"/>
-      <c r="AO26" s="229"/>
-      <c r="AP26" s="229"/>
-      <c r="AQ26" s="229"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="230"/>
+      <c r="K26" s="230"/>
+      <c r="L26" s="230"/>
+      <c r="M26" s="230"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="230"/>
+      <c r="P26" s="230"/>
+      <c r="Q26" s="230"/>
+      <c r="R26" s="230"/>
+      <c r="S26" s="230"/>
+      <c r="T26" s="230"/>
+      <c r="U26" s="230"/>
+      <c r="V26" s="230"/>
+      <c r="W26" s="230"/>
+      <c r="X26" s="230"/>
+      <c r="Y26" s="230"/>
+      <c r="Z26" s="230"/>
+      <c r="AA26" s="230"/>
+      <c r="AB26" s="230"/>
+      <c r="AC26" s="230"/>
+      <c r="AD26" s="230"/>
+      <c r="AE26" s="230"/>
+      <c r="AF26" s="230"/>
+      <c r="AG26" s="230"/>
+      <c r="AH26" s="230"/>
+      <c r="AI26" s="230"/>
+      <c r="AJ26" s="230"/>
+      <c r="AK26" s="230"/>
+      <c r="AL26" s="230"/>
+      <c r="AM26" s="230"/>
+      <c r="AN26" s="230"/>
+      <c r="AO26" s="230"/>
+      <c r="AP26" s="230"/>
+      <c r="AQ26" s="230"/>
       <c r="AR26" s="16"/>
       <c r="AT26" s="71"/>
       <c r="AU26" s="127"/>
@@ -10186,20 +10207,20 @@
       <c r="G30" s="24"/>
       <c r="H30" s="15"/>
       <c r="I30" s="125"/>
-      <c r="J30" s="230" t="s">
+      <c r="J30" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="K30" s="230"/>
-      <c r="L30" s="230"/>
-      <c r="M30" s="230"/>
-      <c r="N30" s="230"/>
-      <c r="O30" s="230"/>
-      <c r="P30" s="230"/>
-      <c r="Q30" s="230"/>
-      <c r="R30" s="230"/>
-      <c r="S30" s="230"/>
-      <c r="T30" s="230"/>
-      <c r="U30" s="230"/>
+      <c r="K30" s="231"/>
+      <c r="L30" s="231"/>
+      <c r="M30" s="231"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="231"/>
+      <c r="P30" s="231"/>
+      <c r="Q30" s="231"/>
+      <c r="R30" s="231"/>
+      <c r="S30" s="231"/>
+      <c r="T30" s="231"/>
+      <c r="U30" s="231"/>
       <c r="V30" s="125"/>
       <c r="W30" s="125"/>
       <c r="X30" s="125"/>
@@ -11764,62 +11785,62 @@
       <c r="AO6" s="16"/>
     </row>
     <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="213" t="s">
+      <c r="C7" s="212"/>
+      <c r="D7" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="213" t="s">
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="210" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="218" t="s">
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="219"/>
-      <c r="Q7" s="219"/>
-      <c r="R7" s="220"/>
-      <c r="S7" s="213" t="s">
+      <c r="P7" s="228"/>
+      <c r="Q7" s="228"/>
+      <c r="R7" s="229"/>
+      <c r="S7" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T7" s="214"/>
-      <c r="U7" s="214"/>
-      <c r="V7" s="214"/>
-      <c r="W7" s="215"/>
-      <c r="X7" s="213" t="s">
+      <c r="T7" s="211"/>
+      <c r="U7" s="211"/>
+      <c r="V7" s="211"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="214"/>
-      <c r="AA7" s="214"/>
-      <c r="AB7" s="214"/>
-      <c r="AC7" s="215"/>
-      <c r="AD7" s="213" t="s">
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="211"/>
+      <c r="AA7" s="211"/>
+      <c r="AB7" s="211"/>
+      <c r="AC7" s="212"/>
+      <c r="AD7" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="AE7" s="214"/>
-      <c r="AF7" s="214"/>
-      <c r="AG7" s="214"/>
-      <c r="AH7" s="214"/>
-      <c r="AI7" s="215"/>
-      <c r="AJ7" s="213" t="s">
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="211"/>
+      <c r="AG7" s="211"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="212"/>
+      <c r="AJ7" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="AK7" s="214"/>
-      <c r="AL7" s="214"/>
-      <c r="AM7" s="214"/>
-      <c r="AN7" s="214"/>
-      <c r="AO7" s="215"/>
+      <c r="AK7" s="211"/>
+      <c r="AL7" s="211"/>
+      <c r="AM7" s="211"/>
+      <c r="AN7" s="211"/>
+      <c r="AO7" s="212"/>
     </row>
     <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
@@ -11995,20 +12016,20 @@
       <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="241"/>
-      <c r="I12" s="242"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="242"/>
-      <c r="M12" s="242"/>
-      <c r="N12" s="242"/>
-      <c r="O12" s="242"/>
-      <c r="P12" s="242"/>
-      <c r="Q12" s="242"/>
-      <c r="R12" s="242"/>
-      <c r="S12" s="242"/>
-      <c r="T12" s="242"/>
-      <c r="U12" s="243"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="243"/>
+      <c r="K12" s="243"/>
+      <c r="L12" s="243"/>
+      <c r="M12" s="243"/>
+      <c r="N12" s="243"/>
+      <c r="O12" s="243"/>
+      <c r="P12" s="243"/>
+      <c r="Q12" s="243"/>
+      <c r="R12" s="243"/>
+      <c r="S12" s="243"/>
+      <c r="T12" s="243"/>
+      <c r="U12" s="244"/>
       <c r="V12" s="65"/>
       <c r="W12" s="65"/>
       <c r="X12" s="65"/>
@@ -12031,20 +12052,20 @@
     </row>
     <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="245"/>
-      <c r="J13" s="245"/>
-      <c r="K13" s="245"/>
-      <c r="L13" s="245"/>
-      <c r="M13" s="245"/>
-      <c r="N13" s="245"/>
-      <c r="O13" s="245"/>
-      <c r="P13" s="245"/>
-      <c r="Q13" s="245"/>
-      <c r="R13" s="245"/>
-      <c r="S13" s="245"/>
-      <c r="T13" s="245"/>
-      <c r="U13" s="246"/>
+      <c r="H13" s="245"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="246"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="246"/>
+      <c r="M13" s="246"/>
+      <c r="N13" s="246"/>
+      <c r="O13" s="246"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="246"/>
+      <c r="R13" s="246"/>
+      <c r="S13" s="246"/>
+      <c r="T13" s="246"/>
+      <c r="U13" s="247"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
@@ -12070,20 +12091,20 @@
       <c r="C14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="241"/>
-      <c r="I14" s="242"/>
-      <c r="J14" s="242"/>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
-      <c r="M14" s="242"/>
-      <c r="N14" s="242"/>
-      <c r="O14" s="242"/>
-      <c r="P14" s="242"/>
-      <c r="Q14" s="242"/>
-      <c r="R14" s="242"/>
-      <c r="S14" s="242"/>
-      <c r="T14" s="242"/>
-      <c r="U14" s="243"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="243"/>
+      <c r="M14" s="243"/>
+      <c r="N14" s="243"/>
+      <c r="O14" s="243"/>
+      <c r="P14" s="243"/>
+      <c r="Q14" s="243"/>
+      <c r="R14" s="243"/>
+      <c r="S14" s="243"/>
+      <c r="T14" s="243"/>
+      <c r="U14" s="244"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
@@ -12106,20 +12127,20 @@
     </row>
     <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="193"/>
-      <c r="M15" s="193"/>
-      <c r="N15" s="193"/>
-      <c r="O15" s="193"/>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="193"/>
-      <c r="R15" s="193"/>
-      <c r="S15" s="193"/>
-      <c r="T15" s="193"/>
-      <c r="U15" s="248"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="184"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="249"/>
       <c r="V15" s="65"/>
       <c r="W15" s="65"/>
       <c r="X15" s="65"/>
@@ -12142,20 +12163,20 @@
     </row>
     <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="245"/>
-      <c r="J16" s="245"/>
-      <c r="K16" s="245"/>
-      <c r="L16" s="245"/>
-      <c r="M16" s="245"/>
-      <c r="N16" s="245"/>
-      <c r="O16" s="245"/>
-      <c r="P16" s="245"/>
-      <c r="Q16" s="245"/>
-      <c r="R16" s="245"/>
-      <c r="S16" s="245"/>
-      <c r="T16" s="245"/>
-      <c r="U16" s="246"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="246"/>
+      <c r="K16" s="246"/>
+      <c r="L16" s="246"/>
+      <c r="M16" s="246"/>
+      <c r="N16" s="246"/>
+      <c r="O16" s="246"/>
+      <c r="P16" s="246"/>
+      <c r="Q16" s="246"/>
+      <c r="R16" s="246"/>
+      <c r="S16" s="246"/>
+      <c r="T16" s="246"/>
+      <c r="U16" s="247"/>
       <c r="V16" s="65"/>
       <c r="W16" s="65"/>
       <c r="X16" s="65"/>
@@ -12221,12 +12242,12 @@
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
-      <c r="K18" s="235" t="s">
+      <c r="K18" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="236"/>
-      <c r="M18" s="236"/>
-      <c r="N18" s="237"/>
+      <c r="L18" s="237"/>
+      <c r="M18" s="237"/>
+      <c r="N18" s="238"/>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
       <c r="Q18" s="68"/>
@@ -12265,10 +12286,10 @@
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="239"/>
-      <c r="M19" s="239"/>
-      <c r="N19" s="240"/>
+      <c r="K19" s="239"/>
+      <c r="L19" s="240"/>
+      <c r="M19" s="240"/>
+      <c r="N19" s="241"/>
       <c r="O19" s="68"/>
       <c r="P19" s="68"/>
       <c r="Q19" s="68"/>
@@ -13856,10 +13877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AS62"/>
+  <dimension ref="B1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13868,14 +13889,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="194"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -13912,12 +13933,12 @@
       <c r="AO1" s="16"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="192"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -13931,7 +13952,7 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
@@ -13956,12 +13977,12 @@
       <c r="AO2" s="16"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -13998,12 +14019,12 @@
       <c r="AO3" s="16"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="192"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -14033,19 +14054,19 @@
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
-      <c r="AK4" s="198"/>
-      <c r="AL4" s="198"/>
-      <c r="AM4" s="198"/>
-      <c r="AN4" s="198"/>
+      <c r="AK4" s="199"/>
+      <c r="AL4" s="199"/>
+      <c r="AM4" s="199"/>
+      <c r="AN4" s="199"/>
       <c r="AO4" s="16"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -14180,24 +14201,24 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="202" t="s">
-        <v>189</v>
-      </c>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="202"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="202"/>
-      <c r="W8" s="202"/>
-      <c r="X8" s="202"/>
-      <c r="Y8" s="202"/>
-      <c r="Z8" s="202"/>
-      <c r="AA8" s="202"/>
-      <c r="AB8" s="202"/>
-      <c r="AC8" s="202"/>
+      <c r="N8" s="203" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="203"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
       <c r="AF8" s="15"/>
@@ -14267,7 +14288,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O10" s="15"/>
       <c r="P10" s="178"/>
@@ -14470,24 +14491,24 @@
       <c r="K15" s="71"/>
       <c r="L15" s="71"/>
       <c r="M15" s="71"/>
-      <c r="N15" s="199" t="s">
+      <c r="N15" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="O15" s="200"/>
-      <c r="P15" s="200"/>
-      <c r="Q15" s="200"/>
-      <c r="R15" s="200"/>
-      <c r="S15" s="200"/>
-      <c r="T15" s="200"/>
-      <c r="U15" s="200"/>
-      <c r="V15" s="200"/>
-      <c r="W15" s="200"/>
-      <c r="X15" s="200"/>
-      <c r="Y15" s="200"/>
-      <c r="Z15" s="200"/>
-      <c r="AA15" s="200"/>
-      <c r="AB15" s="200"/>
-      <c r="AC15" s="201"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="201"/>
+      <c r="Q15" s="201"/>
+      <c r="R15" s="201"/>
+      <c r="S15" s="201"/>
+      <c r="T15" s="201"/>
+      <c r="U15" s="201"/>
+      <c r="V15" s="201"/>
+      <c r="W15" s="201"/>
+      <c r="X15" s="201"/>
+      <c r="Y15" s="201"/>
+      <c r="Z15" s="201"/>
+      <c r="AA15" s="201"/>
+      <c r="AB15" s="201"/>
+      <c r="AC15" s="202"/>
       <c r="AD15" s="71"/>
       <c r="AE15" s="71"/>
       <c r="AF15" s="71"/>
@@ -14541,7 +14562,7 @@
       <c r="L17" s="71"/>
       <c r="M17" s="71"/>
       <c r="N17" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O17" s="71"/>
       <c r="P17" s="71"/>
@@ -14584,24 +14605,24 @@
       <c r="K18" s="71"/>
       <c r="L18" s="71"/>
       <c r="M18" s="71"/>
-      <c r="N18" s="199" t="s">
+      <c r="N18" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="200"/>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="200"/>
-      <c r="R18" s="200"/>
-      <c r="S18" s="200"/>
-      <c r="T18" s="200"/>
-      <c r="U18" s="200"/>
-      <c r="V18" s="200"/>
-      <c r="W18" s="200"/>
-      <c r="X18" s="200"/>
-      <c r="Y18" s="200"/>
-      <c r="Z18" s="200"/>
-      <c r="AA18" s="200"/>
-      <c r="AB18" s="200"/>
-      <c r="AC18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="201"/>
+      <c r="T18" s="201"/>
+      <c r="U18" s="201"/>
+      <c r="V18" s="201"/>
+      <c r="W18" s="201"/>
+      <c r="X18" s="201"/>
+      <c r="Y18" s="201"/>
+      <c r="Z18" s="201"/>
+      <c r="AA18" s="201"/>
+      <c r="AB18" s="201"/>
+      <c r="AC18" s="202"/>
       <c r="AD18" s="71"/>
       <c r="AE18" s="71"/>
       <c r="AF18" s="71"/>
@@ -14684,7 +14705,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="71"/>
       <c r="N21" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD21" s="71"/>
       <c r="AE21" s="71"/>
@@ -14712,25 +14733,25 @@
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
-      <c r="N22" s="182" t="s">
+      <c r="N22" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="183"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="184"/>
-      <c r="U22" s="182" t="s">
+      <c r="O22" s="190"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="190"/>
+      <c r="R22" s="190"/>
+      <c r="S22" s="191"/>
+      <c r="U22" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="184"/>
+      <c r="V22" s="190"/>
+      <c r="W22" s="190"/>
+      <c r="X22" s="190"/>
+      <c r="Y22" s="190"/>
+      <c r="Z22" s="190"/>
+      <c r="AA22" s="190"/>
+      <c r="AB22" s="190"/>
+      <c r="AC22" s="191"/>
       <c r="AD22" s="71"/>
       <c r="AE22" s="71"/>
       <c r="AF22" s="71"/>
@@ -14784,7 +14805,7 @@
       <c r="L24" s="71"/>
       <c r="M24" s="71"/>
       <c r="N24" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD24" s="71"/>
       <c r="AE24" s="71"/>
@@ -14812,12 +14833,12 @@
       <c r="K25" s="71"/>
       <c r="L25" s="71"/>
       <c r="M25" s="71"/>
-      <c r="N25" s="185"/>
-      <c r="O25" s="185"/>
-      <c r="P25" s="185"/>
-      <c r="Q25" s="185"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
+      <c r="N25" s="192"/>
+      <c r="O25" s="192"/>
+      <c r="P25" s="192"/>
+      <c r="Q25" s="192"/>
+      <c r="R25" s="192"/>
+      <c r="S25" s="192"/>
       <c r="AD25" s="71"/>
       <c r="AE25" s="71"/>
       <c r="AF25" s="71"/>
@@ -14871,7 +14892,7 @@
       <c r="L27" s="71"/>
       <c r="M27" s="71"/>
       <c r="N27" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD27" s="71"/>
       <c r="AE27" s="71"/>
@@ -14981,10 +15002,7 @@
       <c r="L31" s="71"/>
       <c r="M31" s="71"/>
       <c r="N31" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y31" s="10" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AD31" s="71"/>
       <c r="AE31" s="71"/>
@@ -15012,20 +15030,20 @@
       <c r="K32" s="71"/>
       <c r="L32" s="71"/>
       <c r="M32" s="71"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="187"/>
-      <c r="P32" s="187"/>
-      <c r="Q32" s="187"/>
-      <c r="R32" s="187"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="188"/>
-      <c r="Y32" s="189"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="190"/>
-      <c r="AB32" s="190"/>
-      <c r="AC32" s="191"/>
+      <c r="N32" s="189" t="s">
+        <v>215</v>
+      </c>
+      <c r="O32" s="190"/>
+      <c r="P32" s="190"/>
+      <c r="Q32" s="190"/>
+      <c r="R32" s="190"/>
+      <c r="S32" s="190"/>
+      <c r="T32" s="190"/>
+      <c r="U32" s="190"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="AD32" s="71"/>
       <c r="AE32" s="71"/>
       <c r="AF32" s="71"/>
@@ -15053,10 +15071,10 @@
       <c r="L33" s="71"/>
       <c r="M33" s="71"/>
       <c r="N33" s="34" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AD33" s="71"/>
       <c r="AE33" s="71"/>
@@ -15084,25 +15102,20 @@
       <c r="K34" s="71"/>
       <c r="L34" s="71"/>
       <c r="M34" s="71"/>
-      <c r="N34" s="182" t="s">
-        <v>199</v>
-      </c>
-      <c r="O34" s="183"/>
-      <c r="P34" s="183"/>
-      <c r="Q34" s="183"/>
-      <c r="R34" s="184"/>
-      <c r="T34" s="182" t="s">
-        <v>198</v>
-      </c>
-      <c r="U34" s="183"/>
-      <c r="V34" s="184"/>
-      <c r="Y34" s="182">
-        <v>123</v>
-      </c>
-      <c r="Z34" s="183"/>
-      <c r="AA34" s="183"/>
-      <c r="AB34" s="183"/>
-      <c r="AC34" s="184"/>
+      <c r="N34" s="193"/>
+      <c r="O34" s="194"/>
+      <c r="P34" s="194"/>
+      <c r="Q34" s="194"/>
+      <c r="R34" s="194"/>
+      <c r="S34" s="194"/>
+      <c r="T34" s="194"/>
+      <c r="U34" s="194"/>
+      <c r="V34" s="195"/>
+      <c r="Y34" s="196"/>
+      <c r="Z34" s="197"/>
+      <c r="AA34" s="197"/>
+      <c r="AB34" s="197"/>
+      <c r="AC34" s="198"/>
       <c r="AD34" s="71"/>
       <c r="AE34" s="71"/>
       <c r="AF34" s="71"/>
@@ -15116,7 +15129,7 @@
       <c r="AN34" s="71"/>
       <c r="AO34" s="16"/>
     </row>
-    <row r="35" spans="2:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
       <c r="D35" s="71"/>
@@ -15129,22 +15142,12 @@
       <c r="K35" s="71"/>
       <c r="L35" s="71"/>
       <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
+      <c r="N35" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y35" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="AD35" s="71"/>
       <c r="AE35" s="71"/>
       <c r="AF35" s="71"/>
@@ -15158,7 +15161,7 @@
       <c r="AN35" s="71"/>
       <c r="AO35" s="16"/>
     </row>
-    <row r="36" spans="2:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="70"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
@@ -15171,24 +15174,25 @@
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
-      <c r="N36" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
+      <c r="N36" s="189" t="s">
+        <v>198</v>
+      </c>
+      <c r="O36" s="190"/>
+      <c r="P36" s="190"/>
+      <c r="Q36" s="190"/>
+      <c r="R36" s="191"/>
+      <c r="T36" s="189" t="s">
+        <v>197</v>
+      </c>
+      <c r="U36" s="190"/>
+      <c r="V36" s="191"/>
+      <c r="Y36" s="189">
+        <v>123</v>
+      </c>
+      <c r="Z36" s="190"/>
+      <c r="AA36" s="190"/>
+      <c r="AB36" s="190"/>
+      <c r="AC36" s="191"/>
       <c r="AD36" s="71"/>
       <c r="AE36" s="71"/>
       <c r="AF36" s="71"/>
@@ -15215,7 +15219,7 @@
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
       <c r="M37" s="71"/>
-      <c r="N37" s="72"/>
+      <c r="N37" s="71"/>
       <c r="O37" s="71"/>
       <c r="P37" s="71"/>
       <c r="Q37" s="71"/>
@@ -15244,7 +15248,7 @@
       <c r="AN37" s="71"/>
       <c r="AO37" s="16"/>
     </row>
-    <row r="38" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="70"/>
       <c r="C38" s="71"/>
       <c r="D38" s="71"/>
@@ -15257,7 +15261,9 @@
       <c r="K38" s="71"/>
       <c r="L38" s="71"/>
       <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
+      <c r="N38" s="72" t="s">
+        <v>199</v>
+      </c>
       <c r="O38" s="71"/>
       <c r="P38" s="71"/>
       <c r="Q38" s="71"/>
@@ -15286,7 +15292,7 @@
       <c r="AN38" s="71"/>
       <c r="AO38" s="16"/>
     </row>
-    <row r="39" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="70"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -15299,11 +15305,12 @@
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
       <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
+      <c r="N39" s="72"/>
       <c r="O39" s="71"/>
       <c r="P39" s="71"/>
       <c r="Q39" s="71"/>
       <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
       <c r="T39" s="71"/>
       <c r="U39" s="71"/>
       <c r="V39" s="71"/>
@@ -15342,12 +15349,10 @@
       <c r="M40" s="71"/>
       <c r="N40" s="71"/>
       <c r="O40" s="71"/>
-      <c r="P40" s="71" t="s">
-        <v>202</v>
-      </c>
+      <c r="P40" s="71"/>
       <c r="Q40" s="71"/>
       <c r="R40" s="71"/>
-      <c r="S40" s="75"/>
+      <c r="S40" s="71"/>
       <c r="T40" s="71"/>
       <c r="U40" s="71"/>
       <c r="V40" s="71"/>
@@ -15389,7 +15394,6 @@
       <c r="P41" s="71"/>
       <c r="Q41" s="71"/>
       <c r="R41" s="71"/>
-      <c r="S41" s="75"/>
       <c r="T41" s="71"/>
       <c r="U41" s="71"/>
       <c r="V41" s="71"/>
@@ -15426,24 +15430,24 @@
       <c r="K42" s="71"/>
       <c r="L42" s="71"/>
       <c r="M42" s="71"/>
-      <c r="N42" s="185" t="s">
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="O42" s="185"/>
-      <c r="P42" s="185"/>
-      <c r="Q42" s="185"/>
-      <c r="R42" s="185"/>
-      <c r="S42" s="185"/>
-      <c r="T42" s="185"/>
-      <c r="U42" s="185"/>
-      <c r="V42" s="185"/>
-      <c r="W42" s="185"/>
-      <c r="X42" s="185"/>
-      <c r="Y42" s="185"/>
-      <c r="Z42" s="185"/>
-      <c r="AA42" s="185"/>
-      <c r="AB42" s="185"/>
-      <c r="AC42" s="185"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
       <c r="AD42" s="71"/>
       <c r="AE42" s="71"/>
       <c r="AF42" s="71"/>
@@ -15473,13 +15477,12 @@
       <c r="N43" s="71"/>
       <c r="O43" s="71"/>
       <c r="P43" s="71"/>
-      <c r="Q43" s="180" t="s">
-        <v>197</v>
-      </c>
+      <c r="Q43" s="71"/>
       <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
+      <c r="S43" s="75"/>
       <c r="T43" s="71"/>
-      <c r="U43" s="75"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
       <c r="W43" s="71"/>
       <c r="X43" s="71"/>
       <c r="Y43" s="71"/>
@@ -15513,22 +15516,24 @@
       <c r="K44" s="71"/>
       <c r="L44" s="71"/>
       <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="71"/>
+      <c r="N44" s="192" t="s">
+        <v>200</v>
+      </c>
+      <c r="O44" s="192"/>
+      <c r="P44" s="192"/>
+      <c r="Q44" s="192"/>
+      <c r="R44" s="192"/>
+      <c r="S44" s="192"/>
+      <c r="T44" s="192"/>
+      <c r="U44" s="192"/>
+      <c r="V44" s="192"/>
+      <c r="W44" s="192"/>
+      <c r="X44" s="192"/>
+      <c r="Y44" s="192"/>
+      <c r="Z44" s="192"/>
+      <c r="AA44" s="192"/>
+      <c r="AB44" s="192"/>
+      <c r="AC44" s="192"/>
       <c r="AD44" s="71"/>
       <c r="AE44" s="71"/>
       <c r="AF44" s="71"/>
@@ -15543,348 +15548,343 @@
       <c r="AO44" s="16"/>
     </row>
     <row r="45" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="74"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
-      <c r="AG45" s="25"/>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="25"/>
-      <c r="AJ45" s="25"/>
-      <c r="AK45" s="25"/>
-      <c r="AL45" s="25"/>
-      <c r="AM45" s="25"/>
-      <c r="AN45" s="25"/>
-      <c r="AO45" s="73"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="180" t="s">
+        <v>196</v>
+      </c>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="75"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="71"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="71"/>
+      <c r="AF45" s="71"/>
+      <c r="AG45" s="71"/>
+      <c r="AH45" s="71"/>
+      <c r="AI45" s="71"/>
+      <c r="AJ45" s="71"/>
+      <c r="AK45" s="71"/>
+      <c r="AL45" s="71"/>
+      <c r="AM45" s="71"/>
+      <c r="AN45" s="71"/>
+      <c r="AO45" s="16"/>
     </row>
     <row r="46" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="70"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="71"/>
+      <c r="AA46" s="71"/>
+      <c r="AB46" s="71"/>
+      <c r="AC46" s="71"/>
+      <c r="AD46" s="71"/>
+      <c r="AE46" s="71"/>
+      <c r="AF46" s="71"/>
+      <c r="AG46" s="71"/>
+      <c r="AH46" s="71"/>
+      <c r="AI46" s="71"/>
+      <c r="AJ46" s="71"/>
+      <c r="AK46" s="71"/>
+      <c r="AL46" s="71"/>
+      <c r="AM46" s="71"/>
+      <c r="AN46" s="71"/>
+      <c r="AO46" s="16"/>
+    </row>
+    <row r="47" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="74"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="25"/>
+      <c r="AK47" s="25"/>
+      <c r="AL47" s="25"/>
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="25"/>
+      <c r="AO47" s="73"/>
+    </row>
+    <row r="48" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="15"/>
-      <c r="AI46" s="15"/>
-      <c r="AJ46" s="15"/>
-      <c r="AK46" s="15"/>
-      <c r="AL46" s="15"/>
-      <c r="AM46" s="15"/>
-      <c r="AN46" s="15"/>
-      <c r="AO46" s="16"/>
-    </row>
-    <row r="47" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="15"/>
+      <c r="AN48" s="15"/>
+      <c r="AO48" s="16"/>
+    </row>
+    <row r="49" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="30" t="s">
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="32"/>
-      <c r="AF47" s="30" t="s">
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="32"/>
+      <c r="AF49" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="32"/>
-      <c r="AK47" s="30" t="s">
+      <c r="AG49" s="31"/>
+      <c r="AH49" s="31"/>
+      <c r="AI49" s="32"/>
+      <c r="AK49" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AL47" s="31"/>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="32"/>
-      <c r="AO47" s="16"/>
-    </row>
-    <row r="48" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="20" t="s">
+      <c r="AL49" s="31"/>
+      <c r="AM49" s="31"/>
+      <c r="AN49" s="32"/>
+      <c r="AO49" s="16"/>
+    </row>
+    <row r="50" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
-      <c r="AB48" s="21"/>
-      <c r="AC48" s="21"/>
-      <c r="AD48" s="21"/>
-      <c r="AE48" s="21"/>
-      <c r="AF48" s="21"/>
-      <c r="AG48" s="21"/>
-      <c r="AH48" s="21"/>
-      <c r="AI48" s="21"/>
-      <c r="AJ48" s="21"/>
-      <c r="AK48" s="21"/>
-      <c r="AL48" s="21"/>
-      <c r="AM48" s="21"/>
-      <c r="AN48" s="21"/>
-      <c r="AO48" s="22"/>
-    </row>
-    <row r="51" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="34" t="s">
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="21"/>
+      <c r="AD50" s="21"/>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="21"/>
+      <c r="AI50" s="21"/>
+      <c r="AJ50" s="21"/>
+      <c r="AK50" s="21"/>
+      <c r="AL50" s="21"/>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="21"/>
+      <c r="AO50" s="22"/>
+    </row>
+    <row r="53" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="140"/>
-      <c r="AF51" s="140"/>
-      <c r="AG51" s="140"/>
-      <c r="AH51" s="140"/>
-      <c r="AI51" s="140"/>
-      <c r="AJ51" s="140"/>
-      <c r="AK51" s="140"/>
-      <c r="AL51" s="140"/>
-      <c r="AM51" s="140"/>
-      <c r="AN51" s="140"/>
-      <c r="AO51" s="140"/>
-      <c r="AP51" s="140"/>
-      <c r="AQ51" s="139"/>
-      <c r="AR51" s="71"/>
-      <c r="AS51" s="71"/>
-    </row>
-    <row r="52" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="147">
+      <c r="C53" s="21"/>
+      <c r="AD53" s="71"/>
+      <c r="AE53" s="140"/>
+      <c r="AF53" s="140"/>
+      <c r="AG53" s="140"/>
+      <c r="AH53" s="140"/>
+      <c r="AI53" s="140"/>
+      <c r="AJ53" s="140"/>
+      <c r="AK53" s="140"/>
+      <c r="AL53" s="140"/>
+      <c r="AM53" s="140"/>
+      <c r="AN53" s="140"/>
+      <c r="AO53" s="140"/>
+      <c r="AP53" s="140"/>
+      <c r="AQ53" s="139"/>
+      <c r="AR53" s="71"/>
+      <c r="AS53" s="71"/>
+    </row>
+    <row r="54" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="147">
         <v>1</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="141"/>
-      <c r="AE52" s="142"/>
-      <c r="AF52" s="142"/>
-      <c r="AG52" s="142"/>
-      <c r="AH52" s="142"/>
-      <c r="AI52" s="142"/>
-      <c r="AJ52" s="142"/>
-      <c r="AK52" s="142"/>
-      <c r="AL52" s="142"/>
-      <c r="AM52" s="142"/>
-      <c r="AN52" s="142"/>
-      <c r="AO52" s="142"/>
-      <c r="AP52" s="142"/>
-      <c r="AQ52" s="142"/>
-      <c r="AR52" s="143"/>
-      <c r="AS52" s="71"/>
-    </row>
-    <row r="53" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="148"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="36"/>
-      <c r="AA53" s="36"/>
-      <c r="AB53" s="36"/>
-      <c r="AC53" s="36"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="38"/>
-      <c r="AF53" s="38"/>
-      <c r="AG53" s="38"/>
-      <c r="AH53" s="38"/>
-      <c r="AI53" s="38"/>
-      <c r="AJ53" s="38"/>
-      <c r="AK53" s="38"/>
-      <c r="AL53" s="38"/>
-      <c r="AM53" s="38"/>
-      <c r="AN53" s="38"/>
-      <c r="AO53" s="38"/>
-      <c r="AP53" s="38"/>
-      <c r="AQ53" s="38"/>
-      <c r="AR53" s="144"/>
-      <c r="AS53" s="36"/>
-    </row>
-    <row r="54" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="149"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="36"/>
-      <c r="AB54" s="36"/>
-      <c r="AC54" s="36"/>
-      <c r="AD54" s="36"/>
-      <c r="AE54" s="38"/>
-      <c r="AF54" s="38"/>
-      <c r="AG54" s="38"/>
-      <c r="AH54" s="38"/>
-      <c r="AI54" s="38"/>
-      <c r="AJ54" s="38"/>
-      <c r="AK54" s="38"/>
-      <c r="AL54" s="38"/>
-      <c r="AM54" s="38"/>
-      <c r="AN54" s="38"/>
-      <c r="AO54" s="38"/>
-      <c r="AP54" s="38"/>
-      <c r="AQ54" s="38"/>
-      <c r="AR54" s="144"/>
-      <c r="AS54" s="36"/>
+      <c r="C54" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="141"/>
+      <c r="AE54" s="142"/>
+      <c r="AF54" s="142"/>
+      <c r="AG54" s="142"/>
+      <c r="AH54" s="142"/>
+      <c r="AI54" s="142"/>
+      <c r="AJ54" s="142"/>
+      <c r="AK54" s="142"/>
+      <c r="AL54" s="142"/>
+      <c r="AM54" s="142"/>
+      <c r="AN54" s="142"/>
+      <c r="AO54" s="142"/>
+      <c r="AP54" s="142"/>
+      <c r="AQ54" s="142"/>
+      <c r="AR54" s="143"/>
+      <c r="AS54" s="71"/>
     </row>
     <row r="55" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="150"/>
-      <c r="C55" s="37"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
@@ -15929,8 +15929,8 @@
       <c r="AS55" s="36"/>
     </row>
     <row r="56" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="150"/>
-      <c r="C56" s="36"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="152"/>
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
@@ -15976,7 +15976,7 @@
     </row>
     <row r="57" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="150"/>
-      <c r="C57" s="36"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
@@ -16051,17 +16051,17 @@
       <c r="AC58" s="36"/>
       <c r="AD58" s="36"/>
       <c r="AE58" s="38"/>
-      <c r="AF58" s="71"/>
-      <c r="AG58" s="140"/>
-      <c r="AH58" s="140"/>
-      <c r="AI58" s="140"/>
-      <c r="AJ58" s="140"/>
+      <c r="AF58" s="38"/>
+      <c r="AG58" s="38"/>
+      <c r="AH58" s="38"/>
+      <c r="AI58" s="38"/>
+      <c r="AJ58" s="38"/>
       <c r="AK58" s="38"/>
       <c r="AL58" s="38"/>
-      <c r="AM58" s="140"/>
-      <c r="AN58" s="140"/>
-      <c r="AO58" s="140"/>
-      <c r="AP58" s="71"/>
+      <c r="AM58" s="38"/>
+      <c r="AN58" s="38"/>
+      <c r="AO58" s="38"/>
+      <c r="AP58" s="38"/>
       <c r="AQ58" s="38"/>
       <c r="AR58" s="144"/>
       <c r="AS58" s="36"/>
@@ -16142,69 +16142,70 @@
       <c r="AB60" s="36"/>
       <c r="AC60" s="36"/>
       <c r="AD60" s="36"/>
-      <c r="AE60" s="36"/>
-      <c r="AF60" s="36"/>
-      <c r="AG60" s="36"/>
-      <c r="AH60" s="36"/>
-      <c r="AI60" s="36"/>
-      <c r="AJ60" s="36"/>
-      <c r="AK60" s="36"/>
-      <c r="AL60" s="36"/>
-      <c r="AM60" s="36"/>
-      <c r="AN60" s="36"/>
-      <c r="AO60" s="36"/>
-      <c r="AP60" s="36"/>
-      <c r="AQ60" s="36"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="71"/>
+      <c r="AG60" s="140"/>
+      <c r="AH60" s="140"/>
+      <c r="AI60" s="140"/>
+      <c r="AJ60" s="140"/>
+      <c r="AK60" s="38"/>
+      <c r="AL60" s="38"/>
+      <c r="AM60" s="140"/>
+      <c r="AN60" s="140"/>
+      <c r="AO60" s="140"/>
+      <c r="AP60" s="71"/>
+      <c r="AQ60" s="38"/>
       <c r="AR60" s="144"/>
-      <c r="AS60" s="71"/>
-    </row>
-    <row r="61" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="151"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="145"/>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="145"/>
-      <c r="K61" s="145"/>
-      <c r="L61" s="145"/>
-      <c r="M61" s="145"/>
-      <c r="N61" s="145"/>
-      <c r="O61" s="145"/>
-      <c r="P61" s="145"/>
-      <c r="Q61" s="145"/>
-      <c r="R61" s="145"/>
-      <c r="S61" s="145"/>
-      <c r="T61" s="145"/>
-      <c r="U61" s="145"/>
-      <c r="V61" s="145"/>
-      <c r="W61" s="145"/>
-      <c r="X61" s="145"/>
-      <c r="Y61" s="145"/>
-      <c r="Z61" s="145"/>
-      <c r="AA61" s="145"/>
-      <c r="AB61" s="145"/>
-      <c r="AC61" s="145"/>
-      <c r="AD61" s="145"/>
-      <c r="AE61" s="145"/>
-      <c r="AF61" s="145"/>
-      <c r="AG61" s="145"/>
-      <c r="AH61" s="145"/>
-      <c r="AI61" s="145"/>
-      <c r="AJ61" s="145"/>
-      <c r="AK61" s="145"/>
-      <c r="AL61" s="145"/>
-      <c r="AM61" s="145"/>
-      <c r="AN61" s="145"/>
-      <c r="AO61" s="145"/>
-      <c r="AP61" s="145"/>
-      <c r="AQ61" s="145"/>
-      <c r="AR61" s="146"/>
+      <c r="AS60" s="36"/>
+    </row>
+    <row r="61" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="150"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="36"/>
+      <c r="AB61" s="36"/>
+      <c r="AC61" s="36"/>
+      <c r="AD61" s="36"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="38"/>
+      <c r="AI61" s="38"/>
+      <c r="AJ61" s="38"/>
+      <c r="AK61" s="38"/>
+      <c r="AL61" s="38"/>
+      <c r="AM61" s="38"/>
+      <c r="AN61" s="38"/>
+      <c r="AO61" s="38"/>
+      <c r="AP61" s="38"/>
+      <c r="AQ61" s="38"/>
+      <c r="AR61" s="144"/>
+      <c r="AS61" s="36"/>
     </row>
     <row r="62" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="36"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="36"/>
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
@@ -16246,24 +16247,116 @@
       <c r="AO62" s="36"/>
       <c r="AP62" s="36"/>
       <c r="AQ62" s="36"/>
-      <c r="AR62" s="36"/>
+      <c r="AR62" s="144"/>
+      <c r="AS62" s="71"/>
+    </row>
+    <row r="63" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="151"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="145"/>
+      <c r="H63" s="145"/>
+      <c r="I63" s="145"/>
+      <c r="J63" s="145"/>
+      <c r="K63" s="145"/>
+      <c r="L63" s="145"/>
+      <c r="M63" s="145"/>
+      <c r="N63" s="145"/>
+      <c r="O63" s="145"/>
+      <c r="P63" s="145"/>
+      <c r="Q63" s="145"/>
+      <c r="R63" s="145"/>
+      <c r="S63" s="145"/>
+      <c r="T63" s="145"/>
+      <c r="U63" s="145"/>
+      <c r="V63" s="145"/>
+      <c r="W63" s="145"/>
+      <c r="X63" s="145"/>
+      <c r="Y63" s="145"/>
+      <c r="Z63" s="145"/>
+      <c r="AA63" s="145"/>
+      <c r="AB63" s="145"/>
+      <c r="AC63" s="145"/>
+      <c r="AD63" s="145"/>
+      <c r="AE63" s="145"/>
+      <c r="AF63" s="145"/>
+      <c r="AG63" s="145"/>
+      <c r="AH63" s="145"/>
+      <c r="AI63" s="145"/>
+      <c r="AJ63" s="145"/>
+      <c r="AK63" s="145"/>
+      <c r="AL63" s="145"/>
+      <c r="AM63" s="145"/>
+      <c r="AN63" s="145"/>
+      <c r="AO63" s="145"/>
+      <c r="AP63" s="145"/>
+      <c r="AQ63" s="145"/>
+      <c r="AR63" s="146"/>
+    </row>
+    <row r="64" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36"/>
+      <c r="AC64" s="36"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="36"/>
+      <c r="AI64" s="36"/>
+      <c r="AJ64" s="36"/>
+      <c r="AK64" s="36"/>
+      <c r="AL64" s="36"/>
+      <c r="AM64" s="36"/>
+      <c r="AN64" s="36"/>
+      <c r="AO64" s="36"/>
+      <c r="AP64" s="36"/>
+      <c r="AQ64" s="36"/>
+      <c r="AR64" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="AK4:AN4"/>
     <mergeCell ref="N15:AC15"/>
     <mergeCell ref="N18:AC18"/>
     <mergeCell ref="N8:AC8"/>
-    <mergeCell ref="N42:AC42"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="Y34:AC34"/>
+    <mergeCell ref="N44:AC44"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="N32:V32"/>
     <mergeCell ref="B1:G5"/>
     <mergeCell ref="N22:S22"/>
     <mergeCell ref="U22:AC22"/>
     <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N32:V32"/>
-    <mergeCell ref="Y32:AC32"/>
+    <mergeCell ref="N34:V34"/>
+    <mergeCell ref="Y34:AC34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16273,7 +16366,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -16294,15 +16387,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="208"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="206"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="86" t="s">
@@ -16323,7 +16416,7 @@
       </c>
       <c r="C4" s="90"/>
       <c r="D4" s="91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -16401,7 +16494,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" s="97" t="s">
         <v>83</v>
@@ -16413,7 +16506,7 @@
         <v>50</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -16807,6 +16900,29 @@
       </c>
       <c r="D46" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="250" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="85" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="85" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -16834,14 +16950,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="194"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -16878,12 +16994,12 @@
       <c r="AO1" s="16"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="192"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -16920,12 +17036,12 @@
       <c r="AO2" s="16"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -16962,12 +17078,12 @@
       <c r="AO3" s="16"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="192"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -16997,19 +17113,19 @@
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
-      <c r="AK4" s="198"/>
-      <c r="AL4" s="198"/>
-      <c r="AM4" s="198"/>
-      <c r="AN4" s="198"/>
+      <c r="AK4" s="199"/>
+      <c r="AL4" s="199"/>
+      <c r="AM4" s="199"/>
+      <c r="AN4" s="199"/>
       <c r="AO4" s="16"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -17213,24 +17329,24 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="203" t="s">
+      <c r="N10" s="207" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="204"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="204"/>
-      <c r="R10" s="204"/>
-      <c r="S10" s="204"/>
-      <c r="T10" s="204"/>
-      <c r="U10" s="204"/>
-      <c r="V10" s="204"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="204"/>
-      <c r="Y10" s="204"/>
-      <c r="Z10" s="204"/>
-      <c r="AA10" s="204"/>
-      <c r="AB10" s="204"/>
-      <c r="AC10" s="205"/>
+      <c r="O10" s="208"/>
+      <c r="P10" s="208"/>
+      <c r="Q10" s="208"/>
+      <c r="R10" s="208"/>
+      <c r="S10" s="208"/>
+      <c r="T10" s="208"/>
+      <c r="U10" s="208"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="208"/>
+      <c r="X10" s="208"/>
+      <c r="Y10" s="208"/>
+      <c r="Z10" s="208"/>
+      <c r="AA10" s="208"/>
+      <c r="AB10" s="208"/>
+      <c r="AC10" s="209"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
@@ -17428,24 +17544,24 @@
       <c r="K15" s="71"/>
       <c r="L15" s="71"/>
       <c r="M15" s="71"/>
-      <c r="N15" s="199" t="s">
+      <c r="N15" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="O15" s="200"/>
-      <c r="P15" s="200"/>
-      <c r="Q15" s="200"/>
-      <c r="R15" s="200"/>
-      <c r="S15" s="200"/>
-      <c r="T15" s="200"/>
-      <c r="U15" s="200"/>
-      <c r="V15" s="200"/>
-      <c r="W15" s="200"/>
-      <c r="X15" s="200"/>
-      <c r="Y15" s="200"/>
-      <c r="Z15" s="200"/>
-      <c r="AA15" s="200"/>
-      <c r="AB15" s="200"/>
-      <c r="AC15" s="201"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="201"/>
+      <c r="Q15" s="201"/>
+      <c r="R15" s="201"/>
+      <c r="S15" s="201"/>
+      <c r="T15" s="201"/>
+      <c r="U15" s="201"/>
+      <c r="V15" s="201"/>
+      <c r="W15" s="201"/>
+      <c r="X15" s="201"/>
+      <c r="Y15" s="201"/>
+      <c r="Z15" s="201"/>
+      <c r="AA15" s="201"/>
+      <c r="AB15" s="201"/>
+      <c r="AC15" s="202"/>
       <c r="AD15" s="71"/>
       <c r="AE15" s="71"/>
       <c r="AF15" s="71"/>
@@ -17542,24 +17658,24 @@
       <c r="K18" s="71"/>
       <c r="L18" s="71"/>
       <c r="M18" s="71"/>
-      <c r="N18" s="199" t="s">
+      <c r="N18" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="200"/>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="200"/>
-      <c r="R18" s="200"/>
-      <c r="S18" s="200"/>
-      <c r="T18" s="200"/>
-      <c r="U18" s="200"/>
-      <c r="V18" s="200"/>
-      <c r="W18" s="200"/>
-      <c r="X18" s="200"/>
-      <c r="Y18" s="200"/>
-      <c r="Z18" s="200"/>
-      <c r="AA18" s="200"/>
-      <c r="AB18" s="200"/>
-      <c r="AC18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="201"/>
+      <c r="T18" s="201"/>
+      <c r="U18" s="201"/>
+      <c r="V18" s="201"/>
+      <c r="W18" s="201"/>
+      <c r="X18" s="201"/>
+      <c r="Y18" s="201"/>
+      <c r="Z18" s="201"/>
+      <c r="AA18" s="201"/>
+      <c r="AB18" s="201"/>
+      <c r="AC18" s="202"/>
       <c r="AD18" s="71"/>
       <c r="AE18" s="71"/>
       <c r="AF18" s="71"/>
@@ -18112,15 +18228,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="208"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="206"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="86" t="s">
@@ -18638,14 +18754,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="222"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="214"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -18691,12 +18807,12 @@
       <c r="AU1" s="16"/>
     </row>
     <row r="2" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="192"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -18733,22 +18849,22 @@
       </c>
       <c r="AN2" s="15"/>
       <c r="AO2" s="15"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AP2" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="AQ2" s="209"/>
-      <c r="AR2" s="209"/>
-      <c r="AS2" s="209"/>
-      <c r="AT2" s="209"/>
-      <c r="AU2" s="210"/>
+      <c r="AQ2" s="221"/>
+      <c r="AR2" s="221"/>
+      <c r="AS2" s="221"/>
+      <c r="AT2" s="221"/>
+      <c r="AU2" s="222"/>
     </row>
     <row r="3" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -18783,20 +18899,20 @@
       <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
       <c r="AO3" s="15"/>
-      <c r="AP3" s="209"/>
-      <c r="AQ3" s="209"/>
-      <c r="AR3" s="209"/>
-      <c r="AS3" s="209"/>
-      <c r="AT3" s="209"/>
-      <c r="AU3" s="210"/>
+      <c r="AP3" s="221"/>
+      <c r="AQ3" s="221"/>
+      <c r="AR3" s="221"/>
+      <c r="AS3" s="221"/>
+      <c r="AT3" s="221"/>
+      <c r="AU3" s="222"/>
     </row>
     <row r="4" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="192"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -18830,20 +18946,20 @@
       <c r="AL4" s="15"/>
       <c r="AM4" s="15"/>
       <c r="AN4" s="15"/>
-      <c r="AP4" s="209"/>
-      <c r="AQ4" s="209"/>
-      <c r="AR4" s="209"/>
-      <c r="AS4" s="209"/>
-      <c r="AT4" s="209"/>
-      <c r="AU4" s="210"/>
+      <c r="AP4" s="221"/>
+      <c r="AQ4" s="221"/>
+      <c r="AR4" s="221"/>
+      <c r="AS4" s="221"/>
+      <c r="AT4" s="221"/>
+      <c r="AU4" s="222"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -18878,12 +18994,12 @@
       <c r="AM5" s="21"/>
       <c r="AN5" s="21"/>
       <c r="AO5" s="21"/>
-      <c r="AP5" s="211"/>
-      <c r="AQ5" s="211"/>
-      <c r="AR5" s="211"/>
-      <c r="AS5" s="211"/>
-      <c r="AT5" s="211"/>
-      <c r="AU5" s="212"/>
+      <c r="AP5" s="223"/>
+      <c r="AQ5" s="223"/>
+      <c r="AR5" s="223"/>
+      <c r="AS5" s="223"/>
+      <c r="AT5" s="223"/>
+      <c r="AU5" s="224"/>
     </row>
     <row r="6" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
@@ -18944,44 +19060,44 @@
       <c r="G7" s="171"/>
       <c r="H7" s="171"/>
       <c r="I7" s="77"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="213"/>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="214"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="214"/>
-      <c r="T7" s="215"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="219"/>
-      <c r="W7" s="219"/>
-      <c r="X7" s="220"/>
-      <c r="Y7" s="213"/>
-      <c r="Z7" s="214"/>
-      <c r="AA7" s="214"/>
-      <c r="AB7" s="214"/>
-      <c r="AC7" s="215"/>
-      <c r="AD7" s="213"/>
-      <c r="AE7" s="214"/>
-      <c r="AF7" s="214"/>
-      <c r="AG7" s="214"/>
-      <c r="AH7" s="214"/>
-      <c r="AI7" s="215"/>
-      <c r="AJ7" s="213"/>
-      <c r="AK7" s="214"/>
-      <c r="AL7" s="214"/>
-      <c r="AM7" s="214"/>
-      <c r="AN7" s="214"/>
-      <c r="AO7" s="215"/>
-      <c r="AP7" s="213"/>
-      <c r="AQ7" s="214"/>
-      <c r="AR7" s="214"/>
-      <c r="AS7" s="214"/>
-      <c r="AT7" s="214"/>
-      <c r="AU7" s="216"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
+      <c r="S7" s="211"/>
+      <c r="T7" s="212"/>
+      <c r="U7" s="227"/>
+      <c r="V7" s="228"/>
+      <c r="W7" s="228"/>
+      <c r="X7" s="229"/>
+      <c r="Y7" s="210"/>
+      <c r="Z7" s="211"/>
+      <c r="AA7" s="211"/>
+      <c r="AB7" s="211"/>
+      <c r="AC7" s="212"/>
+      <c r="AD7" s="210"/>
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="211"/>
+      <c r="AG7" s="211"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="212"/>
+      <c r="AJ7" s="210"/>
+      <c r="AK7" s="211"/>
+      <c r="AL7" s="211"/>
+      <c r="AM7" s="211"/>
+      <c r="AN7" s="211"/>
+      <c r="AO7" s="212"/>
+      <c r="AP7" s="210"/>
+      <c r="AQ7" s="211"/>
+      <c r="AR7" s="211"/>
+      <c r="AS7" s="211"/>
+      <c r="AT7" s="211"/>
+      <c r="AU7" s="225"/>
     </row>
     <row r="8" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
@@ -19041,51 +19157,51 @@
       <c r="F9" s="15"/>
       <c r="G9" s="24"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="217" t="s">
+      <c r="I9" s="226" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="217"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="217"/>
-      <c r="M9" s="217"/>
-      <c r="N9" s="217"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="217"/>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="217"/>
-      <c r="AE9" s="217"/>
-      <c r="AF9" s="217"/>
-      <c r="AG9" s="217"/>
-      <c r="AH9" s="217"/>
-      <c r="AI9" s="217"/>
-      <c r="AJ9" s="217"/>
-      <c r="AK9" s="217"/>
-      <c r="AL9" s="217"/>
-      <c r="AM9" s="217"/>
-      <c r="AN9" s="217"/>
-      <c r="AO9" s="217"/>
-      <c r="AP9" s="217"/>
-      <c r="AQ9" s="217"/>
-      <c r="AR9" s="217"/>
-      <c r="AS9" s="217"/>
-      <c r="AT9" s="217"/>
+      <c r="J9" s="226"/>
+      <c r="K9" s="226"/>
+      <c r="L9" s="226"/>
+      <c r="M9" s="226"/>
+      <c r="N9" s="226"/>
+      <c r="O9" s="226"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="226"/>
+      <c r="S9" s="226"/>
+      <c r="T9" s="226"/>
+      <c r="U9" s="226"/>
+      <c r="V9" s="226"/>
+      <c r="W9" s="226"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="226"/>
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="226"/>
+      <c r="AC9" s="226"/>
+      <c r="AD9" s="226"/>
+      <c r="AE9" s="226"/>
+      <c r="AF9" s="226"/>
+      <c r="AG9" s="226"/>
+      <c r="AH9" s="226"/>
+      <c r="AI9" s="226"/>
+      <c r="AJ9" s="226"/>
+      <c r="AK9" s="226"/>
+      <c r="AL9" s="226"/>
+      <c r="AM9" s="226"/>
+      <c r="AN9" s="226"/>
+      <c r="AO9" s="226"/>
+      <c r="AP9" s="226"/>
+      <c r="AQ9" s="226"/>
+      <c r="AR9" s="226"/>
+      <c r="AS9" s="226"/>
+      <c r="AT9" s="226"/>
       <c r="AU9" s="16"/>
     </row>
     <row r="10" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
-      <c r="C10" s="249" t="s">
+      <c r="C10" s="181" t="s">
         <v>175</v>
       </c>
       <c r="E10" s="15"/>
@@ -19134,7 +19250,7 @@
     </row>
     <row r="11" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
-      <c r="C11" s="249" t="s">
+      <c r="C11" s="181" t="s">
         <v>178</v>
       </c>
       <c r="E11" s="15"/>
@@ -19144,37 +19260,37 @@
       <c r="I11" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="O11" s="182" t="s">
+      <c r="O11" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="183"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="183"/>
-      <c r="T11" s="183"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="184"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="191"/>
       <c r="AB11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AH11" s="189" t="s">
+      <c r="AH11" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="AI11" s="190"/>
-      <c r="AJ11" s="190"/>
-      <c r="AK11" s="190"/>
-      <c r="AL11" s="190"/>
-      <c r="AM11" s="190"/>
-      <c r="AN11" s="190"/>
-      <c r="AO11" s="190"/>
-      <c r="AP11" s="190"/>
-      <c r="AQ11" s="190"/>
-      <c r="AR11" s="190"/>
-      <c r="AS11" s="191"/>
+      <c r="AI11" s="197"/>
+      <c r="AJ11" s="197"/>
+      <c r="AK11" s="197"/>
+      <c r="AL11" s="197"/>
+      <c r="AM11" s="197"/>
+      <c r="AN11" s="197"/>
+      <c r="AO11" s="197"/>
+      <c r="AP11" s="197"/>
+      <c r="AQ11" s="197"/>
+      <c r="AR11" s="197"/>
+      <c r="AS11" s="198"/>
       <c r="AU11" s="16"/>
     </row>
     <row r="12" spans="2:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -19223,34 +19339,34 @@
       <c r="I13" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="O13" s="189"/>
-      <c r="P13" s="190"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="190"/>
-      <c r="S13" s="190"/>
-      <c r="T13" s="190"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="190"/>
-      <c r="W13" s="190"/>
-      <c r="X13" s="190"/>
-      <c r="Y13" s="190"/>
-      <c r="Z13" s="191"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="197"/>
+      <c r="R13" s="197"/>
+      <c r="S13" s="197"/>
+      <c r="T13" s="197"/>
+      <c r="U13" s="197"/>
+      <c r="V13" s="197"/>
+      <c r="W13" s="197"/>
+      <c r="X13" s="197"/>
+      <c r="Y13" s="197"/>
+      <c r="Z13" s="198"/>
       <c r="AB13" s="10" t="s">
         <v>65</v>
       </c>
       <c r="AE13" s="15"/>
-      <c r="AH13" s="189"/>
-      <c r="AI13" s="190"/>
-      <c r="AJ13" s="190"/>
-      <c r="AK13" s="190"/>
-      <c r="AL13" s="190"/>
-      <c r="AM13" s="190"/>
-      <c r="AN13" s="190"/>
-      <c r="AO13" s="190"/>
-      <c r="AP13" s="190"/>
-      <c r="AQ13" s="190"/>
-      <c r="AR13" s="190"/>
-      <c r="AS13" s="191"/>
+      <c r="AH13" s="196"/>
+      <c r="AI13" s="197"/>
+      <c r="AJ13" s="197"/>
+      <c r="AK13" s="197"/>
+      <c r="AL13" s="197"/>
+      <c r="AM13" s="197"/>
+      <c r="AN13" s="197"/>
+      <c r="AO13" s="197"/>
+      <c r="AP13" s="197"/>
+      <c r="AQ13" s="197"/>
+      <c r="AR13" s="197"/>
+      <c r="AS13" s="198"/>
       <c r="AU13" s="16"/>
     </row>
     <row r="14" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19293,7 +19409,7 @@
     <row r="15" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="165" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -19426,14 +19542,14 @@
       <c r="O19" s="55"/>
       <c r="P19" s="55"/>
       <c r="Q19" s="54"/>
-      <c r="R19" s="223" t="s">
+      <c r="R19" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="S19" s="224"/>
-      <c r="T19" s="224"/>
-      <c r="U19" s="224"/>
-      <c r="V19" s="224"/>
-      <c r="W19" s="225"/>
+      <c r="S19" s="216"/>
+      <c r="T19" s="216"/>
+      <c r="U19" s="216"/>
+      <c r="V19" s="216"/>
+      <c r="W19" s="217"/>
       <c r="X19" s="55" t="s">
         <v>73</v>
       </c>
@@ -19441,16 +19557,16 @@
       <c r="Z19" s="55"/>
       <c r="AA19" s="55"/>
       <c r="AB19" s="55"/>
-      <c r="AC19" s="226"/>
-      <c r="AD19" s="227"/>
-      <c r="AE19" s="227"/>
-      <c r="AF19" s="228"/>
+      <c r="AC19" s="218"/>
+      <c r="AD19" s="219"/>
+      <c r="AE19" s="219"/>
+      <c r="AF19" s="220"/>
       <c r="AG19" s="55"/>
-      <c r="AH19" s="227" t="s">
+      <c r="AH19" s="219" t="s">
         <v>131</v>
       </c>
-      <c r="AI19" s="227"/>
-      <c r="AJ19" s="228"/>
+      <c r="AI19" s="219"/>
+      <c r="AJ19" s="220"/>
       <c r="AK19" s="53" t="s">
         <v>74</v>
       </c>
@@ -20831,6 +20947,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
     <mergeCell ref="B1:G5"/>
     <mergeCell ref="R19:W19"/>
     <mergeCell ref="AC19:AF19"/>
@@ -20846,8 +20964,6 @@
     <mergeCell ref="I9:AT9"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -20885,15 +21001,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="208"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="206"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="86" t="s">
@@ -21481,14 +21597,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="222"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="214"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="8"/>
@@ -21531,12 +21647,12 @@
       <c r="AR1" s="16"/>
     </row>
     <row r="2" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="192"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="15"/>
@@ -21569,23 +21685,23 @@
       </c>
       <c r="AJ2" s="15"/>
       <c r="AK2" s="15"/>
-      <c r="AL2" s="209" t="s">
+      <c r="AL2" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="209"/>
-      <c r="AN2" s="209"/>
-      <c r="AO2" s="209"/>
-      <c r="AP2" s="209"/>
-      <c r="AQ2" s="209"/>
-      <c r="AR2" s="210"/>
+      <c r="AM2" s="221"/>
+      <c r="AN2" s="221"/>
+      <c r="AO2" s="221"/>
+      <c r="AP2" s="221"/>
+      <c r="AQ2" s="221"/>
+      <c r="AR2" s="222"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="15"/>
@@ -21616,21 +21732,21 @@
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
-      <c r="AL3" s="209"/>
-      <c r="AM3" s="209"/>
-      <c r="AN3" s="209"/>
-      <c r="AO3" s="209"/>
-      <c r="AP3" s="209"/>
-      <c r="AQ3" s="209"/>
-      <c r="AR3" s="210"/>
+      <c r="AL3" s="221"/>
+      <c r="AM3" s="221"/>
+      <c r="AN3" s="221"/>
+      <c r="AO3" s="221"/>
+      <c r="AP3" s="221"/>
+      <c r="AQ3" s="221"/>
+      <c r="AR3" s="222"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="192"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="15"/>
@@ -21660,21 +21776,21 @@
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
-      <c r="AL4" s="209"/>
-      <c r="AM4" s="209"/>
-      <c r="AN4" s="209"/>
-      <c r="AO4" s="209"/>
-      <c r="AP4" s="209"/>
-      <c r="AQ4" s="209"/>
-      <c r="AR4" s="210"/>
+      <c r="AL4" s="221"/>
+      <c r="AM4" s="221"/>
+      <c r="AN4" s="221"/>
+      <c r="AO4" s="221"/>
+      <c r="AP4" s="221"/>
+      <c r="AQ4" s="221"/>
+      <c r="AR4" s="222"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="21"/>
@@ -21705,13 +21821,13 @@
       <c r="AI5" s="21"/>
       <c r="AJ5" s="21"/>
       <c r="AK5" s="21"/>
-      <c r="AL5" s="211"/>
-      <c r="AM5" s="211"/>
-      <c r="AN5" s="211"/>
-      <c r="AO5" s="211"/>
-      <c r="AP5" s="211"/>
-      <c r="AQ5" s="211"/>
-      <c r="AR5" s="212"/>
+      <c r="AL5" s="223"/>
+      <c r="AM5" s="223"/>
+      <c r="AN5" s="223"/>
+      <c r="AO5" s="223"/>
+      <c r="AP5" s="223"/>
+      <c r="AQ5" s="223"/>
+      <c r="AR5" s="224"/>
     </row>
     <row r="6" spans="2:44" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
@@ -21759,51 +21875,51 @@
       <c r="AR6" s="16"/>
     </row>
     <row r="7" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="214"/>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="232"/>
-      <c r="S7" s="233"/>
-      <c r="T7" s="233"/>
-      <c r="U7" s="234"/>
-      <c r="V7" s="213"/>
-      <c r="W7" s="214"/>
-      <c r="X7" s="214"/>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="215"/>
-      <c r="AA7" s="213"/>
-      <c r="AB7" s="214"/>
-      <c r="AC7" s="214"/>
-      <c r="AD7" s="214"/>
-      <c r="AE7" s="214"/>
-      <c r="AF7" s="215"/>
-      <c r="AG7" s="213"/>
-      <c r="AH7" s="214"/>
-      <c r="AI7" s="214"/>
-      <c r="AJ7" s="214"/>
-      <c r="AK7" s="214"/>
-      <c r="AL7" s="215"/>
-      <c r="AM7" s="213"/>
-      <c r="AN7" s="214"/>
-      <c r="AO7" s="214"/>
-      <c r="AP7" s="214"/>
-      <c r="AQ7" s="214"/>
-      <c r="AR7" s="215"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="212"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="234"/>
+      <c r="T7" s="234"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="210"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="211"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="212"/>
+      <c r="AA7" s="210"/>
+      <c r="AB7" s="211"/>
+      <c r="AC7" s="211"/>
+      <c r="AD7" s="211"/>
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="212"/>
+      <c r="AG7" s="210"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="211"/>
+      <c r="AJ7" s="211"/>
+      <c r="AK7" s="211"/>
+      <c r="AL7" s="212"/>
+      <c r="AM7" s="210"/>
+      <c r="AN7" s="211"/>
+      <c r="AO7" s="211"/>
+      <c r="AP7" s="211"/>
+      <c r="AQ7" s="211"/>
+      <c r="AR7" s="212"/>
     </row>
     <row r="8" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
@@ -21817,30 +21933,30 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
-      <c r="O8" s="231"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="231"/>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="231"/>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="231"/>
-      <c r="AB8" s="231"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="231"/>
-      <c r="AF8" s="231"/>
-      <c r="AG8" s="231"/>
-      <c r="AH8" s="231"/>
-      <c r="AI8" s="231"/>
-      <c r="AJ8" s="231"/>
+      <c r="M8" s="232"/>
+      <c r="N8" s="232"/>
+      <c r="O8" s="232"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="232"/>
+      <c r="R8" s="232"/>
+      <c r="S8" s="232"/>
+      <c r="T8" s="232"/>
+      <c r="U8" s="232"/>
+      <c r="V8" s="232"/>
+      <c r="W8" s="232"/>
+      <c r="X8" s="232"/>
+      <c r="Y8" s="232"/>
+      <c r="Z8" s="232"/>
+      <c r="AA8" s="232"/>
+      <c r="AB8" s="232"/>
+      <c r="AC8" s="232"/>
+      <c r="AD8" s="232"/>
+      <c r="AE8" s="232"/>
+      <c r="AF8" s="232"/>
+      <c r="AG8" s="232"/>
+      <c r="AH8" s="232"/>
+      <c r="AI8" s="232"/>
+      <c r="AJ8" s="232"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15"/>
       <c r="AM8" s="15"/>
@@ -21864,32 +21980,32 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="217" t="s">
+      <c r="M9" s="226" t="s">
         <v>177</v>
       </c>
-      <c r="N9" s="217"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="217"/>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="217"/>
-      <c r="AE9" s="217"/>
-      <c r="AF9" s="217"/>
-      <c r="AG9" s="217"/>
-      <c r="AH9" s="217"/>
-      <c r="AI9" s="217"/>
-      <c r="AJ9" s="217"/>
+      <c r="N9" s="226"/>
+      <c r="O9" s="226"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="226"/>
+      <c r="S9" s="226"/>
+      <c r="T9" s="226"/>
+      <c r="U9" s="226"/>
+      <c r="V9" s="226"/>
+      <c r="W9" s="226"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="226"/>
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="226"/>
+      <c r="AC9" s="226"/>
+      <c r="AD9" s="226"/>
+      <c r="AE9" s="226"/>
+      <c r="AF9" s="226"/>
+      <c r="AG9" s="226"/>
+      <c r="AH9" s="226"/>
+      <c r="AI9" s="226"/>
+      <c r="AJ9" s="226"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
       <c r="AM9" s="15"/>
@@ -21901,7 +22017,7 @@
     </row>
     <row r="10" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
-      <c r="C10" s="249" t="s">
+      <c r="C10" s="181" t="s">
         <v>175</v>
       </c>
       <c r="G10" s="24"/>
@@ -22075,7 +22191,7 @@
     </row>
     <row r="14" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
-      <c r="C14" s="249" t="s">
+      <c r="C14" s="181" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="24"/>
@@ -22644,43 +22760,43 @@
       <c r="B26" s="14"/>
       <c r="G26" s="24"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="229" t="s">
+      <c r="I26" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="J26" s="229"/>
-      <c r="K26" s="229"/>
-      <c r="L26" s="229"/>
-      <c r="M26" s="229"/>
-      <c r="N26" s="229"/>
-      <c r="O26" s="229"/>
-      <c r="P26" s="229"/>
-      <c r="Q26" s="229"/>
-      <c r="R26" s="229"/>
-      <c r="S26" s="229"/>
-      <c r="T26" s="229"/>
-      <c r="U26" s="229"/>
-      <c r="V26" s="229"/>
-      <c r="W26" s="229"/>
-      <c r="X26" s="229"/>
-      <c r="Y26" s="229"/>
-      <c r="Z26" s="229"/>
-      <c r="AA26" s="229"/>
-      <c r="AB26" s="229"/>
-      <c r="AC26" s="229"/>
-      <c r="AD26" s="229"/>
-      <c r="AE26" s="229"/>
-      <c r="AF26" s="229"/>
-      <c r="AG26" s="229"/>
-      <c r="AH26" s="229"/>
-      <c r="AI26" s="229"/>
-      <c r="AJ26" s="229"/>
-      <c r="AK26" s="229"/>
-      <c r="AL26" s="229"/>
-      <c r="AM26" s="229"/>
-      <c r="AN26" s="229"/>
-      <c r="AO26" s="229"/>
-      <c r="AP26" s="229"/>
-      <c r="AQ26" s="229"/>
+      <c r="J26" s="230"/>
+      <c r="K26" s="230"/>
+      <c r="L26" s="230"/>
+      <c r="M26" s="230"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="230"/>
+      <c r="P26" s="230"/>
+      <c r="Q26" s="230"/>
+      <c r="R26" s="230"/>
+      <c r="S26" s="230"/>
+      <c r="T26" s="230"/>
+      <c r="U26" s="230"/>
+      <c r="V26" s="230"/>
+      <c r="W26" s="230"/>
+      <c r="X26" s="230"/>
+      <c r="Y26" s="230"/>
+      <c r="Z26" s="230"/>
+      <c r="AA26" s="230"/>
+      <c r="AB26" s="230"/>
+      <c r="AC26" s="230"/>
+      <c r="AD26" s="230"/>
+      <c r="AE26" s="230"/>
+      <c r="AF26" s="230"/>
+      <c r="AG26" s="230"/>
+      <c r="AH26" s="230"/>
+      <c r="AI26" s="230"/>
+      <c r="AJ26" s="230"/>
+      <c r="AK26" s="230"/>
+      <c r="AL26" s="230"/>
+      <c r="AM26" s="230"/>
+      <c r="AN26" s="230"/>
+      <c r="AO26" s="230"/>
+      <c r="AP26" s="230"/>
+      <c r="AQ26" s="230"/>
       <c r="AR26" s="16"/>
       <c r="AT26" s="71"/>
       <c r="AU26" s="127"/>
@@ -22861,20 +22977,20 @@
       <c r="G30" s="24"/>
       <c r="H30" s="15"/>
       <c r="I30" s="125"/>
-      <c r="J30" s="230" t="s">
+      <c r="J30" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="K30" s="230"/>
-      <c r="L30" s="230"/>
-      <c r="M30" s="230"/>
-      <c r="N30" s="230"/>
-      <c r="O30" s="230"/>
-      <c r="P30" s="230"/>
-      <c r="Q30" s="230"/>
-      <c r="R30" s="230"/>
-      <c r="S30" s="230"/>
-      <c r="T30" s="230"/>
-      <c r="U30" s="230"/>
+      <c r="K30" s="231"/>
+      <c r="L30" s="231"/>
+      <c r="M30" s="231"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="231"/>
+      <c r="P30" s="231"/>
+      <c r="Q30" s="231"/>
+      <c r="R30" s="231"/>
+      <c r="S30" s="231"/>
+      <c r="T30" s="231"/>
+      <c r="U30" s="231"/>
       <c r="V30" s="125"/>
       <c r="W30" s="125"/>
       <c r="X30" s="125"/>
@@ -24189,15 +24305,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="208"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="206"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="86" t="s">
@@ -24205,7 +24321,7 @@
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="87"/>
       <c r="F3" s="87"/>
@@ -24218,7 +24334,7 @@
       </c>
       <c r="C4" s="90"/>
       <c r="D4" s="91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>

--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="29" r:id="rId1"/>
@@ -21,16 +21,19 @@
     <sheet name="05.Payment" sheetId="22" r:id="rId12"/>
     <sheet name="05.Payment-Def" sheetId="25" r:id="rId13"/>
     <sheet name="06.FindFreeTrip" sheetId="23" r:id="rId14"/>
-    <sheet name="07.ForgotPassword" sheetId="30" r:id="rId15"/>
-    <sheet name="07. ResetPasswordEmail" sheetId="31" r:id="rId16"/>
-    <sheet name="08.SetPassword" sheetId="32" r:id="rId17"/>
+    <sheet name="06.FindFreeTrip-Def" sheetId="35" r:id="rId15"/>
+    <sheet name="07.ForgotPassword" sheetId="30" r:id="rId16"/>
+    <sheet name="07.ForgotPassword-Def" sheetId="34" r:id="rId17"/>
+    <sheet name="07. ResetPasswordEmail" sheetId="31" r:id="rId18"/>
+    <sheet name="08.SetPassword" sheetId="32" r:id="rId19"/>
+    <sheet name="08.SetPassword-Def" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="480">
   <si>
     <t>Logo</t>
   </si>
@@ -1762,6 +1765,111 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu mới</t>
+  </si>
+  <si>
+    <t>Đặt mật khẩu</t>
+  </si>
+  <si>
+    <t>Nút đặt mật khẩu</t>
+  </si>
+  <si>
+    <t>Nơi nhập mật khẩu người dùng muốn đặt</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Set new Password</t>
+  </si>
+  <si>
+    <t>Set Password</t>
+  </si>
+  <si>
+    <t>Quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Khôi phục mật khẩu</t>
+  </si>
+  <si>
+    <t>Recover Password</t>
+  </si>
+  <si>
+    <t>Nơi nhập địa chỉ Email</t>
+  </si>
+  <si>
+    <t>Nút khôi phục mật khẩu</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Điểm đi</t>
+  </si>
+  <si>
+    <t>Điểm đến</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày </t>
+  </si>
+  <si>
+    <t>Lái xe</t>
+  </si>
+  <si>
+    <t>Xe ô tô</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Time to start</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>Lisence Plates</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Điểm xuất phát</t>
+  </si>
+  <si>
+    <t>Nút tìm</t>
+  </si>
+  <si>
+    <t>Số bản ghi muốn hiển thị</t>
+  </si>
+  <si>
+    <t>Số thứ tự các bản ghi được hiển thị</t>
+  </si>
+  <si>
+    <t>Tên lái xe</t>
+  </si>
+  <si>
+    <t>Biển số phương tiện</t>
+  </si>
+  <si>
+    <t>DropDown</t>
   </si>
 </sst>
 </file>
@@ -2795,6 +2903,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2906,6 +3016,24 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2951,29 +3079,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3002,38 +3145,14 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3063,15 +3182,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3107,8 +3217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4910,7 +5018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -4955,13 +5063,13 @@
       <c r="F3" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="289" t="s">
+      <c r="G3" s="185" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="289" t="s">
+      <c r="H3" s="185" t="s">
         <v>443</v>
       </c>
-      <c r="I3" s="289" t="s">
+      <c r="I3" s="185" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4969,7 +5077,7 @@
       <c r="A4" s="156">
         <v>1</v>
       </c>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="187" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
@@ -4985,7 +5093,7 @@
       <c r="G4" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="H4" s="290" t="s">
+      <c r="H4" s="186" t="s">
         <v>444</v>
       </c>
       <c r="I4" s="79"/>
@@ -4994,7 +5102,7 @@
       <c r="A5" s="156">
         <v>2</v>
       </c>
-      <c r="B5" s="186"/>
+      <c r="B5" s="188"/>
       <c r="C5" s="156" t="s">
         <v>211</v>
       </c>
@@ -5015,7 +5123,7 @@
       <c r="A6" s="156">
         <v>3</v>
       </c>
-      <c r="B6" s="186"/>
+      <c r="B6" s="188"/>
       <c r="C6" s="156" t="s">
         <v>212</v>
       </c>
@@ -5038,7 +5146,7 @@
     </row>
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="156"/>
-      <c r="B7" s="186"/>
+      <c r="B7" s="188"/>
       <c r="C7" s="156" t="s">
         <v>213</v>
       </c>
@@ -5061,7 +5169,7 @@
     </row>
     <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="156"/>
-      <c r="B8" s="186"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="156" t="s">
         <v>214</v>
       </c>
@@ -5084,7 +5192,7 @@
     </row>
     <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="156"/>
-      <c r="B9" s="186"/>
+      <c r="B9" s="188"/>
       <c r="C9" s="156" t="s">
         <v>220</v>
       </c>
@@ -5107,7 +5215,7 @@
     </row>
     <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="156"/>
-      <c r="B10" s="186"/>
+      <c r="B10" s="188"/>
       <c r="C10" s="156" t="s">
         <v>221</v>
       </c>
@@ -5130,7 +5238,7 @@
     </row>
     <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="156"/>
-      <c r="B11" s="186"/>
+      <c r="B11" s="188"/>
       <c r="C11" s="156" t="s">
         <v>222</v>
       </c>
@@ -5151,7 +5259,7 @@
     </row>
     <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="156"/>
-      <c r="B12" s="186"/>
+      <c r="B12" s="188"/>
       <c r="C12" s="156" t="s">
         <v>228</v>
       </c>
@@ -5172,7 +5280,7 @@
     </row>
     <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="156"/>
-      <c r="B13" s="186"/>
+      <c r="B13" s="188"/>
       <c r="C13" s="156" t="s">
         <v>229</v>
       </c>
@@ -5193,7 +5301,7 @@
     </row>
     <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="156"/>
-      <c r="B14" s="186"/>
+      <c r="B14" s="188"/>
       <c r="C14" s="156" t="s">
         <v>231</v>
       </c>
@@ -5214,7 +5322,7 @@
     </row>
     <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="156"/>
-      <c r="B15" s="186"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="156" t="s">
         <v>311</v>
       </c>
@@ -5235,7 +5343,7 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="156"/>
-      <c r="B16" s="187"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="156" t="s">
         <v>312</v>
       </c>
@@ -5429,7 +5537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BN60"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -5447,14 +5555,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="234"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
@@ -5497,12 +5605,12 @@
       <c r="AR1" s="13"/>
     </row>
     <row r="2" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="204"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="208"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="12"/>
@@ -5535,23 +5643,23 @@
       </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="233" t="s">
+      <c r="AL2" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="233"/>
-      <c r="AN2" s="233"/>
-      <c r="AO2" s="233"/>
-      <c r="AP2" s="233"/>
-      <c r="AQ2" s="233"/>
-      <c r="AR2" s="234"/>
+      <c r="AM2" s="241"/>
+      <c r="AN2" s="241"/>
+      <c r="AO2" s="241"/>
+      <c r="AP2" s="241"/>
+      <c r="AQ2" s="241"/>
+      <c r="AR2" s="242"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="12"/>
@@ -5582,21 +5690,21 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="233"/>
-      <c r="AM3" s="233"/>
-      <c r="AN3" s="233"/>
-      <c r="AO3" s="233"/>
-      <c r="AP3" s="233"/>
-      <c r="AQ3" s="233"/>
-      <c r="AR3" s="234"/>
+      <c r="AL3" s="241"/>
+      <c r="AM3" s="241"/>
+      <c r="AN3" s="241"/>
+      <c r="AO3" s="241"/>
+      <c r="AP3" s="241"/>
+      <c r="AQ3" s="241"/>
+      <c r="AR3" s="242"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="208"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="12"/>
@@ -5626,21 +5734,21 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AL4" s="233"/>
-      <c r="AM4" s="233"/>
-      <c r="AN4" s="233"/>
-      <c r="AO4" s="233"/>
-      <c r="AP4" s="233"/>
-      <c r="AQ4" s="233"/>
-      <c r="AR4" s="234"/>
+      <c r="AL4" s="241"/>
+      <c r="AM4" s="241"/>
+      <c r="AN4" s="241"/>
+      <c r="AO4" s="241"/>
+      <c r="AP4" s="241"/>
+      <c r="AQ4" s="241"/>
+      <c r="AR4" s="242"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="207"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="209"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
@@ -5671,13 +5779,13 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
-      <c r="AL5" s="235"/>
-      <c r="AM5" s="235"/>
-      <c r="AN5" s="235"/>
-      <c r="AO5" s="235"/>
-      <c r="AP5" s="235"/>
-      <c r="AQ5" s="235"/>
-      <c r="AR5" s="236"/>
+      <c r="AL5" s="243"/>
+      <c r="AM5" s="243"/>
+      <c r="AN5" s="243"/>
+      <c r="AO5" s="243"/>
+      <c r="AP5" s="243"/>
+      <c r="AQ5" s="243"/>
+      <c r="AR5" s="244"/>
     </row>
     <row r="6" spans="2:44" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
@@ -5725,51 +5833,51 @@
       <c r="AR6" s="13"/>
     </row>
     <row r="7" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="238"/>
-      <c r="N7" s="238"/>
-      <c r="O7" s="238"/>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="262"/>
-      <c r="S7" s="263"/>
-      <c r="T7" s="263"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="237"/>
-      <c r="W7" s="238"/>
-      <c r="X7" s="238"/>
-      <c r="Y7" s="238"/>
-      <c r="Z7" s="239"/>
-      <c r="AA7" s="237"/>
-      <c r="AB7" s="238"/>
-      <c r="AC7" s="238"/>
-      <c r="AD7" s="238"/>
-      <c r="AE7" s="238"/>
-      <c r="AF7" s="239"/>
-      <c r="AG7" s="237"/>
-      <c r="AH7" s="238"/>
-      <c r="AI7" s="238"/>
-      <c r="AJ7" s="238"/>
-      <c r="AK7" s="238"/>
-      <c r="AL7" s="239"/>
-      <c r="AM7" s="237"/>
-      <c r="AN7" s="238"/>
-      <c r="AO7" s="238"/>
-      <c r="AP7" s="238"/>
-      <c r="AQ7" s="238"/>
-      <c r="AR7" s="239"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="225"/>
+      <c r="N7" s="225"/>
+      <c r="O7" s="225"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="226"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="249"/>
+      <c r="T7" s="249"/>
+      <c r="U7" s="250"/>
+      <c r="V7" s="224"/>
+      <c r="W7" s="225"/>
+      <c r="X7" s="225"/>
+      <c r="Y7" s="225"/>
+      <c r="Z7" s="226"/>
+      <c r="AA7" s="224"/>
+      <c r="AB7" s="225"/>
+      <c r="AC7" s="225"/>
+      <c r="AD7" s="225"/>
+      <c r="AE7" s="225"/>
+      <c r="AF7" s="226"/>
+      <c r="AG7" s="224"/>
+      <c r="AH7" s="225"/>
+      <c r="AI7" s="225"/>
+      <c r="AJ7" s="225"/>
+      <c r="AK7" s="225"/>
+      <c r="AL7" s="226"/>
+      <c r="AM7" s="224"/>
+      <c r="AN7" s="225"/>
+      <c r="AO7" s="225"/>
+      <c r="AP7" s="225"/>
+      <c r="AQ7" s="225"/>
+      <c r="AR7" s="226"/>
     </row>
     <row r="8" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -5783,30 +5891,30 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="261"/>
-      <c r="N8" s="261"/>
-      <c r="O8" s="261"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="261"/>
-      <c r="R8" s="261"/>
-      <c r="S8" s="261"/>
-      <c r="T8" s="261"/>
-      <c r="U8" s="261"/>
-      <c r="V8" s="261"/>
-      <c r="W8" s="261"/>
-      <c r="X8" s="261"/>
-      <c r="Y8" s="261"/>
-      <c r="Z8" s="261"/>
-      <c r="AA8" s="261"/>
-      <c r="AB8" s="261"/>
-      <c r="AC8" s="261"/>
-      <c r="AD8" s="261"/>
-      <c r="AE8" s="261"/>
-      <c r="AF8" s="261"/>
-      <c r="AG8" s="261"/>
-      <c r="AH8" s="261"/>
-      <c r="AI8" s="261"/>
-      <c r="AJ8" s="261"/>
+      <c r="M8" s="247"/>
+      <c r="N8" s="247"/>
+      <c r="O8" s="247"/>
+      <c r="P8" s="247"/>
+      <c r="Q8" s="247"/>
+      <c r="R8" s="247"/>
+      <c r="S8" s="247"/>
+      <c r="T8" s="247"/>
+      <c r="U8" s="247"/>
+      <c r="V8" s="247"/>
+      <c r="W8" s="247"/>
+      <c r="X8" s="247"/>
+      <c r="Y8" s="247"/>
+      <c r="Z8" s="247"/>
+      <c r="AA8" s="247"/>
+      <c r="AB8" s="247"/>
+      <c r="AC8" s="247"/>
+      <c r="AD8" s="247"/>
+      <c r="AE8" s="247"/>
+      <c r="AF8" s="247"/>
+      <c r="AG8" s="247"/>
+      <c r="AH8" s="247"/>
+      <c r="AI8" s="247"/>
+      <c r="AJ8" s="247"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
@@ -5830,32 +5938,32 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="241" t="s">
+      <c r="M9" s="246" t="s">
         <v>125</v>
       </c>
-      <c r="N9" s="241"/>
-      <c r="O9" s="241"/>
-      <c r="P9" s="241"/>
-      <c r="Q9" s="241"/>
-      <c r="R9" s="241"/>
-      <c r="S9" s="241"/>
-      <c r="T9" s="241"/>
-      <c r="U9" s="241"/>
-      <c r="V9" s="241"/>
-      <c r="W9" s="241"/>
-      <c r="X9" s="241"/>
-      <c r="Y9" s="241"/>
-      <c r="Z9" s="241"/>
-      <c r="AA9" s="241"/>
-      <c r="AB9" s="241"/>
-      <c r="AC9" s="241"/>
-      <c r="AD9" s="241"/>
-      <c r="AE9" s="241"/>
-      <c r="AF9" s="241"/>
-      <c r="AG9" s="241"/>
-      <c r="AH9" s="241"/>
-      <c r="AI9" s="241"/>
-      <c r="AJ9" s="241"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="246"/>
+      <c r="Q9" s="246"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
+      <c r="T9" s="246"/>
+      <c r="U9" s="246"/>
+      <c r="V9" s="246"/>
+      <c r="W9" s="246"/>
+      <c r="X9" s="246"/>
+      <c r="Y9" s="246"/>
+      <c r="Z9" s="246"/>
+      <c r="AA9" s="246"/>
+      <c r="AB9" s="246"/>
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="246"/>
+      <c r="AE9" s="246"/>
+      <c r="AF9" s="246"/>
+      <c r="AG9" s="246"/>
+      <c r="AH9" s="246"/>
+      <c r="AI9" s="246"/>
+      <c r="AJ9" s="246"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
@@ -5997,11 +6105,11 @@
       <c r="AL12" s="102"/>
       <c r="AM12" s="103"/>
       <c r="AN12" s="48"/>
-      <c r="AO12" s="201" t="s">
+      <c r="AO12" s="203" t="s">
         <v>120</v>
       </c>
-      <c r="AP12" s="202"/>
-      <c r="AQ12" s="203"/>
+      <c r="AP12" s="204"/>
+      <c r="AQ12" s="205"/>
       <c r="AR12" s="13"/>
     </row>
     <row r="13" spans="2:44" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6051,21 +6159,21 @@
       </c>
       <c r="J14" s="165"/>
       <c r="K14" s="165"/>
-      <c r="M14" s="254" t="s">
+      <c r="M14" s="251" t="s">
         <v>431</v>
       </c>
-      <c r="N14" s="202"/>
-      <c r="O14" s="202"/>
-      <c r="P14" s="202"/>
-      <c r="Q14" s="202"/>
-      <c r="R14" s="202"/>
-      <c r="S14" s="202"/>
-      <c r="T14" s="202"/>
-      <c r="U14" s="202"/>
-      <c r="V14" s="202"/>
-      <c r="W14" s="202"/>
-      <c r="X14" s="202"/>
-      <c r="Y14" s="203"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="204"/>
+      <c r="P14" s="204"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="204"/>
+      <c r="V14" s="204"/>
+      <c r="W14" s="204"/>
+      <c r="X14" s="204"/>
+      <c r="Y14" s="205"/>
       <c r="AB14" s="12" t="s">
         <v>108</v>
       </c>
@@ -6094,21 +6202,21 @@
       <c r="I15" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M15" s="254" t="s">
+      <c r="M15" s="251" t="s">
         <v>432</v>
       </c>
-      <c r="N15" s="202"/>
-      <c r="O15" s="202"/>
-      <c r="P15" s="202"/>
-      <c r="Q15" s="202"/>
-      <c r="R15" s="202"/>
-      <c r="S15" s="202"/>
-      <c r="T15" s="202"/>
-      <c r="U15" s="202"/>
-      <c r="V15" s="202"/>
-      <c r="W15" s="202"/>
-      <c r="X15" s="202"/>
-      <c r="Y15" s="203"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="204"/>
+      <c r="P15" s="204"/>
+      <c r="Q15" s="204"/>
+      <c r="R15" s="204"/>
+      <c r="S15" s="204"/>
+      <c r="T15" s="204"/>
+      <c r="U15" s="204"/>
+      <c r="V15" s="204"/>
+      <c r="W15" s="204"/>
+      <c r="X15" s="204"/>
+      <c r="Y15" s="205"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
@@ -6137,23 +6245,23 @@
       <c r="I16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="259" t="s">
+      <c r="M16" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="257"/>
-      <c r="O16" s="257"/>
-      <c r="P16" s="257"/>
-      <c r="Q16" s="258"/>
+      <c r="N16" s="254"/>
+      <c r="O16" s="254"/>
+      <c r="P16" s="254"/>
+      <c r="Q16" s="255"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="256" t="s">
+      <c r="S16" s="253" t="s">
         <v>307</v>
       </c>
-      <c r="T16" s="257"/>
-      <c r="U16" s="257"/>
-      <c r="V16" s="257"/>
-      <c r="W16" s="257"/>
-      <c r="X16" s="257"/>
-      <c r="Y16" s="258"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="254"/>
+      <c r="W16" s="254"/>
+      <c r="X16" s="254"/>
+      <c r="Y16" s="255"/>
       <c r="Z16" s="48"/>
       <c r="AA16" s="48"/>
       <c r="AB16" s="48" t="s">
@@ -6394,43 +6502,43 @@
       <c r="B23" s="11"/>
       <c r="G23" s="19"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="260" t="s">
+      <c r="I23" s="257" t="s">
         <v>224</v>
       </c>
-      <c r="J23" s="260"/>
-      <c r="K23" s="260"/>
-      <c r="L23" s="260"/>
-      <c r="M23" s="260"/>
-      <c r="N23" s="260"/>
-      <c r="O23" s="260"/>
-      <c r="P23" s="260"/>
-      <c r="Q23" s="260"/>
-      <c r="R23" s="260"/>
-      <c r="S23" s="260"/>
-      <c r="T23" s="260"/>
-      <c r="U23" s="260"/>
-      <c r="V23" s="260"/>
-      <c r="W23" s="260"/>
-      <c r="X23" s="260"/>
-      <c r="Y23" s="260"/>
-      <c r="Z23" s="260"/>
-      <c r="AA23" s="260"/>
-      <c r="AB23" s="260"/>
-      <c r="AC23" s="260"/>
-      <c r="AD23" s="260"/>
-      <c r="AE23" s="260"/>
-      <c r="AF23" s="260"/>
-      <c r="AG23" s="260"/>
-      <c r="AH23" s="260"/>
-      <c r="AI23" s="260"/>
-      <c r="AJ23" s="260"/>
-      <c r="AK23" s="260"/>
-      <c r="AL23" s="260"/>
-      <c r="AM23" s="260"/>
-      <c r="AN23" s="260"/>
-      <c r="AO23" s="260"/>
-      <c r="AP23" s="260"/>
-      <c r="AQ23" s="260"/>
+      <c r="J23" s="257"/>
+      <c r="K23" s="257"/>
+      <c r="L23" s="257"/>
+      <c r="M23" s="257"/>
+      <c r="N23" s="257"/>
+      <c r="O23" s="257"/>
+      <c r="P23" s="257"/>
+      <c r="Q23" s="257"/>
+      <c r="R23" s="257"/>
+      <c r="S23" s="257"/>
+      <c r="T23" s="257"/>
+      <c r="U23" s="257"/>
+      <c r="V23" s="257"/>
+      <c r="W23" s="257"/>
+      <c r="X23" s="257"/>
+      <c r="Y23" s="257"/>
+      <c r="Z23" s="257"/>
+      <c r="AA23" s="257"/>
+      <c r="AB23" s="257"/>
+      <c r="AC23" s="257"/>
+      <c r="AD23" s="257"/>
+      <c r="AE23" s="257"/>
+      <c r="AF23" s="257"/>
+      <c r="AG23" s="257"/>
+      <c r="AH23" s="257"/>
+      <c r="AI23" s="257"/>
+      <c r="AJ23" s="257"/>
+      <c r="AK23" s="257"/>
+      <c r="AL23" s="257"/>
+      <c r="AM23" s="257"/>
+      <c r="AN23" s="257"/>
+      <c r="AO23" s="257"/>
+      <c r="AP23" s="257"/>
+      <c r="AQ23" s="257"/>
       <c r="AR23" s="13"/>
       <c r="AT23" s="53"/>
       <c r="AU23" s="53"/>
@@ -6506,21 +6614,21 @@
       <c r="B25" s="11"/>
       <c r="G25" s="19"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="255" t="s">
+      <c r="I25" s="252" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="255"/>
-      <c r="K25" s="255"/>
-      <c r="L25" s="255"/>
-      <c r="M25" s="255"/>
-      <c r="N25" s="255"/>
-      <c r="O25" s="255"/>
-      <c r="P25" s="255"/>
-      <c r="Q25" s="255"/>
-      <c r="R25" s="255"/>
-      <c r="S25" s="255"/>
-      <c r="T25" s="255"/>
-      <c r="U25" s="255"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="252"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="252"/>
+      <c r="N25" s="252"/>
+      <c r="O25" s="252"/>
+      <c r="P25" s="252"/>
+      <c r="Q25" s="252"/>
+      <c r="R25" s="252"/>
+      <c r="S25" s="252"/>
+      <c r="T25" s="252"/>
+      <c r="U25" s="252"/>
       <c r="V25" s="104"/>
       <c r="W25" s="104"/>
       <c r="X25" s="104"/>
@@ -6572,21 +6680,21 @@
       <c r="B26" s="11"/>
       <c r="G26" s="19"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="245" t="s">
+      <c r="I26" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="246"/>
-      <c r="K26" s="246"/>
-      <c r="L26" s="246"/>
-      <c r="M26" s="246"/>
-      <c r="N26" s="246"/>
-      <c r="O26" s="246"/>
-      <c r="P26" s="246"/>
-      <c r="Q26" s="246"/>
-      <c r="R26" s="246"/>
-      <c r="S26" s="246"/>
-      <c r="T26" s="246"/>
-      <c r="U26" s="247"/>
+      <c r="J26" s="259"/>
+      <c r="K26" s="259"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="259"/>
+      <c r="N26" s="259"/>
+      <c r="O26" s="259"/>
+      <c r="P26" s="259"/>
+      <c r="Q26" s="259"/>
+      <c r="R26" s="259"/>
+      <c r="S26" s="259"/>
+      <c r="T26" s="259"/>
+      <c r="U26" s="260"/>
       <c r="V26" s="104" t="s">
         <v>318</v>
       </c>
@@ -6618,16 +6726,16 @@
       </c>
       <c r="AY26" s="12"/>
       <c r="AZ26" s="12"/>
-      <c r="BA26" s="213" t="s">
+      <c r="BA26" s="215" t="s">
         <v>162</v>
       </c>
-      <c r="BB26" s="214"/>
-      <c r="BC26" s="214"/>
-      <c r="BD26" s="214"/>
-      <c r="BE26" s="214"/>
-      <c r="BF26" s="214"/>
-      <c r="BG26" s="214"/>
-      <c r="BH26" s="215"/>
+      <c r="BB26" s="216"/>
+      <c r="BC26" s="216"/>
+      <c r="BD26" s="216"/>
+      <c r="BE26" s="216"/>
+      <c r="BF26" s="216"/>
+      <c r="BG26" s="216"/>
+      <c r="BH26" s="217"/>
       <c r="BI26" s="12"/>
       <c r="BJ26" s="12"/>
       <c r="BK26" s="12"/>
@@ -6649,14 +6757,14 @@
       </c>
       <c r="AY27" s="53"/>
       <c r="AZ27" s="53"/>
-      <c r="BA27" s="248"/>
-      <c r="BB27" s="249"/>
-      <c r="BC27" s="249"/>
-      <c r="BD27" s="249"/>
-      <c r="BE27" s="249"/>
-      <c r="BF27" s="249"/>
-      <c r="BG27" s="249"/>
-      <c r="BH27" s="250"/>
+      <c r="BA27" s="261"/>
+      <c r="BB27" s="262"/>
+      <c r="BC27" s="262"/>
+      <c r="BD27" s="262"/>
+      <c r="BE27" s="262"/>
+      <c r="BF27" s="262"/>
+      <c r="BG27" s="262"/>
+      <c r="BH27" s="263"/>
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
@@ -6779,18 +6887,18 @@
       <c r="AX29" s="53"/>
       <c r="AY29" s="53"/>
       <c r="AZ29" s="53"/>
-      <c r="BA29" s="251" t="s">
+      <c r="BA29" s="264" t="s">
         <v>356</v>
       </c>
-      <c r="BB29" s="252"/>
-      <c r="BC29" s="252"/>
-      <c r="BD29" s="253"/>
+      <c r="BB29" s="265"/>
+      <c r="BC29" s="265"/>
+      <c r="BD29" s="266"/>
       <c r="BE29" s="50"/>
-      <c r="BF29" s="251" t="s">
+      <c r="BF29" s="264" t="s">
         <v>355</v>
       </c>
-      <c r="BG29" s="252"/>
-      <c r="BH29" s="253"/>
+      <c r="BG29" s="265"/>
+      <c r="BH29" s="266"/>
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
@@ -8103,6 +8211,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I26:U26"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="BA27:BH27"/>
+    <mergeCell ref="BA29:BD29"/>
+    <mergeCell ref="BF29:BH29"/>
+    <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="M15:Y15"/>
+    <mergeCell ref="I25:U25"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="I23:AQ23"/>
+    <mergeCell ref="M14:Y14"/>
     <mergeCell ref="AL2:AR5"/>
     <mergeCell ref="B1:G5"/>
     <mergeCell ref="M8:AJ8"/>
@@ -8115,18 +8235,6 @@
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="V7:Z7"/>
     <mergeCell ref="AA7:AF7"/>
-    <mergeCell ref="AO12:AQ12"/>
-    <mergeCell ref="M15:Y15"/>
-    <mergeCell ref="I25:U25"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="I23:AQ23"/>
-    <mergeCell ref="M14:Y14"/>
-    <mergeCell ref="I26:U26"/>
-    <mergeCell ref="BA26:BH26"/>
-    <mergeCell ref="BA27:BH27"/>
-    <mergeCell ref="BA29:BD29"/>
-    <mergeCell ref="BF29:BH29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7:C7" location="'Main-logged in'!A1" display="Home"/>
@@ -8166,15 +8274,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="191"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="193"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="68" t="s">
@@ -8769,7 +8877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BE56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
@@ -8787,14 +8895,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="234"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
@@ -8837,12 +8945,12 @@
       <c r="AR1" s="13"/>
     </row>
     <row r="2" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="204"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="208"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="12"/>
@@ -8875,23 +8983,23 @@
       </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="233" t="s">
+      <c r="AL2" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="233"/>
-      <c r="AN2" s="233"/>
-      <c r="AO2" s="233"/>
-      <c r="AP2" s="233"/>
-      <c r="AQ2" s="233"/>
-      <c r="AR2" s="234"/>
+      <c r="AM2" s="241"/>
+      <c r="AN2" s="241"/>
+      <c r="AO2" s="241"/>
+      <c r="AP2" s="241"/>
+      <c r="AQ2" s="241"/>
+      <c r="AR2" s="242"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="12"/>
@@ -8922,21 +9030,21 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="233"/>
-      <c r="AM3" s="233"/>
-      <c r="AN3" s="233"/>
-      <c r="AO3" s="233"/>
-      <c r="AP3" s="233"/>
-      <c r="AQ3" s="233"/>
-      <c r="AR3" s="234"/>
+      <c r="AL3" s="241"/>
+      <c r="AM3" s="241"/>
+      <c r="AN3" s="241"/>
+      <c r="AO3" s="241"/>
+      <c r="AP3" s="241"/>
+      <c r="AQ3" s="241"/>
+      <c r="AR3" s="242"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="208"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="12"/>
@@ -8966,21 +9074,21 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AL4" s="233"/>
-      <c r="AM4" s="233"/>
-      <c r="AN4" s="233"/>
-      <c r="AO4" s="233"/>
-      <c r="AP4" s="233"/>
-      <c r="AQ4" s="233"/>
-      <c r="AR4" s="234"/>
+      <c r="AL4" s="241"/>
+      <c r="AM4" s="241"/>
+      <c r="AN4" s="241"/>
+      <c r="AO4" s="241"/>
+      <c r="AP4" s="241"/>
+      <c r="AQ4" s="241"/>
+      <c r="AR4" s="242"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="207"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="209"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
@@ -9011,60 +9119,60 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
-      <c r="AL5" s="235"/>
-      <c r="AM5" s="235"/>
-      <c r="AN5" s="235"/>
-      <c r="AO5" s="235"/>
-      <c r="AP5" s="235"/>
-      <c r="AQ5" s="235"/>
-      <c r="AR5" s="236"/>
+      <c r="AL5" s="243"/>
+      <c r="AM5" s="243"/>
+      <c r="AN5" s="243"/>
+      <c r="AO5" s="243"/>
+      <c r="AP5" s="243"/>
+      <c r="AQ5" s="243"/>
+      <c r="AR5" s="244"/>
     </row>
     <row r="6" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="175"/>
-      <c r="C6" s="265" t="s">
+      <c r="C6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="271"/>
       <c r="H6" s="137"/>
       <c r="I6" s="137"/>
       <c r="J6" s="137"/>
       <c r="K6" s="59"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="264"/>
-      <c r="V6" s="237"/>
-      <c r="W6" s="238"/>
-      <c r="X6" s="238"/>
-      <c r="Y6" s="238"/>
-      <c r="Z6" s="239"/>
-      <c r="AA6" s="237"/>
-      <c r="AB6" s="238"/>
-      <c r="AC6" s="238"/>
-      <c r="AD6" s="238"/>
-      <c r="AE6" s="238"/>
-      <c r="AF6" s="239"/>
-      <c r="AG6" s="237"/>
-      <c r="AH6" s="238"/>
-      <c r="AI6" s="238"/>
-      <c r="AJ6" s="238"/>
-      <c r="AK6" s="238"/>
-      <c r="AL6" s="239"/>
-      <c r="AM6" s="237"/>
-      <c r="AN6" s="238"/>
-      <c r="AO6" s="238"/>
-      <c r="AP6" s="238"/>
-      <c r="AQ6" s="238"/>
-      <c r="AR6" s="239"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="249"/>
+      <c r="T6" s="249"/>
+      <c r="U6" s="250"/>
+      <c r="V6" s="224"/>
+      <c r="W6" s="225"/>
+      <c r="X6" s="225"/>
+      <c r="Y6" s="225"/>
+      <c r="Z6" s="226"/>
+      <c r="AA6" s="224"/>
+      <c r="AB6" s="225"/>
+      <c r="AC6" s="225"/>
+      <c r="AD6" s="225"/>
+      <c r="AE6" s="225"/>
+      <c r="AF6" s="226"/>
+      <c r="AG6" s="224"/>
+      <c r="AH6" s="225"/>
+      <c r="AI6" s="225"/>
+      <c r="AJ6" s="225"/>
+      <c r="AK6" s="225"/>
+      <c r="AL6" s="226"/>
+      <c r="AM6" s="224"/>
+      <c r="AN6" s="225"/>
+      <c r="AO6" s="225"/>
+      <c r="AP6" s="225"/>
+      <c r="AQ6" s="225"/>
+      <c r="AR6" s="226"/>
     </row>
     <row r="7" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -9078,30 +9186,30 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
-      <c r="Y7" s="261"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="261"/>
-      <c r="AC7" s="261"/>
-      <c r="AD7" s="261"/>
-      <c r="AE7" s="261"/>
-      <c r="AF7" s="261"/>
-      <c r="AG7" s="261"/>
-      <c r="AH7" s="261"/>
-      <c r="AI7" s="261"/>
-      <c r="AJ7" s="261"/>
+      <c r="M7" s="247"/>
+      <c r="N7" s="247"/>
+      <c r="O7" s="247"/>
+      <c r="P7" s="247"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="247"/>
+      <c r="S7" s="247"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="247"/>
+      <c r="W7" s="247"/>
+      <c r="X7" s="247"/>
+      <c r="Y7" s="247"/>
+      <c r="Z7" s="247"/>
+      <c r="AA7" s="247"/>
+      <c r="AB7" s="247"/>
+      <c r="AC7" s="247"/>
+      <c r="AD7" s="247"/>
+      <c r="AE7" s="247"/>
+      <c r="AF7" s="247"/>
+      <c r="AG7" s="247"/>
+      <c r="AH7" s="247"/>
+      <c r="AI7" s="247"/>
+      <c r="AJ7" s="247"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
@@ -9121,43 +9229,43 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="241" t="s">
+      <c r="I8" s="246" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="241"/>
-      <c r="N8" s="241"/>
-      <c r="O8" s="241"/>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="241"/>
-      <c r="R8" s="241"/>
-      <c r="S8" s="241"/>
-      <c r="T8" s="241"/>
-      <c r="U8" s="241"/>
-      <c r="V8" s="241"/>
-      <c r="W8" s="241"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="241"/>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="241"/>
-      <c r="AB8" s="241"/>
-      <c r="AC8" s="241"/>
-      <c r="AD8" s="241"/>
-      <c r="AE8" s="241"/>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="241"/>
-      <c r="AH8" s="241"/>
-      <c r="AI8" s="241"/>
-      <c r="AJ8" s="241"/>
-      <c r="AK8" s="241"/>
-      <c r="AL8" s="241"/>
-      <c r="AM8" s="241"/>
-      <c r="AN8" s="241"/>
-      <c r="AO8" s="241"/>
-      <c r="AP8" s="241"/>
-      <c r="AQ8" s="241"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="246"/>
+      <c r="AG8" s="246"/>
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="246"/>
+      <c r="AK8" s="246"/>
+      <c r="AL8" s="246"/>
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="246"/>
+      <c r="AO8" s="246"/>
+      <c r="AP8" s="246"/>
+      <c r="AQ8" s="246"/>
       <c r="AR8" s="13"/>
     </row>
     <row r="9" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9201,11 +9309,11 @@
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
       <c r="AN9" s="12"/>
-      <c r="AO9" s="277" t="s">
+      <c r="AO9" s="267" t="s">
         <v>314</v>
       </c>
-      <c r="AP9" s="275"/>
-      <c r="AQ9" s="276"/>
+      <c r="AP9" s="268"/>
+      <c r="AQ9" s="269"/>
       <c r="AR9" s="13"/>
     </row>
     <row r="10" spans="2:44" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9290,11 +9398,11 @@
       <c r="AL11" s="169"/>
       <c r="AM11" s="169"/>
       <c r="AN11" s="169"/>
-      <c r="AO11" s="270" t="s">
+      <c r="AO11" s="275" t="s">
         <v>337</v>
       </c>
-      <c r="AP11" s="271"/>
-      <c r="AQ11" s="272"/>
+      <c r="AP11" s="276"/>
+      <c r="AQ11" s="277"/>
       <c r="AR11" s="13"/>
     </row>
     <row r="12" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9336,15 +9444,15 @@
       <c r="AJ12" s="172"/>
       <c r="AK12" s="172"/>
       <c r="AL12" s="172"/>
-      <c r="AM12" s="274" t="s">
+      <c r="AM12" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="AN12" s="276"/>
-      <c r="AO12" s="274" t="s">
+      <c r="AN12" s="269"/>
+      <c r="AO12" s="279" t="s">
         <v>337</v>
       </c>
-      <c r="AP12" s="275"/>
-      <c r="AQ12" s="276"/>
+      <c r="AP12" s="268"/>
+      <c r="AQ12" s="269"/>
       <c r="AR12" s="13"/>
     </row>
     <row r="13" spans="2:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9364,43 +9472,43 @@
       <c r="N13" s="169"/>
       <c r="O13" s="169"/>
       <c r="P13" s="169"/>
-      <c r="Q13" s="248" t="s">
+      <c r="Q13" s="261" t="s">
         <v>348</v>
       </c>
-      <c r="R13" s="249"/>
-      <c r="S13" s="249"/>
-      <c r="T13" s="249"/>
-      <c r="U13" s="250"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="262"/>
+      <c r="T13" s="262"/>
+      <c r="U13" s="263"/>
       <c r="V13" s="170"/>
-      <c r="W13" s="248" t="s">
+      <c r="W13" s="261" t="s">
         <v>187</v>
       </c>
-      <c r="X13" s="249"/>
-      <c r="Y13" s="249"/>
-      <c r="Z13" s="249"/>
-      <c r="AA13" s="249"/>
-      <c r="AB13" s="250"/>
+      <c r="X13" s="262"/>
+      <c r="Y13" s="262"/>
+      <c r="Z13" s="262"/>
+      <c r="AA13" s="262"/>
+      <c r="AB13" s="263"/>
       <c r="AC13" s="168"/>
-      <c r="AD13" s="248" t="s">
+      <c r="AD13" s="261" t="s">
         <v>349</v>
       </c>
-      <c r="AE13" s="249"/>
-      <c r="AF13" s="249"/>
-      <c r="AG13" s="249"/>
-      <c r="AH13" s="249"/>
-      <c r="AI13" s="249"/>
-      <c r="AJ13" s="250"/>
+      <c r="AE13" s="262"/>
+      <c r="AF13" s="262"/>
+      <c r="AG13" s="262"/>
+      <c r="AH13" s="262"/>
+      <c r="AI13" s="262"/>
+      <c r="AJ13" s="263"/>
       <c r="AK13" s="169"/>
       <c r="AL13" s="169"/>
-      <c r="AM13" s="270" t="s">
+      <c r="AM13" s="275" t="s">
         <v>355</v>
       </c>
-      <c r="AN13" s="272"/>
-      <c r="AO13" s="270" t="s">
+      <c r="AN13" s="277"/>
+      <c r="AO13" s="275" t="s">
         <v>356</v>
       </c>
-      <c r="AP13" s="271"/>
-      <c r="AQ13" s="272"/>
+      <c r="AP13" s="276"/>
+      <c r="AQ13" s="277"/>
       <c r="AR13" s="13"/>
     </row>
     <row r="14" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9474,64 +9582,64 @@
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
-      <c r="AG15" s="213" t="s">
+      <c r="AG15" s="215" t="s">
         <v>335</v>
       </c>
-      <c r="AH15" s="214"/>
-      <c r="AI15" s="214"/>
-      <c r="AJ15" s="214"/>
-      <c r="AK15" s="214"/>
-      <c r="AL15" s="214"/>
-      <c r="AM15" s="214"/>
-      <c r="AN15" s="215"/>
-      <c r="AO15" s="274" t="s">
+      <c r="AH15" s="216"/>
+      <c r="AI15" s="216"/>
+      <c r="AJ15" s="216"/>
+      <c r="AK15" s="216"/>
+      <c r="AL15" s="216"/>
+      <c r="AM15" s="216"/>
+      <c r="AN15" s="217"/>
+      <c r="AO15" s="279" t="s">
         <v>368</v>
       </c>
-      <c r="AP15" s="275"/>
-      <c r="AQ15" s="276"/>
+      <c r="AP15" s="268"/>
+      <c r="AQ15" s="269"/>
       <c r="AR15" s="13"/>
     </row>
     <row r="16" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="G16" s="19"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="273" t="s">
+      <c r="I16" s="278" t="s">
         <v>334</v>
       </c>
-      <c r="J16" s="273"/>
-      <c r="K16" s="273"/>
-      <c r="L16" s="273"/>
-      <c r="M16" s="273"/>
-      <c r="N16" s="273"/>
-      <c r="O16" s="273"/>
-      <c r="P16" s="273"/>
-      <c r="Q16" s="273"/>
-      <c r="R16" s="273"/>
-      <c r="S16" s="273"/>
-      <c r="T16" s="273"/>
-      <c r="U16" s="273"/>
-      <c r="V16" s="273"/>
-      <c r="W16" s="273"/>
-      <c r="X16" s="273"/>
-      <c r="Y16" s="273"/>
-      <c r="Z16" s="273"/>
-      <c r="AA16" s="273"/>
-      <c r="AB16" s="273"/>
-      <c r="AC16" s="273"/>
-      <c r="AD16" s="273"/>
-      <c r="AE16" s="273"/>
-      <c r="AF16" s="273"/>
-      <c r="AG16" s="273"/>
-      <c r="AH16" s="273"/>
-      <c r="AI16" s="273"/>
-      <c r="AJ16" s="273"/>
-      <c r="AK16" s="273"/>
-      <c r="AL16" s="273"/>
-      <c r="AM16" s="273"/>
-      <c r="AN16" s="273"/>
-      <c r="AO16" s="273"/>
-      <c r="AP16" s="273"/>
-      <c r="AQ16" s="273"/>
+      <c r="J16" s="278"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="278"/>
+      <c r="M16" s="278"/>
+      <c r="N16" s="278"/>
+      <c r="O16" s="278"/>
+      <c r="P16" s="278"/>
+      <c r="Q16" s="278"/>
+      <c r="R16" s="278"/>
+      <c r="S16" s="278"/>
+      <c r="T16" s="278"/>
+      <c r="U16" s="278"/>
+      <c r="V16" s="278"/>
+      <c r="W16" s="278"/>
+      <c r="X16" s="278"/>
+      <c r="Y16" s="278"/>
+      <c r="Z16" s="278"/>
+      <c r="AA16" s="278"/>
+      <c r="AB16" s="278"/>
+      <c r="AC16" s="278"/>
+      <c r="AD16" s="278"/>
+      <c r="AE16" s="278"/>
+      <c r="AF16" s="278"/>
+      <c r="AG16" s="278"/>
+      <c r="AH16" s="278"/>
+      <c r="AI16" s="278"/>
+      <c r="AJ16" s="278"/>
+      <c r="AK16" s="278"/>
+      <c r="AL16" s="278"/>
+      <c r="AM16" s="278"/>
+      <c r="AN16" s="278"/>
+      <c r="AO16" s="278"/>
+      <c r="AP16" s="278"/>
+      <c r="AQ16" s="278"/>
       <c r="AR16" s="13"/>
     </row>
     <row r="17" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9752,43 +9860,43 @@
       <c r="B21" s="11"/>
       <c r="G21" s="19"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="273" t="s">
+      <c r="I21" s="278" t="s">
         <v>339</v>
       </c>
-      <c r="J21" s="273"/>
-      <c r="K21" s="273"/>
-      <c r="L21" s="273"/>
-      <c r="M21" s="273"/>
-      <c r="N21" s="273"/>
-      <c r="O21" s="273"/>
-      <c r="P21" s="273"/>
-      <c r="Q21" s="273"/>
-      <c r="R21" s="273"/>
-      <c r="S21" s="273"/>
-      <c r="T21" s="273"/>
-      <c r="U21" s="273"/>
-      <c r="V21" s="273"/>
-      <c r="W21" s="273"/>
-      <c r="X21" s="273"/>
-      <c r="Y21" s="273"/>
-      <c r="Z21" s="273"/>
-      <c r="AA21" s="273"/>
-      <c r="AB21" s="273"/>
-      <c r="AC21" s="273"/>
-      <c r="AD21" s="273"/>
-      <c r="AE21" s="273"/>
-      <c r="AF21" s="273"/>
-      <c r="AG21" s="273"/>
-      <c r="AH21" s="273"/>
-      <c r="AI21" s="273"/>
-      <c r="AJ21" s="273"/>
-      <c r="AK21" s="273"/>
-      <c r="AL21" s="273"/>
-      <c r="AM21" s="273"/>
-      <c r="AN21" s="273"/>
-      <c r="AO21" s="273"/>
-      <c r="AP21" s="273"/>
-      <c r="AQ21" s="273"/>
+      <c r="J21" s="278"/>
+      <c r="K21" s="278"/>
+      <c r="L21" s="278"/>
+      <c r="M21" s="278"/>
+      <c r="N21" s="278"/>
+      <c r="O21" s="278"/>
+      <c r="P21" s="278"/>
+      <c r="Q21" s="278"/>
+      <c r="R21" s="278"/>
+      <c r="S21" s="278"/>
+      <c r="T21" s="278"/>
+      <c r="U21" s="278"/>
+      <c r="V21" s="278"/>
+      <c r="W21" s="278"/>
+      <c r="X21" s="278"/>
+      <c r="Y21" s="278"/>
+      <c r="Z21" s="278"/>
+      <c r="AA21" s="278"/>
+      <c r="AB21" s="278"/>
+      <c r="AC21" s="278"/>
+      <c r="AD21" s="278"/>
+      <c r="AE21" s="278"/>
+      <c r="AF21" s="278"/>
+      <c r="AG21" s="278"/>
+      <c r="AH21" s="278"/>
+      <c r="AI21" s="278"/>
+      <c r="AJ21" s="278"/>
+      <c r="AK21" s="278"/>
+      <c r="AL21" s="278"/>
+      <c r="AM21" s="278"/>
+      <c r="AN21" s="278"/>
+      <c r="AO21" s="278"/>
+      <c r="AP21" s="278"/>
+      <c r="AQ21" s="278"/>
       <c r="AR21" s="13"/>
       <c r="AT21" s="53"/>
       <c r="AU21" s="106"/>
@@ -10353,50 +10461,50 @@
       <c r="B37" s="122">
         <v>1</v>
       </c>
-      <c r="C37" s="267" t="s">
+      <c r="C37" s="272" t="s">
         <v>436</v>
       </c>
-      <c r="D37" s="268"/>
-      <c r="E37" s="268"/>
-      <c r="F37" s="268"/>
-      <c r="G37" s="268"/>
-      <c r="H37" s="268"/>
-      <c r="I37" s="268"/>
-      <c r="J37" s="268"/>
-      <c r="K37" s="268"/>
-      <c r="L37" s="268"/>
-      <c r="M37" s="268"/>
-      <c r="N37" s="268"/>
-      <c r="O37" s="268"/>
-      <c r="P37" s="268"/>
-      <c r="Q37" s="268"/>
-      <c r="R37" s="268"/>
-      <c r="S37" s="268"/>
-      <c r="T37" s="268"/>
-      <c r="U37" s="268"/>
-      <c r="V37" s="268"/>
-      <c r="W37" s="268"/>
-      <c r="X37" s="268"/>
-      <c r="Y37" s="268"/>
-      <c r="Z37" s="268"/>
-      <c r="AA37" s="268"/>
-      <c r="AB37" s="268"/>
-      <c r="AC37" s="268"/>
-      <c r="AD37" s="268"/>
-      <c r="AE37" s="268"/>
-      <c r="AF37" s="268"/>
-      <c r="AG37" s="268"/>
-      <c r="AH37" s="268"/>
-      <c r="AI37" s="268"/>
-      <c r="AJ37" s="268"/>
-      <c r="AK37" s="268"/>
-      <c r="AL37" s="268"/>
-      <c r="AM37" s="268"/>
-      <c r="AN37" s="268"/>
-      <c r="AO37" s="268"/>
-      <c r="AP37" s="268"/>
-      <c r="AQ37" s="268"/>
-      <c r="AR37" s="269"/>
+      <c r="D37" s="273"/>
+      <c r="E37" s="273"/>
+      <c r="F37" s="273"/>
+      <c r="G37" s="273"/>
+      <c r="H37" s="273"/>
+      <c r="I37" s="273"/>
+      <c r="J37" s="273"/>
+      <c r="K37" s="273"/>
+      <c r="L37" s="273"/>
+      <c r="M37" s="273"/>
+      <c r="N37" s="273"/>
+      <c r="O37" s="273"/>
+      <c r="P37" s="273"/>
+      <c r="Q37" s="273"/>
+      <c r="R37" s="273"/>
+      <c r="S37" s="273"/>
+      <c r="T37" s="273"/>
+      <c r="U37" s="273"/>
+      <c r="V37" s="273"/>
+      <c r="W37" s="273"/>
+      <c r="X37" s="273"/>
+      <c r="Y37" s="273"/>
+      <c r="Z37" s="273"/>
+      <c r="AA37" s="273"/>
+      <c r="AB37" s="273"/>
+      <c r="AC37" s="273"/>
+      <c r="AD37" s="273"/>
+      <c r="AE37" s="273"/>
+      <c r="AF37" s="273"/>
+      <c r="AG37" s="273"/>
+      <c r="AH37" s="273"/>
+      <c r="AI37" s="273"/>
+      <c r="AJ37" s="273"/>
+      <c r="AK37" s="273"/>
+      <c r="AL37" s="273"/>
+      <c r="AM37" s="273"/>
+      <c r="AN37" s="273"/>
+      <c r="AO37" s="273"/>
+      <c r="AP37" s="273"/>
+      <c r="AQ37" s="273"/>
+      <c r="AR37" s="274"/>
       <c r="AS37" s="53"/>
       <c r="AU37" s="29"/>
     </row>
@@ -11240,16 +11348,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="AL2:AR5"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AA6:AF6"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AM6:AR6"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="C37:AR37"/>
     <mergeCell ref="AO11:AQ11"/>
     <mergeCell ref="AO13:AQ13"/>
@@ -11262,8 +11360,18 @@
     <mergeCell ref="AO15:AQ15"/>
     <mergeCell ref="AM12:AN12"/>
     <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="I21:AQ21"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="AL2:AR5"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="AG6:AL6"/>
+    <mergeCell ref="AM6:AR6"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="M7:AJ7"/>
-    <mergeCell ref="I21:AQ21"/>
     <mergeCell ref="I8:AQ8"/>
   </mergeCells>
   <hyperlinks>
@@ -11282,7 +11390,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11300,15 +11408,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="191"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="193"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="68" t="s">
@@ -11821,8 +11929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BF56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11841,14 +11949,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="234"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -11892,12 +12000,12 @@
       <c r="AS1" s="13"/>
     </row>
     <row r="2" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="204"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="208"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -11931,23 +12039,23 @@
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
-      <c r="AM2" s="233" t="s">
+      <c r="AM2" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="AN2" s="233"/>
-      <c r="AO2" s="233"/>
-      <c r="AP2" s="233"/>
-      <c r="AQ2" s="233"/>
-      <c r="AR2" s="233"/>
-      <c r="AS2" s="234"/>
+      <c r="AN2" s="241"/>
+      <c r="AO2" s="241"/>
+      <c r="AP2" s="241"/>
+      <c r="AQ2" s="241"/>
+      <c r="AR2" s="241"/>
+      <c r="AS2" s="242"/>
     </row>
     <row r="3" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -11979,21 +12087,21 @@
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
-      <c r="AM3" s="233"/>
-      <c r="AN3" s="233"/>
-      <c r="AO3" s="233"/>
-      <c r="AP3" s="233"/>
-      <c r="AQ3" s="233"/>
-      <c r="AR3" s="233"/>
-      <c r="AS3" s="234"/>
+      <c r="AM3" s="241"/>
+      <c r="AN3" s="241"/>
+      <c r="AO3" s="241"/>
+      <c r="AP3" s="241"/>
+      <c r="AQ3" s="241"/>
+      <c r="AR3" s="241"/>
+      <c r="AS3" s="242"/>
     </row>
     <row r="4" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="208"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -12024,21 +12132,21 @@
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
       <c r="AK4" s="12"/>
-      <c r="AM4" s="233"/>
-      <c r="AN4" s="233"/>
-      <c r="AO4" s="233"/>
-      <c r="AP4" s="233"/>
-      <c r="AQ4" s="233"/>
-      <c r="AR4" s="233"/>
-      <c r="AS4" s="234"/>
+      <c r="AM4" s="241"/>
+      <c r="AN4" s="241"/>
+      <c r="AO4" s="241"/>
+      <c r="AP4" s="241"/>
+      <c r="AQ4" s="241"/>
+      <c r="AR4" s="241"/>
+      <c r="AS4" s="242"/>
     </row>
     <row r="5" spans="2:58" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="207"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="209"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -12070,61 +12178,61 @@
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
       <c r="AL5" s="16"/>
-      <c r="AM5" s="235"/>
-      <c r="AN5" s="235"/>
-      <c r="AO5" s="235"/>
-      <c r="AP5" s="235"/>
-      <c r="AQ5" s="235"/>
-      <c r="AR5" s="235"/>
-      <c r="AS5" s="236"/>
+      <c r="AM5" s="243"/>
+      <c r="AN5" s="243"/>
+      <c r="AO5" s="243"/>
+      <c r="AP5" s="243"/>
+      <c r="AQ5" s="243"/>
+      <c r="AR5" s="243"/>
+      <c r="AS5" s="244"/>
     </row>
     <row r="6" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="237" t="s">
+      <c r="B6" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="239"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="239"/>
-      <c r="M6" s="237"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="262"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="264"/>
-      <c r="W6" s="237"/>
-      <c r="X6" s="238"/>
-      <c r="Y6" s="238"/>
-      <c r="Z6" s="238"/>
-      <c r="AA6" s="239"/>
-      <c r="AB6" s="237"/>
-      <c r="AC6" s="238"/>
-      <c r="AD6" s="238"/>
-      <c r="AE6" s="238"/>
-      <c r="AF6" s="238"/>
-      <c r="AG6" s="239"/>
-      <c r="AH6" s="237"/>
-      <c r="AI6" s="238"/>
-      <c r="AJ6" s="238"/>
-      <c r="AK6" s="238"/>
-      <c r="AL6" s="238"/>
-      <c r="AM6" s="239"/>
-      <c r="AN6" s="237"/>
-      <c r="AO6" s="238"/>
-      <c r="AP6" s="238"/>
-      <c r="AQ6" s="238"/>
-      <c r="AR6" s="238"/>
-      <c r="AS6" s="239"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="224"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="225"/>
+      <c r="R6" s="226"/>
+      <c r="S6" s="248"/>
+      <c r="T6" s="249"/>
+      <c r="U6" s="249"/>
+      <c r="V6" s="250"/>
+      <c r="W6" s="224"/>
+      <c r="X6" s="225"/>
+      <c r="Y6" s="225"/>
+      <c r="Z6" s="225"/>
+      <c r="AA6" s="226"/>
+      <c r="AB6" s="224"/>
+      <c r="AC6" s="225"/>
+      <c r="AD6" s="225"/>
+      <c r="AE6" s="225"/>
+      <c r="AF6" s="225"/>
+      <c r="AG6" s="226"/>
+      <c r="AH6" s="224"/>
+      <c r="AI6" s="225"/>
+      <c r="AJ6" s="225"/>
+      <c r="AK6" s="225"/>
+      <c r="AL6" s="225"/>
+      <c r="AM6" s="226"/>
+      <c r="AN6" s="224"/>
+      <c r="AO6" s="225"/>
+      <c r="AP6" s="225"/>
+      <c r="AQ6" s="225"/>
+      <c r="AR6" s="225"/>
+      <c r="AS6" s="226"/>
     </row>
     <row r="7" spans="2:58" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -12139,30 +12247,30 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
-      <c r="Y7" s="261"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="261"/>
-      <c r="AC7" s="261"/>
-      <c r="AD7" s="261"/>
-      <c r="AE7" s="261"/>
-      <c r="AF7" s="261"/>
-      <c r="AG7" s="261"/>
-      <c r="AH7" s="261"/>
-      <c r="AI7" s="261"/>
-      <c r="AJ7" s="261"/>
-      <c r="AK7" s="261"/>
+      <c r="N7" s="247"/>
+      <c r="O7" s="247"/>
+      <c r="P7" s="247"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="247"/>
+      <c r="S7" s="247"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="247"/>
+      <c r="W7" s="247"/>
+      <c r="X7" s="247"/>
+      <c r="Y7" s="247"/>
+      <c r="Z7" s="247"/>
+      <c r="AA7" s="247"/>
+      <c r="AB7" s="247"/>
+      <c r="AC7" s="247"/>
+      <c r="AD7" s="247"/>
+      <c r="AE7" s="247"/>
+      <c r="AF7" s="247"/>
+      <c r="AG7" s="247"/>
+      <c r="AH7" s="247"/>
+      <c r="AI7" s="247"/>
+      <c r="AJ7" s="247"/>
+      <c r="AK7" s="247"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
@@ -12182,44 +12290,44 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="241" t="s">
+      <c r="I8" s="246" t="s">
         <v>399</v>
       </c>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="241"/>
-      <c r="N8" s="241"/>
-      <c r="O8" s="241"/>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="241"/>
-      <c r="R8" s="241"/>
-      <c r="S8" s="241"/>
-      <c r="T8" s="241"/>
-      <c r="U8" s="241"/>
-      <c r="V8" s="241"/>
-      <c r="W8" s="241"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="241"/>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="241"/>
-      <c r="AB8" s="241"/>
-      <c r="AC8" s="241"/>
-      <c r="AD8" s="241"/>
-      <c r="AE8" s="241"/>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="241"/>
-      <c r="AH8" s="241"/>
-      <c r="AI8" s="241"/>
-      <c r="AJ8" s="241"/>
-      <c r="AK8" s="241"/>
-      <c r="AL8" s="241"/>
-      <c r="AM8" s="241"/>
-      <c r="AN8" s="241"/>
-      <c r="AO8" s="241"/>
-      <c r="AP8" s="241"/>
-      <c r="AQ8" s="241"/>
-      <c r="AR8" s="241"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="246"/>
+      <c r="AG8" s="246"/>
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="246"/>
+      <c r="AK8" s="246"/>
+      <c r="AL8" s="246"/>
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="246"/>
+      <c r="AO8" s="246"/>
+      <c r="AP8" s="246"/>
+      <c r="AQ8" s="246"/>
+      <c r="AR8" s="246"/>
       <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12234,13 +12342,13 @@
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="214"/>
-      <c r="P9" s="214"/>
-      <c r="Q9" s="214"/>
-      <c r="R9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="216"/>
+      <c r="N9" s="216"/>
+      <c r="O9" s="216"/>
+      <c r="P9" s="216"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="217"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12" t="s">
         <v>405</v>
@@ -12281,35 +12389,35 @@
       <c r="I10" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="L10" s="201" t="s">
+      <c r="L10" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="202"/>
-      <c r="R10" s="203"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="205"/>
       <c r="S10" s="48"/>
-      <c r="T10" s="201" t="s">
+      <c r="T10" s="203" t="s">
         <v>400</v>
       </c>
-      <c r="U10" s="202"/>
-      <c r="V10" s="202"/>
-      <c r="W10" s="202"/>
-      <c r="X10" s="202"/>
-      <c r="Y10" s="202"/>
-      <c r="Z10" s="202"/>
-      <c r="AA10" s="202"/>
-      <c r="AB10" s="202"/>
-      <c r="AC10" s="202"/>
-      <c r="AD10" s="202"/>
-      <c r="AE10" s="202"/>
-      <c r="AF10" s="202"/>
-      <c r="AG10" s="202"/>
-      <c r="AH10" s="202"/>
-      <c r="AI10" s="202"/>
-      <c r="AJ10" s="203"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="204"/>
+      <c r="AF10" s="204"/>
+      <c r="AG10" s="204"/>
+      <c r="AH10" s="204"/>
+      <c r="AI10" s="204"/>
+      <c r="AJ10" s="205"/>
       <c r="AK10" s="53"/>
       <c r="AL10" s="53"/>
       <c r="AM10" s="53"/>
@@ -12374,44 +12482,44 @@
         <v>402</v>
       </c>
       <c r="K12" s="53"/>
-      <c r="L12" s="248" t="s">
+      <c r="L12" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="249"/>
-      <c r="N12" s="249"/>
-      <c r="O12" s="249"/>
-      <c r="P12" s="249"/>
-      <c r="Q12" s="249"/>
-      <c r="R12" s="250"/>
+      <c r="M12" s="262"/>
+      <c r="N12" s="262"/>
+      <c r="O12" s="262"/>
+      <c r="P12" s="262"/>
+      <c r="Q12" s="262"/>
+      <c r="R12" s="263"/>
       <c r="S12" s="53"/>
-      <c r="T12" s="196" t="s">
+      <c r="T12" s="198" t="s">
         <v>400</v>
       </c>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="197"/>
-      <c r="AC12" s="197"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="197"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="197"/>
-      <c r="AH12" s="197"/>
-      <c r="AI12" s="197"/>
-      <c r="AJ12" s="198"/>
+      <c r="U12" s="199"/>
+      <c r="V12" s="199"/>
+      <c r="W12" s="199"/>
+      <c r="X12" s="199"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="199"/>
+      <c r="AA12" s="199"/>
+      <c r="AB12" s="199"/>
+      <c r="AC12" s="199"/>
+      <c r="AD12" s="199"/>
+      <c r="AE12" s="199"/>
+      <c r="AF12" s="199"/>
+      <c r="AG12" s="199"/>
+      <c r="AH12" s="199"/>
+      <c r="AI12" s="199"/>
+      <c r="AJ12" s="200"/>
       <c r="AK12" s="53"/>
-      <c r="AL12" s="222" t="s">
+      <c r="AL12" s="230" t="s">
         <v>403</v>
       </c>
-      <c r="AM12" s="223"/>
-      <c r="AN12" s="223"/>
-      <c r="AO12" s="223"/>
-      <c r="AP12" s="223"/>
-      <c r="AQ12" s="224"/>
+      <c r="AM12" s="231"/>
+      <c r="AN12" s="231"/>
+      <c r="AO12" s="231"/>
+      <c r="AP12" s="231"/>
+      <c r="AQ12" s="232"/>
       <c r="AR12" s="48"/>
       <c r="AS12" s="13"/>
     </row>
@@ -12462,10 +12570,10 @@
       <c r="I14" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="L14" s="213">
+      <c r="L14" s="215">
         <v>10</v>
       </c>
-      <c r="M14" s="215"/>
+      <c r="M14" s="217"/>
       <c r="N14" s="27" t="s">
         <v>256</v>
       </c>
@@ -12585,14 +12693,14 @@
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="37"/>
-      <c r="R16" s="227" t="s">
+      <c r="R16" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="S16" s="228"/>
-      <c r="T16" s="228"/>
-      <c r="U16" s="228"/>
-      <c r="V16" s="228"/>
-      <c r="W16" s="229"/>
+      <c r="S16" s="236"/>
+      <c r="T16" s="236"/>
+      <c r="U16" s="236"/>
+      <c r="V16" s="236"/>
+      <c r="W16" s="237"/>
       <c r="X16" s="38" t="s">
         <v>48</v>
       </c>
@@ -12600,18 +12708,18 @@
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
-      <c r="AC16" s="227" t="s">
+      <c r="AC16" s="235" t="s">
         <v>406</v>
       </c>
-      <c r="AD16" s="228"/>
-      <c r="AE16" s="228"/>
-      <c r="AF16" s="229"/>
+      <c r="AD16" s="236"/>
+      <c r="AE16" s="236"/>
+      <c r="AF16" s="237"/>
       <c r="AG16" s="38"/>
-      <c r="AH16" s="231" t="s">
+      <c r="AH16" s="239" t="s">
         <v>82</v>
       </c>
-      <c r="AI16" s="231"/>
-      <c r="AJ16" s="232"/>
+      <c r="AI16" s="239"/>
+      <c r="AJ16" s="240"/>
       <c r="AK16" s="36" t="s">
         <v>49</v>
       </c>
@@ -12862,42 +12970,42 @@
       <c r="B21" s="11"/>
       <c r="G21" s="19"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="278"/>
-      <c r="K21" s="278"/>
-      <c r="L21" s="278"/>
-      <c r="M21" s="278"/>
-      <c r="N21" s="278"/>
-      <c r="O21" s="278"/>
-      <c r="P21" s="278"/>
-      <c r="Q21" s="278"/>
-      <c r="R21" s="278"/>
-      <c r="S21" s="278"/>
-      <c r="T21" s="278"/>
-      <c r="U21" s="278"/>
-      <c r="V21" s="278"/>
-      <c r="W21" s="278"/>
-      <c r="X21" s="278"/>
-      <c r="Y21" s="278"/>
-      <c r="Z21" s="278"/>
-      <c r="AA21" s="278"/>
-      <c r="AB21" s="278"/>
-      <c r="AC21" s="278"/>
-      <c r="AD21" s="278"/>
-      <c r="AE21" s="278"/>
-      <c r="AF21" s="278"/>
-      <c r="AG21" s="278"/>
-      <c r="AH21" s="278"/>
-      <c r="AI21" s="278"/>
-      <c r="AJ21" s="278"/>
-      <c r="AK21" s="278"/>
-      <c r="AL21" s="278"/>
-      <c r="AM21" s="278"/>
-      <c r="AN21" s="278"/>
-      <c r="AO21" s="278"/>
-      <c r="AP21" s="278"/>
-      <c r="AQ21" s="278"/>
-      <c r="AR21" s="278"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="280"/>
+      <c r="M21" s="280"/>
+      <c r="N21" s="280"/>
+      <c r="O21" s="280"/>
+      <c r="P21" s="280"/>
+      <c r="Q21" s="280"/>
+      <c r="R21" s="280"/>
+      <c r="S21" s="280"/>
+      <c r="T21" s="280"/>
+      <c r="U21" s="280"/>
+      <c r="V21" s="280"/>
+      <c r="W21" s="280"/>
+      <c r="X21" s="280"/>
+      <c r="Y21" s="280"/>
+      <c r="Z21" s="280"/>
+      <c r="AA21" s="280"/>
+      <c r="AB21" s="280"/>
+      <c r="AC21" s="280"/>
+      <c r="AD21" s="280"/>
+      <c r="AE21" s="280"/>
+      <c r="AF21" s="280"/>
+      <c r="AG21" s="280"/>
+      <c r="AH21" s="280"/>
+      <c r="AI21" s="280"/>
+      <c r="AJ21" s="280"/>
+      <c r="AK21" s="280"/>
+      <c r="AL21" s="280"/>
+      <c r="AM21" s="280"/>
+      <c r="AN21" s="280"/>
+      <c r="AO21" s="280"/>
+      <c r="AP21" s="280"/>
+      <c r="AQ21" s="280"/>
+      <c r="AR21" s="280"/>
       <c r="AS21" s="13"/>
       <c r="AU21" s="53"/>
       <c r="AV21" s="106"/>
@@ -13080,18 +13188,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="104"/>
       <c r="J25" s="104"/>
-      <c r="K25" s="255"/>
-      <c r="L25" s="255"/>
-      <c r="M25" s="255"/>
-      <c r="N25" s="255"/>
-      <c r="O25" s="255"/>
-      <c r="P25" s="255"/>
-      <c r="Q25" s="255"/>
-      <c r="R25" s="255"/>
-      <c r="S25" s="255"/>
-      <c r="T25" s="255"/>
-      <c r="U25" s="255"/>
-      <c r="V25" s="255"/>
+      <c r="K25" s="252"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="252"/>
+      <c r="N25" s="252"/>
+      <c r="O25" s="252"/>
+      <c r="P25" s="252"/>
+      <c r="Q25" s="252"/>
+      <c r="R25" s="252"/>
+      <c r="S25" s="252"/>
+      <c r="T25" s="252"/>
+      <c r="U25" s="252"/>
+      <c r="V25" s="252"/>
       <c r="W25" s="104"/>
       <c r="X25" s="104"/>
       <c r="Y25" s="104"/>
@@ -14378,6 +14486,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="T10:AJ10"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="T12:AJ12"/>
     <mergeCell ref="AL12:AQ12"/>
     <mergeCell ref="N7:AK7"/>
     <mergeCell ref="I21:AR21"/>
@@ -14394,14 +14510,6 @@
     <mergeCell ref="AN6:AS6"/>
     <mergeCell ref="I8:AR8"/>
     <mergeCell ref="L10:R10"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="T10:AJ10"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="T12:AJ12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6:C6" location="'Main-logged in'!A1" display="Home"/>
@@ -14414,9 +14522,589 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="28" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.7109375" style="67" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="191" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="193"/>
+    </row>
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="74"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="78">
+        <v>1</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="78">
+        <v>2</v>
+      </c>
+      <c r="C7" s="174" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>466</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="78">
+        <v>3</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>459</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>467</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="78">
+        <v>4</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="78">
+        <v>5</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>460</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="79">
+        <v>10</v>
+      </c>
+      <c r="H10" s="81" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="78">
+        <v>6</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>470</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="78">
+        <v>7</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>479</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="78">
+        <v>8</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="79">
+        <v>10</v>
+      </c>
+      <c r="H13" s="81" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="78">
+        <v>9</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>462</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="78">
+        <v>10</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>466</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="81" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="78">
+        <v>11</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>467</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="80" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="78">
+        <v>12</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>463</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="78">
+        <v>13</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>472</v>
+      </c>
+      <c r="E18" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="78">
+        <v>14</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>464</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>471</v>
+      </c>
+      <c r="E19" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="81"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="81"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="81"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="81"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="81"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="81"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="81"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+    </row>
+    <row r="32" spans="1:8" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+      <c r="B32" s="89">
+        <v>0</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" s="90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="D36" s="95"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="67">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="67">
+        <v>3</v>
+      </c>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="67">
+        <v>4</v>
+      </c>
+      <c r="D40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" location="'05.Payment'!A1" display="Payment"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27:AO27"/>
     </sheetView>
   </sheetViews>
@@ -14438,25 +15126,25 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="279" t="s">
+      <c r="N1" s="281" t="s">
         <v>420</v>
       </c>
-      <c r="O1" s="279"/>
-      <c r="P1" s="279"/>
-      <c r="Q1" s="279"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="279"/>
-      <c r="T1" s="279"/>
-      <c r="U1" s="279"/>
-      <c r="V1" s="279"/>
-      <c r="W1" s="279"/>
-      <c r="X1" s="279"/>
-      <c r="Y1" s="279"/>
-      <c r="Z1" s="279"/>
-      <c r="AA1" s="279"/>
-      <c r="AB1" s="279"/>
-      <c r="AC1" s="279"/>
-      <c r="AD1" s="279"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
+      <c r="R1" s="281"/>
+      <c r="S1" s="281"/>
+      <c r="T1" s="281"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="281"/>
+      <c r="W1" s="281"/>
+      <c r="X1" s="281"/>
+      <c r="Y1" s="281"/>
+      <c r="Z1" s="281"/>
+      <c r="AA1" s="281"/>
+      <c r="AB1" s="281"/>
+      <c r="AC1" s="281"/>
+      <c r="AD1" s="281"/>
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
@@ -14481,23 +15169,23 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="279"/>
-      <c r="U2" s="279"/>
-      <c r="V2" s="279"/>
-      <c r="W2" s="279"/>
-      <c r="X2" s="279"/>
-      <c r="Y2" s="279"/>
-      <c r="Z2" s="279"/>
-      <c r="AA2" s="279"/>
-      <c r="AB2" s="279"/>
-      <c r="AC2" s="279"/>
-      <c r="AD2" s="279"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="281"/>
+      <c r="S2" s="281"/>
+      <c r="T2" s="281"/>
+      <c r="U2" s="281"/>
+      <c r="V2" s="281"/>
+      <c r="W2" s="281"/>
+      <c r="X2" s="281"/>
+      <c r="Y2" s="281"/>
+      <c r="Z2" s="281"/>
+      <c r="AA2" s="281"/>
+      <c r="AB2" s="281"/>
+      <c r="AC2" s="281"/>
+      <c r="AD2" s="281"/>
       <c r="AE2" s="12"/>
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
@@ -14523,23 +15211,23 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="279"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-      <c r="R3" s="279"/>
-      <c r="S3" s="279"/>
-      <c r="T3" s="279"/>
-      <c r="U3" s="279"/>
-      <c r="V3" s="279"/>
-      <c r="W3" s="279"/>
-      <c r="X3" s="279"/>
-      <c r="Y3" s="279"/>
-      <c r="Z3" s="279"/>
-      <c r="AA3" s="279"/>
-      <c r="AB3" s="279"/>
-      <c r="AC3" s="279"/>
-      <c r="AD3" s="279"/>
+      <c r="N3" s="281"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="281"/>
+      <c r="Q3" s="281"/>
+      <c r="R3" s="281"/>
+      <c r="S3" s="281"/>
+      <c r="T3" s="281"/>
+      <c r="U3" s="281"/>
+      <c r="V3" s="281"/>
+      <c r="W3" s="281"/>
+      <c r="X3" s="281"/>
+      <c r="Y3" s="281"/>
+      <c r="Z3" s="281"/>
+      <c r="AA3" s="281"/>
+      <c r="AB3" s="281"/>
+      <c r="AC3" s="281"/>
+      <c r="AD3" s="281"/>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -14565,33 +15253,33 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="279"/>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="279"/>
-      <c r="R4" s="279"/>
-      <c r="S4" s="279"/>
-      <c r="T4" s="279"/>
-      <c r="U4" s="279"/>
-      <c r="V4" s="279"/>
-      <c r="W4" s="279"/>
-      <c r="X4" s="279"/>
-      <c r="Y4" s="279"/>
-      <c r="Z4" s="279"/>
-      <c r="AA4" s="279"/>
-      <c r="AB4" s="279"/>
-      <c r="AC4" s="279"/>
-      <c r="AD4" s="279"/>
+      <c r="N4" s="281"/>
+      <c r="O4" s="281"/>
+      <c r="P4" s="281"/>
+      <c r="Q4" s="281"/>
+      <c r="R4" s="281"/>
+      <c r="S4" s="281"/>
+      <c r="T4" s="281"/>
+      <c r="U4" s="281"/>
+      <c r="V4" s="281"/>
+      <c r="W4" s="281"/>
+      <c r="X4" s="281"/>
+      <c r="Y4" s="281"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="281"/>
+      <c r="AD4" s="281"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195"/>
-      <c r="AN4" s="195"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="197"/>
+      <c r="AM4" s="197"/>
+      <c r="AN4" s="197"/>
       <c r="AO4" s="13"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14850,24 +15538,24 @@
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="53"/>
-      <c r="N11" s="196" t="s">
+      <c r="N11" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197"/>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="197"/>
-      <c r="AB11" s="197"/>
-      <c r="AC11" s="198"/>
+      <c r="O11" s="199"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="199"/>
+      <c r="R11" s="199"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="199"/>
+      <c r="U11" s="199"/>
+      <c r="V11" s="199"/>
+      <c r="W11" s="199"/>
+      <c r="X11" s="199"/>
+      <c r="Y11" s="199"/>
+      <c r="Z11" s="199"/>
+      <c r="AA11" s="199"/>
+      <c r="AB11" s="199"/>
+      <c r="AC11" s="200"/>
       <c r="AD11" s="53"/>
       <c r="AE11" s="53"/>
       <c r="AF11" s="53"/>
@@ -15356,137 +16044,137 @@
       <c r="B26" s="122">
         <v>1</v>
       </c>
-      <c r="C26" s="216" t="s">
+      <c r="C26" s="218" t="s">
         <v>424</v>
       </c>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="217"/>
-      <c r="K26" s="217"/>
-      <c r="L26" s="217"/>
-      <c r="M26" s="217"/>
-      <c r="N26" s="217"/>
-      <c r="O26" s="217"/>
-      <c r="P26" s="217"/>
-      <c r="Q26" s="217"/>
-      <c r="R26" s="217"/>
-      <c r="S26" s="217"/>
-      <c r="T26" s="217"/>
-      <c r="U26" s="217"/>
-      <c r="V26" s="217"/>
-      <c r="W26" s="217"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="217"/>
-      <c r="Z26" s="217"/>
-      <c r="AA26" s="217"/>
-      <c r="AB26" s="217"/>
-      <c r="AC26" s="217"/>
-      <c r="AD26" s="217"/>
-      <c r="AE26" s="217"/>
-      <c r="AF26" s="217"/>
-      <c r="AG26" s="217"/>
-      <c r="AH26" s="217"/>
-      <c r="AI26" s="217"/>
-      <c r="AJ26" s="217"/>
-      <c r="AK26" s="217"/>
-      <c r="AL26" s="217"/>
-      <c r="AM26" s="217"/>
-      <c r="AN26" s="217"/>
-      <c r="AO26" s="218"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="219"/>
+      <c r="R26" s="219"/>
+      <c r="S26" s="219"/>
+      <c r="T26" s="219"/>
+      <c r="U26" s="219"/>
+      <c r="V26" s="219"/>
+      <c r="W26" s="219"/>
+      <c r="X26" s="219"/>
+      <c r="Y26" s="219"/>
+      <c r="Z26" s="219"/>
+      <c r="AA26" s="219"/>
+      <c r="AB26" s="219"/>
+      <c r="AC26" s="219"/>
+      <c r="AD26" s="219"/>
+      <c r="AE26" s="219"/>
+      <c r="AF26" s="219"/>
+      <c r="AG26" s="219"/>
+      <c r="AH26" s="219"/>
+      <c r="AI26" s="219"/>
+      <c r="AJ26" s="219"/>
+      <c r="AK26" s="219"/>
+      <c r="AL26" s="219"/>
+      <c r="AM26" s="219"/>
+      <c r="AN26" s="219"/>
+      <c r="AO26" s="220"/>
     </row>
     <row r="27" spans="2:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="123">
         <v>2</v>
       </c>
-      <c r="C27" s="192"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="193"/>
-      <c r="N27" s="193"/>
-      <c r="O27" s="193"/>
-      <c r="P27" s="193"/>
-      <c r="Q27" s="193"/>
-      <c r="R27" s="193"/>
-      <c r="S27" s="193"/>
-      <c r="T27" s="193"/>
-      <c r="U27" s="193"/>
-      <c r="V27" s="193"/>
-      <c r="W27" s="193"/>
-      <c r="X27" s="193"/>
-      <c r="Y27" s="193"/>
-      <c r="Z27" s="193"/>
-      <c r="AA27" s="193"/>
-      <c r="AB27" s="193"/>
-      <c r="AC27" s="193"/>
-      <c r="AD27" s="193"/>
-      <c r="AE27" s="193"/>
-      <c r="AF27" s="193"/>
-      <c r="AG27" s="193"/>
-      <c r="AH27" s="193"/>
-      <c r="AI27" s="193"/>
-      <c r="AJ27" s="193"/>
-      <c r="AK27" s="193"/>
-      <c r="AL27" s="193"/>
-      <c r="AM27" s="193"/>
-      <c r="AN27" s="193"/>
-      <c r="AO27" s="194"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="195"/>
+      <c r="R27" s="195"/>
+      <c r="S27" s="195"/>
+      <c r="T27" s="195"/>
+      <c r="U27" s="195"/>
+      <c r="V27" s="195"/>
+      <c r="W27" s="195"/>
+      <c r="X27" s="195"/>
+      <c r="Y27" s="195"/>
+      <c r="Z27" s="195"/>
+      <c r="AA27" s="195"/>
+      <c r="AB27" s="195"/>
+      <c r="AC27" s="195"/>
+      <c r="AD27" s="195"/>
+      <c r="AE27" s="195"/>
+      <c r="AF27" s="195"/>
+      <c r="AG27" s="195"/>
+      <c r="AH27" s="195"/>
+      <c r="AI27" s="195"/>
+      <c r="AJ27" s="195"/>
+      <c r="AK27" s="195"/>
+      <c r="AL27" s="195"/>
+      <c r="AM27" s="195"/>
+      <c r="AN27" s="195"/>
+      <c r="AO27" s="196"/>
     </row>
     <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="124">
         <v>3</v>
       </c>
-      <c r="C28" s="192" t="s">
+      <c r="C28" s="194" t="s">
         <v>416</v>
       </c>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="193"/>
-      <c r="N28" s="193"/>
-      <c r="O28" s="193"/>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="193"/>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="193"/>
-      <c r="X28" s="193"/>
-      <c r="Y28" s="193"/>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="193"/>
-      <c r="AC28" s="193"/>
-      <c r="AD28" s="193"/>
-      <c r="AE28" s="193"/>
-      <c r="AF28" s="193"/>
-      <c r="AG28" s="193"/>
-      <c r="AH28" s="193"/>
-      <c r="AI28" s="193"/>
-      <c r="AJ28" s="193"/>
-      <c r="AK28" s="193"/>
-      <c r="AL28" s="193"/>
-      <c r="AM28" s="193"/>
-      <c r="AN28" s="193"/>
-      <c r="AO28" s="194"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="195"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="195"/>
+      <c r="O28" s="195"/>
+      <c r="P28" s="195"/>
+      <c r="Q28" s="195"/>
+      <c r="R28" s="195"/>
+      <c r="S28" s="195"/>
+      <c r="T28" s="195"/>
+      <c r="U28" s="195"/>
+      <c r="V28" s="195"/>
+      <c r="W28" s="195"/>
+      <c r="X28" s="195"/>
+      <c r="Y28" s="195"/>
+      <c r="Z28" s="195"/>
+      <c r="AA28" s="195"/>
+      <c r="AB28" s="195"/>
+      <c r="AC28" s="195"/>
+      <c r="AD28" s="195"/>
+      <c r="AE28" s="195"/>
+      <c r="AF28" s="195"/>
+      <c r="AG28" s="195"/>
+      <c r="AH28" s="195"/>
+      <c r="AI28" s="195"/>
+      <c r="AJ28" s="195"/>
+      <c r="AK28" s="195"/>
+      <c r="AL28" s="195"/>
+      <c r="AM28" s="195"/>
+      <c r="AN28" s="195"/>
+      <c r="AO28" s="196"/>
     </row>
     <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="124">
@@ -15801,12 +16489,440 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="28" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.7109375" style="67" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="191" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="193"/>
+    </row>
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="74"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="78">
+        <v>1</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="78">
+        <v>2</v>
+      </c>
+      <c r="C7" s="174" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="78">
+        <v>3</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="81"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="81"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="81"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="81"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="81"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="81"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="81"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="81"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="81"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="81"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="81"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="81"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="81"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+    </row>
+    <row r="32" spans="1:8" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+      <c r="B32" s="89">
+        <v>0</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" s="90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="D36" s="95"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="67">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="67">
+        <v>3</v>
+      </c>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="67">
+        <v>4</v>
+      </c>
+      <c r="D40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" location="'05.Payment'!A1" display="Payment"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15817,126 +16933,126 @@
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="280" t="s">
+      <c r="B2" s="282" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="282"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="284"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="283"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="284"/>
-      <c r="G3" s="284"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="284"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="284"/>
-      <c r="M3" s="284"/>
-      <c r="N3" s="285"/>
+      <c r="B3" s="285"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="286"/>
+      <c r="J3" s="286"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="287"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="283"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="284"/>
-      <c r="G4" s="284"/>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="284"/>
-      <c r="N4" s="285"/>
+      <c r="B4" s="285"/>
+      <c r="C4" s="286"/>
+      <c r="D4" s="286"/>
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286"/>
+      <c r="H4" s="286"/>
+      <c r="I4" s="286"/>
+      <c r="J4" s="286"/>
+      <c r="K4" s="286"/>
+      <c r="L4" s="286"/>
+      <c r="M4" s="286"/>
+      <c r="N4" s="287"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="283"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284"/>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="284"/>
-      <c r="N5" s="285"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286"/>
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
+      <c r="M5" s="286"/>
+      <c r="N5" s="287"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="283"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="284"/>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="284"/>
-      <c r="M6" s="284"/>
-      <c r="N6" s="285"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="287"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="284"/>
-      <c r="L7" s="284"/>
-      <c r="M7" s="284"/>
-      <c r="N7" s="285"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="287"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="283"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
-      <c r="M8" s="284"/>
-      <c r="N8" s="285"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
+      <c r="M8" s="286"/>
+      <c r="N8" s="287"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="286"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="287"/>
-      <c r="H9" s="287"/>
-      <c r="I9" s="287"/>
-      <c r="J9" s="287"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="287"/>
-      <c r="M9" s="287"/>
-      <c r="N9" s="288"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="289"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="289"/>
+      <c r="M9" s="289"/>
+      <c r="N9" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15946,11 +17062,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -15972,25 +17088,25 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="279" t="s">
+      <c r="N1" s="281" t="s">
         <v>420</v>
       </c>
-      <c r="O1" s="279"/>
-      <c r="P1" s="279"/>
-      <c r="Q1" s="279"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="279"/>
-      <c r="T1" s="279"/>
-      <c r="U1" s="279"/>
-      <c r="V1" s="279"/>
-      <c r="W1" s="279"/>
-      <c r="X1" s="279"/>
-      <c r="Y1" s="279"/>
-      <c r="Z1" s="279"/>
-      <c r="AA1" s="279"/>
-      <c r="AB1" s="279"/>
-      <c r="AC1" s="279"/>
-      <c r="AD1" s="279"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
+      <c r="R1" s="281"/>
+      <c r="S1" s="281"/>
+      <c r="T1" s="281"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="281"/>
+      <c r="W1" s="281"/>
+      <c r="X1" s="281"/>
+      <c r="Y1" s="281"/>
+      <c r="Z1" s="281"/>
+      <c r="AA1" s="281"/>
+      <c r="AB1" s="281"/>
+      <c r="AC1" s="281"/>
+      <c r="AD1" s="281"/>
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
@@ -16015,23 +17131,23 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="279"/>
-      <c r="U2" s="279"/>
-      <c r="V2" s="279"/>
-      <c r="W2" s="279"/>
-      <c r="X2" s="279"/>
-      <c r="Y2" s="279"/>
-      <c r="Z2" s="279"/>
-      <c r="AA2" s="279"/>
-      <c r="AB2" s="279"/>
-      <c r="AC2" s="279"/>
-      <c r="AD2" s="279"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="281"/>
+      <c r="S2" s="281"/>
+      <c r="T2" s="281"/>
+      <c r="U2" s="281"/>
+      <c r="V2" s="281"/>
+      <c r="W2" s="281"/>
+      <c r="X2" s="281"/>
+      <c r="Y2" s="281"/>
+      <c r="Z2" s="281"/>
+      <c r="AA2" s="281"/>
+      <c r="AB2" s="281"/>
+      <c r="AC2" s="281"/>
+      <c r="AD2" s="281"/>
       <c r="AE2" s="12"/>
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
@@ -16057,23 +17173,23 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="279"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-      <c r="R3" s="279"/>
-      <c r="S3" s="279"/>
-      <c r="T3" s="279"/>
-      <c r="U3" s="279"/>
-      <c r="V3" s="279"/>
-      <c r="W3" s="279"/>
-      <c r="X3" s="279"/>
-      <c r="Y3" s="279"/>
-      <c r="Z3" s="279"/>
-      <c r="AA3" s="279"/>
-      <c r="AB3" s="279"/>
-      <c r="AC3" s="279"/>
-      <c r="AD3" s="279"/>
+      <c r="N3" s="281"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="281"/>
+      <c r="Q3" s="281"/>
+      <c r="R3" s="281"/>
+      <c r="S3" s="281"/>
+      <c r="T3" s="281"/>
+      <c r="U3" s="281"/>
+      <c r="V3" s="281"/>
+      <c r="W3" s="281"/>
+      <c r="X3" s="281"/>
+      <c r="Y3" s="281"/>
+      <c r="Z3" s="281"/>
+      <c r="AA3" s="281"/>
+      <c r="AB3" s="281"/>
+      <c r="AC3" s="281"/>
+      <c r="AD3" s="281"/>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -16099,33 +17215,33 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="279"/>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="279"/>
-      <c r="R4" s="279"/>
-      <c r="S4" s="279"/>
-      <c r="T4" s="279"/>
-      <c r="U4" s="279"/>
-      <c r="V4" s="279"/>
-      <c r="W4" s="279"/>
-      <c r="X4" s="279"/>
-      <c r="Y4" s="279"/>
-      <c r="Z4" s="279"/>
-      <c r="AA4" s="279"/>
-      <c r="AB4" s="279"/>
-      <c r="AC4" s="279"/>
-      <c r="AD4" s="279"/>
+      <c r="N4" s="281"/>
+      <c r="O4" s="281"/>
+      <c r="P4" s="281"/>
+      <c r="Q4" s="281"/>
+      <c r="R4" s="281"/>
+      <c r="S4" s="281"/>
+      <c r="T4" s="281"/>
+      <c r="U4" s="281"/>
+      <c r="V4" s="281"/>
+      <c r="W4" s="281"/>
+      <c r="X4" s="281"/>
+      <c r="Y4" s="281"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="281"/>
+      <c r="AD4" s="281"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195"/>
-      <c r="AN4" s="195"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="197"/>
+      <c r="AM4" s="197"/>
+      <c r="AN4" s="197"/>
       <c r="AO4" s="13"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16384,24 +17500,24 @@
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="53"/>
-      <c r="N11" s="196" t="s">
+      <c r="N11" s="198" t="s">
         <v>428</v>
       </c>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197"/>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="197"/>
-      <c r="AB11" s="197"/>
-      <c r="AC11" s="198"/>
+      <c r="O11" s="199"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="199"/>
+      <c r="R11" s="199"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="199"/>
+      <c r="U11" s="199"/>
+      <c r="V11" s="199"/>
+      <c r="W11" s="199"/>
+      <c r="X11" s="199"/>
+      <c r="Y11" s="199"/>
+      <c r="Z11" s="199"/>
+      <c r="AA11" s="199"/>
+      <c r="AB11" s="199"/>
+      <c r="AC11" s="200"/>
       <c r="AD11" s="53"/>
       <c r="AE11" s="53"/>
       <c r="AF11" s="53"/>
@@ -16888,135 +18004,135 @@
       <c r="B26" s="122">
         <v>1</v>
       </c>
-      <c r="C26" s="216" t="s">
+      <c r="C26" s="218" t="s">
         <v>429</v>
       </c>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="217"/>
-      <c r="K26" s="217"/>
-      <c r="L26" s="217"/>
-      <c r="M26" s="217"/>
-      <c r="N26" s="217"/>
-      <c r="O26" s="217"/>
-      <c r="P26" s="217"/>
-      <c r="Q26" s="217"/>
-      <c r="R26" s="217"/>
-      <c r="S26" s="217"/>
-      <c r="T26" s="217"/>
-      <c r="U26" s="217"/>
-      <c r="V26" s="217"/>
-      <c r="W26" s="217"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="217"/>
-      <c r="Z26" s="217"/>
-      <c r="AA26" s="217"/>
-      <c r="AB26" s="217"/>
-      <c r="AC26" s="217"/>
-      <c r="AD26" s="217"/>
-      <c r="AE26" s="217"/>
-      <c r="AF26" s="217"/>
-      <c r="AG26" s="217"/>
-      <c r="AH26" s="217"/>
-      <c r="AI26" s="217"/>
-      <c r="AJ26" s="217"/>
-      <c r="AK26" s="217"/>
-      <c r="AL26" s="217"/>
-      <c r="AM26" s="217"/>
-      <c r="AN26" s="217"/>
-      <c r="AO26" s="218"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="219"/>
+      <c r="R26" s="219"/>
+      <c r="S26" s="219"/>
+      <c r="T26" s="219"/>
+      <c r="U26" s="219"/>
+      <c r="V26" s="219"/>
+      <c r="W26" s="219"/>
+      <c r="X26" s="219"/>
+      <c r="Y26" s="219"/>
+      <c r="Z26" s="219"/>
+      <c r="AA26" s="219"/>
+      <c r="AB26" s="219"/>
+      <c r="AC26" s="219"/>
+      <c r="AD26" s="219"/>
+      <c r="AE26" s="219"/>
+      <c r="AF26" s="219"/>
+      <c r="AG26" s="219"/>
+      <c r="AH26" s="219"/>
+      <c r="AI26" s="219"/>
+      <c r="AJ26" s="219"/>
+      <c r="AK26" s="219"/>
+      <c r="AL26" s="219"/>
+      <c r="AM26" s="219"/>
+      <c r="AN26" s="219"/>
+      <c r="AO26" s="220"/>
     </row>
     <row r="27" spans="2:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="123">
         <v>2</v>
       </c>
-      <c r="C27" s="192" t="s">
+      <c r="C27" s="194" t="s">
         <v>430</v>
       </c>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="193"/>
-      <c r="N27" s="193"/>
-      <c r="O27" s="193"/>
-      <c r="P27" s="193"/>
-      <c r="Q27" s="193"/>
-      <c r="R27" s="193"/>
-      <c r="S27" s="193"/>
-      <c r="T27" s="193"/>
-      <c r="U27" s="193"/>
-      <c r="V27" s="193"/>
-      <c r="W27" s="193"/>
-      <c r="X27" s="193"/>
-      <c r="Y27" s="193"/>
-      <c r="Z27" s="193"/>
-      <c r="AA27" s="193"/>
-      <c r="AB27" s="193"/>
-      <c r="AC27" s="193"/>
-      <c r="AD27" s="193"/>
-      <c r="AE27" s="193"/>
-      <c r="AF27" s="193"/>
-      <c r="AG27" s="193"/>
-      <c r="AH27" s="193"/>
-      <c r="AI27" s="193"/>
-      <c r="AJ27" s="193"/>
-      <c r="AK27" s="193"/>
-      <c r="AL27" s="193"/>
-      <c r="AM27" s="193"/>
-      <c r="AN27" s="193"/>
-      <c r="AO27" s="194"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="195"/>
+      <c r="R27" s="195"/>
+      <c r="S27" s="195"/>
+      <c r="T27" s="195"/>
+      <c r="U27" s="195"/>
+      <c r="V27" s="195"/>
+      <c r="W27" s="195"/>
+      <c r="X27" s="195"/>
+      <c r="Y27" s="195"/>
+      <c r="Z27" s="195"/>
+      <c r="AA27" s="195"/>
+      <c r="AB27" s="195"/>
+      <c r="AC27" s="195"/>
+      <c r="AD27" s="195"/>
+      <c r="AE27" s="195"/>
+      <c r="AF27" s="195"/>
+      <c r="AG27" s="195"/>
+      <c r="AH27" s="195"/>
+      <c r="AI27" s="195"/>
+      <c r="AJ27" s="195"/>
+      <c r="AK27" s="195"/>
+      <c r="AL27" s="195"/>
+      <c r="AM27" s="195"/>
+      <c r="AN27" s="195"/>
+      <c r="AO27" s="196"/>
     </row>
     <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="124"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="193"/>
-      <c r="N28" s="193"/>
-      <c r="O28" s="193"/>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="193"/>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="193"/>
-      <c r="X28" s="193"/>
-      <c r="Y28" s="193"/>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="193"/>
-      <c r="AC28" s="193"/>
-      <c r="AD28" s="193"/>
-      <c r="AE28" s="193"/>
-      <c r="AF28" s="193"/>
-      <c r="AG28" s="193"/>
-      <c r="AH28" s="193"/>
-      <c r="AI28" s="193"/>
-      <c r="AJ28" s="193"/>
-      <c r="AK28" s="193"/>
-      <c r="AL28" s="193"/>
-      <c r="AM28" s="193"/>
-      <c r="AN28" s="193"/>
-      <c r="AO28" s="194"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="195"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="195"/>
+      <c r="O28" s="195"/>
+      <c r="P28" s="195"/>
+      <c r="Q28" s="195"/>
+      <c r="R28" s="195"/>
+      <c r="S28" s="195"/>
+      <c r="T28" s="195"/>
+      <c r="U28" s="195"/>
+      <c r="V28" s="195"/>
+      <c r="W28" s="195"/>
+      <c r="X28" s="195"/>
+      <c r="Y28" s="195"/>
+      <c r="Z28" s="195"/>
+      <c r="AA28" s="195"/>
+      <c r="AB28" s="195"/>
+      <c r="AC28" s="195"/>
+      <c r="AD28" s="195"/>
+      <c r="AE28" s="195"/>
+      <c r="AF28" s="195"/>
+      <c r="AG28" s="195"/>
+      <c r="AH28" s="195"/>
+      <c r="AI28" s="195"/>
+      <c r="AJ28" s="195"/>
+      <c r="AK28" s="195"/>
+      <c r="AL28" s="195"/>
+      <c r="AM28" s="195"/>
+      <c r="AN28" s="195"/>
+      <c r="AO28" s="196"/>
     </row>
     <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="124"/>
@@ -17352,22 +18468,22 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="188" t="s">
+      <c r="M1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -18629,6 +19745,434 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="28" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.7109375" style="67" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="191" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="193"/>
+    </row>
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="74"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="78">
+        <v>1</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="78">
+        <v>2</v>
+      </c>
+      <c r="C7" s="174" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="78">
+        <v>3</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>446</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="81"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="81"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="81"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="81"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="81"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="81"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="81"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="81"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="81"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="81"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="81"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="81"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="81"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+    </row>
+    <row r="32" spans="1:8" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+      <c r="B32" s="89">
+        <v>0</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" s="90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="D36" s="95"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="67">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="67">
+        <v>3</v>
+      </c>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="67">
+        <v>4</v>
+      </c>
+      <c r="D40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" location="'05.Payment'!A1" display="Payment"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
@@ -18652,15 +20196,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="191"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="193"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="68" t="s">
@@ -19052,14 +20596,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="206"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="208"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -19096,12 +20640,12 @@
       <c r="AO1" s="13"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="204"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="208"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -19140,12 +20684,12 @@
       <c r="AO2" s="13"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -19182,12 +20726,12 @@
       <c r="AO3" s="13"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="208"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -19217,19 +20761,19 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195"/>
-      <c r="AN4" s="195"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="197"/>
+      <c r="AM4" s="197"/>
+      <c r="AN4" s="197"/>
       <c r="AO4" s="13"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="207"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="209"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -19364,24 +20908,24 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="199" t="s">
+      <c r="N8" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="O8" s="199"/>
-      <c r="P8" s="199"/>
-      <c r="Q8" s="199"/>
-      <c r="R8" s="199"/>
-      <c r="S8" s="199"/>
-      <c r="T8" s="199"/>
-      <c r="U8" s="199"/>
-      <c r="V8" s="199"/>
-      <c r="W8" s="199"/>
-      <c r="X8" s="199"/>
-      <c r="Y8" s="199"/>
-      <c r="Z8" s="199"/>
-      <c r="AA8" s="199"/>
-      <c r="AB8" s="199"/>
-      <c r="AC8" s="199"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="201"/>
+      <c r="S8" s="201"/>
+      <c r="T8" s="201"/>
+      <c r="U8" s="201"/>
+      <c r="V8" s="201"/>
+      <c r="W8" s="201"/>
+      <c r="X8" s="201"/>
+      <c r="Y8" s="201"/>
+      <c r="Z8" s="201"/>
+      <c r="AA8" s="201"/>
+      <c r="AB8" s="201"/>
+      <c r="AC8" s="201"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
@@ -19654,24 +21198,24 @@
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
-      <c r="N15" s="196" t="s">
+      <c r="N15" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="198"/>
+      <c r="O15" s="199"/>
+      <c r="P15" s="199"/>
+      <c r="Q15" s="199"/>
+      <c r="R15" s="199"/>
+      <c r="S15" s="199"/>
+      <c r="T15" s="199"/>
+      <c r="U15" s="199"/>
+      <c r="V15" s="199"/>
+      <c r="W15" s="199"/>
+      <c r="X15" s="199"/>
+      <c r="Y15" s="199"/>
+      <c r="Z15" s="199"/>
+      <c r="AA15" s="199"/>
+      <c r="AB15" s="199"/>
+      <c r="AC15" s="200"/>
       <c r="AD15" s="53"/>
       <c r="AE15" s="53"/>
       <c r="AF15" s="53"/>
@@ -19768,24 +21312,24 @@
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
       <c r="M18" s="53"/>
-      <c r="N18" s="196" t="s">
+      <c r="N18" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="197"/>
-      <c r="P18" s="197"/>
-      <c r="Q18" s="197"/>
-      <c r="R18" s="197"/>
-      <c r="S18" s="197"/>
-      <c r="T18" s="197"/>
-      <c r="U18" s="197"/>
-      <c r="V18" s="197"/>
-      <c r="W18" s="197"/>
-      <c r="X18" s="197"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="197"/>
-      <c r="AB18" s="197"/>
-      <c r="AC18" s="198"/>
+      <c r="O18" s="199"/>
+      <c r="P18" s="199"/>
+      <c r="Q18" s="199"/>
+      <c r="R18" s="199"/>
+      <c r="S18" s="199"/>
+      <c r="T18" s="199"/>
+      <c r="U18" s="199"/>
+      <c r="V18" s="199"/>
+      <c r="W18" s="199"/>
+      <c r="X18" s="199"/>
+      <c r="Y18" s="199"/>
+      <c r="Z18" s="199"/>
+      <c r="AA18" s="199"/>
+      <c r="AB18" s="199"/>
+      <c r="AC18" s="200"/>
       <c r="AD18" s="53"/>
       <c r="AE18" s="53"/>
       <c r="AF18" s="53"/>
@@ -19896,25 +21440,25 @@
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
       <c r="M22" s="53"/>
-      <c r="N22" s="201" t="s">
+      <c r="N22" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="202"/>
-      <c r="P22" s="202"/>
-      <c r="Q22" s="202"/>
-      <c r="R22" s="202"/>
-      <c r="S22" s="203"/>
-      <c r="U22" s="201" t="s">
+      <c r="O22" s="204"/>
+      <c r="P22" s="204"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="204"/>
+      <c r="S22" s="205"/>
+      <c r="U22" s="203" t="s">
         <v>105</v>
       </c>
-      <c r="V22" s="202"/>
-      <c r="W22" s="202"/>
-      <c r="X22" s="202"/>
-      <c r="Y22" s="202"/>
-      <c r="Z22" s="202"/>
-      <c r="AA22" s="202"/>
-      <c r="AB22" s="202"/>
-      <c r="AC22" s="203"/>
+      <c r="V22" s="204"/>
+      <c r="W22" s="204"/>
+      <c r="X22" s="204"/>
+      <c r="Y22" s="204"/>
+      <c r="Z22" s="204"/>
+      <c r="AA22" s="204"/>
+      <c r="AB22" s="204"/>
+      <c r="AC22" s="205"/>
       <c r="AD22" s="53"/>
       <c r="AE22" s="53"/>
       <c r="AF22" s="53"/>
@@ -19996,12 +21540,12 @@
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
       <c r="M25" s="53"/>
-      <c r="N25" s="200"/>
-      <c r="O25" s="200"/>
-      <c r="P25" s="200"/>
-      <c r="Q25" s="200"/>
-      <c r="R25" s="200"/>
-      <c r="S25" s="200"/>
+      <c r="N25" s="202"/>
+      <c r="O25" s="202"/>
+      <c r="P25" s="202"/>
+      <c r="Q25" s="202"/>
+      <c r="R25" s="202"/>
+      <c r="S25" s="202"/>
       <c r="AD25" s="53"/>
       <c r="AE25" s="53"/>
       <c r="AF25" s="53"/>
@@ -20193,17 +21737,17 @@
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
       <c r="M32" s="53"/>
-      <c r="N32" s="201" t="s">
+      <c r="N32" s="203" t="s">
         <v>161</v>
       </c>
-      <c r="O32" s="202"/>
-      <c r="P32" s="202"/>
-      <c r="Q32" s="202"/>
-      <c r="R32" s="202"/>
-      <c r="S32" s="202"/>
-      <c r="T32" s="202"/>
-      <c r="U32" s="202"/>
-      <c r="V32" s="203"/>
+      <c r="O32" s="204"/>
+      <c r="P32" s="204"/>
+      <c r="Q32" s="204"/>
+      <c r="R32" s="204"/>
+      <c r="S32" s="204"/>
+      <c r="T32" s="204"/>
+      <c r="U32" s="204"/>
+      <c r="V32" s="205"/>
       <c r="W32" s="7" t="s">
         <v>162</v>
       </c>
@@ -20265,20 +21809,20 @@
       <c r="K34" s="53"/>
       <c r="L34" s="53"/>
       <c r="M34" s="53"/>
-      <c r="N34" s="210"/>
-      <c r="O34" s="211"/>
-      <c r="P34" s="211"/>
-      <c r="Q34" s="211"/>
-      <c r="R34" s="211"/>
-      <c r="S34" s="211"/>
-      <c r="T34" s="211"/>
-      <c r="U34" s="211"/>
-      <c r="V34" s="212"/>
-      <c r="Y34" s="213"/>
-      <c r="Z34" s="214"/>
-      <c r="AA34" s="214"/>
-      <c r="AB34" s="214"/>
-      <c r="AC34" s="215"/>
+      <c r="N34" s="212"/>
+      <c r="O34" s="213"/>
+      <c r="P34" s="213"/>
+      <c r="Q34" s="213"/>
+      <c r="R34" s="213"/>
+      <c r="S34" s="213"/>
+      <c r="T34" s="213"/>
+      <c r="U34" s="213"/>
+      <c r="V34" s="214"/>
+      <c r="Y34" s="215"/>
+      <c r="Z34" s="216"/>
+      <c r="AA34" s="216"/>
+      <c r="AB34" s="216"/>
+      <c r="AC34" s="217"/>
       <c r="AD34" s="53"/>
       <c r="AE34" s="53"/>
       <c r="AF34" s="53"/>
@@ -20337,25 +21881,25 @@
       <c r="K36" s="53"/>
       <c r="L36" s="53"/>
       <c r="M36" s="53"/>
-      <c r="N36" s="201" t="s">
+      <c r="N36" s="203" t="s">
         <v>144</v>
       </c>
-      <c r="O36" s="202"/>
-      <c r="P36" s="202"/>
-      <c r="Q36" s="202"/>
-      <c r="R36" s="203"/>
-      <c r="T36" s="201" t="s">
+      <c r="O36" s="204"/>
+      <c r="P36" s="204"/>
+      <c r="Q36" s="204"/>
+      <c r="R36" s="205"/>
+      <c r="T36" s="203" t="s">
         <v>143</v>
       </c>
-      <c r="U36" s="202"/>
-      <c r="V36" s="203"/>
-      <c r="Y36" s="201">
+      <c r="U36" s="204"/>
+      <c r="V36" s="205"/>
+      <c r="Y36" s="203">
         <v>123</v>
       </c>
-      <c r="Z36" s="202"/>
-      <c r="AA36" s="202"/>
-      <c r="AB36" s="202"/>
-      <c r="AC36" s="203"/>
+      <c r="Z36" s="204"/>
+      <c r="AA36" s="204"/>
+      <c r="AB36" s="204"/>
+      <c r="AC36" s="205"/>
       <c r="AD36" s="53"/>
       <c r="AE36" s="53"/>
       <c r="AF36" s="53"/>
@@ -20679,24 +22223,24 @@
       <c r="K44" s="53"/>
       <c r="L44" s="53"/>
       <c r="M44" s="53"/>
-      <c r="N44" s="200" t="s">
+      <c r="N44" s="202" t="s">
         <v>146</v>
       </c>
-      <c r="O44" s="200"/>
-      <c r="P44" s="200"/>
-      <c r="Q44" s="200"/>
-      <c r="R44" s="200"/>
-      <c r="S44" s="200"/>
-      <c r="T44" s="200"/>
-      <c r="U44" s="200"/>
-      <c r="V44" s="200"/>
-      <c r="W44" s="200"/>
-      <c r="X44" s="200"/>
-      <c r="Y44" s="200"/>
-      <c r="Z44" s="200"/>
-      <c r="AA44" s="200"/>
-      <c r="AB44" s="200"/>
-      <c r="AC44" s="200"/>
+      <c r="O44" s="202"/>
+      <c r="P44" s="202"/>
+      <c r="Q44" s="202"/>
+      <c r="R44" s="202"/>
+      <c r="S44" s="202"/>
+      <c r="T44" s="202"/>
+      <c r="U44" s="202"/>
+      <c r="V44" s="202"/>
+      <c r="W44" s="202"/>
+      <c r="X44" s="202"/>
+      <c r="Y44" s="202"/>
+      <c r="Z44" s="202"/>
+      <c r="AA44" s="202"/>
+      <c r="AB44" s="202"/>
+      <c r="AC44" s="202"/>
       <c r="AD44" s="53"/>
       <c r="AE44" s="53"/>
       <c r="AF44" s="53"/>
@@ -21099,50 +22643,50 @@
       <c r="B56" s="124">
         <v>3</v>
       </c>
-      <c r="C56" s="192" t="s">
+      <c r="C56" s="194" t="s">
         <v>413</v>
       </c>
-      <c r="D56" s="193"/>
-      <c r="E56" s="193"/>
-      <c r="F56" s="193"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="193"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="193"/>
-      <c r="K56" s="193"/>
-      <c r="L56" s="193"/>
-      <c r="M56" s="193"/>
-      <c r="N56" s="193"/>
-      <c r="O56" s="193"/>
-      <c r="P56" s="193"/>
-      <c r="Q56" s="193"/>
-      <c r="R56" s="193"/>
-      <c r="S56" s="193"/>
-      <c r="T56" s="193"/>
-      <c r="U56" s="193"/>
-      <c r="V56" s="193"/>
-      <c r="W56" s="193"/>
-      <c r="X56" s="193"/>
-      <c r="Y56" s="193"/>
-      <c r="Z56" s="193"/>
-      <c r="AA56" s="193"/>
-      <c r="AB56" s="193"/>
-      <c r="AC56" s="193"/>
-      <c r="AD56" s="193"/>
-      <c r="AE56" s="193"/>
-      <c r="AF56" s="193"/>
-      <c r="AG56" s="193"/>
-      <c r="AH56" s="193"/>
-      <c r="AI56" s="193"/>
-      <c r="AJ56" s="193"/>
-      <c r="AK56" s="193"/>
-      <c r="AL56" s="193"/>
-      <c r="AM56" s="193"/>
-      <c r="AN56" s="193"/>
-      <c r="AO56" s="193"/>
-      <c r="AP56" s="193"/>
-      <c r="AQ56" s="193"/>
-      <c r="AR56" s="194"/>
+      <c r="D56" s="195"/>
+      <c r="E56" s="195"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="195"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="195"/>
+      <c r="K56" s="195"/>
+      <c r="L56" s="195"/>
+      <c r="M56" s="195"/>
+      <c r="N56" s="195"/>
+      <c r="O56" s="195"/>
+      <c r="P56" s="195"/>
+      <c r="Q56" s="195"/>
+      <c r="R56" s="195"/>
+      <c r="S56" s="195"/>
+      <c r="T56" s="195"/>
+      <c r="U56" s="195"/>
+      <c r="V56" s="195"/>
+      <c r="W56" s="195"/>
+      <c r="X56" s="195"/>
+      <c r="Y56" s="195"/>
+      <c r="Z56" s="195"/>
+      <c r="AA56" s="195"/>
+      <c r="AB56" s="195"/>
+      <c r="AC56" s="195"/>
+      <c r="AD56" s="195"/>
+      <c r="AE56" s="195"/>
+      <c r="AF56" s="195"/>
+      <c r="AG56" s="195"/>
+      <c r="AH56" s="195"/>
+      <c r="AI56" s="195"/>
+      <c r="AJ56" s="195"/>
+      <c r="AK56" s="195"/>
+      <c r="AL56" s="195"/>
+      <c r="AM56" s="195"/>
+      <c r="AN56" s="195"/>
+      <c r="AO56" s="195"/>
+      <c r="AP56" s="195"/>
+      <c r="AQ56" s="195"/>
+      <c r="AR56" s="196"/>
       <c r="AS56" s="29"/>
     </row>
     <row r="57" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -21544,7 +23088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -21563,15 +23107,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="191"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="193"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="68" t="s">
@@ -22053,14 +23597,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="206"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="208"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -22097,12 +23641,12 @@
       <c r="AO1" s="13"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="204"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="208"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -22139,12 +23683,12 @@
       <c r="AO2" s="13"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -22181,12 +23725,12 @@
       <c r="AO3" s="13"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="208"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -22216,19 +23760,19 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195"/>
-      <c r="AN4" s="195"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="197"/>
+      <c r="AM4" s="197"/>
+      <c r="AN4" s="197"/>
       <c r="AO4" s="13"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="207"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="209"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -22432,24 +23976,24 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="219" t="s">
+      <c r="N10" s="221" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="220"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="220"/>
-      <c r="R10" s="220"/>
-      <c r="S10" s="220"/>
-      <c r="T10" s="220"/>
-      <c r="U10" s="220"/>
-      <c r="V10" s="220"/>
-      <c r="W10" s="220"/>
-      <c r="X10" s="220"/>
-      <c r="Y10" s="220"/>
-      <c r="Z10" s="220"/>
-      <c r="AA10" s="220"/>
-      <c r="AB10" s="220"/>
-      <c r="AC10" s="221"/>
+      <c r="O10" s="222"/>
+      <c r="P10" s="222"/>
+      <c r="Q10" s="222"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="222"/>
+      <c r="AC10" s="223"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
@@ -22647,24 +24191,24 @@
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
-      <c r="N15" s="196" t="s">
+      <c r="N15" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="198"/>
+      <c r="O15" s="199"/>
+      <c r="P15" s="199"/>
+      <c r="Q15" s="199"/>
+      <c r="R15" s="199"/>
+      <c r="S15" s="199"/>
+      <c r="T15" s="199"/>
+      <c r="U15" s="199"/>
+      <c r="V15" s="199"/>
+      <c r="W15" s="199"/>
+      <c r="X15" s="199"/>
+      <c r="Y15" s="199"/>
+      <c r="Z15" s="199"/>
+      <c r="AA15" s="199"/>
+      <c r="AB15" s="199"/>
+      <c r="AC15" s="200"/>
       <c r="AD15" s="53"/>
       <c r="AE15" s="53"/>
       <c r="AF15" s="53"/>
@@ -22761,24 +24305,24 @@
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
       <c r="M18" s="53"/>
-      <c r="N18" s="196" t="s">
+      <c r="N18" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="197"/>
-      <c r="P18" s="197"/>
-      <c r="Q18" s="197"/>
-      <c r="R18" s="197"/>
-      <c r="S18" s="197"/>
-      <c r="T18" s="197"/>
-      <c r="U18" s="197"/>
-      <c r="V18" s="197"/>
-      <c r="W18" s="197"/>
-      <c r="X18" s="197"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="197"/>
-      <c r="AB18" s="197"/>
-      <c r="AC18" s="198"/>
+      <c r="O18" s="199"/>
+      <c r="P18" s="199"/>
+      <c r="Q18" s="199"/>
+      <c r="R18" s="199"/>
+      <c r="S18" s="199"/>
+      <c r="T18" s="199"/>
+      <c r="U18" s="199"/>
+      <c r="V18" s="199"/>
+      <c r="W18" s="199"/>
+      <c r="X18" s="199"/>
+      <c r="Y18" s="199"/>
+      <c r="Z18" s="199"/>
+      <c r="AA18" s="199"/>
+      <c r="AB18" s="199"/>
+      <c r="AC18" s="200"/>
       <c r="AD18" s="53"/>
       <c r="AE18" s="53"/>
       <c r="AF18" s="53"/>
@@ -23316,139 +24860,139 @@
       <c r="B34" s="122">
         <v>1</v>
       </c>
-      <c r="C34" s="216" t="s">
+      <c r="C34" s="218" t="s">
         <v>414</v>
       </c>
-      <c r="D34" s="217"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="217"/>
-      <c r="H34" s="217"/>
-      <c r="I34" s="217"/>
-      <c r="J34" s="217"/>
-      <c r="K34" s="217"/>
-      <c r="L34" s="217"/>
-      <c r="M34" s="217"/>
-      <c r="N34" s="217"/>
-      <c r="O34" s="217"/>
-      <c r="P34" s="217"/>
-      <c r="Q34" s="217"/>
-      <c r="R34" s="217"/>
-      <c r="S34" s="217"/>
-      <c r="T34" s="217"/>
-      <c r="U34" s="217"/>
-      <c r="V34" s="217"/>
-      <c r="W34" s="217"/>
-      <c r="X34" s="217"/>
-      <c r="Y34" s="217"/>
-      <c r="Z34" s="217"/>
-      <c r="AA34" s="217"/>
-      <c r="AB34" s="217"/>
-      <c r="AC34" s="217"/>
-      <c r="AD34" s="217"/>
-      <c r="AE34" s="217"/>
-      <c r="AF34" s="217"/>
-      <c r="AG34" s="217"/>
-      <c r="AH34" s="217"/>
-      <c r="AI34" s="217"/>
-      <c r="AJ34" s="217"/>
-      <c r="AK34" s="217"/>
-      <c r="AL34" s="217"/>
-      <c r="AM34" s="217"/>
-      <c r="AN34" s="217"/>
-      <c r="AO34" s="218"/>
+      <c r="D34" s="219"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="219"/>
+      <c r="K34" s="219"/>
+      <c r="L34" s="219"/>
+      <c r="M34" s="219"/>
+      <c r="N34" s="219"/>
+      <c r="O34" s="219"/>
+      <c r="P34" s="219"/>
+      <c r="Q34" s="219"/>
+      <c r="R34" s="219"/>
+      <c r="S34" s="219"/>
+      <c r="T34" s="219"/>
+      <c r="U34" s="219"/>
+      <c r="V34" s="219"/>
+      <c r="W34" s="219"/>
+      <c r="X34" s="219"/>
+      <c r="Y34" s="219"/>
+      <c r="Z34" s="219"/>
+      <c r="AA34" s="219"/>
+      <c r="AB34" s="219"/>
+      <c r="AC34" s="219"/>
+      <c r="AD34" s="219"/>
+      <c r="AE34" s="219"/>
+      <c r="AF34" s="219"/>
+      <c r="AG34" s="219"/>
+      <c r="AH34" s="219"/>
+      <c r="AI34" s="219"/>
+      <c r="AJ34" s="219"/>
+      <c r="AK34" s="219"/>
+      <c r="AL34" s="219"/>
+      <c r="AM34" s="219"/>
+      <c r="AN34" s="219"/>
+      <c r="AO34" s="220"/>
     </row>
     <row r="35" spans="2:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="123">
         <v>2</v>
       </c>
-      <c r="C35" s="192" t="s">
+      <c r="C35" s="194" t="s">
         <v>415</v>
       </c>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
-      <c r="K35" s="193"/>
-      <c r="L35" s="193"/>
-      <c r="M35" s="193"/>
-      <c r="N35" s="193"/>
-      <c r="O35" s="193"/>
-      <c r="P35" s="193"/>
-      <c r="Q35" s="193"/>
-      <c r="R35" s="193"/>
-      <c r="S35" s="193"/>
-      <c r="T35" s="193"/>
-      <c r="U35" s="193"/>
-      <c r="V35" s="193"/>
-      <c r="W35" s="193"/>
-      <c r="X35" s="193"/>
-      <c r="Y35" s="193"/>
-      <c r="Z35" s="193"/>
-      <c r="AA35" s="193"/>
-      <c r="AB35" s="193"/>
-      <c r="AC35" s="193"/>
-      <c r="AD35" s="193"/>
-      <c r="AE35" s="193"/>
-      <c r="AF35" s="193"/>
-      <c r="AG35" s="193"/>
-      <c r="AH35" s="193"/>
-      <c r="AI35" s="193"/>
-      <c r="AJ35" s="193"/>
-      <c r="AK35" s="193"/>
-      <c r="AL35" s="193"/>
-      <c r="AM35" s="193"/>
-      <c r="AN35" s="193"/>
-      <c r="AO35" s="194"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="195"/>
+      <c r="P35" s="195"/>
+      <c r="Q35" s="195"/>
+      <c r="R35" s="195"/>
+      <c r="S35" s="195"/>
+      <c r="T35" s="195"/>
+      <c r="U35" s="195"/>
+      <c r="V35" s="195"/>
+      <c r="W35" s="195"/>
+      <c r="X35" s="195"/>
+      <c r="Y35" s="195"/>
+      <c r="Z35" s="195"/>
+      <c r="AA35" s="195"/>
+      <c r="AB35" s="195"/>
+      <c r="AC35" s="195"/>
+      <c r="AD35" s="195"/>
+      <c r="AE35" s="195"/>
+      <c r="AF35" s="195"/>
+      <c r="AG35" s="195"/>
+      <c r="AH35" s="195"/>
+      <c r="AI35" s="195"/>
+      <c r="AJ35" s="195"/>
+      <c r="AK35" s="195"/>
+      <c r="AL35" s="195"/>
+      <c r="AM35" s="195"/>
+      <c r="AN35" s="195"/>
+      <c r="AO35" s="196"/>
     </row>
     <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="124">
         <v>3</v>
       </c>
-      <c r="C36" s="192" t="s">
+      <c r="C36" s="194" t="s">
         <v>416</v>
       </c>
-      <c r="D36" s="193"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="193"/>
-      <c r="M36" s="193"/>
-      <c r="N36" s="193"/>
-      <c r="O36" s="193"/>
-      <c r="P36" s="193"/>
-      <c r="Q36" s="193"/>
-      <c r="R36" s="193"/>
-      <c r="S36" s="193"/>
-      <c r="T36" s="193"/>
-      <c r="U36" s="193"/>
-      <c r="V36" s="193"/>
-      <c r="W36" s="193"/>
-      <c r="X36" s="193"/>
-      <c r="Y36" s="193"/>
-      <c r="Z36" s="193"/>
-      <c r="AA36" s="193"/>
-      <c r="AB36" s="193"/>
-      <c r="AC36" s="193"/>
-      <c r="AD36" s="193"/>
-      <c r="AE36" s="193"/>
-      <c r="AF36" s="193"/>
-      <c r="AG36" s="193"/>
-      <c r="AH36" s="193"/>
-      <c r="AI36" s="193"/>
-      <c r="AJ36" s="193"/>
-      <c r="AK36" s="193"/>
-      <c r="AL36" s="193"/>
-      <c r="AM36" s="193"/>
-      <c r="AN36" s="193"/>
-      <c r="AO36" s="194"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="195"/>
+      <c r="L36" s="195"/>
+      <c r="M36" s="195"/>
+      <c r="N36" s="195"/>
+      <c r="O36" s="195"/>
+      <c r="P36" s="195"/>
+      <c r="Q36" s="195"/>
+      <c r="R36" s="195"/>
+      <c r="S36" s="195"/>
+      <c r="T36" s="195"/>
+      <c r="U36" s="195"/>
+      <c r="V36" s="195"/>
+      <c r="W36" s="195"/>
+      <c r="X36" s="195"/>
+      <c r="Y36" s="195"/>
+      <c r="Z36" s="195"/>
+      <c r="AA36" s="195"/>
+      <c r="AB36" s="195"/>
+      <c r="AC36" s="195"/>
+      <c r="AD36" s="195"/>
+      <c r="AE36" s="195"/>
+      <c r="AF36" s="195"/>
+      <c r="AG36" s="195"/>
+      <c r="AH36" s="195"/>
+      <c r="AI36" s="195"/>
+      <c r="AJ36" s="195"/>
+      <c r="AK36" s="195"/>
+      <c r="AL36" s="195"/>
+      <c r="AM36" s="195"/>
+      <c r="AN36" s="195"/>
+      <c r="AO36" s="196"/>
     </row>
     <row r="37" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="124">
@@ -23769,7 +25313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -23788,15 +25332,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="191"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="193"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="68" t="s">
@@ -24222,14 +25766,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="234"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -24275,12 +25819,12 @@
       <c r="AU1" s="13"/>
     </row>
     <row r="2" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="204"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="208"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -24317,22 +25861,22 @@
       </c>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
-      <c r="AP2" s="233" t="s">
+      <c r="AP2" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="AQ2" s="233"/>
-      <c r="AR2" s="233"/>
-      <c r="AS2" s="233"/>
-      <c r="AT2" s="233"/>
-      <c r="AU2" s="234"/>
+      <c r="AQ2" s="241"/>
+      <c r="AR2" s="241"/>
+      <c r="AS2" s="241"/>
+      <c r="AT2" s="241"/>
+      <c r="AU2" s="242"/>
     </row>
     <row r="3" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -24367,20 +25911,20 @@
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
       <c r="AO3" s="12"/>
-      <c r="AP3" s="233"/>
-      <c r="AQ3" s="233"/>
-      <c r="AR3" s="233"/>
-      <c r="AS3" s="233"/>
-      <c r="AT3" s="233"/>
-      <c r="AU3" s="234"/>
+      <c r="AP3" s="241"/>
+      <c r="AQ3" s="241"/>
+      <c r="AR3" s="241"/>
+      <c r="AS3" s="241"/>
+      <c r="AT3" s="241"/>
+      <c r="AU3" s="242"/>
     </row>
     <row r="4" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="208"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -24414,20 +25958,20 @@
       <c r="AL4" s="12"/>
       <c r="AM4" s="12"/>
       <c r="AN4" s="12"/>
-      <c r="AP4" s="233"/>
-      <c r="AQ4" s="233"/>
-      <c r="AR4" s="233"/>
-      <c r="AS4" s="233"/>
-      <c r="AT4" s="233"/>
-      <c r="AU4" s="234"/>
+      <c r="AP4" s="241"/>
+      <c r="AQ4" s="241"/>
+      <c r="AR4" s="241"/>
+      <c r="AS4" s="241"/>
+      <c r="AT4" s="241"/>
+      <c r="AU4" s="242"/>
     </row>
     <row r="5" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="207"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="209"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -24462,12 +26006,12 @@
       <c r="AM5" s="16"/>
       <c r="AN5" s="16"/>
       <c r="AO5" s="16"/>
-      <c r="AP5" s="235"/>
-      <c r="AQ5" s="235"/>
-      <c r="AR5" s="235"/>
-      <c r="AS5" s="235"/>
-      <c r="AT5" s="235"/>
-      <c r="AU5" s="236"/>
+      <c r="AP5" s="243"/>
+      <c r="AQ5" s="243"/>
+      <c r="AR5" s="243"/>
+      <c r="AS5" s="243"/>
+      <c r="AT5" s="243"/>
+      <c r="AU5" s="244"/>
     </row>
     <row r="6" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="136" t="s">
@@ -24480,44 +26024,44 @@
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="238"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="237"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="238"/>
-      <c r="S6" s="238"/>
-      <c r="T6" s="239"/>
-      <c r="U6" s="242"/>
-      <c r="V6" s="243"/>
-      <c r="W6" s="243"/>
-      <c r="X6" s="244"/>
-      <c r="Y6" s="237"/>
-      <c r="Z6" s="238"/>
-      <c r="AA6" s="238"/>
-      <c r="AB6" s="238"/>
-      <c r="AC6" s="239"/>
-      <c r="AD6" s="237"/>
-      <c r="AE6" s="238"/>
-      <c r="AF6" s="238"/>
-      <c r="AG6" s="238"/>
-      <c r="AH6" s="238"/>
-      <c r="AI6" s="239"/>
-      <c r="AJ6" s="237"/>
-      <c r="AK6" s="238"/>
-      <c r="AL6" s="238"/>
-      <c r="AM6" s="238"/>
-      <c r="AN6" s="238"/>
-      <c r="AO6" s="239"/>
-      <c r="AP6" s="237"/>
-      <c r="AQ6" s="238"/>
-      <c r="AR6" s="238"/>
-      <c r="AS6" s="238"/>
-      <c r="AT6" s="238"/>
-      <c r="AU6" s="240"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="224"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="225"/>
+      <c r="R6" s="225"/>
+      <c r="S6" s="225"/>
+      <c r="T6" s="226"/>
+      <c r="U6" s="227"/>
+      <c r="V6" s="228"/>
+      <c r="W6" s="228"/>
+      <c r="X6" s="229"/>
+      <c r="Y6" s="224"/>
+      <c r="Z6" s="225"/>
+      <c r="AA6" s="225"/>
+      <c r="AB6" s="225"/>
+      <c r="AC6" s="226"/>
+      <c r="AD6" s="224"/>
+      <c r="AE6" s="225"/>
+      <c r="AF6" s="225"/>
+      <c r="AG6" s="225"/>
+      <c r="AH6" s="225"/>
+      <c r="AI6" s="226"/>
+      <c r="AJ6" s="224"/>
+      <c r="AK6" s="225"/>
+      <c r="AL6" s="225"/>
+      <c r="AM6" s="225"/>
+      <c r="AN6" s="225"/>
+      <c r="AO6" s="226"/>
+      <c r="AP6" s="224"/>
+      <c r="AQ6" s="225"/>
+      <c r="AR6" s="225"/>
+      <c r="AS6" s="225"/>
+      <c r="AT6" s="225"/>
+      <c r="AU6" s="245"/>
     </row>
     <row r="7" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -24577,46 +26121,46 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="241" t="s">
+      <c r="I8" s="246" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="241"/>
-      <c r="N8" s="241"/>
-      <c r="O8" s="241"/>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="241"/>
-      <c r="R8" s="241"/>
-      <c r="S8" s="241"/>
-      <c r="T8" s="241"/>
-      <c r="U8" s="241"/>
-      <c r="V8" s="241"/>
-      <c r="W8" s="241"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="241"/>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="241"/>
-      <c r="AB8" s="241"/>
-      <c r="AC8" s="241"/>
-      <c r="AD8" s="241"/>
-      <c r="AE8" s="241"/>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="241"/>
-      <c r="AH8" s="241"/>
-      <c r="AI8" s="241"/>
-      <c r="AJ8" s="241"/>
-      <c r="AK8" s="241"/>
-      <c r="AL8" s="241"/>
-      <c r="AM8" s="241"/>
-      <c r="AN8" s="241"/>
-      <c r="AO8" s="241"/>
-      <c r="AP8" s="241"/>
-      <c r="AQ8" s="241"/>
-      <c r="AR8" s="241"/>
-      <c r="AS8" s="241"/>
-      <c r="AT8" s="241"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="246"/>
+      <c r="AG8" s="246"/>
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="246"/>
+      <c r="AK8" s="246"/>
+      <c r="AL8" s="246"/>
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="246"/>
+      <c r="AO8" s="246"/>
+      <c r="AP8" s="246"/>
+      <c r="AQ8" s="246"/>
+      <c r="AR8" s="246"/>
+      <c r="AS8" s="246"/>
+      <c r="AT8" s="246"/>
       <c r="AU8" s="13"/>
     </row>
     <row r="9" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -24682,22 +26226,22 @@
       <c r="I10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="213" t="s">
+      <c r="O10" s="215" t="s">
         <v>234</v>
       </c>
-      <c r="P10" s="214"/>
-      <c r="Q10" s="214"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="215"/>
+      <c r="P10" s="216"/>
+      <c r="Q10" s="216"/>
+      <c r="R10" s="216"/>
+      <c r="S10" s="217"/>
       <c r="T10" s="48"/>
-      <c r="U10" s="213" t="s">
+      <c r="U10" s="215" t="s">
         <v>143</v>
       </c>
-      <c r="V10" s="214"/>
-      <c r="W10" s="214"/>
-      <c r="X10" s="214"/>
-      <c r="Y10" s="214"/>
-      <c r="Z10" s="215"/>
+      <c r="V10" s="216"/>
+      <c r="W10" s="216"/>
+      <c r="X10" s="216"/>
+      <c r="Y10" s="216"/>
+      <c r="Z10" s="217"/>
       <c r="AU10" s="13"/>
     </row>
     <row r="11" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -24746,34 +26290,34 @@
       <c r="I12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="213"/>
-      <c r="P12" s="214"/>
-      <c r="Q12" s="214"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
-      <c r="T12" s="214"/>
-      <c r="U12" s="214"/>
-      <c r="V12" s="214"/>
-      <c r="W12" s="214"/>
-      <c r="X12" s="214"/>
-      <c r="Y12" s="214"/>
-      <c r="Z12" s="215"/>
+      <c r="O12" s="215"/>
+      <c r="P12" s="216"/>
+      <c r="Q12" s="216"/>
+      <c r="R12" s="216"/>
+      <c r="S12" s="216"/>
+      <c r="T12" s="216"/>
+      <c r="U12" s="216"/>
+      <c r="V12" s="216"/>
+      <c r="W12" s="216"/>
+      <c r="X12" s="216"/>
+      <c r="Y12" s="216"/>
+      <c r="Z12" s="217"/>
       <c r="AB12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="AE12" s="12"/>
-      <c r="AH12" s="213"/>
-      <c r="AI12" s="214"/>
-      <c r="AJ12" s="214"/>
-      <c r="AK12" s="214"/>
-      <c r="AL12" s="214"/>
-      <c r="AM12" s="214"/>
-      <c r="AN12" s="214"/>
-      <c r="AO12" s="214"/>
-      <c r="AP12" s="214"/>
-      <c r="AQ12" s="214"/>
-      <c r="AR12" s="214"/>
-      <c r="AS12" s="215"/>
+      <c r="AH12" s="215"/>
+      <c r="AI12" s="216"/>
+      <c r="AJ12" s="216"/>
+      <c r="AK12" s="216"/>
+      <c r="AL12" s="216"/>
+      <c r="AM12" s="216"/>
+      <c r="AN12" s="216"/>
+      <c r="AO12" s="216"/>
+      <c r="AP12" s="216"/>
+      <c r="AQ12" s="216"/>
+      <c r="AR12" s="216"/>
+      <c r="AS12" s="217"/>
       <c r="AU12" s="13"/>
     </row>
     <row r="13" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -24862,19 +26406,19 @@
       <c r="I16" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="L16" s="213">
+      <c r="L16" s="215">
         <v>10</v>
       </c>
-      <c r="M16" s="215"/>
+      <c r="M16" s="217"/>
       <c r="N16" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="AM16" s="219" t="s">
+      <c r="AM16" s="221" t="s">
         <v>254</v>
       </c>
-      <c r="AN16" s="220"/>
-      <c r="AO16" s="220"/>
-      <c r="AP16" s="221"/>
+      <c r="AN16" s="222"/>
+      <c r="AO16" s="222"/>
+      <c r="AP16" s="223"/>
       <c r="AR16" s="160" t="s">
         <v>253</v>
       </c>
@@ -24988,14 +26532,14 @@
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="37"/>
-      <c r="R18" s="227" t="s">
+      <c r="R18" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="S18" s="228"/>
-      <c r="T18" s="228"/>
-      <c r="U18" s="228"/>
-      <c r="V18" s="228"/>
-      <c r="W18" s="229"/>
+      <c r="S18" s="236"/>
+      <c r="T18" s="236"/>
+      <c r="U18" s="236"/>
+      <c r="V18" s="236"/>
+      <c r="W18" s="237"/>
       <c r="X18" s="38" t="s">
         <v>48</v>
       </c>
@@ -25003,16 +26547,16 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
-      <c r="AC18" s="230"/>
-      <c r="AD18" s="231"/>
-      <c r="AE18" s="231"/>
-      <c r="AF18" s="232"/>
+      <c r="AC18" s="238"/>
+      <c r="AD18" s="239"/>
+      <c r="AE18" s="239"/>
+      <c r="AF18" s="240"/>
       <c r="AG18" s="38"/>
-      <c r="AH18" s="231" t="s">
+      <c r="AH18" s="239" t="s">
         <v>82</v>
       </c>
-      <c r="AI18" s="231"/>
-      <c r="AJ18" s="232"/>
+      <c r="AI18" s="239"/>
+      <c r="AJ18" s="240"/>
       <c r="AK18" s="36" t="s">
         <v>49</v>
       </c>
@@ -25501,12 +27045,12 @@
       <c r="AT25" s="35"/>
       <c r="AU25" s="13"/>
       <c r="AY25" s="11"/>
-      <c r="AZ25" s="222" t="s">
+      <c r="AZ25" s="230" t="s">
         <v>383</v>
       </c>
-      <c r="BA25" s="223"/>
-      <c r="BB25" s="223"/>
-      <c r="BC25" s="224"/>
+      <c r="BA25" s="231"/>
+      <c r="BB25" s="231"/>
+      <c r="BC25" s="232"/>
       <c r="BD25" s="12"/>
       <c r="BE25" s="12"/>
       <c r="BF25" s="12"/>
@@ -25893,48 +27437,48 @@
       <c r="B38" s="124">
         <v>3</v>
       </c>
-      <c r="C38" s="192"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="193"/>
-      <c r="K38" s="193"/>
-      <c r="L38" s="193"/>
-      <c r="M38" s="193"/>
-      <c r="N38" s="193"/>
-      <c r="O38" s="193"/>
-      <c r="P38" s="193"/>
-      <c r="Q38" s="193"/>
-      <c r="R38" s="193"/>
-      <c r="S38" s="193"/>
-      <c r="T38" s="193"/>
-      <c r="U38" s="193"/>
-      <c r="V38" s="193"/>
-      <c r="W38" s="193"/>
-      <c r="X38" s="193"/>
-      <c r="Y38" s="193"/>
-      <c r="Z38" s="193"/>
-      <c r="AA38" s="193"/>
-      <c r="AB38" s="193"/>
-      <c r="AC38" s="193"/>
-      <c r="AD38" s="193"/>
-      <c r="AE38" s="193"/>
-      <c r="AF38" s="193"/>
-      <c r="AG38" s="193"/>
-      <c r="AH38" s="193"/>
-      <c r="AI38" s="193"/>
-      <c r="AJ38" s="193"/>
-      <c r="AK38" s="193"/>
-      <c r="AL38" s="193"/>
-      <c r="AM38" s="193"/>
-      <c r="AN38" s="193"/>
-      <c r="AO38" s="193"/>
-      <c r="AP38" s="193"/>
-      <c r="AQ38" s="193"/>
-      <c r="AR38" s="194"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="195"/>
+      <c r="L38" s="195"/>
+      <c r="M38" s="195"/>
+      <c r="N38" s="195"/>
+      <c r="O38" s="195"/>
+      <c r="P38" s="195"/>
+      <c r="Q38" s="195"/>
+      <c r="R38" s="195"/>
+      <c r="S38" s="195"/>
+      <c r="T38" s="195"/>
+      <c r="U38" s="195"/>
+      <c r="V38" s="195"/>
+      <c r="W38" s="195"/>
+      <c r="X38" s="195"/>
+      <c r="Y38" s="195"/>
+      <c r="Z38" s="195"/>
+      <c r="AA38" s="195"/>
+      <c r="AB38" s="195"/>
+      <c r="AC38" s="195"/>
+      <c r="AD38" s="195"/>
+      <c r="AE38" s="195"/>
+      <c r="AF38" s="195"/>
+      <c r="AG38" s="195"/>
+      <c r="AH38" s="195"/>
+      <c r="AI38" s="195"/>
+      <c r="AJ38" s="195"/>
+      <c r="AK38" s="195"/>
+      <c r="AL38" s="195"/>
+      <c r="AM38" s="195"/>
+      <c r="AN38" s="195"/>
+      <c r="AO38" s="195"/>
+      <c r="AP38" s="195"/>
+      <c r="AQ38" s="195"/>
+      <c r="AR38" s="196"/>
       <c r="AS38" s="29"/>
       <c r="AT38" s="29"/>
       <c r="AU38" s="29"/>
@@ -26541,11 +28085,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AM16:AP16"/>
     <mergeCell ref="C38:AR38"/>
     <mergeCell ref="AZ25:BC25"/>
     <mergeCell ref="B1:G5"/>
@@ -26562,6 +28101,11 @@
     <mergeCell ref="AP6:AU6"/>
     <mergeCell ref="AD6:AI6"/>
     <mergeCell ref="I8:AT8"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AM16:AP16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -26580,7 +28124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -26599,15 +28143,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="191"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="193"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="68" t="s">

--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="29" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="482">
   <si>
     <t>Logo</t>
   </si>
@@ -1764,9 +1764,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Nhập mật khẩu mới</t>
   </si>
   <si>
@@ -1870,6 +1867,15 @@
   </si>
   <si>
     <t>DropDown</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Coded</t>
+  </si>
+  <si>
+    <t>QuanTC tich hop trong Rider</t>
   </si>
 </sst>
 </file>
@@ -3016,24 +3022,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3079,44 +3067,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3145,20 +3118,38 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3183,6 +3174,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5018,8 +5024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5091,10 +5097,10 @@
       </c>
       <c r="F4" s="180"/>
       <c r="G4" s="79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H4" s="186" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="I4" s="79"/>
     </row>
@@ -5114,9 +5120,11 @@
       </c>
       <c r="F5" s="180"/>
       <c r="G5" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H5" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>479</v>
+      </c>
       <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5140,7 +5148,7 @@
         <v>441</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="I6" s="79"/>
     </row>
@@ -5163,7 +5171,7 @@
         <v>442</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="I7" s="79"/>
     </row>
@@ -5186,7 +5194,7 @@
         <v>442</v>
       </c>
       <c r="H8" s="79" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="I8" s="79"/>
     </row>
@@ -5206,10 +5214,10 @@
         <v>397</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H9" s="79" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="I9" s="79"/>
     </row>
@@ -5232,9 +5240,11 @@
         <v>442</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>444</v>
-      </c>
-      <c r="I10" s="79"/>
+        <v>480</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="156"/>
@@ -5252,9 +5262,11 @@
         <v>398</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H11" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H11" s="79" t="s">
+        <v>479</v>
+      </c>
       <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5273,9 +5285,11 @@
         <v>407</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H12" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>479</v>
+      </c>
       <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5294,9 +5308,11 @@
         <v>408</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>479</v>
+      </c>
       <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5315,9 +5331,11 @@
         <v>409</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H14" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>479</v>
+      </c>
       <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5336,9 +5354,11 @@
         <v>410</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>479</v>
+      </c>
       <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -5357,9 +5377,11 @@
         <v>393</v>
       </c>
       <c r="G16" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H16" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H16" s="79" t="s">
+        <v>479</v>
+      </c>
       <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -5377,7 +5399,9 @@
       <c r="F17" s="180" t="s">
         <v>412</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="79" t="s">
+        <v>64</v>
+      </c>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
     </row>
@@ -5555,14 +5579,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="227" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="234"/>
+      <c r="G1" s="228"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
@@ -5643,15 +5667,15 @@
       </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="241" t="s">
+      <c r="AL2" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="241"/>
-      <c r="AN2" s="241"/>
-      <c r="AO2" s="241"/>
-      <c r="AP2" s="241"/>
-      <c r="AQ2" s="241"/>
-      <c r="AR2" s="242"/>
+      <c r="AM2" s="235"/>
+      <c r="AN2" s="235"/>
+      <c r="AO2" s="235"/>
+      <c r="AP2" s="235"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="236"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -5690,13 +5714,13 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="241"/>
-      <c r="AM3" s="241"/>
-      <c r="AN3" s="241"/>
-      <c r="AO3" s="241"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="242"/>
+      <c r="AL3" s="235"/>
+      <c r="AM3" s="235"/>
+      <c r="AN3" s="235"/>
+      <c r="AO3" s="235"/>
+      <c r="AP3" s="235"/>
+      <c r="AQ3" s="235"/>
+      <c r="AR3" s="236"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -5734,13 +5758,13 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AL4" s="241"/>
-      <c r="AM4" s="241"/>
-      <c r="AN4" s="241"/>
-      <c r="AO4" s="241"/>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="241"/>
-      <c r="AR4" s="242"/>
+      <c r="AL4" s="235"/>
+      <c r="AM4" s="235"/>
+      <c r="AN4" s="235"/>
+      <c r="AO4" s="235"/>
+      <c r="AP4" s="235"/>
+      <c r="AQ4" s="235"/>
+      <c r="AR4" s="236"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -5779,13 +5803,13 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
-      <c r="AL5" s="243"/>
-      <c r="AM5" s="243"/>
-      <c r="AN5" s="243"/>
-      <c r="AO5" s="243"/>
-      <c r="AP5" s="243"/>
-      <c r="AQ5" s="243"/>
-      <c r="AR5" s="244"/>
+      <c r="AL5" s="237"/>
+      <c r="AM5" s="237"/>
+      <c r="AN5" s="237"/>
+      <c r="AO5" s="237"/>
+      <c r="AP5" s="237"/>
+      <c r="AQ5" s="237"/>
+      <c r="AR5" s="238"/>
     </row>
     <row r="6" spans="2:44" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
@@ -5833,51 +5857,51 @@
       <c r="AR6" s="13"/>
     </row>
     <row r="7" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="226"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="226"/>
-      <c r="L7" s="224"/>
-      <c r="M7" s="225"/>
-      <c r="N7" s="225"/>
-      <c r="O7" s="225"/>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="226"/>
-      <c r="R7" s="248"/>
-      <c r="S7" s="249"/>
-      <c r="T7" s="249"/>
-      <c r="U7" s="250"/>
-      <c r="V7" s="224"/>
-      <c r="W7" s="225"/>
-      <c r="X7" s="225"/>
-      <c r="Y7" s="225"/>
-      <c r="Z7" s="226"/>
-      <c r="AA7" s="224"/>
-      <c r="AB7" s="225"/>
-      <c r="AC7" s="225"/>
-      <c r="AD7" s="225"/>
-      <c r="AE7" s="225"/>
-      <c r="AF7" s="226"/>
-      <c r="AG7" s="224"/>
-      <c r="AH7" s="225"/>
-      <c r="AI7" s="225"/>
-      <c r="AJ7" s="225"/>
-      <c r="AK7" s="225"/>
-      <c r="AL7" s="226"/>
-      <c r="AM7" s="224"/>
-      <c r="AN7" s="225"/>
-      <c r="AO7" s="225"/>
-      <c r="AP7" s="225"/>
-      <c r="AQ7" s="225"/>
-      <c r="AR7" s="226"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="241"/>
+      <c r="L7" s="239"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="240"/>
+      <c r="O7" s="240"/>
+      <c r="P7" s="240"/>
+      <c r="Q7" s="241"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="266"/>
+      <c r="V7" s="239"/>
+      <c r="W7" s="240"/>
+      <c r="X7" s="240"/>
+      <c r="Y7" s="240"/>
+      <c r="Z7" s="241"/>
+      <c r="AA7" s="239"/>
+      <c r="AB7" s="240"/>
+      <c r="AC7" s="240"/>
+      <c r="AD7" s="240"/>
+      <c r="AE7" s="240"/>
+      <c r="AF7" s="241"/>
+      <c r="AG7" s="239"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="240"/>
+      <c r="AJ7" s="240"/>
+      <c r="AK7" s="240"/>
+      <c r="AL7" s="241"/>
+      <c r="AM7" s="239"/>
+      <c r="AN7" s="240"/>
+      <c r="AO7" s="240"/>
+      <c r="AP7" s="240"/>
+      <c r="AQ7" s="240"/>
+      <c r="AR7" s="241"/>
     </row>
     <row r="8" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -5891,30 +5915,30 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="247"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="247"/>
-      <c r="P8" s="247"/>
-      <c r="Q8" s="247"/>
-      <c r="R8" s="247"/>
-      <c r="S8" s="247"/>
-      <c r="T8" s="247"/>
-      <c r="U8" s="247"/>
-      <c r="V8" s="247"/>
-      <c r="W8" s="247"/>
-      <c r="X8" s="247"/>
-      <c r="Y8" s="247"/>
-      <c r="Z8" s="247"/>
-      <c r="AA8" s="247"/>
-      <c r="AB8" s="247"/>
-      <c r="AC8" s="247"/>
-      <c r="AD8" s="247"/>
-      <c r="AE8" s="247"/>
-      <c r="AF8" s="247"/>
-      <c r="AG8" s="247"/>
-      <c r="AH8" s="247"/>
-      <c r="AI8" s="247"/>
-      <c r="AJ8" s="247"/>
+      <c r="M8" s="263"/>
+      <c r="N8" s="263"/>
+      <c r="O8" s="263"/>
+      <c r="P8" s="263"/>
+      <c r="Q8" s="263"/>
+      <c r="R8" s="263"/>
+      <c r="S8" s="263"/>
+      <c r="T8" s="263"/>
+      <c r="U8" s="263"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
+      <c r="AD8" s="263"/>
+      <c r="AE8" s="263"/>
+      <c r="AF8" s="263"/>
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="263"/>
+      <c r="AI8" s="263"/>
+      <c r="AJ8" s="263"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
@@ -5938,32 +5962,32 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="246" t="s">
+      <c r="M9" s="243" t="s">
         <v>125</v>
       </c>
-      <c r="N9" s="246"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="246"/>
-      <c r="U9" s="246"/>
-      <c r="V9" s="246"/>
-      <c r="W9" s="246"/>
-      <c r="X9" s="246"/>
-      <c r="Y9" s="246"/>
-      <c r="Z9" s="246"/>
-      <c r="AA9" s="246"/>
-      <c r="AB9" s="246"/>
-      <c r="AC9" s="246"/>
-      <c r="AD9" s="246"/>
-      <c r="AE9" s="246"/>
-      <c r="AF9" s="246"/>
-      <c r="AG9" s="246"/>
-      <c r="AH9" s="246"/>
-      <c r="AI9" s="246"/>
-      <c r="AJ9" s="246"/>
+      <c r="N9" s="243"/>
+      <c r="O9" s="243"/>
+      <c r="P9" s="243"/>
+      <c r="Q9" s="243"/>
+      <c r="R9" s="243"/>
+      <c r="S9" s="243"/>
+      <c r="T9" s="243"/>
+      <c r="U9" s="243"/>
+      <c r="V9" s="243"/>
+      <c r="W9" s="243"/>
+      <c r="X9" s="243"/>
+      <c r="Y9" s="243"/>
+      <c r="Z9" s="243"/>
+      <c r="AA9" s="243"/>
+      <c r="AB9" s="243"/>
+      <c r="AC9" s="243"/>
+      <c r="AD9" s="243"/>
+      <c r="AE9" s="243"/>
+      <c r="AF9" s="243"/>
+      <c r="AG9" s="243"/>
+      <c r="AH9" s="243"/>
+      <c r="AI9" s="243"/>
+      <c r="AJ9" s="243"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
@@ -6159,7 +6183,7 @@
       </c>
       <c r="J14" s="165"/>
       <c r="K14" s="165"/>
-      <c r="M14" s="251" t="s">
+      <c r="M14" s="256" t="s">
         <v>431</v>
       </c>
       <c r="N14" s="204"/>
@@ -6202,7 +6226,7 @@
       <c r="I15" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M15" s="251" t="s">
+      <c r="M15" s="256" t="s">
         <v>432</v>
       </c>
       <c r="N15" s="204"/>
@@ -6245,23 +6269,23 @@
       <c r="I16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="256" t="s">
+      <c r="M16" s="261" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="254"/>
-      <c r="O16" s="254"/>
-      <c r="P16" s="254"/>
-      <c r="Q16" s="255"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="259"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="260"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="253" t="s">
+      <c r="S16" s="258" t="s">
         <v>307</v>
       </c>
-      <c r="T16" s="254"/>
-      <c r="U16" s="254"/>
-      <c r="V16" s="254"/>
-      <c r="W16" s="254"/>
-      <c r="X16" s="254"/>
-      <c r="Y16" s="255"/>
+      <c r="T16" s="259"/>
+      <c r="U16" s="259"/>
+      <c r="V16" s="259"/>
+      <c r="W16" s="259"/>
+      <c r="X16" s="259"/>
+      <c r="Y16" s="260"/>
       <c r="Z16" s="48"/>
       <c r="AA16" s="48"/>
       <c r="AB16" s="48" t="s">
@@ -6502,43 +6526,43 @@
       <c r="B23" s="11"/>
       <c r="G23" s="19"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="257" t="s">
+      <c r="I23" s="262" t="s">
         <v>224</v>
       </c>
-      <c r="J23" s="257"/>
-      <c r="K23" s="257"/>
-      <c r="L23" s="257"/>
-      <c r="M23" s="257"/>
-      <c r="N23" s="257"/>
-      <c r="O23" s="257"/>
-      <c r="P23" s="257"/>
-      <c r="Q23" s="257"/>
-      <c r="R23" s="257"/>
-      <c r="S23" s="257"/>
-      <c r="T23" s="257"/>
-      <c r="U23" s="257"/>
-      <c r="V23" s="257"/>
-      <c r="W23" s="257"/>
-      <c r="X23" s="257"/>
-      <c r="Y23" s="257"/>
-      <c r="Z23" s="257"/>
-      <c r="AA23" s="257"/>
-      <c r="AB23" s="257"/>
-      <c r="AC23" s="257"/>
-      <c r="AD23" s="257"/>
-      <c r="AE23" s="257"/>
-      <c r="AF23" s="257"/>
-      <c r="AG23" s="257"/>
-      <c r="AH23" s="257"/>
-      <c r="AI23" s="257"/>
-      <c r="AJ23" s="257"/>
-      <c r="AK23" s="257"/>
-      <c r="AL23" s="257"/>
-      <c r="AM23" s="257"/>
-      <c r="AN23" s="257"/>
-      <c r="AO23" s="257"/>
-      <c r="AP23" s="257"/>
-      <c r="AQ23" s="257"/>
+      <c r="J23" s="262"/>
+      <c r="K23" s="262"/>
+      <c r="L23" s="262"/>
+      <c r="M23" s="262"/>
+      <c r="N23" s="262"/>
+      <c r="O23" s="262"/>
+      <c r="P23" s="262"/>
+      <c r="Q23" s="262"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="262"/>
+      <c r="T23" s="262"/>
+      <c r="U23" s="262"/>
+      <c r="V23" s="262"/>
+      <c r="W23" s="262"/>
+      <c r="X23" s="262"/>
+      <c r="Y23" s="262"/>
+      <c r="Z23" s="262"/>
+      <c r="AA23" s="262"/>
+      <c r="AB23" s="262"/>
+      <c r="AC23" s="262"/>
+      <c r="AD23" s="262"/>
+      <c r="AE23" s="262"/>
+      <c r="AF23" s="262"/>
+      <c r="AG23" s="262"/>
+      <c r="AH23" s="262"/>
+      <c r="AI23" s="262"/>
+      <c r="AJ23" s="262"/>
+      <c r="AK23" s="262"/>
+      <c r="AL23" s="262"/>
+      <c r="AM23" s="262"/>
+      <c r="AN23" s="262"/>
+      <c r="AO23" s="262"/>
+      <c r="AP23" s="262"/>
+      <c r="AQ23" s="262"/>
       <c r="AR23" s="13"/>
       <c r="AT23" s="53"/>
       <c r="AU23" s="53"/>
@@ -6614,21 +6638,21 @@
       <c r="B25" s="11"/>
       <c r="G25" s="19"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="252" t="s">
+      <c r="I25" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="252"/>
-      <c r="K25" s="252"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="252"/>
-      <c r="N25" s="252"/>
-      <c r="O25" s="252"/>
-      <c r="P25" s="252"/>
-      <c r="Q25" s="252"/>
-      <c r="R25" s="252"/>
-      <c r="S25" s="252"/>
-      <c r="T25" s="252"/>
-      <c r="U25" s="252"/>
+      <c r="J25" s="257"/>
+      <c r="K25" s="257"/>
+      <c r="L25" s="257"/>
+      <c r="M25" s="257"/>
+      <c r="N25" s="257"/>
+      <c r="O25" s="257"/>
+      <c r="P25" s="257"/>
+      <c r="Q25" s="257"/>
+      <c r="R25" s="257"/>
+      <c r="S25" s="257"/>
+      <c r="T25" s="257"/>
+      <c r="U25" s="257"/>
       <c r="V25" s="104"/>
       <c r="W25" s="104"/>
       <c r="X25" s="104"/>
@@ -6680,21 +6704,21 @@
       <c r="B26" s="11"/>
       <c r="G26" s="19"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="258" t="s">
+      <c r="I26" s="247" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="259"/>
-      <c r="K26" s="259"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="259"/>
-      <c r="N26" s="259"/>
-      <c r="O26" s="259"/>
-      <c r="P26" s="259"/>
-      <c r="Q26" s="259"/>
-      <c r="R26" s="259"/>
-      <c r="S26" s="259"/>
-      <c r="T26" s="259"/>
-      <c r="U26" s="260"/>
+      <c r="J26" s="248"/>
+      <c r="K26" s="248"/>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="248"/>
+      <c r="O26" s="248"/>
+      <c r="P26" s="248"/>
+      <c r="Q26" s="248"/>
+      <c r="R26" s="248"/>
+      <c r="S26" s="248"/>
+      <c r="T26" s="248"/>
+      <c r="U26" s="249"/>
       <c r="V26" s="104" t="s">
         <v>318</v>
       </c>
@@ -6757,14 +6781,14 @@
       </c>
       <c r="AY27" s="53"/>
       <c r="AZ27" s="53"/>
-      <c r="BA27" s="261"/>
-      <c r="BB27" s="262"/>
-      <c r="BC27" s="262"/>
-      <c r="BD27" s="262"/>
-      <c r="BE27" s="262"/>
-      <c r="BF27" s="262"/>
-      <c r="BG27" s="262"/>
-      <c r="BH27" s="263"/>
+      <c r="BA27" s="250"/>
+      <c r="BB27" s="251"/>
+      <c r="BC27" s="251"/>
+      <c r="BD27" s="251"/>
+      <c r="BE27" s="251"/>
+      <c r="BF27" s="251"/>
+      <c r="BG27" s="251"/>
+      <c r="BH27" s="252"/>
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
@@ -6887,18 +6911,18 @@
       <c r="AX29" s="53"/>
       <c r="AY29" s="53"/>
       <c r="AZ29" s="53"/>
-      <c r="BA29" s="264" t="s">
+      <c r="BA29" s="253" t="s">
         <v>356</v>
       </c>
-      <c r="BB29" s="265"/>
-      <c r="BC29" s="265"/>
-      <c r="BD29" s="266"/>
+      <c r="BB29" s="254"/>
+      <c r="BC29" s="254"/>
+      <c r="BD29" s="255"/>
       <c r="BE29" s="50"/>
-      <c r="BF29" s="264" t="s">
+      <c r="BF29" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="BG29" s="265"/>
-      <c r="BH29" s="266"/>
+      <c r="BG29" s="254"/>
+      <c r="BH29" s="255"/>
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
@@ -8211,18 +8235,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I26:U26"/>
-    <mergeCell ref="BA26:BH26"/>
-    <mergeCell ref="BA27:BH27"/>
-    <mergeCell ref="BA29:BD29"/>
-    <mergeCell ref="BF29:BH29"/>
-    <mergeCell ref="AO12:AQ12"/>
-    <mergeCell ref="M15:Y15"/>
-    <mergeCell ref="I25:U25"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="I23:AQ23"/>
-    <mergeCell ref="M14:Y14"/>
     <mergeCell ref="AL2:AR5"/>
     <mergeCell ref="B1:G5"/>
     <mergeCell ref="M8:AJ8"/>
@@ -8235,6 +8247,18 @@
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="V7:Z7"/>
     <mergeCell ref="AA7:AF7"/>
+    <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="M15:Y15"/>
+    <mergeCell ref="I25:U25"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="I23:AQ23"/>
+    <mergeCell ref="M14:Y14"/>
+    <mergeCell ref="I26:U26"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="BA27:BH27"/>
+    <mergeCell ref="BA29:BD29"/>
+    <mergeCell ref="BF29:BH29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7:C7" location="'Main-logged in'!A1" display="Home"/>
@@ -8895,14 +8919,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="227" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="234"/>
+      <c r="G1" s="228"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
@@ -8983,15 +9007,15 @@
       </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="241" t="s">
+      <c r="AL2" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="241"/>
-      <c r="AN2" s="241"/>
-      <c r="AO2" s="241"/>
-      <c r="AP2" s="241"/>
-      <c r="AQ2" s="241"/>
-      <c r="AR2" s="242"/>
+      <c r="AM2" s="235"/>
+      <c r="AN2" s="235"/>
+      <c r="AO2" s="235"/>
+      <c r="AP2" s="235"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="236"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -9030,13 +9054,13 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="241"/>
-      <c r="AM3" s="241"/>
-      <c r="AN3" s="241"/>
-      <c r="AO3" s="241"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="242"/>
+      <c r="AL3" s="235"/>
+      <c r="AM3" s="235"/>
+      <c r="AN3" s="235"/>
+      <c r="AO3" s="235"/>
+      <c r="AP3" s="235"/>
+      <c r="AQ3" s="235"/>
+      <c r="AR3" s="236"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -9074,13 +9098,13 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AL4" s="241"/>
-      <c r="AM4" s="241"/>
-      <c r="AN4" s="241"/>
-      <c r="AO4" s="241"/>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="241"/>
-      <c r="AR4" s="242"/>
+      <c r="AL4" s="235"/>
+      <c r="AM4" s="235"/>
+      <c r="AN4" s="235"/>
+      <c r="AO4" s="235"/>
+      <c r="AP4" s="235"/>
+      <c r="AQ4" s="235"/>
+      <c r="AR4" s="236"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -9119,60 +9143,60 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
-      <c r="AL5" s="243"/>
-      <c r="AM5" s="243"/>
-      <c r="AN5" s="243"/>
-      <c r="AO5" s="243"/>
-      <c r="AP5" s="243"/>
-      <c r="AQ5" s="243"/>
-      <c r="AR5" s="244"/>
+      <c r="AL5" s="237"/>
+      <c r="AM5" s="237"/>
+      <c r="AN5" s="237"/>
+      <c r="AO5" s="237"/>
+      <c r="AP5" s="237"/>
+      <c r="AQ5" s="237"/>
+      <c r="AR5" s="238"/>
     </row>
     <row r="6" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="175"/>
-      <c r="C6" s="270" t="s">
+      <c r="C6" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="271"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="279"/>
       <c r="H6" s="137"/>
       <c r="I6" s="137"/>
       <c r="J6" s="137"/>
       <c r="K6" s="59"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="225"/>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="226"/>
-      <c r="R6" s="248"/>
-      <c r="S6" s="249"/>
-      <c r="T6" s="249"/>
-      <c r="U6" s="250"/>
-      <c r="V6" s="224"/>
-      <c r="W6" s="225"/>
-      <c r="X6" s="225"/>
-      <c r="Y6" s="225"/>
-      <c r="Z6" s="226"/>
-      <c r="AA6" s="224"/>
-      <c r="AB6" s="225"/>
-      <c r="AC6" s="225"/>
-      <c r="AD6" s="225"/>
-      <c r="AE6" s="225"/>
-      <c r="AF6" s="226"/>
-      <c r="AG6" s="224"/>
-      <c r="AH6" s="225"/>
-      <c r="AI6" s="225"/>
-      <c r="AJ6" s="225"/>
-      <c r="AK6" s="225"/>
-      <c r="AL6" s="226"/>
-      <c r="AM6" s="224"/>
-      <c r="AN6" s="225"/>
-      <c r="AO6" s="225"/>
-      <c r="AP6" s="225"/>
-      <c r="AQ6" s="225"/>
-      <c r="AR6" s="226"/>
+      <c r="L6" s="239"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="264"/>
+      <c r="S6" s="265"/>
+      <c r="T6" s="265"/>
+      <c r="U6" s="266"/>
+      <c r="V6" s="239"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="240"/>
+      <c r="Y6" s="240"/>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="239"/>
+      <c r="AB6" s="240"/>
+      <c r="AC6" s="240"/>
+      <c r="AD6" s="240"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="241"/>
+      <c r="AG6" s="239"/>
+      <c r="AH6" s="240"/>
+      <c r="AI6" s="240"/>
+      <c r="AJ6" s="240"/>
+      <c r="AK6" s="240"/>
+      <c r="AL6" s="241"/>
+      <c r="AM6" s="239"/>
+      <c r="AN6" s="240"/>
+      <c r="AO6" s="240"/>
+      <c r="AP6" s="240"/>
+      <c r="AQ6" s="240"/>
+      <c r="AR6" s="241"/>
     </row>
     <row r="7" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -9186,30 +9210,30 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="247"/>
-      <c r="N7" s="247"/>
-      <c r="O7" s="247"/>
-      <c r="P7" s="247"/>
-      <c r="Q7" s="247"/>
-      <c r="R7" s="247"/>
-      <c r="S7" s="247"/>
-      <c r="T7" s="247"/>
-      <c r="U7" s="247"/>
-      <c r="V7" s="247"/>
-      <c r="W7" s="247"/>
-      <c r="X7" s="247"/>
-      <c r="Y7" s="247"/>
-      <c r="Z7" s="247"/>
-      <c r="AA7" s="247"/>
-      <c r="AB7" s="247"/>
-      <c r="AC7" s="247"/>
-      <c r="AD7" s="247"/>
-      <c r="AE7" s="247"/>
-      <c r="AF7" s="247"/>
-      <c r="AG7" s="247"/>
-      <c r="AH7" s="247"/>
-      <c r="AI7" s="247"/>
-      <c r="AJ7" s="247"/>
+      <c r="M7" s="263"/>
+      <c r="N7" s="263"/>
+      <c r="O7" s="263"/>
+      <c r="P7" s="263"/>
+      <c r="Q7" s="263"/>
+      <c r="R7" s="263"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="263"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="263"/>
+      <c r="AD7" s="263"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="263"/>
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="263"/>
+      <c r="AI7" s="263"/>
+      <c r="AJ7" s="263"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
@@ -9229,43 +9253,43 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="246" t="s">
+      <c r="I8" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="246"/>
-      <c r="W8" s="246"/>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="246"/>
-      <c r="AB8" s="246"/>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="246"/>
-      <c r="AE8" s="246"/>
-      <c r="AF8" s="246"/>
-      <c r="AG8" s="246"/>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="246"/>
-      <c r="AJ8" s="246"/>
-      <c r="AK8" s="246"/>
-      <c r="AL8" s="246"/>
-      <c r="AM8" s="246"/>
-      <c r="AN8" s="246"/>
-      <c r="AO8" s="246"/>
-      <c r="AP8" s="246"/>
-      <c r="AQ8" s="246"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
+      <c r="O8" s="243"/>
+      <c r="P8" s="243"/>
+      <c r="Q8" s="243"/>
+      <c r="R8" s="243"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="243"/>
+      <c r="U8" s="243"/>
+      <c r="V8" s="243"/>
+      <c r="W8" s="243"/>
+      <c r="X8" s="243"/>
+      <c r="Y8" s="243"/>
+      <c r="Z8" s="243"/>
+      <c r="AA8" s="243"/>
+      <c r="AB8" s="243"/>
+      <c r="AC8" s="243"/>
+      <c r="AD8" s="243"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="243"/>
+      <c r="AG8" s="243"/>
+      <c r="AH8" s="243"/>
+      <c r="AI8" s="243"/>
+      <c r="AJ8" s="243"/>
+      <c r="AK8" s="243"/>
+      <c r="AL8" s="243"/>
+      <c r="AM8" s="243"/>
+      <c r="AN8" s="243"/>
+      <c r="AO8" s="243"/>
+      <c r="AP8" s="243"/>
+      <c r="AQ8" s="243"/>
       <c r="AR8" s="13"/>
     </row>
     <row r="9" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9309,11 +9333,11 @@
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
       <c r="AN9" s="12"/>
-      <c r="AO9" s="267" t="s">
+      <c r="AO9" s="277" t="s">
         <v>314</v>
       </c>
-      <c r="AP9" s="268"/>
-      <c r="AQ9" s="269"/>
+      <c r="AP9" s="275"/>
+      <c r="AQ9" s="276"/>
       <c r="AR9" s="13"/>
     </row>
     <row r="10" spans="2:44" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9398,11 +9422,11 @@
       <c r="AL11" s="169"/>
       <c r="AM11" s="169"/>
       <c r="AN11" s="169"/>
-      <c r="AO11" s="275" t="s">
+      <c r="AO11" s="270" t="s">
         <v>337</v>
       </c>
-      <c r="AP11" s="276"/>
-      <c r="AQ11" s="277"/>
+      <c r="AP11" s="271"/>
+      <c r="AQ11" s="272"/>
       <c r="AR11" s="13"/>
     </row>
     <row r="12" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9444,15 +9468,15 @@
       <c r="AJ12" s="172"/>
       <c r="AK12" s="172"/>
       <c r="AL12" s="172"/>
-      <c r="AM12" s="279" t="s">
+      <c r="AM12" s="274" t="s">
         <v>21</v>
       </c>
-      <c r="AN12" s="269"/>
-      <c r="AO12" s="279" t="s">
+      <c r="AN12" s="276"/>
+      <c r="AO12" s="274" t="s">
         <v>337</v>
       </c>
-      <c r="AP12" s="268"/>
-      <c r="AQ12" s="269"/>
+      <c r="AP12" s="275"/>
+      <c r="AQ12" s="276"/>
       <c r="AR12" s="13"/>
     </row>
     <row r="13" spans="2:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9472,43 +9496,43 @@
       <c r="N13" s="169"/>
       <c r="O13" s="169"/>
       <c r="P13" s="169"/>
-      <c r="Q13" s="261" t="s">
+      <c r="Q13" s="250" t="s">
         <v>348</v>
       </c>
-      <c r="R13" s="262"/>
-      <c r="S13" s="262"/>
-      <c r="T13" s="262"/>
-      <c r="U13" s="263"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="252"/>
       <c r="V13" s="170"/>
-      <c r="W13" s="261" t="s">
+      <c r="W13" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="X13" s="262"/>
-      <c r="Y13" s="262"/>
-      <c r="Z13" s="262"/>
-      <c r="AA13" s="262"/>
-      <c r="AB13" s="263"/>
+      <c r="X13" s="251"/>
+      <c r="Y13" s="251"/>
+      <c r="Z13" s="251"/>
+      <c r="AA13" s="251"/>
+      <c r="AB13" s="252"/>
       <c r="AC13" s="168"/>
-      <c r="AD13" s="261" t="s">
+      <c r="AD13" s="250" t="s">
         <v>349</v>
       </c>
-      <c r="AE13" s="262"/>
-      <c r="AF13" s="262"/>
-      <c r="AG13" s="262"/>
-      <c r="AH13" s="262"/>
-      <c r="AI13" s="262"/>
-      <c r="AJ13" s="263"/>
+      <c r="AE13" s="251"/>
+      <c r="AF13" s="251"/>
+      <c r="AG13" s="251"/>
+      <c r="AH13" s="251"/>
+      <c r="AI13" s="251"/>
+      <c r="AJ13" s="252"/>
       <c r="AK13" s="169"/>
       <c r="AL13" s="169"/>
-      <c r="AM13" s="275" t="s">
+      <c r="AM13" s="270" t="s">
         <v>355</v>
       </c>
-      <c r="AN13" s="277"/>
-      <c r="AO13" s="275" t="s">
+      <c r="AN13" s="272"/>
+      <c r="AO13" s="270" t="s">
         <v>356</v>
       </c>
-      <c r="AP13" s="276"/>
-      <c r="AQ13" s="277"/>
+      <c r="AP13" s="271"/>
+      <c r="AQ13" s="272"/>
       <c r="AR13" s="13"/>
     </row>
     <row r="14" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9592,54 +9616,54 @@
       <c r="AL15" s="216"/>
       <c r="AM15" s="216"/>
       <c r="AN15" s="217"/>
-      <c r="AO15" s="279" t="s">
+      <c r="AO15" s="274" t="s">
         <v>368</v>
       </c>
-      <c r="AP15" s="268"/>
-      <c r="AQ15" s="269"/>
+      <c r="AP15" s="275"/>
+      <c r="AQ15" s="276"/>
       <c r="AR15" s="13"/>
     </row>
     <row r="16" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="G16" s="19"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="278" t="s">
+      <c r="I16" s="273" t="s">
         <v>334</v>
       </c>
-      <c r="J16" s="278"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="278"/>
-      <c r="M16" s="278"/>
-      <c r="N16" s="278"/>
-      <c r="O16" s="278"/>
-      <c r="P16" s="278"/>
-      <c r="Q16" s="278"/>
-      <c r="R16" s="278"/>
-      <c r="S16" s="278"/>
-      <c r="T16" s="278"/>
-      <c r="U16" s="278"/>
-      <c r="V16" s="278"/>
-      <c r="W16" s="278"/>
-      <c r="X16" s="278"/>
-      <c r="Y16" s="278"/>
-      <c r="Z16" s="278"/>
-      <c r="AA16" s="278"/>
-      <c r="AB16" s="278"/>
-      <c r="AC16" s="278"/>
-      <c r="AD16" s="278"/>
-      <c r="AE16" s="278"/>
-      <c r="AF16" s="278"/>
-      <c r="AG16" s="278"/>
-      <c r="AH16" s="278"/>
-      <c r="AI16" s="278"/>
-      <c r="AJ16" s="278"/>
-      <c r="AK16" s="278"/>
-      <c r="AL16" s="278"/>
-      <c r="AM16" s="278"/>
-      <c r="AN16" s="278"/>
-      <c r="AO16" s="278"/>
-      <c r="AP16" s="278"/>
-      <c r="AQ16" s="278"/>
+      <c r="J16" s="273"/>
+      <c r="K16" s="273"/>
+      <c r="L16" s="273"/>
+      <c r="M16" s="273"/>
+      <c r="N16" s="273"/>
+      <c r="O16" s="273"/>
+      <c r="P16" s="273"/>
+      <c r="Q16" s="273"/>
+      <c r="R16" s="273"/>
+      <c r="S16" s="273"/>
+      <c r="T16" s="273"/>
+      <c r="U16" s="273"/>
+      <c r="V16" s="273"/>
+      <c r="W16" s="273"/>
+      <c r="X16" s="273"/>
+      <c r="Y16" s="273"/>
+      <c r="Z16" s="273"/>
+      <c r="AA16" s="273"/>
+      <c r="AB16" s="273"/>
+      <c r="AC16" s="273"/>
+      <c r="AD16" s="273"/>
+      <c r="AE16" s="273"/>
+      <c r="AF16" s="273"/>
+      <c r="AG16" s="273"/>
+      <c r="AH16" s="273"/>
+      <c r="AI16" s="273"/>
+      <c r="AJ16" s="273"/>
+      <c r="AK16" s="273"/>
+      <c r="AL16" s="273"/>
+      <c r="AM16" s="273"/>
+      <c r="AN16" s="273"/>
+      <c r="AO16" s="273"/>
+      <c r="AP16" s="273"/>
+      <c r="AQ16" s="273"/>
       <c r="AR16" s="13"/>
     </row>
     <row r="17" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9860,43 +9884,43 @@
       <c r="B21" s="11"/>
       <c r="G21" s="19"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="278" t="s">
+      <c r="I21" s="273" t="s">
         <v>339</v>
       </c>
-      <c r="J21" s="278"/>
-      <c r="K21" s="278"/>
-      <c r="L21" s="278"/>
-      <c r="M21" s="278"/>
-      <c r="N21" s="278"/>
-      <c r="O21" s="278"/>
-      <c r="P21" s="278"/>
-      <c r="Q21" s="278"/>
-      <c r="R21" s="278"/>
-      <c r="S21" s="278"/>
-      <c r="T21" s="278"/>
-      <c r="U21" s="278"/>
-      <c r="V21" s="278"/>
-      <c r="W21" s="278"/>
-      <c r="X21" s="278"/>
-      <c r="Y21" s="278"/>
-      <c r="Z21" s="278"/>
-      <c r="AA21" s="278"/>
-      <c r="AB21" s="278"/>
-      <c r="AC21" s="278"/>
-      <c r="AD21" s="278"/>
-      <c r="AE21" s="278"/>
-      <c r="AF21" s="278"/>
-      <c r="AG21" s="278"/>
-      <c r="AH21" s="278"/>
-      <c r="AI21" s="278"/>
-      <c r="AJ21" s="278"/>
-      <c r="AK21" s="278"/>
-      <c r="AL21" s="278"/>
-      <c r="AM21" s="278"/>
-      <c r="AN21" s="278"/>
-      <c r="AO21" s="278"/>
-      <c r="AP21" s="278"/>
-      <c r="AQ21" s="278"/>
+      <c r="J21" s="273"/>
+      <c r="K21" s="273"/>
+      <c r="L21" s="273"/>
+      <c r="M21" s="273"/>
+      <c r="N21" s="273"/>
+      <c r="O21" s="273"/>
+      <c r="P21" s="273"/>
+      <c r="Q21" s="273"/>
+      <c r="R21" s="273"/>
+      <c r="S21" s="273"/>
+      <c r="T21" s="273"/>
+      <c r="U21" s="273"/>
+      <c r="V21" s="273"/>
+      <c r="W21" s="273"/>
+      <c r="X21" s="273"/>
+      <c r="Y21" s="273"/>
+      <c r="Z21" s="273"/>
+      <c r="AA21" s="273"/>
+      <c r="AB21" s="273"/>
+      <c r="AC21" s="273"/>
+      <c r="AD21" s="273"/>
+      <c r="AE21" s="273"/>
+      <c r="AF21" s="273"/>
+      <c r="AG21" s="273"/>
+      <c r="AH21" s="273"/>
+      <c r="AI21" s="273"/>
+      <c r="AJ21" s="273"/>
+      <c r="AK21" s="273"/>
+      <c r="AL21" s="273"/>
+      <c r="AM21" s="273"/>
+      <c r="AN21" s="273"/>
+      <c r="AO21" s="273"/>
+      <c r="AP21" s="273"/>
+      <c r="AQ21" s="273"/>
       <c r="AR21" s="13"/>
       <c r="AT21" s="53"/>
       <c r="AU21" s="106"/>
@@ -10461,50 +10485,50 @@
       <c r="B37" s="122">
         <v>1</v>
       </c>
-      <c r="C37" s="272" t="s">
+      <c r="C37" s="267" t="s">
         <v>436</v>
       </c>
-      <c r="D37" s="273"/>
-      <c r="E37" s="273"/>
-      <c r="F37" s="273"/>
-      <c r="G37" s="273"/>
-      <c r="H37" s="273"/>
-      <c r="I37" s="273"/>
-      <c r="J37" s="273"/>
-      <c r="K37" s="273"/>
-      <c r="L37" s="273"/>
-      <c r="M37" s="273"/>
-      <c r="N37" s="273"/>
-      <c r="O37" s="273"/>
-      <c r="P37" s="273"/>
-      <c r="Q37" s="273"/>
-      <c r="R37" s="273"/>
-      <c r="S37" s="273"/>
-      <c r="T37" s="273"/>
-      <c r="U37" s="273"/>
-      <c r="V37" s="273"/>
-      <c r="W37" s="273"/>
-      <c r="X37" s="273"/>
-      <c r="Y37" s="273"/>
-      <c r="Z37" s="273"/>
-      <c r="AA37" s="273"/>
-      <c r="AB37" s="273"/>
-      <c r="AC37" s="273"/>
-      <c r="AD37" s="273"/>
-      <c r="AE37" s="273"/>
-      <c r="AF37" s="273"/>
-      <c r="AG37" s="273"/>
-      <c r="AH37" s="273"/>
-      <c r="AI37" s="273"/>
-      <c r="AJ37" s="273"/>
-      <c r="AK37" s="273"/>
-      <c r="AL37" s="273"/>
-      <c r="AM37" s="273"/>
-      <c r="AN37" s="273"/>
-      <c r="AO37" s="273"/>
-      <c r="AP37" s="273"/>
-      <c r="AQ37" s="273"/>
-      <c r="AR37" s="274"/>
+      <c r="D37" s="268"/>
+      <c r="E37" s="268"/>
+      <c r="F37" s="268"/>
+      <c r="G37" s="268"/>
+      <c r="H37" s="268"/>
+      <c r="I37" s="268"/>
+      <c r="J37" s="268"/>
+      <c r="K37" s="268"/>
+      <c r="L37" s="268"/>
+      <c r="M37" s="268"/>
+      <c r="N37" s="268"/>
+      <c r="O37" s="268"/>
+      <c r="P37" s="268"/>
+      <c r="Q37" s="268"/>
+      <c r="R37" s="268"/>
+      <c r="S37" s="268"/>
+      <c r="T37" s="268"/>
+      <c r="U37" s="268"/>
+      <c r="V37" s="268"/>
+      <c r="W37" s="268"/>
+      <c r="X37" s="268"/>
+      <c r="Y37" s="268"/>
+      <c r="Z37" s="268"/>
+      <c r="AA37" s="268"/>
+      <c r="AB37" s="268"/>
+      <c r="AC37" s="268"/>
+      <c r="AD37" s="268"/>
+      <c r="AE37" s="268"/>
+      <c r="AF37" s="268"/>
+      <c r="AG37" s="268"/>
+      <c r="AH37" s="268"/>
+      <c r="AI37" s="268"/>
+      <c r="AJ37" s="268"/>
+      <c r="AK37" s="268"/>
+      <c r="AL37" s="268"/>
+      <c r="AM37" s="268"/>
+      <c r="AN37" s="268"/>
+      <c r="AO37" s="268"/>
+      <c r="AP37" s="268"/>
+      <c r="AQ37" s="268"/>
+      <c r="AR37" s="269"/>
       <c r="AS37" s="53"/>
       <c r="AU37" s="29"/>
     </row>
@@ -11348,6 +11372,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="AL2:AR5"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="AG6:AL6"/>
+    <mergeCell ref="AM6:AR6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="M7:AJ7"/>
+    <mergeCell ref="I8:AQ8"/>
     <mergeCell ref="C37:AR37"/>
     <mergeCell ref="AO11:AQ11"/>
     <mergeCell ref="AO13:AQ13"/>
@@ -11361,18 +11397,6 @@
     <mergeCell ref="AM12:AN12"/>
     <mergeCell ref="AO12:AQ12"/>
     <mergeCell ref="I21:AQ21"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="AL2:AR5"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AA6:AF6"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AM6:AR6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="M7:AJ7"/>
-    <mergeCell ref="I8:AQ8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AO1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -11949,14 +11973,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="227" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="234"/>
+      <c r="G1" s="228"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -12039,15 +12063,15 @@
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
-      <c r="AM2" s="241" t="s">
+      <c r="AM2" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="AN2" s="241"/>
-      <c r="AO2" s="241"/>
-      <c r="AP2" s="241"/>
-      <c r="AQ2" s="241"/>
-      <c r="AR2" s="241"/>
-      <c r="AS2" s="242"/>
+      <c r="AN2" s="235"/>
+      <c r="AO2" s="235"/>
+      <c r="AP2" s="235"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="235"/>
+      <c r="AS2" s="236"/>
     </row>
     <row r="3" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -12087,13 +12111,13 @@
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
-      <c r="AM3" s="241"/>
-      <c r="AN3" s="241"/>
-      <c r="AO3" s="241"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="241"/>
-      <c r="AS3" s="242"/>
+      <c r="AM3" s="235"/>
+      <c r="AN3" s="235"/>
+      <c r="AO3" s="235"/>
+      <c r="AP3" s="235"/>
+      <c r="AQ3" s="235"/>
+      <c r="AR3" s="235"/>
+      <c r="AS3" s="236"/>
     </row>
     <row r="4" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -12132,13 +12156,13 @@
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
       <c r="AK4" s="12"/>
-      <c r="AM4" s="241"/>
-      <c r="AN4" s="241"/>
-      <c r="AO4" s="241"/>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="241"/>
-      <c r="AR4" s="241"/>
-      <c r="AS4" s="242"/>
+      <c r="AM4" s="235"/>
+      <c r="AN4" s="235"/>
+      <c r="AO4" s="235"/>
+      <c r="AP4" s="235"/>
+      <c r="AQ4" s="235"/>
+      <c r="AR4" s="235"/>
+      <c r="AS4" s="236"/>
     </row>
     <row r="5" spans="2:58" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -12178,61 +12202,61 @@
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
       <c r="AL5" s="16"/>
-      <c r="AM5" s="243"/>
-      <c r="AN5" s="243"/>
-      <c r="AO5" s="243"/>
-      <c r="AP5" s="243"/>
-      <c r="AQ5" s="243"/>
-      <c r="AR5" s="243"/>
-      <c r="AS5" s="244"/>
+      <c r="AM5" s="237"/>
+      <c r="AN5" s="237"/>
+      <c r="AO5" s="237"/>
+      <c r="AP5" s="237"/>
+      <c r="AQ5" s="237"/>
+      <c r="AR5" s="237"/>
+      <c r="AS5" s="238"/>
     </row>
     <row r="6" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="225"/>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="226"/>
-      <c r="S6" s="248"/>
-      <c r="T6" s="249"/>
-      <c r="U6" s="249"/>
-      <c r="V6" s="250"/>
-      <c r="W6" s="224"/>
-      <c r="X6" s="225"/>
-      <c r="Y6" s="225"/>
-      <c r="Z6" s="225"/>
-      <c r="AA6" s="226"/>
-      <c r="AB6" s="224"/>
-      <c r="AC6" s="225"/>
-      <c r="AD6" s="225"/>
-      <c r="AE6" s="225"/>
-      <c r="AF6" s="225"/>
-      <c r="AG6" s="226"/>
-      <c r="AH6" s="224"/>
-      <c r="AI6" s="225"/>
-      <c r="AJ6" s="225"/>
-      <c r="AK6" s="225"/>
-      <c r="AL6" s="225"/>
-      <c r="AM6" s="226"/>
-      <c r="AN6" s="224"/>
-      <c r="AO6" s="225"/>
-      <c r="AP6" s="225"/>
-      <c r="AQ6" s="225"/>
-      <c r="AR6" s="225"/>
-      <c r="AS6" s="226"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="239"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="241"/>
+      <c r="S6" s="264"/>
+      <c r="T6" s="265"/>
+      <c r="U6" s="265"/>
+      <c r="V6" s="266"/>
+      <c r="W6" s="239"/>
+      <c r="X6" s="240"/>
+      <c r="Y6" s="240"/>
+      <c r="Z6" s="240"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="239"/>
+      <c r="AC6" s="240"/>
+      <c r="AD6" s="240"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="240"/>
+      <c r="AG6" s="241"/>
+      <c r="AH6" s="239"/>
+      <c r="AI6" s="240"/>
+      <c r="AJ6" s="240"/>
+      <c r="AK6" s="240"/>
+      <c r="AL6" s="240"/>
+      <c r="AM6" s="241"/>
+      <c r="AN6" s="239"/>
+      <c r="AO6" s="240"/>
+      <c r="AP6" s="240"/>
+      <c r="AQ6" s="240"/>
+      <c r="AR6" s="240"/>
+      <c r="AS6" s="241"/>
     </row>
     <row r="7" spans="2:58" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -12247,30 +12271,30 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="247"/>
-      <c r="O7" s="247"/>
-      <c r="P7" s="247"/>
-      <c r="Q7" s="247"/>
-      <c r="R7" s="247"/>
-      <c r="S7" s="247"/>
-      <c r="T7" s="247"/>
-      <c r="U7" s="247"/>
-      <c r="V7" s="247"/>
-      <c r="W7" s="247"/>
-      <c r="X7" s="247"/>
-      <c r="Y7" s="247"/>
-      <c r="Z7" s="247"/>
-      <c r="AA7" s="247"/>
-      <c r="AB7" s="247"/>
-      <c r="AC7" s="247"/>
-      <c r="AD7" s="247"/>
-      <c r="AE7" s="247"/>
-      <c r="AF7" s="247"/>
-      <c r="AG7" s="247"/>
-      <c r="AH7" s="247"/>
-      <c r="AI7" s="247"/>
-      <c r="AJ7" s="247"/>
-      <c r="AK7" s="247"/>
+      <c r="N7" s="263"/>
+      <c r="O7" s="263"/>
+      <c r="P7" s="263"/>
+      <c r="Q7" s="263"/>
+      <c r="R7" s="263"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="263"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="263"/>
+      <c r="AD7" s="263"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="263"/>
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="263"/>
+      <c r="AI7" s="263"/>
+      <c r="AJ7" s="263"/>
+      <c r="AK7" s="263"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
@@ -12290,44 +12314,44 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="246" t="s">
+      <c r="I8" s="243" t="s">
         <v>399</v>
       </c>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="246"/>
-      <c r="W8" s="246"/>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="246"/>
-      <c r="AB8" s="246"/>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="246"/>
-      <c r="AE8" s="246"/>
-      <c r="AF8" s="246"/>
-      <c r="AG8" s="246"/>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="246"/>
-      <c r="AJ8" s="246"/>
-      <c r="AK8" s="246"/>
-      <c r="AL8" s="246"/>
-      <c r="AM8" s="246"/>
-      <c r="AN8" s="246"/>
-      <c r="AO8" s="246"/>
-      <c r="AP8" s="246"/>
-      <c r="AQ8" s="246"/>
-      <c r="AR8" s="246"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
+      <c r="O8" s="243"/>
+      <c r="P8" s="243"/>
+      <c r="Q8" s="243"/>
+      <c r="R8" s="243"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="243"/>
+      <c r="U8" s="243"/>
+      <c r="V8" s="243"/>
+      <c r="W8" s="243"/>
+      <c r="X8" s="243"/>
+      <c r="Y8" s="243"/>
+      <c r="Z8" s="243"/>
+      <c r="AA8" s="243"/>
+      <c r="AB8" s="243"/>
+      <c r="AC8" s="243"/>
+      <c r="AD8" s="243"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="243"/>
+      <c r="AG8" s="243"/>
+      <c r="AH8" s="243"/>
+      <c r="AI8" s="243"/>
+      <c r="AJ8" s="243"/>
+      <c r="AK8" s="243"/>
+      <c r="AL8" s="243"/>
+      <c r="AM8" s="243"/>
+      <c r="AN8" s="243"/>
+      <c r="AO8" s="243"/>
+      <c r="AP8" s="243"/>
+      <c r="AQ8" s="243"/>
+      <c r="AR8" s="243"/>
       <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12482,15 +12506,15 @@
         <v>402</v>
       </c>
       <c r="K12" s="53"/>
-      <c r="L12" s="261" t="s">
+      <c r="L12" s="250" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="262"/>
-      <c r="N12" s="262"/>
-      <c r="O12" s="262"/>
-      <c r="P12" s="262"/>
-      <c r="Q12" s="262"/>
-      <c r="R12" s="263"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="251"/>
+      <c r="O12" s="251"/>
+      <c r="P12" s="251"/>
+      <c r="Q12" s="251"/>
+      <c r="R12" s="252"/>
       <c r="S12" s="53"/>
       <c r="T12" s="198" t="s">
         <v>400</v>
@@ -12512,14 +12536,14 @@
       <c r="AI12" s="199"/>
       <c r="AJ12" s="200"/>
       <c r="AK12" s="53"/>
-      <c r="AL12" s="230" t="s">
+      <c r="AL12" s="224" t="s">
         <v>403</v>
       </c>
-      <c r="AM12" s="231"/>
-      <c r="AN12" s="231"/>
-      <c r="AO12" s="231"/>
-      <c r="AP12" s="231"/>
-      <c r="AQ12" s="232"/>
+      <c r="AM12" s="225"/>
+      <c r="AN12" s="225"/>
+      <c r="AO12" s="225"/>
+      <c r="AP12" s="225"/>
+      <c r="AQ12" s="226"/>
       <c r="AR12" s="48"/>
       <c r="AS12" s="13"/>
     </row>
@@ -12693,14 +12717,14 @@
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="37"/>
-      <c r="R16" s="235" t="s">
+      <c r="R16" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="S16" s="236"/>
-      <c r="T16" s="236"/>
-      <c r="U16" s="236"/>
-      <c r="V16" s="236"/>
-      <c r="W16" s="237"/>
+      <c r="S16" s="230"/>
+      <c r="T16" s="230"/>
+      <c r="U16" s="230"/>
+      <c r="V16" s="230"/>
+      <c r="W16" s="231"/>
       <c r="X16" s="38" t="s">
         <v>48</v>
       </c>
@@ -12708,18 +12732,18 @@
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
-      <c r="AC16" s="235" t="s">
+      <c r="AC16" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="AD16" s="236"/>
-      <c r="AE16" s="236"/>
-      <c r="AF16" s="237"/>
+      <c r="AD16" s="230"/>
+      <c r="AE16" s="230"/>
+      <c r="AF16" s="231"/>
       <c r="AG16" s="38"/>
-      <c r="AH16" s="239" t="s">
+      <c r="AH16" s="233" t="s">
         <v>82</v>
       </c>
-      <c r="AI16" s="239"/>
-      <c r="AJ16" s="240"/>
+      <c r="AI16" s="233"/>
+      <c r="AJ16" s="234"/>
       <c r="AK16" s="36" t="s">
         <v>49</v>
       </c>
@@ -13188,18 +13212,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="104"/>
       <c r="J25" s="104"/>
-      <c r="K25" s="252"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="252"/>
-      <c r="N25" s="252"/>
-      <c r="O25" s="252"/>
-      <c r="P25" s="252"/>
-      <c r="Q25" s="252"/>
-      <c r="R25" s="252"/>
-      <c r="S25" s="252"/>
-      <c r="T25" s="252"/>
-      <c r="U25" s="252"/>
-      <c r="V25" s="252"/>
+      <c r="K25" s="257"/>
+      <c r="L25" s="257"/>
+      <c r="M25" s="257"/>
+      <c r="N25" s="257"/>
+      <c r="O25" s="257"/>
+      <c r="P25" s="257"/>
+      <c r="Q25" s="257"/>
+      <c r="R25" s="257"/>
+      <c r="S25" s="257"/>
+      <c r="T25" s="257"/>
+      <c r="U25" s="257"/>
+      <c r="V25" s="257"/>
       <c r="W25" s="104"/>
       <c r="X25" s="104"/>
       <c r="Y25" s="104"/>
@@ -14486,14 +14510,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="T10:AJ10"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="T12:AJ12"/>
     <mergeCell ref="AL12:AQ12"/>
     <mergeCell ref="N7:AK7"/>
     <mergeCell ref="I21:AR21"/>
@@ -14510,6 +14526,14 @@
     <mergeCell ref="AN6:AS6"/>
     <mergeCell ref="I8:AR8"/>
     <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="T10:AJ10"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="T12:AJ12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6:C6" location="'Main-logged in'!A1" display="Home"/>
@@ -14607,13 +14631,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>9</v>
@@ -14628,13 +14652,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="174" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>9</v>
@@ -14643,7 +14667,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -14651,13 +14675,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F8" s="79" t="s">
         <v>9</v>
@@ -14666,7 +14690,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -14677,10 +14701,10 @@
         <v>405</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>10</v>
@@ -14695,13 +14719,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>10</v>
@@ -14710,7 +14734,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -14721,7 +14745,7 @@
         <v>403</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E11" s="79" t="s">
         <v>167</v>
@@ -14733,7 +14757,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -14747,7 +14771,7 @@
         <v>259</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>10</v>
@@ -14756,7 +14780,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -14764,7 +14788,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>5</v>
@@ -14779,7 +14803,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -14787,7 +14811,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D14" s="79" t="s">
         <v>79</v>
@@ -14810,10 +14834,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>58</v>
@@ -14825,7 +14849,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -14833,10 +14857,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E16" s="79" t="s">
         <v>58</v>
@@ -14848,7 +14872,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -14856,7 +14880,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D17" s="79" t="s">
         <v>85</v>
@@ -14871,7 +14895,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -14882,7 +14906,7 @@
         <v>83</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E18" s="79" t="s">
         <v>58</v>
@@ -14902,10 +14926,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E19" s="79" t="s">
         <v>58</v>
@@ -14917,7 +14941,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="81" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -16576,7 +16600,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D6" s="79" t="s">
         <v>100</v>
@@ -16603,7 +16627,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>9</v>
@@ -16612,7 +16636,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -16620,10 +16644,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="79" t="s">
         <v>453</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>454</v>
       </c>
       <c r="E8" s="79" t="s">
         <v>167</v>
@@ -16635,7 +16659,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -16921,7 +16945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -19832,10 +19856,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E6" s="79" t="s">
         <v>58</v>
@@ -19859,7 +19883,7 @@
         <v>97</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>9</v>
@@ -19868,7 +19892,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -19876,10 +19900,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E8" s="79" t="s">
         <v>167</v>
@@ -19891,7 +19915,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -25766,14 +25790,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="227" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="234"/>
+      <c r="G1" s="228"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -25861,14 +25885,14 @@
       </c>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
-      <c r="AP2" s="241" t="s">
+      <c r="AP2" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="AQ2" s="241"/>
-      <c r="AR2" s="241"/>
-      <c r="AS2" s="241"/>
-      <c r="AT2" s="241"/>
-      <c r="AU2" s="242"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="235"/>
+      <c r="AS2" s="235"/>
+      <c r="AT2" s="235"/>
+      <c r="AU2" s="236"/>
     </row>
     <row r="3" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -25911,12 +25935,12 @@
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
       <c r="AO3" s="12"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="241"/>
-      <c r="AS3" s="241"/>
-      <c r="AT3" s="241"/>
-      <c r="AU3" s="242"/>
+      <c r="AP3" s="235"/>
+      <c r="AQ3" s="235"/>
+      <c r="AR3" s="235"/>
+      <c r="AS3" s="235"/>
+      <c r="AT3" s="235"/>
+      <c r="AU3" s="236"/>
     </row>
     <row r="4" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -25958,12 +25982,12 @@
       <c r="AL4" s="12"/>
       <c r="AM4" s="12"/>
       <c r="AN4" s="12"/>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="241"/>
-      <c r="AR4" s="241"/>
-      <c r="AS4" s="241"/>
-      <c r="AT4" s="241"/>
-      <c r="AU4" s="242"/>
+      <c r="AP4" s="235"/>
+      <c r="AQ4" s="235"/>
+      <c r="AR4" s="235"/>
+      <c r="AS4" s="235"/>
+      <c r="AT4" s="235"/>
+      <c r="AU4" s="236"/>
     </row>
     <row r="5" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -26006,12 +26030,12 @@
       <c r="AM5" s="16"/>
       <c r="AN5" s="16"/>
       <c r="AO5" s="16"/>
-      <c r="AP5" s="243"/>
-      <c r="AQ5" s="243"/>
-      <c r="AR5" s="243"/>
-      <c r="AS5" s="243"/>
-      <c r="AT5" s="243"/>
-      <c r="AU5" s="244"/>
+      <c r="AP5" s="237"/>
+      <c r="AQ5" s="237"/>
+      <c r="AR5" s="237"/>
+      <c r="AS5" s="237"/>
+      <c r="AT5" s="237"/>
+      <c r="AU5" s="238"/>
     </row>
     <row r="6" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="136" t="s">
@@ -26024,44 +26048,44 @@
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="225"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="226"/>
-      <c r="O6" s="224"/>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="226"/>
-      <c r="U6" s="227"/>
-      <c r="V6" s="228"/>
-      <c r="W6" s="228"/>
-      <c r="X6" s="229"/>
-      <c r="Y6" s="224"/>
-      <c r="Z6" s="225"/>
-      <c r="AA6" s="225"/>
-      <c r="AB6" s="225"/>
-      <c r="AC6" s="226"/>
-      <c r="AD6" s="224"/>
-      <c r="AE6" s="225"/>
-      <c r="AF6" s="225"/>
-      <c r="AG6" s="225"/>
-      <c r="AH6" s="225"/>
-      <c r="AI6" s="226"/>
-      <c r="AJ6" s="224"/>
-      <c r="AK6" s="225"/>
-      <c r="AL6" s="225"/>
-      <c r="AM6" s="225"/>
-      <c r="AN6" s="225"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="224"/>
-      <c r="AQ6" s="225"/>
-      <c r="AR6" s="225"/>
-      <c r="AS6" s="225"/>
-      <c r="AT6" s="225"/>
-      <c r="AU6" s="245"/>
+      <c r="J6" s="239"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="239"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="244"/>
+      <c r="V6" s="245"/>
+      <c r="W6" s="245"/>
+      <c r="X6" s="246"/>
+      <c r="Y6" s="239"/>
+      <c r="Z6" s="240"/>
+      <c r="AA6" s="240"/>
+      <c r="AB6" s="240"/>
+      <c r="AC6" s="241"/>
+      <c r="AD6" s="239"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="240"/>
+      <c r="AG6" s="240"/>
+      <c r="AH6" s="240"/>
+      <c r="AI6" s="241"/>
+      <c r="AJ6" s="239"/>
+      <c r="AK6" s="240"/>
+      <c r="AL6" s="240"/>
+      <c r="AM6" s="240"/>
+      <c r="AN6" s="240"/>
+      <c r="AO6" s="241"/>
+      <c r="AP6" s="239"/>
+      <c r="AQ6" s="240"/>
+      <c r="AR6" s="240"/>
+      <c r="AS6" s="240"/>
+      <c r="AT6" s="240"/>
+      <c r="AU6" s="242"/>
     </row>
     <row r="7" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -26121,46 +26145,46 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="246" t="s">
+      <c r="I8" s="243" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="246"/>
-      <c r="W8" s="246"/>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="246"/>
-      <c r="AB8" s="246"/>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="246"/>
-      <c r="AE8" s="246"/>
-      <c r="AF8" s="246"/>
-      <c r="AG8" s="246"/>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="246"/>
-      <c r="AJ8" s="246"/>
-      <c r="AK8" s="246"/>
-      <c r="AL8" s="246"/>
-      <c r="AM8" s="246"/>
-      <c r="AN8" s="246"/>
-      <c r="AO8" s="246"/>
-      <c r="AP8" s="246"/>
-      <c r="AQ8" s="246"/>
-      <c r="AR8" s="246"/>
-      <c r="AS8" s="246"/>
-      <c r="AT8" s="246"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
+      <c r="O8" s="243"/>
+      <c r="P8" s="243"/>
+      <c r="Q8" s="243"/>
+      <c r="R8" s="243"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="243"/>
+      <c r="U8" s="243"/>
+      <c r="V8" s="243"/>
+      <c r="W8" s="243"/>
+      <c r="X8" s="243"/>
+      <c r="Y8" s="243"/>
+      <c r="Z8" s="243"/>
+      <c r="AA8" s="243"/>
+      <c r="AB8" s="243"/>
+      <c r="AC8" s="243"/>
+      <c r="AD8" s="243"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="243"/>
+      <c r="AG8" s="243"/>
+      <c r="AH8" s="243"/>
+      <c r="AI8" s="243"/>
+      <c r="AJ8" s="243"/>
+      <c r="AK8" s="243"/>
+      <c r="AL8" s="243"/>
+      <c r="AM8" s="243"/>
+      <c r="AN8" s="243"/>
+      <c r="AO8" s="243"/>
+      <c r="AP8" s="243"/>
+      <c r="AQ8" s="243"/>
+      <c r="AR8" s="243"/>
+      <c r="AS8" s="243"/>
+      <c r="AT8" s="243"/>
       <c r="AU8" s="13"/>
     </row>
     <row r="9" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -26532,14 +26556,14 @@
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="37"/>
-      <c r="R18" s="235" t="s">
+      <c r="R18" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="S18" s="236"/>
-      <c r="T18" s="236"/>
-      <c r="U18" s="236"/>
-      <c r="V18" s="236"/>
-      <c r="W18" s="237"/>
+      <c r="S18" s="230"/>
+      <c r="T18" s="230"/>
+      <c r="U18" s="230"/>
+      <c r="V18" s="230"/>
+      <c r="W18" s="231"/>
       <c r="X18" s="38" t="s">
         <v>48</v>
       </c>
@@ -26547,16 +26571,16 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
-      <c r="AC18" s="238"/>
-      <c r="AD18" s="239"/>
-      <c r="AE18" s="239"/>
-      <c r="AF18" s="240"/>
+      <c r="AC18" s="232"/>
+      <c r="AD18" s="233"/>
+      <c r="AE18" s="233"/>
+      <c r="AF18" s="234"/>
       <c r="AG18" s="38"/>
-      <c r="AH18" s="239" t="s">
+      <c r="AH18" s="233" t="s">
         <v>82</v>
       </c>
-      <c r="AI18" s="239"/>
-      <c r="AJ18" s="240"/>
+      <c r="AI18" s="233"/>
+      <c r="AJ18" s="234"/>
       <c r="AK18" s="36" t="s">
         <v>49</v>
       </c>
@@ -27045,12 +27069,12 @@
       <c r="AT25" s="35"/>
       <c r="AU25" s="13"/>
       <c r="AY25" s="11"/>
-      <c r="AZ25" s="230" t="s">
+      <c r="AZ25" s="224" t="s">
         <v>383</v>
       </c>
-      <c r="BA25" s="231"/>
-      <c r="BB25" s="231"/>
-      <c r="BC25" s="232"/>
+      <c r="BA25" s="225"/>
+      <c r="BB25" s="225"/>
+      <c r="BC25" s="226"/>
       <c r="BD25" s="12"/>
       <c r="BE25" s="12"/>
       <c r="BF25" s="12"/>
@@ -28085,6 +28109,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AM16:AP16"/>
     <mergeCell ref="C38:AR38"/>
     <mergeCell ref="AZ25:BC25"/>
     <mergeCell ref="B1:G5"/>
@@ -28101,11 +28130,6 @@
     <mergeCell ref="AP6:AU6"/>
     <mergeCell ref="AD6:AI6"/>
     <mergeCell ref="I8:AT8"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AM16:AP16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>

--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="29" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="480">
   <si>
     <t>Logo</t>
   </si>
@@ -1764,6 +1764,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>In progress</t>
+  </si>
+  <si>
     <t>Nhập mật khẩu mới</t>
   </si>
   <si>
@@ -1867,15 +1870,6 @@
   </si>
   <si>
     <t>DropDown</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Coded</t>
-  </si>
-  <si>
-    <t>QuanTC tich hop trong Rider</t>
   </si>
 </sst>
 </file>
@@ -5024,8 +5018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5097,10 +5091,10 @@
       </c>
       <c r="F4" s="180"/>
       <c r="G4" s="79" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H4" s="186" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="I4" s="79"/>
     </row>
@@ -5120,11 +5114,9 @@
       </c>
       <c r="F5" s="180"/>
       <c r="G5" s="79" t="s">
-        <v>441</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>479</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="H5" s="79"/>
       <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5148,7 +5140,7 @@
         <v>441</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="I6" s="79"/>
     </row>
@@ -5171,7 +5163,7 @@
         <v>442</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="I7" s="79"/>
     </row>
@@ -5194,7 +5186,7 @@
         <v>442</v>
       </c>
       <c r="H8" s="79" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="I8" s="79"/>
     </row>
@@ -5214,10 +5206,10 @@
         <v>397</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H9" s="79" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="I9" s="79"/>
     </row>
@@ -5240,11 +5232,9 @@
         <v>442</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>480</v>
-      </c>
-      <c r="I10" s="79" t="s">
-        <v>481</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="I10" s="79"/>
     </row>
     <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="156"/>
@@ -5262,11 +5252,9 @@
         <v>398</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>441</v>
-      </c>
-      <c r="H11" s="79" t="s">
-        <v>479</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="H11" s="79"/>
       <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5285,11 +5273,9 @@
         <v>407</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>441</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>479</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="H12" s="79"/>
       <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5308,11 +5294,9 @@
         <v>408</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>441</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>479</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="H13" s="79"/>
       <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5331,11 +5315,9 @@
         <v>409</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>441</v>
-      </c>
-      <c r="H14" s="79" t="s">
-        <v>479</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="H14" s="79"/>
       <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5354,11 +5336,9 @@
         <v>410</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>441</v>
-      </c>
-      <c r="H15" s="79" t="s">
-        <v>479</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="H15" s="79"/>
       <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -5377,11 +5357,9 @@
         <v>393</v>
       </c>
       <c r="G16" s="79" t="s">
-        <v>441</v>
-      </c>
-      <c r="H16" s="79" t="s">
-        <v>479</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="H16" s="79"/>
       <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -5399,9 +5377,7 @@
       <c r="F17" s="180" t="s">
         <v>412</v>
       </c>
-      <c r="G17" s="79" t="s">
-        <v>64</v>
-      </c>
+      <c r="G17" s="79"/>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
     </row>
@@ -14631,13 +14607,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>9</v>
@@ -14652,13 +14628,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="174" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>9</v>
@@ -14667,7 +14643,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -14675,13 +14651,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F8" s="79" t="s">
         <v>9</v>
@@ -14690,7 +14666,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -14701,10 +14677,10 @@
         <v>405</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>10</v>
@@ -14719,13 +14695,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>10</v>
@@ -14734,7 +14710,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -14745,7 +14721,7 @@
         <v>403</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E11" s="79" t="s">
         <v>167</v>
@@ -14757,7 +14733,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -14771,7 +14747,7 @@
         <v>259</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>10</v>
@@ -14780,7 +14756,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -14788,7 +14764,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>5</v>
@@ -14803,7 +14779,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -14811,7 +14787,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D14" s="79" t="s">
         <v>79</v>
@@ -14834,10 +14810,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>58</v>
@@ -14849,7 +14825,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -14857,10 +14833,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E16" s="79" t="s">
         <v>58</v>
@@ -14872,7 +14848,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="80" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -14880,7 +14856,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D17" s="79" t="s">
         <v>85</v>
@@ -14895,7 +14871,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -14906,7 +14882,7 @@
         <v>83</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E18" s="79" t="s">
         <v>58</v>
@@ -14926,10 +14902,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E19" s="79" t="s">
         <v>58</v>
@@ -14941,7 +14917,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="81" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -16600,7 +16576,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D6" s="79" t="s">
         <v>100</v>
@@ -16627,7 +16603,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>9</v>
@@ -16636,7 +16612,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -16644,10 +16620,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E8" s="79" t="s">
         <v>167</v>
@@ -16659,7 +16635,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -19773,8 +19749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19856,10 +19832,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E6" s="79" t="s">
         <v>58</v>
@@ -19883,7 +19859,7 @@
         <v>97</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>9</v>
@@ -19892,7 +19868,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -19900,10 +19876,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E8" s="79" t="s">
         <v>167</v>
@@ -19915,7 +19891,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">

--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862"/>
   </bookViews>
   <sheets>
-    <sheet name="Function List" sheetId="29" r:id="rId1"/>
+    <sheet name="Function List" sheetId="36" r:id="rId1"/>
     <sheet name="TaxiNetHome" sheetId="1" r:id="rId2"/>
     <sheet name="00.TaxiNetHome-Def" sheetId="28" r:id="rId3"/>
     <sheet name="01.Register" sheetId="24" r:id="rId4"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="483">
   <si>
     <t>Logo</t>
   </si>
@@ -1764,9 +1764,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Nhập mật khẩu mới</t>
   </si>
   <si>
@@ -1870,6 +1867,18 @@
   </si>
   <si>
     <t>DropDown</t>
+  </si>
+  <si>
+    <t>FindFreeTrip</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Coded</t>
+  </si>
+  <si>
+    <t>QuanTC tich hop trong Rider</t>
   </si>
 </sst>
 </file>
@@ -3016,6 +3025,24 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3061,29 +3088,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3112,38 +3154,20 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3168,21 +3192,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5018,8 +5027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5091,10 +5100,10 @@
       </c>
       <c r="F4" s="180"/>
       <c r="G4" s="79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H4" s="186" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="I4" s="79"/>
     </row>
@@ -5114,9 +5123,11 @@
       </c>
       <c r="F5" s="180"/>
       <c r="G5" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H5" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>480</v>
+      </c>
       <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5140,7 +5151,7 @@
         <v>441</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="I6" s="79"/>
     </row>
@@ -5163,7 +5174,7 @@
         <v>442</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="I7" s="79"/>
     </row>
@@ -5186,7 +5197,7 @@
         <v>442</v>
       </c>
       <c r="H8" s="79" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="I8" s="79"/>
     </row>
@@ -5206,10 +5217,10 @@
         <v>397</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H9" s="79" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="I9" s="79"/>
     </row>
@@ -5232,9 +5243,11 @@
         <v>442</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>444</v>
-      </c>
-      <c r="I10" s="79"/>
+        <v>481</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="156"/>
@@ -5252,9 +5265,11 @@
         <v>398</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H11" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H11" s="79" t="s">
+        <v>480</v>
+      </c>
       <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5273,9 +5288,11 @@
         <v>407</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H12" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>480</v>
+      </c>
       <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5294,9 +5311,11 @@
         <v>408</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>480</v>
+      </c>
       <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5315,9 +5334,11 @@
         <v>409</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H14" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>480</v>
+      </c>
       <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5336,9 +5357,11 @@
         <v>410</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>480</v>
+      </c>
       <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -5357,9 +5380,11 @@
         <v>393</v>
       </c>
       <c r="G16" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H16" s="79"/>
+        <v>441</v>
+      </c>
+      <c r="H16" s="79" t="s">
+        <v>480</v>
+      </c>
       <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -5377,7 +5402,9 @@
       <c r="F17" s="180" t="s">
         <v>412</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="79" t="s">
+        <v>64</v>
+      </c>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
     </row>
@@ -5555,14 +5582,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="228"/>
+      <c r="G1" s="234"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
@@ -5643,15 +5670,15 @@
       </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="235" t="s">
+      <c r="AL2" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="235"/>
-      <c r="AN2" s="235"/>
-      <c r="AO2" s="235"/>
-      <c r="AP2" s="235"/>
-      <c r="AQ2" s="235"/>
-      <c r="AR2" s="236"/>
+      <c r="AM2" s="241"/>
+      <c r="AN2" s="241"/>
+      <c r="AO2" s="241"/>
+      <c r="AP2" s="241"/>
+      <c r="AQ2" s="241"/>
+      <c r="AR2" s="242"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -5690,13 +5717,13 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="235"/>
-      <c r="AM3" s="235"/>
-      <c r="AN3" s="235"/>
-      <c r="AO3" s="235"/>
-      <c r="AP3" s="235"/>
-      <c r="AQ3" s="235"/>
-      <c r="AR3" s="236"/>
+      <c r="AL3" s="241"/>
+      <c r="AM3" s="241"/>
+      <c r="AN3" s="241"/>
+      <c r="AO3" s="241"/>
+      <c r="AP3" s="241"/>
+      <c r="AQ3" s="241"/>
+      <c r="AR3" s="242"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -5734,13 +5761,13 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AL4" s="235"/>
-      <c r="AM4" s="235"/>
-      <c r="AN4" s="235"/>
-      <c r="AO4" s="235"/>
-      <c r="AP4" s="235"/>
-      <c r="AQ4" s="235"/>
-      <c r="AR4" s="236"/>
+      <c r="AL4" s="241"/>
+      <c r="AM4" s="241"/>
+      <c r="AN4" s="241"/>
+      <c r="AO4" s="241"/>
+      <c r="AP4" s="241"/>
+      <c r="AQ4" s="241"/>
+      <c r="AR4" s="242"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -5779,13 +5806,13 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
-      <c r="AL5" s="237"/>
-      <c r="AM5" s="237"/>
-      <c r="AN5" s="237"/>
-      <c r="AO5" s="237"/>
-      <c r="AP5" s="237"/>
-      <c r="AQ5" s="237"/>
-      <c r="AR5" s="238"/>
+      <c r="AL5" s="243"/>
+      <c r="AM5" s="243"/>
+      <c r="AN5" s="243"/>
+      <c r="AO5" s="243"/>
+      <c r="AP5" s="243"/>
+      <c r="AQ5" s="243"/>
+      <c r="AR5" s="244"/>
     </row>
     <row r="6" spans="2:44" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
@@ -5833,51 +5860,51 @@
       <c r="AR6" s="13"/>
     </row>
     <row r="7" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="241"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="239"/>
-      <c r="M7" s="240"/>
-      <c r="N7" s="240"/>
-      <c r="O7" s="240"/>
-      <c r="P7" s="240"/>
-      <c r="Q7" s="241"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="265"/>
-      <c r="T7" s="265"/>
-      <c r="U7" s="266"/>
-      <c r="V7" s="239"/>
-      <c r="W7" s="240"/>
-      <c r="X7" s="240"/>
-      <c r="Y7" s="240"/>
-      <c r="Z7" s="241"/>
-      <c r="AA7" s="239"/>
-      <c r="AB7" s="240"/>
-      <c r="AC7" s="240"/>
-      <c r="AD7" s="240"/>
-      <c r="AE7" s="240"/>
-      <c r="AF7" s="241"/>
-      <c r="AG7" s="239"/>
-      <c r="AH7" s="240"/>
-      <c r="AI7" s="240"/>
-      <c r="AJ7" s="240"/>
-      <c r="AK7" s="240"/>
-      <c r="AL7" s="241"/>
-      <c r="AM7" s="239"/>
-      <c r="AN7" s="240"/>
-      <c r="AO7" s="240"/>
-      <c r="AP7" s="240"/>
-      <c r="AQ7" s="240"/>
-      <c r="AR7" s="241"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="225"/>
+      <c r="N7" s="225"/>
+      <c r="O7" s="225"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="226"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="249"/>
+      <c r="T7" s="249"/>
+      <c r="U7" s="250"/>
+      <c r="V7" s="224"/>
+      <c r="W7" s="225"/>
+      <c r="X7" s="225"/>
+      <c r="Y7" s="225"/>
+      <c r="Z7" s="226"/>
+      <c r="AA7" s="224"/>
+      <c r="AB7" s="225"/>
+      <c r="AC7" s="225"/>
+      <c r="AD7" s="225"/>
+      <c r="AE7" s="225"/>
+      <c r="AF7" s="226"/>
+      <c r="AG7" s="224"/>
+      <c r="AH7" s="225"/>
+      <c r="AI7" s="225"/>
+      <c r="AJ7" s="225"/>
+      <c r="AK7" s="225"/>
+      <c r="AL7" s="226"/>
+      <c r="AM7" s="224"/>
+      <c r="AN7" s="225"/>
+      <c r="AO7" s="225"/>
+      <c r="AP7" s="225"/>
+      <c r="AQ7" s="225"/>
+      <c r="AR7" s="226"/>
     </row>
     <row r="8" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -5891,30 +5918,30 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="263"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="263"/>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="263"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="263"/>
-      <c r="U8" s="263"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="263"/>
-      <c r="AI8" s="263"/>
-      <c r="AJ8" s="263"/>
+      <c r="M8" s="247"/>
+      <c r="N8" s="247"/>
+      <c r="O8" s="247"/>
+      <c r="P8" s="247"/>
+      <c r="Q8" s="247"/>
+      <c r="R8" s="247"/>
+      <c r="S8" s="247"/>
+      <c r="T8" s="247"/>
+      <c r="U8" s="247"/>
+      <c r="V8" s="247"/>
+      <c r="W8" s="247"/>
+      <c r="X8" s="247"/>
+      <c r="Y8" s="247"/>
+      <c r="Z8" s="247"/>
+      <c r="AA8" s="247"/>
+      <c r="AB8" s="247"/>
+      <c r="AC8" s="247"/>
+      <c r="AD8" s="247"/>
+      <c r="AE8" s="247"/>
+      <c r="AF8" s="247"/>
+      <c r="AG8" s="247"/>
+      <c r="AH8" s="247"/>
+      <c r="AI8" s="247"/>
+      <c r="AJ8" s="247"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
@@ -5938,32 +5965,32 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="243" t="s">
+      <c r="M9" s="246" t="s">
         <v>125</v>
       </c>
-      <c r="N9" s="243"/>
-      <c r="O9" s="243"/>
-      <c r="P9" s="243"/>
-      <c r="Q9" s="243"/>
-      <c r="R9" s="243"/>
-      <c r="S9" s="243"/>
-      <c r="T9" s="243"/>
-      <c r="U9" s="243"/>
-      <c r="V9" s="243"/>
-      <c r="W9" s="243"/>
-      <c r="X9" s="243"/>
-      <c r="Y9" s="243"/>
-      <c r="Z9" s="243"/>
-      <c r="AA9" s="243"/>
-      <c r="AB9" s="243"/>
-      <c r="AC9" s="243"/>
-      <c r="AD9" s="243"/>
-      <c r="AE9" s="243"/>
-      <c r="AF9" s="243"/>
-      <c r="AG9" s="243"/>
-      <c r="AH9" s="243"/>
-      <c r="AI9" s="243"/>
-      <c r="AJ9" s="243"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="246"/>
+      <c r="Q9" s="246"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
+      <c r="T9" s="246"/>
+      <c r="U9" s="246"/>
+      <c r="V9" s="246"/>
+      <c r="W9" s="246"/>
+      <c r="X9" s="246"/>
+      <c r="Y9" s="246"/>
+      <c r="Z9" s="246"/>
+      <c r="AA9" s="246"/>
+      <c r="AB9" s="246"/>
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="246"/>
+      <c r="AE9" s="246"/>
+      <c r="AF9" s="246"/>
+      <c r="AG9" s="246"/>
+      <c r="AH9" s="246"/>
+      <c r="AI9" s="246"/>
+      <c r="AJ9" s="246"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
@@ -6159,7 +6186,7 @@
       </c>
       <c r="J14" s="165"/>
       <c r="K14" s="165"/>
-      <c r="M14" s="256" t="s">
+      <c r="M14" s="251" t="s">
         <v>431</v>
       </c>
       <c r="N14" s="204"/>
@@ -6202,7 +6229,7 @@
       <c r="I15" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M15" s="256" t="s">
+      <c r="M15" s="251" t="s">
         <v>432</v>
       </c>
       <c r="N15" s="204"/>
@@ -6245,23 +6272,23 @@
       <c r="I16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="261" t="s">
+      <c r="M16" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="259"/>
-      <c r="O16" s="259"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="260"/>
+      <c r="N16" s="254"/>
+      <c r="O16" s="254"/>
+      <c r="P16" s="254"/>
+      <c r="Q16" s="255"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="258" t="s">
+      <c r="S16" s="253" t="s">
         <v>307</v>
       </c>
-      <c r="T16" s="259"/>
-      <c r="U16" s="259"/>
-      <c r="V16" s="259"/>
-      <c r="W16" s="259"/>
-      <c r="X16" s="259"/>
-      <c r="Y16" s="260"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="254"/>
+      <c r="W16" s="254"/>
+      <c r="X16" s="254"/>
+      <c r="Y16" s="255"/>
       <c r="Z16" s="48"/>
       <c r="AA16" s="48"/>
       <c r="AB16" s="48" t="s">
@@ -6502,43 +6529,43 @@
       <c r="B23" s="11"/>
       <c r="G23" s="19"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="262" t="s">
+      <c r="I23" s="257" t="s">
         <v>224</v>
       </c>
-      <c r="J23" s="262"/>
-      <c r="K23" s="262"/>
-      <c r="L23" s="262"/>
-      <c r="M23" s="262"/>
-      <c r="N23" s="262"/>
-      <c r="O23" s="262"/>
-      <c r="P23" s="262"/>
-      <c r="Q23" s="262"/>
-      <c r="R23" s="262"/>
-      <c r="S23" s="262"/>
-      <c r="T23" s="262"/>
-      <c r="U23" s="262"/>
-      <c r="V23" s="262"/>
-      <c r="W23" s="262"/>
-      <c r="X23" s="262"/>
-      <c r="Y23" s="262"/>
-      <c r="Z23" s="262"/>
-      <c r="AA23" s="262"/>
-      <c r="AB23" s="262"/>
-      <c r="AC23" s="262"/>
-      <c r="AD23" s="262"/>
-      <c r="AE23" s="262"/>
-      <c r="AF23" s="262"/>
-      <c r="AG23" s="262"/>
-      <c r="AH23" s="262"/>
-      <c r="AI23" s="262"/>
-      <c r="AJ23" s="262"/>
-      <c r="AK23" s="262"/>
-      <c r="AL23" s="262"/>
-      <c r="AM23" s="262"/>
-      <c r="AN23" s="262"/>
-      <c r="AO23" s="262"/>
-      <c r="AP23" s="262"/>
-      <c r="AQ23" s="262"/>
+      <c r="J23" s="257"/>
+      <c r="K23" s="257"/>
+      <c r="L23" s="257"/>
+      <c r="M23" s="257"/>
+      <c r="N23" s="257"/>
+      <c r="O23" s="257"/>
+      <c r="P23" s="257"/>
+      <c r="Q23" s="257"/>
+      <c r="R23" s="257"/>
+      <c r="S23" s="257"/>
+      <c r="T23" s="257"/>
+      <c r="U23" s="257"/>
+      <c r="V23" s="257"/>
+      <c r="W23" s="257"/>
+      <c r="X23" s="257"/>
+      <c r="Y23" s="257"/>
+      <c r="Z23" s="257"/>
+      <c r="AA23" s="257"/>
+      <c r="AB23" s="257"/>
+      <c r="AC23" s="257"/>
+      <c r="AD23" s="257"/>
+      <c r="AE23" s="257"/>
+      <c r="AF23" s="257"/>
+      <c r="AG23" s="257"/>
+      <c r="AH23" s="257"/>
+      <c r="AI23" s="257"/>
+      <c r="AJ23" s="257"/>
+      <c r="AK23" s="257"/>
+      <c r="AL23" s="257"/>
+      <c r="AM23" s="257"/>
+      <c r="AN23" s="257"/>
+      <c r="AO23" s="257"/>
+      <c r="AP23" s="257"/>
+      <c r="AQ23" s="257"/>
       <c r="AR23" s="13"/>
       <c r="AT23" s="53"/>
       <c r="AU23" s="53"/>
@@ -6614,21 +6641,21 @@
       <c r="B25" s="11"/>
       <c r="G25" s="19"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="257" t="s">
+      <c r="I25" s="252" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="257"/>
-      <c r="K25" s="257"/>
-      <c r="L25" s="257"/>
-      <c r="M25" s="257"/>
-      <c r="N25" s="257"/>
-      <c r="O25" s="257"/>
-      <c r="P25" s="257"/>
-      <c r="Q25" s="257"/>
-      <c r="R25" s="257"/>
-      <c r="S25" s="257"/>
-      <c r="T25" s="257"/>
-      <c r="U25" s="257"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="252"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="252"/>
+      <c r="N25" s="252"/>
+      <c r="O25" s="252"/>
+      <c r="P25" s="252"/>
+      <c r="Q25" s="252"/>
+      <c r="R25" s="252"/>
+      <c r="S25" s="252"/>
+      <c r="T25" s="252"/>
+      <c r="U25" s="252"/>
       <c r="V25" s="104"/>
       <c r="W25" s="104"/>
       <c r="X25" s="104"/>
@@ -6680,21 +6707,21 @@
       <c r="B26" s="11"/>
       <c r="G26" s="19"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="247" t="s">
+      <c r="I26" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="248"/>
-      <c r="K26" s="248"/>
-      <c r="L26" s="248"/>
-      <c r="M26" s="248"/>
-      <c r="N26" s="248"/>
-      <c r="O26" s="248"/>
-      <c r="P26" s="248"/>
-      <c r="Q26" s="248"/>
-      <c r="R26" s="248"/>
-      <c r="S26" s="248"/>
-      <c r="T26" s="248"/>
-      <c r="U26" s="249"/>
+      <c r="J26" s="259"/>
+      <c r="K26" s="259"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="259"/>
+      <c r="N26" s="259"/>
+      <c r="O26" s="259"/>
+      <c r="P26" s="259"/>
+      <c r="Q26" s="259"/>
+      <c r="R26" s="259"/>
+      <c r="S26" s="259"/>
+      <c r="T26" s="259"/>
+      <c r="U26" s="260"/>
       <c r="V26" s="104" t="s">
         <v>318</v>
       </c>
@@ -6757,14 +6784,14 @@
       </c>
       <c r="AY27" s="53"/>
       <c r="AZ27" s="53"/>
-      <c r="BA27" s="250"/>
-      <c r="BB27" s="251"/>
-      <c r="BC27" s="251"/>
-      <c r="BD27" s="251"/>
-      <c r="BE27" s="251"/>
-      <c r="BF27" s="251"/>
-      <c r="BG27" s="251"/>
-      <c r="BH27" s="252"/>
+      <c r="BA27" s="261"/>
+      <c r="BB27" s="262"/>
+      <c r="BC27" s="262"/>
+      <c r="BD27" s="262"/>
+      <c r="BE27" s="262"/>
+      <c r="BF27" s="262"/>
+      <c r="BG27" s="262"/>
+      <c r="BH27" s="263"/>
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
@@ -6887,18 +6914,18 @@
       <c r="AX29" s="53"/>
       <c r="AY29" s="53"/>
       <c r="AZ29" s="53"/>
-      <c r="BA29" s="253" t="s">
+      <c r="BA29" s="264" t="s">
         <v>356</v>
       </c>
-      <c r="BB29" s="254"/>
-      <c r="BC29" s="254"/>
-      <c r="BD29" s="255"/>
+      <c r="BB29" s="265"/>
+      <c r="BC29" s="265"/>
+      <c r="BD29" s="266"/>
       <c r="BE29" s="50"/>
-      <c r="BF29" s="253" t="s">
+      <c r="BF29" s="264" t="s">
         <v>355</v>
       </c>
-      <c r="BG29" s="254"/>
-      <c r="BH29" s="255"/>
+      <c r="BG29" s="265"/>
+      <c r="BH29" s="266"/>
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
@@ -8211,6 +8238,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I26:U26"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="BA27:BH27"/>
+    <mergeCell ref="BA29:BD29"/>
+    <mergeCell ref="BF29:BH29"/>
+    <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="M15:Y15"/>
+    <mergeCell ref="I25:U25"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="I23:AQ23"/>
+    <mergeCell ref="M14:Y14"/>
     <mergeCell ref="AL2:AR5"/>
     <mergeCell ref="B1:G5"/>
     <mergeCell ref="M8:AJ8"/>
@@ -8223,18 +8262,6 @@
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="V7:Z7"/>
     <mergeCell ref="AA7:AF7"/>
-    <mergeCell ref="AO12:AQ12"/>
-    <mergeCell ref="M15:Y15"/>
-    <mergeCell ref="I25:U25"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="I23:AQ23"/>
-    <mergeCell ref="M14:Y14"/>
-    <mergeCell ref="I26:U26"/>
-    <mergeCell ref="BA26:BH26"/>
-    <mergeCell ref="BA27:BH27"/>
-    <mergeCell ref="BA29:BD29"/>
-    <mergeCell ref="BF29:BH29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7:C7" location="'Main-logged in'!A1" display="Home"/>
@@ -8255,9 +8282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8895,14 +8920,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="228"/>
+      <c r="G1" s="234"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
@@ -8983,15 +9008,15 @@
       </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="235" t="s">
+      <c r="AL2" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="235"/>
-      <c r="AN2" s="235"/>
-      <c r="AO2" s="235"/>
-      <c r="AP2" s="235"/>
-      <c r="AQ2" s="235"/>
-      <c r="AR2" s="236"/>
+      <c r="AM2" s="241"/>
+      <c r="AN2" s="241"/>
+      <c r="AO2" s="241"/>
+      <c r="AP2" s="241"/>
+      <c r="AQ2" s="241"/>
+      <c r="AR2" s="242"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -9030,13 +9055,13 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="235"/>
-      <c r="AM3" s="235"/>
-      <c r="AN3" s="235"/>
-      <c r="AO3" s="235"/>
-      <c r="AP3" s="235"/>
-      <c r="AQ3" s="235"/>
-      <c r="AR3" s="236"/>
+      <c r="AL3" s="241"/>
+      <c r="AM3" s="241"/>
+      <c r="AN3" s="241"/>
+      <c r="AO3" s="241"/>
+      <c r="AP3" s="241"/>
+      <c r="AQ3" s="241"/>
+      <c r="AR3" s="242"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -9074,13 +9099,13 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AL4" s="235"/>
-      <c r="AM4" s="235"/>
-      <c r="AN4" s="235"/>
-      <c r="AO4" s="235"/>
-      <c r="AP4" s="235"/>
-      <c r="AQ4" s="235"/>
-      <c r="AR4" s="236"/>
+      <c r="AL4" s="241"/>
+      <c r="AM4" s="241"/>
+      <c r="AN4" s="241"/>
+      <c r="AO4" s="241"/>
+      <c r="AP4" s="241"/>
+      <c r="AQ4" s="241"/>
+      <c r="AR4" s="242"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -9119,60 +9144,60 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
-      <c r="AL5" s="237"/>
-      <c r="AM5" s="237"/>
-      <c r="AN5" s="237"/>
-      <c r="AO5" s="237"/>
-      <c r="AP5" s="237"/>
-      <c r="AQ5" s="237"/>
-      <c r="AR5" s="238"/>
+      <c r="AL5" s="243"/>
+      <c r="AM5" s="243"/>
+      <c r="AN5" s="243"/>
+      <c r="AO5" s="243"/>
+      <c r="AP5" s="243"/>
+      <c r="AQ5" s="243"/>
+      <c r="AR5" s="244"/>
     </row>
     <row r="6" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="175"/>
-      <c r="C6" s="278" t="s">
+      <c r="C6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="278"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="279"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="271"/>
       <c r="H6" s="137"/>
       <c r="I6" s="137"/>
       <c r="J6" s="137"/>
       <c r="K6" s="59"/>
-      <c r="L6" s="239"/>
-      <c r="M6" s="240"/>
-      <c r="N6" s="240"/>
-      <c r="O6" s="240"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="241"/>
-      <c r="R6" s="264"/>
-      <c r="S6" s="265"/>
-      <c r="T6" s="265"/>
-      <c r="U6" s="266"/>
-      <c r="V6" s="239"/>
-      <c r="W6" s="240"/>
-      <c r="X6" s="240"/>
-      <c r="Y6" s="240"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="239"/>
-      <c r="AB6" s="240"/>
-      <c r="AC6" s="240"/>
-      <c r="AD6" s="240"/>
-      <c r="AE6" s="240"/>
-      <c r="AF6" s="241"/>
-      <c r="AG6" s="239"/>
-      <c r="AH6" s="240"/>
-      <c r="AI6" s="240"/>
-      <c r="AJ6" s="240"/>
-      <c r="AK6" s="240"/>
-      <c r="AL6" s="241"/>
-      <c r="AM6" s="239"/>
-      <c r="AN6" s="240"/>
-      <c r="AO6" s="240"/>
-      <c r="AP6" s="240"/>
-      <c r="AQ6" s="240"/>
-      <c r="AR6" s="241"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="249"/>
+      <c r="T6" s="249"/>
+      <c r="U6" s="250"/>
+      <c r="V6" s="224"/>
+      <c r="W6" s="225"/>
+      <c r="X6" s="225"/>
+      <c r="Y6" s="225"/>
+      <c r="Z6" s="226"/>
+      <c r="AA6" s="224"/>
+      <c r="AB6" s="225"/>
+      <c r="AC6" s="225"/>
+      <c r="AD6" s="225"/>
+      <c r="AE6" s="225"/>
+      <c r="AF6" s="226"/>
+      <c r="AG6" s="224"/>
+      <c r="AH6" s="225"/>
+      <c r="AI6" s="225"/>
+      <c r="AJ6" s="225"/>
+      <c r="AK6" s="225"/>
+      <c r="AL6" s="226"/>
+      <c r="AM6" s="224"/>
+      <c r="AN6" s="225"/>
+      <c r="AO6" s="225"/>
+      <c r="AP6" s="225"/>
+      <c r="AQ6" s="225"/>
+      <c r="AR6" s="226"/>
     </row>
     <row r="7" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -9186,30 +9211,30 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="263"/>
-      <c r="N7" s="263"/>
-      <c r="O7" s="263"/>
-      <c r="P7" s="263"/>
-      <c r="Q7" s="263"/>
-      <c r="R7" s="263"/>
-      <c r="S7" s="263"/>
-      <c r="T7" s="263"/>
-      <c r="U7" s="263"/>
-      <c r="V7" s="263"/>
-      <c r="W7" s="263"/>
-      <c r="X7" s="263"/>
-      <c r="Y7" s="263"/>
-      <c r="Z7" s="263"/>
-      <c r="AA7" s="263"/>
-      <c r="AB7" s="263"/>
-      <c r="AC7" s="263"/>
-      <c r="AD7" s="263"/>
-      <c r="AE7" s="263"/>
-      <c r="AF7" s="263"/>
-      <c r="AG7" s="263"/>
-      <c r="AH7" s="263"/>
-      <c r="AI7" s="263"/>
-      <c r="AJ7" s="263"/>
+      <c r="M7" s="247"/>
+      <c r="N7" s="247"/>
+      <c r="O7" s="247"/>
+      <c r="P7" s="247"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="247"/>
+      <c r="S7" s="247"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="247"/>
+      <c r="W7" s="247"/>
+      <c r="X7" s="247"/>
+      <c r="Y7" s="247"/>
+      <c r="Z7" s="247"/>
+      <c r="AA7" s="247"/>
+      <c r="AB7" s="247"/>
+      <c r="AC7" s="247"/>
+      <c r="AD7" s="247"/>
+      <c r="AE7" s="247"/>
+      <c r="AF7" s="247"/>
+      <c r="AG7" s="247"/>
+      <c r="AH7" s="247"/>
+      <c r="AI7" s="247"/>
+      <c r="AJ7" s="247"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
@@ -9229,43 +9254,43 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="243" t="s">
+      <c r="I8" s="246" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="243"/>
-      <c r="K8" s="243"/>
-      <c r="L8" s="243"/>
-      <c r="M8" s="243"/>
-      <c r="N8" s="243"/>
-      <c r="O8" s="243"/>
-      <c r="P8" s="243"/>
-      <c r="Q8" s="243"/>
-      <c r="R8" s="243"/>
-      <c r="S8" s="243"/>
-      <c r="T8" s="243"/>
-      <c r="U8" s="243"/>
-      <c r="V8" s="243"/>
-      <c r="W8" s="243"/>
-      <c r="X8" s="243"/>
-      <c r="Y8" s="243"/>
-      <c r="Z8" s="243"/>
-      <c r="AA8" s="243"/>
-      <c r="AB8" s="243"/>
-      <c r="AC8" s="243"/>
-      <c r="AD8" s="243"/>
-      <c r="AE8" s="243"/>
-      <c r="AF8" s="243"/>
-      <c r="AG8" s="243"/>
-      <c r="AH8" s="243"/>
-      <c r="AI8" s="243"/>
-      <c r="AJ8" s="243"/>
-      <c r="AK8" s="243"/>
-      <c r="AL8" s="243"/>
-      <c r="AM8" s="243"/>
-      <c r="AN8" s="243"/>
-      <c r="AO8" s="243"/>
-      <c r="AP8" s="243"/>
-      <c r="AQ8" s="243"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="246"/>
+      <c r="AG8" s="246"/>
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="246"/>
+      <c r="AK8" s="246"/>
+      <c r="AL8" s="246"/>
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="246"/>
+      <c r="AO8" s="246"/>
+      <c r="AP8" s="246"/>
+      <c r="AQ8" s="246"/>
       <c r="AR8" s="13"/>
     </row>
     <row r="9" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9309,11 +9334,11 @@
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
       <c r="AN9" s="12"/>
-      <c r="AO9" s="277" t="s">
+      <c r="AO9" s="267" t="s">
         <v>314</v>
       </c>
-      <c r="AP9" s="275"/>
-      <c r="AQ9" s="276"/>
+      <c r="AP9" s="268"/>
+      <c r="AQ9" s="269"/>
       <c r="AR9" s="13"/>
     </row>
     <row r="10" spans="2:44" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9398,11 +9423,11 @@
       <c r="AL11" s="169"/>
       <c r="AM11" s="169"/>
       <c r="AN11" s="169"/>
-      <c r="AO11" s="270" t="s">
+      <c r="AO11" s="275" t="s">
         <v>337</v>
       </c>
-      <c r="AP11" s="271"/>
-      <c r="AQ11" s="272"/>
+      <c r="AP11" s="276"/>
+      <c r="AQ11" s="277"/>
       <c r="AR11" s="13"/>
     </row>
     <row r="12" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9444,15 +9469,15 @@
       <c r="AJ12" s="172"/>
       <c r="AK12" s="172"/>
       <c r="AL12" s="172"/>
-      <c r="AM12" s="274" t="s">
+      <c r="AM12" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="AN12" s="276"/>
-      <c r="AO12" s="274" t="s">
+      <c r="AN12" s="269"/>
+      <c r="AO12" s="279" t="s">
         <v>337</v>
       </c>
-      <c r="AP12" s="275"/>
-      <c r="AQ12" s="276"/>
+      <c r="AP12" s="268"/>
+      <c r="AQ12" s="269"/>
       <c r="AR12" s="13"/>
     </row>
     <row r="13" spans="2:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9472,43 +9497,43 @@
       <c r="N13" s="169"/>
       <c r="O13" s="169"/>
       <c r="P13" s="169"/>
-      <c r="Q13" s="250" t="s">
+      <c r="Q13" s="261" t="s">
         <v>348</v>
       </c>
-      <c r="R13" s="251"/>
-      <c r="S13" s="251"/>
-      <c r="T13" s="251"/>
-      <c r="U13" s="252"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="262"/>
+      <c r="T13" s="262"/>
+      <c r="U13" s="263"/>
       <c r="V13" s="170"/>
-      <c r="W13" s="250" t="s">
+      <c r="W13" s="261" t="s">
         <v>187</v>
       </c>
-      <c r="X13" s="251"/>
-      <c r="Y13" s="251"/>
-      <c r="Z13" s="251"/>
-      <c r="AA13" s="251"/>
-      <c r="AB13" s="252"/>
+      <c r="X13" s="262"/>
+      <c r="Y13" s="262"/>
+      <c r="Z13" s="262"/>
+      <c r="AA13" s="262"/>
+      <c r="AB13" s="263"/>
       <c r="AC13" s="168"/>
-      <c r="AD13" s="250" t="s">
+      <c r="AD13" s="261" t="s">
         <v>349</v>
       </c>
-      <c r="AE13" s="251"/>
-      <c r="AF13" s="251"/>
-      <c r="AG13" s="251"/>
-      <c r="AH13" s="251"/>
-      <c r="AI13" s="251"/>
-      <c r="AJ13" s="252"/>
+      <c r="AE13" s="262"/>
+      <c r="AF13" s="262"/>
+      <c r="AG13" s="262"/>
+      <c r="AH13" s="262"/>
+      <c r="AI13" s="262"/>
+      <c r="AJ13" s="263"/>
       <c r="AK13" s="169"/>
       <c r="AL13" s="169"/>
-      <c r="AM13" s="270" t="s">
+      <c r="AM13" s="275" t="s">
         <v>355</v>
       </c>
-      <c r="AN13" s="272"/>
-      <c r="AO13" s="270" t="s">
+      <c r="AN13" s="277"/>
+      <c r="AO13" s="275" t="s">
         <v>356</v>
       </c>
-      <c r="AP13" s="271"/>
-      <c r="AQ13" s="272"/>
+      <c r="AP13" s="276"/>
+      <c r="AQ13" s="277"/>
       <c r="AR13" s="13"/>
     </row>
     <row r="14" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9592,54 +9617,54 @@
       <c r="AL15" s="216"/>
       <c r="AM15" s="216"/>
       <c r="AN15" s="217"/>
-      <c r="AO15" s="274" t="s">
+      <c r="AO15" s="279" t="s">
         <v>368</v>
       </c>
-      <c r="AP15" s="275"/>
-      <c r="AQ15" s="276"/>
+      <c r="AP15" s="268"/>
+      <c r="AQ15" s="269"/>
       <c r="AR15" s="13"/>
     </row>
     <row r="16" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="G16" s="19"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="273" t="s">
+      <c r="I16" s="278" t="s">
         <v>334</v>
       </c>
-      <c r="J16" s="273"/>
-      <c r="K16" s="273"/>
-      <c r="L16" s="273"/>
-      <c r="M16" s="273"/>
-      <c r="N16" s="273"/>
-      <c r="O16" s="273"/>
-      <c r="P16" s="273"/>
-      <c r="Q16" s="273"/>
-      <c r="R16" s="273"/>
-      <c r="S16" s="273"/>
-      <c r="T16" s="273"/>
-      <c r="U16" s="273"/>
-      <c r="V16" s="273"/>
-      <c r="W16" s="273"/>
-      <c r="X16" s="273"/>
-      <c r="Y16" s="273"/>
-      <c r="Z16" s="273"/>
-      <c r="AA16" s="273"/>
-      <c r="AB16" s="273"/>
-      <c r="AC16" s="273"/>
-      <c r="AD16" s="273"/>
-      <c r="AE16" s="273"/>
-      <c r="AF16" s="273"/>
-      <c r="AG16" s="273"/>
-      <c r="AH16" s="273"/>
-      <c r="AI16" s="273"/>
-      <c r="AJ16" s="273"/>
-      <c r="AK16" s="273"/>
-      <c r="AL16" s="273"/>
-      <c r="AM16" s="273"/>
-      <c r="AN16" s="273"/>
-      <c r="AO16" s="273"/>
-      <c r="AP16" s="273"/>
-      <c r="AQ16" s="273"/>
+      <c r="J16" s="278"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="278"/>
+      <c r="M16" s="278"/>
+      <c r="N16" s="278"/>
+      <c r="O16" s="278"/>
+      <c r="P16" s="278"/>
+      <c r="Q16" s="278"/>
+      <c r="R16" s="278"/>
+      <c r="S16" s="278"/>
+      <c r="T16" s="278"/>
+      <c r="U16" s="278"/>
+      <c r="V16" s="278"/>
+      <c r="W16" s="278"/>
+      <c r="X16" s="278"/>
+      <c r="Y16" s="278"/>
+      <c r="Z16" s="278"/>
+      <c r="AA16" s="278"/>
+      <c r="AB16" s="278"/>
+      <c r="AC16" s="278"/>
+      <c r="AD16" s="278"/>
+      <c r="AE16" s="278"/>
+      <c r="AF16" s="278"/>
+      <c r="AG16" s="278"/>
+      <c r="AH16" s="278"/>
+      <c r="AI16" s="278"/>
+      <c r="AJ16" s="278"/>
+      <c r="AK16" s="278"/>
+      <c r="AL16" s="278"/>
+      <c r="AM16" s="278"/>
+      <c r="AN16" s="278"/>
+      <c r="AO16" s="278"/>
+      <c r="AP16" s="278"/>
+      <c r="AQ16" s="278"/>
       <c r="AR16" s="13"/>
     </row>
     <row r="17" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9860,43 +9885,43 @@
       <c r="B21" s="11"/>
       <c r="G21" s="19"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="273" t="s">
+      <c r="I21" s="278" t="s">
         <v>339</v>
       </c>
-      <c r="J21" s="273"/>
-      <c r="K21" s="273"/>
-      <c r="L21" s="273"/>
-      <c r="M21" s="273"/>
-      <c r="N21" s="273"/>
-      <c r="O21" s="273"/>
-      <c r="P21" s="273"/>
-      <c r="Q21" s="273"/>
-      <c r="R21" s="273"/>
-      <c r="S21" s="273"/>
-      <c r="T21" s="273"/>
-      <c r="U21" s="273"/>
-      <c r="V21" s="273"/>
-      <c r="W21" s="273"/>
-      <c r="X21" s="273"/>
-      <c r="Y21" s="273"/>
-      <c r="Z21" s="273"/>
-      <c r="AA21" s="273"/>
-      <c r="AB21" s="273"/>
-      <c r="AC21" s="273"/>
-      <c r="AD21" s="273"/>
-      <c r="AE21" s="273"/>
-      <c r="AF21" s="273"/>
-      <c r="AG21" s="273"/>
-      <c r="AH21" s="273"/>
-      <c r="AI21" s="273"/>
-      <c r="AJ21" s="273"/>
-      <c r="AK21" s="273"/>
-      <c r="AL21" s="273"/>
-      <c r="AM21" s="273"/>
-      <c r="AN21" s="273"/>
-      <c r="AO21" s="273"/>
-      <c r="AP21" s="273"/>
-      <c r="AQ21" s="273"/>
+      <c r="J21" s="278"/>
+      <c r="K21" s="278"/>
+      <c r="L21" s="278"/>
+      <c r="M21" s="278"/>
+      <c r="N21" s="278"/>
+      <c r="O21" s="278"/>
+      <c r="P21" s="278"/>
+      <c r="Q21" s="278"/>
+      <c r="R21" s="278"/>
+      <c r="S21" s="278"/>
+      <c r="T21" s="278"/>
+      <c r="U21" s="278"/>
+      <c r="V21" s="278"/>
+      <c r="W21" s="278"/>
+      <c r="X21" s="278"/>
+      <c r="Y21" s="278"/>
+      <c r="Z21" s="278"/>
+      <c r="AA21" s="278"/>
+      <c r="AB21" s="278"/>
+      <c r="AC21" s="278"/>
+      <c r="AD21" s="278"/>
+      <c r="AE21" s="278"/>
+      <c r="AF21" s="278"/>
+      <c r="AG21" s="278"/>
+      <c r="AH21" s="278"/>
+      <c r="AI21" s="278"/>
+      <c r="AJ21" s="278"/>
+      <c r="AK21" s="278"/>
+      <c r="AL21" s="278"/>
+      <c r="AM21" s="278"/>
+      <c r="AN21" s="278"/>
+      <c r="AO21" s="278"/>
+      <c r="AP21" s="278"/>
+      <c r="AQ21" s="278"/>
       <c r="AR21" s="13"/>
       <c r="AT21" s="53"/>
       <c r="AU21" s="106"/>
@@ -10461,50 +10486,50 @@
       <c r="B37" s="122">
         <v>1</v>
       </c>
-      <c r="C37" s="267" t="s">
+      <c r="C37" s="272" t="s">
         <v>436</v>
       </c>
-      <c r="D37" s="268"/>
-      <c r="E37" s="268"/>
-      <c r="F37" s="268"/>
-      <c r="G37" s="268"/>
-      <c r="H37" s="268"/>
-      <c r="I37" s="268"/>
-      <c r="J37" s="268"/>
-      <c r="K37" s="268"/>
-      <c r="L37" s="268"/>
-      <c r="M37" s="268"/>
-      <c r="N37" s="268"/>
-      <c r="O37" s="268"/>
-      <c r="P37" s="268"/>
-      <c r="Q37" s="268"/>
-      <c r="R37" s="268"/>
-      <c r="S37" s="268"/>
-      <c r="T37" s="268"/>
-      <c r="U37" s="268"/>
-      <c r="V37" s="268"/>
-      <c r="W37" s="268"/>
-      <c r="X37" s="268"/>
-      <c r="Y37" s="268"/>
-      <c r="Z37" s="268"/>
-      <c r="AA37" s="268"/>
-      <c r="AB37" s="268"/>
-      <c r="AC37" s="268"/>
-      <c r="AD37" s="268"/>
-      <c r="AE37" s="268"/>
-      <c r="AF37" s="268"/>
-      <c r="AG37" s="268"/>
-      <c r="AH37" s="268"/>
-      <c r="AI37" s="268"/>
-      <c r="AJ37" s="268"/>
-      <c r="AK37" s="268"/>
-      <c r="AL37" s="268"/>
-      <c r="AM37" s="268"/>
-      <c r="AN37" s="268"/>
-      <c r="AO37" s="268"/>
-      <c r="AP37" s="268"/>
-      <c r="AQ37" s="268"/>
-      <c r="AR37" s="269"/>
+      <c r="D37" s="273"/>
+      <c r="E37" s="273"/>
+      <c r="F37" s="273"/>
+      <c r="G37" s="273"/>
+      <c r="H37" s="273"/>
+      <c r="I37" s="273"/>
+      <c r="J37" s="273"/>
+      <c r="K37" s="273"/>
+      <c r="L37" s="273"/>
+      <c r="M37" s="273"/>
+      <c r="N37" s="273"/>
+      <c r="O37" s="273"/>
+      <c r="P37" s="273"/>
+      <c r="Q37" s="273"/>
+      <c r="R37" s="273"/>
+      <c r="S37" s="273"/>
+      <c r="T37" s="273"/>
+      <c r="U37" s="273"/>
+      <c r="V37" s="273"/>
+      <c r="W37" s="273"/>
+      <c r="X37" s="273"/>
+      <c r="Y37" s="273"/>
+      <c r="Z37" s="273"/>
+      <c r="AA37" s="273"/>
+      <c r="AB37" s="273"/>
+      <c r="AC37" s="273"/>
+      <c r="AD37" s="273"/>
+      <c r="AE37" s="273"/>
+      <c r="AF37" s="273"/>
+      <c r="AG37" s="273"/>
+      <c r="AH37" s="273"/>
+      <c r="AI37" s="273"/>
+      <c r="AJ37" s="273"/>
+      <c r="AK37" s="273"/>
+      <c r="AL37" s="273"/>
+      <c r="AM37" s="273"/>
+      <c r="AN37" s="273"/>
+      <c r="AO37" s="273"/>
+      <c r="AP37" s="273"/>
+      <c r="AQ37" s="273"/>
+      <c r="AR37" s="274"/>
       <c r="AS37" s="53"/>
       <c r="AU37" s="29"/>
     </row>
@@ -11348,18 +11373,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="AL2:AR5"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AA6:AF6"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AM6:AR6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="M7:AJ7"/>
-    <mergeCell ref="I8:AQ8"/>
     <mergeCell ref="C37:AR37"/>
     <mergeCell ref="AO11:AQ11"/>
     <mergeCell ref="AO13:AQ13"/>
@@ -11373,6 +11386,18 @@
     <mergeCell ref="AM12:AN12"/>
     <mergeCell ref="AO12:AQ12"/>
     <mergeCell ref="I21:AQ21"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="AL2:AR5"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="AG6:AL6"/>
+    <mergeCell ref="AM6:AR6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="M7:AJ7"/>
+    <mergeCell ref="I8:AQ8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AO1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -11930,7 +11955,7 @@
   <dimension ref="B1:BF56"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:R9"/>
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11949,14 +11974,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="228"/>
+      <c r="G1" s="234"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -12039,15 +12064,15 @@
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
-      <c r="AM2" s="235" t="s">
+      <c r="AM2" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="AN2" s="235"/>
-      <c r="AO2" s="235"/>
-      <c r="AP2" s="235"/>
-      <c r="AQ2" s="235"/>
-      <c r="AR2" s="235"/>
-      <c r="AS2" s="236"/>
+      <c r="AN2" s="241"/>
+      <c r="AO2" s="241"/>
+      <c r="AP2" s="241"/>
+      <c r="AQ2" s="241"/>
+      <c r="AR2" s="241"/>
+      <c r="AS2" s="242"/>
     </row>
     <row r="3" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -12087,13 +12112,13 @@
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
-      <c r="AM3" s="235"/>
-      <c r="AN3" s="235"/>
-      <c r="AO3" s="235"/>
-      <c r="AP3" s="235"/>
-      <c r="AQ3" s="235"/>
-      <c r="AR3" s="235"/>
-      <c r="AS3" s="236"/>
+      <c r="AM3" s="241"/>
+      <c r="AN3" s="241"/>
+      <c r="AO3" s="241"/>
+      <c r="AP3" s="241"/>
+      <c r="AQ3" s="241"/>
+      <c r="AR3" s="241"/>
+      <c r="AS3" s="242"/>
     </row>
     <row r="4" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -12132,13 +12157,13 @@
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
       <c r="AK4" s="12"/>
-      <c r="AM4" s="235"/>
-      <c r="AN4" s="235"/>
-      <c r="AO4" s="235"/>
-      <c r="AP4" s="235"/>
-      <c r="AQ4" s="235"/>
-      <c r="AR4" s="235"/>
-      <c r="AS4" s="236"/>
+      <c r="AM4" s="241"/>
+      <c r="AN4" s="241"/>
+      <c r="AO4" s="241"/>
+      <c r="AP4" s="241"/>
+      <c r="AQ4" s="241"/>
+      <c r="AR4" s="241"/>
+      <c r="AS4" s="242"/>
     </row>
     <row r="5" spans="2:58" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -12178,61 +12203,61 @@
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
       <c r="AL5" s="16"/>
-      <c r="AM5" s="237"/>
-      <c r="AN5" s="237"/>
-      <c r="AO5" s="237"/>
-      <c r="AP5" s="237"/>
-      <c r="AQ5" s="237"/>
-      <c r="AR5" s="237"/>
-      <c r="AS5" s="238"/>
+      <c r="AM5" s="243"/>
+      <c r="AN5" s="243"/>
+      <c r="AO5" s="243"/>
+      <c r="AP5" s="243"/>
+      <c r="AQ5" s="243"/>
+      <c r="AR5" s="243"/>
+      <c r="AS5" s="244"/>
     </row>
     <row r="6" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="239" t="s">
+      <c r="B6" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="241"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="240"/>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="240"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="239"/>
-      <c r="N6" s="240"/>
-      <c r="O6" s="240"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="240"/>
-      <c r="R6" s="241"/>
-      <c r="S6" s="264"/>
-      <c r="T6" s="265"/>
-      <c r="U6" s="265"/>
-      <c r="V6" s="266"/>
-      <c r="W6" s="239"/>
-      <c r="X6" s="240"/>
-      <c r="Y6" s="240"/>
-      <c r="Z6" s="240"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="239"/>
-      <c r="AC6" s="240"/>
-      <c r="AD6" s="240"/>
-      <c r="AE6" s="240"/>
-      <c r="AF6" s="240"/>
-      <c r="AG6" s="241"/>
-      <c r="AH6" s="239"/>
-      <c r="AI6" s="240"/>
-      <c r="AJ6" s="240"/>
-      <c r="AK6" s="240"/>
-      <c r="AL6" s="240"/>
-      <c r="AM6" s="241"/>
-      <c r="AN6" s="239"/>
-      <c r="AO6" s="240"/>
-      <c r="AP6" s="240"/>
-      <c r="AQ6" s="240"/>
-      <c r="AR6" s="240"/>
-      <c r="AS6" s="241"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="224"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="225"/>
+      <c r="R6" s="226"/>
+      <c r="S6" s="248"/>
+      <c r="T6" s="249"/>
+      <c r="U6" s="249"/>
+      <c r="V6" s="250"/>
+      <c r="W6" s="224"/>
+      <c r="X6" s="225"/>
+      <c r="Y6" s="225"/>
+      <c r="Z6" s="225"/>
+      <c r="AA6" s="226"/>
+      <c r="AB6" s="224"/>
+      <c r="AC6" s="225"/>
+      <c r="AD6" s="225"/>
+      <c r="AE6" s="225"/>
+      <c r="AF6" s="225"/>
+      <c r="AG6" s="226"/>
+      <c r="AH6" s="224"/>
+      <c r="AI6" s="225"/>
+      <c r="AJ6" s="225"/>
+      <c r="AK6" s="225"/>
+      <c r="AL6" s="225"/>
+      <c r="AM6" s="226"/>
+      <c r="AN6" s="224"/>
+      <c r="AO6" s="225"/>
+      <c r="AP6" s="225"/>
+      <c r="AQ6" s="225"/>
+      <c r="AR6" s="225"/>
+      <c r="AS6" s="226"/>
     </row>
     <row r="7" spans="2:58" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -12247,30 +12272,30 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="263"/>
-      <c r="O7" s="263"/>
-      <c r="P7" s="263"/>
-      <c r="Q7" s="263"/>
-      <c r="R7" s="263"/>
-      <c r="S7" s="263"/>
-      <c r="T7" s="263"/>
-      <c r="U7" s="263"/>
-      <c r="V7" s="263"/>
-      <c r="W7" s="263"/>
-      <c r="X7" s="263"/>
-      <c r="Y7" s="263"/>
-      <c r="Z7" s="263"/>
-      <c r="AA7" s="263"/>
-      <c r="AB7" s="263"/>
-      <c r="AC7" s="263"/>
-      <c r="AD7" s="263"/>
-      <c r="AE7" s="263"/>
-      <c r="AF7" s="263"/>
-      <c r="AG7" s="263"/>
-      <c r="AH7" s="263"/>
-      <c r="AI7" s="263"/>
-      <c r="AJ7" s="263"/>
-      <c r="AK7" s="263"/>
+      <c r="N7" s="247"/>
+      <c r="O7" s="247"/>
+      <c r="P7" s="247"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="247"/>
+      <c r="S7" s="247"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="247"/>
+      <c r="W7" s="247"/>
+      <c r="X7" s="247"/>
+      <c r="Y7" s="247"/>
+      <c r="Z7" s="247"/>
+      <c r="AA7" s="247"/>
+      <c r="AB7" s="247"/>
+      <c r="AC7" s="247"/>
+      <c r="AD7" s="247"/>
+      <c r="AE7" s="247"/>
+      <c r="AF7" s="247"/>
+      <c r="AG7" s="247"/>
+      <c r="AH7" s="247"/>
+      <c r="AI7" s="247"/>
+      <c r="AJ7" s="247"/>
+      <c r="AK7" s="247"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
@@ -12290,44 +12315,44 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="243" t="s">
+      <c r="I8" s="246" t="s">
         <v>399</v>
       </c>
-      <c r="J8" s="243"/>
-      <c r="K8" s="243"/>
-      <c r="L8" s="243"/>
-      <c r="M8" s="243"/>
-      <c r="N8" s="243"/>
-      <c r="O8" s="243"/>
-      <c r="P8" s="243"/>
-      <c r="Q8" s="243"/>
-      <c r="R8" s="243"/>
-      <c r="S8" s="243"/>
-      <c r="T8" s="243"/>
-      <c r="U8" s="243"/>
-      <c r="V8" s="243"/>
-      <c r="W8" s="243"/>
-      <c r="X8" s="243"/>
-      <c r="Y8" s="243"/>
-      <c r="Z8" s="243"/>
-      <c r="AA8" s="243"/>
-      <c r="AB8" s="243"/>
-      <c r="AC8" s="243"/>
-      <c r="AD8" s="243"/>
-      <c r="AE8" s="243"/>
-      <c r="AF8" s="243"/>
-      <c r="AG8" s="243"/>
-      <c r="AH8" s="243"/>
-      <c r="AI8" s="243"/>
-      <c r="AJ8" s="243"/>
-      <c r="AK8" s="243"/>
-      <c r="AL8" s="243"/>
-      <c r="AM8" s="243"/>
-      <c r="AN8" s="243"/>
-      <c r="AO8" s="243"/>
-      <c r="AP8" s="243"/>
-      <c r="AQ8" s="243"/>
-      <c r="AR8" s="243"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="246"/>
+      <c r="AG8" s="246"/>
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="246"/>
+      <c r="AK8" s="246"/>
+      <c r="AL8" s="246"/>
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="246"/>
+      <c r="AO8" s="246"/>
+      <c r="AP8" s="246"/>
+      <c r="AQ8" s="246"/>
+      <c r="AR8" s="246"/>
       <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12482,15 +12507,15 @@
         <v>402</v>
       </c>
       <c r="K12" s="53"/>
-      <c r="L12" s="250" t="s">
+      <c r="L12" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="251"/>
-      <c r="N12" s="251"/>
-      <c r="O12" s="251"/>
-      <c r="P12" s="251"/>
-      <c r="Q12" s="251"/>
-      <c r="R12" s="252"/>
+      <c r="M12" s="262"/>
+      <c r="N12" s="262"/>
+      <c r="O12" s="262"/>
+      <c r="P12" s="262"/>
+      <c r="Q12" s="262"/>
+      <c r="R12" s="263"/>
       <c r="S12" s="53"/>
       <c r="T12" s="198" t="s">
         <v>400</v>
@@ -12512,14 +12537,14 @@
       <c r="AI12" s="199"/>
       <c r="AJ12" s="200"/>
       <c r="AK12" s="53"/>
-      <c r="AL12" s="224" t="s">
+      <c r="AL12" s="230" t="s">
         <v>403</v>
       </c>
-      <c r="AM12" s="225"/>
-      <c r="AN12" s="225"/>
-      <c r="AO12" s="225"/>
-      <c r="AP12" s="225"/>
-      <c r="AQ12" s="226"/>
+      <c r="AM12" s="231"/>
+      <c r="AN12" s="231"/>
+      <c r="AO12" s="231"/>
+      <c r="AP12" s="231"/>
+      <c r="AQ12" s="232"/>
       <c r="AR12" s="48"/>
       <c r="AS12" s="13"/>
     </row>
@@ -12693,14 +12718,14 @@
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="37"/>
-      <c r="R16" s="229" t="s">
+      <c r="R16" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="S16" s="230"/>
-      <c r="T16" s="230"/>
-      <c r="U16" s="230"/>
-      <c r="V16" s="230"/>
-      <c r="W16" s="231"/>
+      <c r="S16" s="236"/>
+      <c r="T16" s="236"/>
+      <c r="U16" s="236"/>
+      <c r="V16" s="236"/>
+      <c r="W16" s="237"/>
       <c r="X16" s="38" t="s">
         <v>48</v>
       </c>
@@ -12708,18 +12733,18 @@
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
-      <c r="AC16" s="229" t="s">
+      <c r="AC16" s="235" t="s">
         <v>406</v>
       </c>
-      <c r="AD16" s="230"/>
-      <c r="AE16" s="230"/>
-      <c r="AF16" s="231"/>
+      <c r="AD16" s="236"/>
+      <c r="AE16" s="236"/>
+      <c r="AF16" s="237"/>
       <c r="AG16" s="38"/>
-      <c r="AH16" s="233" t="s">
+      <c r="AH16" s="239" t="s">
         <v>82</v>
       </c>
-      <c r="AI16" s="233"/>
-      <c r="AJ16" s="234"/>
+      <c r="AI16" s="239"/>
+      <c r="AJ16" s="240"/>
       <c r="AK16" s="36" t="s">
         <v>49</v>
       </c>
@@ -13188,18 +13213,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="104"/>
       <c r="J25" s="104"/>
-      <c r="K25" s="257"/>
-      <c r="L25" s="257"/>
-      <c r="M25" s="257"/>
-      <c r="N25" s="257"/>
-      <c r="O25" s="257"/>
-      <c r="P25" s="257"/>
-      <c r="Q25" s="257"/>
-      <c r="R25" s="257"/>
-      <c r="S25" s="257"/>
-      <c r="T25" s="257"/>
-      <c r="U25" s="257"/>
-      <c r="V25" s="257"/>
+      <c r="K25" s="252"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="252"/>
+      <c r="N25" s="252"/>
+      <c r="O25" s="252"/>
+      <c r="P25" s="252"/>
+      <c r="Q25" s="252"/>
+      <c r="R25" s="252"/>
+      <c r="S25" s="252"/>
+      <c r="T25" s="252"/>
+      <c r="U25" s="252"/>
+      <c r="V25" s="252"/>
       <c r="W25" s="104"/>
       <c r="X25" s="104"/>
       <c r="Y25" s="104"/>
@@ -14486,6 +14511,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="T10:AJ10"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="T12:AJ12"/>
     <mergeCell ref="AL12:AQ12"/>
     <mergeCell ref="N7:AK7"/>
     <mergeCell ref="I21:AR21"/>
@@ -14502,14 +14535,6 @@
     <mergeCell ref="AN6:AS6"/>
     <mergeCell ref="I8:AR8"/>
     <mergeCell ref="L10:R10"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="T10:AJ10"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="T12:AJ12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6:C6" location="'Main-logged in'!A1" display="Home"/>
@@ -14525,7 +14550,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14572,7 +14597,7 @@
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="73" t="s">
-        <v>154</v>
+        <v>479</v>
       </c>
       <c r="E4" s="72"/>
       <c r="F4" s="72"/>
@@ -14607,13 +14632,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>9</v>
@@ -14628,13 +14653,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="174" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>9</v>
@@ -14643,7 +14668,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -14651,13 +14676,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F8" s="79" t="s">
         <v>9</v>
@@ -14666,7 +14691,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -14677,10 +14702,10 @@
         <v>405</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>10</v>
@@ -14695,13 +14720,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>10</v>
@@ -14710,7 +14735,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -14721,7 +14746,7 @@
         <v>403</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E11" s="79" t="s">
         <v>167</v>
@@ -14733,7 +14758,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -14747,7 +14772,7 @@
         <v>259</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>10</v>
@@ -14756,7 +14781,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -14764,7 +14789,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>5</v>
@@ -14779,7 +14804,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -14787,7 +14812,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D14" s="79" t="s">
         <v>79</v>
@@ -14810,10 +14835,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>58</v>
@@ -14825,7 +14850,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -14833,10 +14858,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E16" s="79" t="s">
         <v>58</v>
@@ -14848,7 +14873,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -14856,7 +14881,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D17" s="79" t="s">
         <v>85</v>
@@ -14871,7 +14896,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -14882,7 +14907,7 @@
         <v>83</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E18" s="79" t="s">
         <v>58</v>
@@ -14902,10 +14927,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E19" s="79" t="s">
         <v>58</v>
@@ -14917,7 +14942,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="81" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -16494,7 +16519,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16541,7 +16566,7 @@
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="73" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="E4" s="72"/>
       <c r="F4" s="72"/>
@@ -16576,7 +16601,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D6" s="79" t="s">
         <v>100</v>
@@ -16603,7 +16628,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>9</v>
@@ -16612,7 +16637,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -16620,10 +16645,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="79" t="s">
         <v>453</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>454</v>
       </c>
       <c r="E8" s="79" t="s">
         <v>167</v>
@@ -16635,7 +16660,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -19749,7 +19774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -19832,10 +19857,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E6" s="79" t="s">
         <v>58</v>
@@ -19859,7 +19884,7 @@
         <v>97</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>9</v>
@@ -19868,7 +19893,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -19876,10 +19901,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E8" s="79" t="s">
         <v>167</v>
@@ -19891,7 +19916,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -25766,14 +25791,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="228"/>
+      <c r="G1" s="234"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -25861,14 +25886,14 @@
       </c>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
-      <c r="AP2" s="235" t="s">
+      <c r="AP2" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="AQ2" s="235"/>
-      <c r="AR2" s="235"/>
-      <c r="AS2" s="235"/>
-      <c r="AT2" s="235"/>
-      <c r="AU2" s="236"/>
+      <c r="AQ2" s="241"/>
+      <c r="AR2" s="241"/>
+      <c r="AS2" s="241"/>
+      <c r="AT2" s="241"/>
+      <c r="AU2" s="242"/>
     </row>
     <row r="3" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -25911,12 +25936,12 @@
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
       <c r="AO3" s="12"/>
-      <c r="AP3" s="235"/>
-      <c r="AQ3" s="235"/>
-      <c r="AR3" s="235"/>
-      <c r="AS3" s="235"/>
-      <c r="AT3" s="235"/>
-      <c r="AU3" s="236"/>
+      <c r="AP3" s="241"/>
+      <c r="AQ3" s="241"/>
+      <c r="AR3" s="241"/>
+      <c r="AS3" s="241"/>
+      <c r="AT3" s="241"/>
+      <c r="AU3" s="242"/>
     </row>
     <row r="4" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -25958,12 +25983,12 @@
       <c r="AL4" s="12"/>
       <c r="AM4" s="12"/>
       <c r="AN4" s="12"/>
-      <c r="AP4" s="235"/>
-      <c r="AQ4" s="235"/>
-      <c r="AR4" s="235"/>
-      <c r="AS4" s="235"/>
-      <c r="AT4" s="235"/>
-      <c r="AU4" s="236"/>
+      <c r="AP4" s="241"/>
+      <c r="AQ4" s="241"/>
+      <c r="AR4" s="241"/>
+      <c r="AS4" s="241"/>
+      <c r="AT4" s="241"/>
+      <c r="AU4" s="242"/>
     </row>
     <row r="5" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -26006,12 +26031,12 @@
       <c r="AM5" s="16"/>
       <c r="AN5" s="16"/>
       <c r="AO5" s="16"/>
-      <c r="AP5" s="237"/>
-      <c r="AQ5" s="237"/>
-      <c r="AR5" s="237"/>
-      <c r="AS5" s="237"/>
-      <c r="AT5" s="237"/>
-      <c r="AU5" s="238"/>
+      <c r="AP5" s="243"/>
+      <c r="AQ5" s="243"/>
+      <c r="AR5" s="243"/>
+      <c r="AS5" s="243"/>
+      <c r="AT5" s="243"/>
+      <c r="AU5" s="244"/>
     </row>
     <row r="6" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="136" t="s">
@@ -26024,44 +26049,44 @@
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="240"/>
-      <c r="M6" s="240"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="239"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="240"/>
-      <c r="R6" s="240"/>
-      <c r="S6" s="240"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="244"/>
-      <c r="V6" s="245"/>
-      <c r="W6" s="245"/>
-      <c r="X6" s="246"/>
-      <c r="Y6" s="239"/>
-      <c r="Z6" s="240"/>
-      <c r="AA6" s="240"/>
-      <c r="AB6" s="240"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="239"/>
-      <c r="AE6" s="240"/>
-      <c r="AF6" s="240"/>
-      <c r="AG6" s="240"/>
-      <c r="AH6" s="240"/>
-      <c r="AI6" s="241"/>
-      <c r="AJ6" s="239"/>
-      <c r="AK6" s="240"/>
-      <c r="AL6" s="240"/>
-      <c r="AM6" s="240"/>
-      <c r="AN6" s="240"/>
-      <c r="AO6" s="241"/>
-      <c r="AP6" s="239"/>
-      <c r="AQ6" s="240"/>
-      <c r="AR6" s="240"/>
-      <c r="AS6" s="240"/>
-      <c r="AT6" s="240"/>
-      <c r="AU6" s="242"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="224"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="225"/>
+      <c r="R6" s="225"/>
+      <c r="S6" s="225"/>
+      <c r="T6" s="226"/>
+      <c r="U6" s="227"/>
+      <c r="V6" s="228"/>
+      <c r="W6" s="228"/>
+      <c r="X6" s="229"/>
+      <c r="Y6" s="224"/>
+      <c r="Z6" s="225"/>
+      <c r="AA6" s="225"/>
+      <c r="AB6" s="225"/>
+      <c r="AC6" s="226"/>
+      <c r="AD6" s="224"/>
+      <c r="AE6" s="225"/>
+      <c r="AF6" s="225"/>
+      <c r="AG6" s="225"/>
+      <c r="AH6" s="225"/>
+      <c r="AI6" s="226"/>
+      <c r="AJ6" s="224"/>
+      <c r="AK6" s="225"/>
+      <c r="AL6" s="225"/>
+      <c r="AM6" s="225"/>
+      <c r="AN6" s="225"/>
+      <c r="AO6" s="226"/>
+      <c r="AP6" s="224"/>
+      <c r="AQ6" s="225"/>
+      <c r="AR6" s="225"/>
+      <c r="AS6" s="225"/>
+      <c r="AT6" s="225"/>
+      <c r="AU6" s="245"/>
     </row>
     <row r="7" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -26121,46 +26146,46 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="243" t="s">
+      <c r="I8" s="246" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="243"/>
-      <c r="K8" s="243"/>
-      <c r="L8" s="243"/>
-      <c r="M8" s="243"/>
-      <c r="N8" s="243"/>
-      <c r="O8" s="243"/>
-      <c r="P8" s="243"/>
-      <c r="Q8" s="243"/>
-      <c r="R8" s="243"/>
-      <c r="S8" s="243"/>
-      <c r="T8" s="243"/>
-      <c r="U8" s="243"/>
-      <c r="V8" s="243"/>
-      <c r="W8" s="243"/>
-      <c r="X8" s="243"/>
-      <c r="Y8" s="243"/>
-      <c r="Z8" s="243"/>
-      <c r="AA8" s="243"/>
-      <c r="AB8" s="243"/>
-      <c r="AC8" s="243"/>
-      <c r="AD8" s="243"/>
-      <c r="AE8" s="243"/>
-      <c r="AF8" s="243"/>
-      <c r="AG8" s="243"/>
-      <c r="AH8" s="243"/>
-      <c r="AI8" s="243"/>
-      <c r="AJ8" s="243"/>
-      <c r="AK8" s="243"/>
-      <c r="AL8" s="243"/>
-      <c r="AM8" s="243"/>
-      <c r="AN8" s="243"/>
-      <c r="AO8" s="243"/>
-      <c r="AP8" s="243"/>
-      <c r="AQ8" s="243"/>
-      <c r="AR8" s="243"/>
-      <c r="AS8" s="243"/>
-      <c r="AT8" s="243"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="246"/>
+      <c r="AG8" s="246"/>
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="246"/>
+      <c r="AK8" s="246"/>
+      <c r="AL8" s="246"/>
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="246"/>
+      <c r="AO8" s="246"/>
+      <c r="AP8" s="246"/>
+      <c r="AQ8" s="246"/>
+      <c r="AR8" s="246"/>
+      <c r="AS8" s="246"/>
+      <c r="AT8" s="246"/>
       <c r="AU8" s="13"/>
     </row>
     <row r="9" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -26532,14 +26557,14 @@
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="37"/>
-      <c r="R18" s="229" t="s">
+      <c r="R18" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="S18" s="230"/>
-      <c r="T18" s="230"/>
-      <c r="U18" s="230"/>
-      <c r="V18" s="230"/>
-      <c r="W18" s="231"/>
+      <c r="S18" s="236"/>
+      <c r="T18" s="236"/>
+      <c r="U18" s="236"/>
+      <c r="V18" s="236"/>
+      <c r="W18" s="237"/>
       <c r="X18" s="38" t="s">
         <v>48</v>
       </c>
@@ -26547,16 +26572,16 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
-      <c r="AC18" s="232"/>
-      <c r="AD18" s="233"/>
-      <c r="AE18" s="233"/>
-      <c r="AF18" s="234"/>
+      <c r="AC18" s="238"/>
+      <c r="AD18" s="239"/>
+      <c r="AE18" s="239"/>
+      <c r="AF18" s="240"/>
       <c r="AG18" s="38"/>
-      <c r="AH18" s="233" t="s">
+      <c r="AH18" s="239" t="s">
         <v>82</v>
       </c>
-      <c r="AI18" s="233"/>
-      <c r="AJ18" s="234"/>
+      <c r="AI18" s="239"/>
+      <c r="AJ18" s="240"/>
       <c r="AK18" s="36" t="s">
         <v>49</v>
       </c>
@@ -27045,12 +27070,12 @@
       <c r="AT25" s="35"/>
       <c r="AU25" s="13"/>
       <c r="AY25" s="11"/>
-      <c r="AZ25" s="224" t="s">
+      <c r="AZ25" s="230" t="s">
         <v>383</v>
       </c>
-      <c r="BA25" s="225"/>
-      <c r="BB25" s="225"/>
-      <c r="BC25" s="226"/>
+      <c r="BA25" s="231"/>
+      <c r="BB25" s="231"/>
+      <c r="BC25" s="232"/>
       <c r="BD25" s="12"/>
       <c r="BE25" s="12"/>
       <c r="BF25" s="12"/>
@@ -28085,11 +28110,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AM16:AP16"/>
     <mergeCell ref="C38:AR38"/>
     <mergeCell ref="AZ25:BC25"/>
     <mergeCell ref="B1:G5"/>
@@ -28106,6 +28126,11 @@
     <mergeCell ref="AP6:AU6"/>
     <mergeCell ref="AD6:AI6"/>
     <mergeCell ref="I8:AT8"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AM16:AP16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>

--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Rider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="36" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="484">
   <si>
     <t>Logo</t>
   </si>
@@ -1879,6 +1879,9 @@
   </si>
   <si>
     <t>QuanTC tich hop trong Rider</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -3025,24 +3028,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3088,44 +3073,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3154,20 +3124,38 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3192,6 +3180,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5028,7 +5031,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5151,7 +5154,7 @@
         <v>441</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I6" s="79"/>
     </row>
@@ -5291,7 +5294,7 @@
         <v>441</v>
       </c>
       <c r="H12" s="79" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="I12" s="79"/>
     </row>
@@ -5582,14 +5585,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="227" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="234"/>
+      <c r="G1" s="228"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
@@ -5670,15 +5673,15 @@
       </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="241" t="s">
+      <c r="AL2" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="241"/>
-      <c r="AN2" s="241"/>
-      <c r="AO2" s="241"/>
-      <c r="AP2" s="241"/>
-      <c r="AQ2" s="241"/>
-      <c r="AR2" s="242"/>
+      <c r="AM2" s="235"/>
+      <c r="AN2" s="235"/>
+      <c r="AO2" s="235"/>
+      <c r="AP2" s="235"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="236"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -5717,13 +5720,13 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="241"/>
-      <c r="AM3" s="241"/>
-      <c r="AN3" s="241"/>
-      <c r="AO3" s="241"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="242"/>
+      <c r="AL3" s="235"/>
+      <c r="AM3" s="235"/>
+      <c r="AN3" s="235"/>
+      <c r="AO3" s="235"/>
+      <c r="AP3" s="235"/>
+      <c r="AQ3" s="235"/>
+      <c r="AR3" s="236"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -5761,13 +5764,13 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AL4" s="241"/>
-      <c r="AM4" s="241"/>
-      <c r="AN4" s="241"/>
-      <c r="AO4" s="241"/>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="241"/>
-      <c r="AR4" s="242"/>
+      <c r="AL4" s="235"/>
+      <c r="AM4" s="235"/>
+      <c r="AN4" s="235"/>
+      <c r="AO4" s="235"/>
+      <c r="AP4" s="235"/>
+      <c r="AQ4" s="235"/>
+      <c r="AR4" s="236"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -5806,13 +5809,13 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
-      <c r="AL5" s="243"/>
-      <c r="AM5" s="243"/>
-      <c r="AN5" s="243"/>
-      <c r="AO5" s="243"/>
-      <c r="AP5" s="243"/>
-      <c r="AQ5" s="243"/>
-      <c r="AR5" s="244"/>
+      <c r="AL5" s="237"/>
+      <c r="AM5" s="237"/>
+      <c r="AN5" s="237"/>
+      <c r="AO5" s="237"/>
+      <c r="AP5" s="237"/>
+      <c r="AQ5" s="237"/>
+      <c r="AR5" s="238"/>
     </row>
     <row r="6" spans="2:44" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
@@ -5860,51 +5863,51 @@
       <c r="AR6" s="13"/>
     </row>
     <row r="7" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="226"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="226"/>
-      <c r="L7" s="224"/>
-      <c r="M7" s="225"/>
-      <c r="N7" s="225"/>
-      <c r="O7" s="225"/>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="226"/>
-      <c r="R7" s="248"/>
-      <c r="S7" s="249"/>
-      <c r="T7" s="249"/>
-      <c r="U7" s="250"/>
-      <c r="V7" s="224"/>
-      <c r="W7" s="225"/>
-      <c r="X7" s="225"/>
-      <c r="Y7" s="225"/>
-      <c r="Z7" s="226"/>
-      <c r="AA7" s="224"/>
-      <c r="AB7" s="225"/>
-      <c r="AC7" s="225"/>
-      <c r="AD7" s="225"/>
-      <c r="AE7" s="225"/>
-      <c r="AF7" s="226"/>
-      <c r="AG7" s="224"/>
-      <c r="AH7" s="225"/>
-      <c r="AI7" s="225"/>
-      <c r="AJ7" s="225"/>
-      <c r="AK7" s="225"/>
-      <c r="AL7" s="226"/>
-      <c r="AM7" s="224"/>
-      <c r="AN7" s="225"/>
-      <c r="AO7" s="225"/>
-      <c r="AP7" s="225"/>
-      <c r="AQ7" s="225"/>
-      <c r="AR7" s="226"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="241"/>
+      <c r="L7" s="239"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="240"/>
+      <c r="O7" s="240"/>
+      <c r="P7" s="240"/>
+      <c r="Q7" s="241"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="266"/>
+      <c r="V7" s="239"/>
+      <c r="W7" s="240"/>
+      <c r="X7" s="240"/>
+      <c r="Y7" s="240"/>
+      <c r="Z7" s="241"/>
+      <c r="AA7" s="239"/>
+      <c r="AB7" s="240"/>
+      <c r="AC7" s="240"/>
+      <c r="AD7" s="240"/>
+      <c r="AE7" s="240"/>
+      <c r="AF7" s="241"/>
+      <c r="AG7" s="239"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="240"/>
+      <c r="AJ7" s="240"/>
+      <c r="AK7" s="240"/>
+      <c r="AL7" s="241"/>
+      <c r="AM7" s="239"/>
+      <c r="AN7" s="240"/>
+      <c r="AO7" s="240"/>
+      <c r="AP7" s="240"/>
+      <c r="AQ7" s="240"/>
+      <c r="AR7" s="241"/>
     </row>
     <row r="8" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -5918,30 +5921,30 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="247"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="247"/>
-      <c r="P8" s="247"/>
-      <c r="Q8" s="247"/>
-      <c r="R8" s="247"/>
-      <c r="S8" s="247"/>
-      <c r="T8" s="247"/>
-      <c r="U8" s="247"/>
-      <c r="V8" s="247"/>
-      <c r="W8" s="247"/>
-      <c r="X8" s="247"/>
-      <c r="Y8" s="247"/>
-      <c r="Z8" s="247"/>
-      <c r="AA8" s="247"/>
-      <c r="AB8" s="247"/>
-      <c r="AC8" s="247"/>
-      <c r="AD8" s="247"/>
-      <c r="AE8" s="247"/>
-      <c r="AF8" s="247"/>
-      <c r="AG8" s="247"/>
-      <c r="AH8" s="247"/>
-      <c r="AI8" s="247"/>
-      <c r="AJ8" s="247"/>
+      <c r="M8" s="263"/>
+      <c r="N8" s="263"/>
+      <c r="O8" s="263"/>
+      <c r="P8" s="263"/>
+      <c r="Q8" s="263"/>
+      <c r="R8" s="263"/>
+      <c r="S8" s="263"/>
+      <c r="T8" s="263"/>
+      <c r="U8" s="263"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
+      <c r="AD8" s="263"/>
+      <c r="AE8" s="263"/>
+      <c r="AF8" s="263"/>
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="263"/>
+      <c r="AI8" s="263"/>
+      <c r="AJ8" s="263"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
@@ -5965,32 +5968,32 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="246" t="s">
+      <c r="M9" s="243" t="s">
         <v>125</v>
       </c>
-      <c r="N9" s="246"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="246"/>
-      <c r="U9" s="246"/>
-      <c r="V9" s="246"/>
-      <c r="W9" s="246"/>
-      <c r="X9" s="246"/>
-      <c r="Y9" s="246"/>
-      <c r="Z9" s="246"/>
-      <c r="AA9" s="246"/>
-      <c r="AB9" s="246"/>
-      <c r="AC9" s="246"/>
-      <c r="AD9" s="246"/>
-      <c r="AE9" s="246"/>
-      <c r="AF9" s="246"/>
-      <c r="AG9" s="246"/>
-      <c r="AH9" s="246"/>
-      <c r="AI9" s="246"/>
-      <c r="AJ9" s="246"/>
+      <c r="N9" s="243"/>
+      <c r="O9" s="243"/>
+      <c r="P9" s="243"/>
+      <c r="Q9" s="243"/>
+      <c r="R9" s="243"/>
+      <c r="S9" s="243"/>
+      <c r="T9" s="243"/>
+      <c r="U9" s="243"/>
+      <c r="V9" s="243"/>
+      <c r="W9" s="243"/>
+      <c r="X9" s="243"/>
+      <c r="Y9" s="243"/>
+      <c r="Z9" s="243"/>
+      <c r="AA9" s="243"/>
+      <c r="AB9" s="243"/>
+      <c r="AC9" s="243"/>
+      <c r="AD9" s="243"/>
+      <c r="AE9" s="243"/>
+      <c r="AF9" s="243"/>
+      <c r="AG9" s="243"/>
+      <c r="AH9" s="243"/>
+      <c r="AI9" s="243"/>
+      <c r="AJ9" s="243"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
@@ -6186,7 +6189,7 @@
       </c>
       <c r="J14" s="165"/>
       <c r="K14" s="165"/>
-      <c r="M14" s="251" t="s">
+      <c r="M14" s="256" t="s">
         <v>431</v>
       </c>
       <c r="N14" s="204"/>
@@ -6229,7 +6232,7 @@
       <c r="I15" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M15" s="251" t="s">
+      <c r="M15" s="256" t="s">
         <v>432</v>
       </c>
       <c r="N15" s="204"/>
@@ -6272,23 +6275,23 @@
       <c r="I16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="256" t="s">
+      <c r="M16" s="261" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="254"/>
-      <c r="O16" s="254"/>
-      <c r="P16" s="254"/>
-      <c r="Q16" s="255"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="259"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="260"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="253" t="s">
+      <c r="S16" s="258" t="s">
         <v>307</v>
       </c>
-      <c r="T16" s="254"/>
-      <c r="U16" s="254"/>
-      <c r="V16" s="254"/>
-      <c r="W16" s="254"/>
-      <c r="X16" s="254"/>
-      <c r="Y16" s="255"/>
+      <c r="T16" s="259"/>
+      <c r="U16" s="259"/>
+      <c r="V16" s="259"/>
+      <c r="W16" s="259"/>
+      <c r="X16" s="259"/>
+      <c r="Y16" s="260"/>
       <c r="Z16" s="48"/>
       <c r="AA16" s="48"/>
       <c r="AB16" s="48" t="s">
@@ -6529,43 +6532,43 @@
       <c r="B23" s="11"/>
       <c r="G23" s="19"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="257" t="s">
+      <c r="I23" s="262" t="s">
         <v>224</v>
       </c>
-      <c r="J23" s="257"/>
-      <c r="K23" s="257"/>
-      <c r="L23" s="257"/>
-      <c r="M23" s="257"/>
-      <c r="N23" s="257"/>
-      <c r="O23" s="257"/>
-      <c r="P23" s="257"/>
-      <c r="Q23" s="257"/>
-      <c r="R23" s="257"/>
-      <c r="S23" s="257"/>
-      <c r="T23" s="257"/>
-      <c r="U23" s="257"/>
-      <c r="V23" s="257"/>
-      <c r="W23" s="257"/>
-      <c r="X23" s="257"/>
-      <c r="Y23" s="257"/>
-      <c r="Z23" s="257"/>
-      <c r="AA23" s="257"/>
-      <c r="AB23" s="257"/>
-      <c r="AC23" s="257"/>
-      <c r="AD23" s="257"/>
-      <c r="AE23" s="257"/>
-      <c r="AF23" s="257"/>
-      <c r="AG23" s="257"/>
-      <c r="AH23" s="257"/>
-      <c r="AI23" s="257"/>
-      <c r="AJ23" s="257"/>
-      <c r="AK23" s="257"/>
-      <c r="AL23" s="257"/>
-      <c r="AM23" s="257"/>
-      <c r="AN23" s="257"/>
-      <c r="AO23" s="257"/>
-      <c r="AP23" s="257"/>
-      <c r="AQ23" s="257"/>
+      <c r="J23" s="262"/>
+      <c r="K23" s="262"/>
+      <c r="L23" s="262"/>
+      <c r="M23" s="262"/>
+      <c r="N23" s="262"/>
+      <c r="O23" s="262"/>
+      <c r="P23" s="262"/>
+      <c r="Q23" s="262"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="262"/>
+      <c r="T23" s="262"/>
+      <c r="U23" s="262"/>
+      <c r="V23" s="262"/>
+      <c r="W23" s="262"/>
+      <c r="X23" s="262"/>
+      <c r="Y23" s="262"/>
+      <c r="Z23" s="262"/>
+      <c r="AA23" s="262"/>
+      <c r="AB23" s="262"/>
+      <c r="AC23" s="262"/>
+      <c r="AD23" s="262"/>
+      <c r="AE23" s="262"/>
+      <c r="AF23" s="262"/>
+      <c r="AG23" s="262"/>
+      <c r="AH23" s="262"/>
+      <c r="AI23" s="262"/>
+      <c r="AJ23" s="262"/>
+      <c r="AK23" s="262"/>
+      <c r="AL23" s="262"/>
+      <c r="AM23" s="262"/>
+      <c r="AN23" s="262"/>
+      <c r="AO23" s="262"/>
+      <c r="AP23" s="262"/>
+      <c r="AQ23" s="262"/>
       <c r="AR23" s="13"/>
       <c r="AT23" s="53"/>
       <c r="AU23" s="53"/>
@@ -6641,21 +6644,21 @@
       <c r="B25" s="11"/>
       <c r="G25" s="19"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="252" t="s">
+      <c r="I25" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="252"/>
-      <c r="K25" s="252"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="252"/>
-      <c r="N25" s="252"/>
-      <c r="O25" s="252"/>
-      <c r="P25" s="252"/>
-      <c r="Q25" s="252"/>
-      <c r="R25" s="252"/>
-      <c r="S25" s="252"/>
-      <c r="T25" s="252"/>
-      <c r="U25" s="252"/>
+      <c r="J25" s="257"/>
+      <c r="K25" s="257"/>
+      <c r="L25" s="257"/>
+      <c r="M25" s="257"/>
+      <c r="N25" s="257"/>
+      <c r="O25" s="257"/>
+      <c r="P25" s="257"/>
+      <c r="Q25" s="257"/>
+      <c r="R25" s="257"/>
+      <c r="S25" s="257"/>
+      <c r="T25" s="257"/>
+      <c r="U25" s="257"/>
       <c r="V25" s="104"/>
       <c r="W25" s="104"/>
       <c r="X25" s="104"/>
@@ -6707,21 +6710,21 @@
       <c r="B26" s="11"/>
       <c r="G26" s="19"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="258" t="s">
+      <c r="I26" s="247" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="259"/>
-      <c r="K26" s="259"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="259"/>
-      <c r="N26" s="259"/>
-      <c r="O26" s="259"/>
-      <c r="P26" s="259"/>
-      <c r="Q26" s="259"/>
-      <c r="R26" s="259"/>
-      <c r="S26" s="259"/>
-      <c r="T26" s="259"/>
-      <c r="U26" s="260"/>
+      <c r="J26" s="248"/>
+      <c r="K26" s="248"/>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="248"/>
+      <c r="O26" s="248"/>
+      <c r="P26" s="248"/>
+      <c r="Q26" s="248"/>
+      <c r="R26" s="248"/>
+      <c r="S26" s="248"/>
+      <c r="T26" s="248"/>
+      <c r="U26" s="249"/>
       <c r="V26" s="104" t="s">
         <v>318</v>
       </c>
@@ -6784,14 +6787,14 @@
       </c>
       <c r="AY27" s="53"/>
       <c r="AZ27" s="53"/>
-      <c r="BA27" s="261"/>
-      <c r="BB27" s="262"/>
-      <c r="BC27" s="262"/>
-      <c r="BD27" s="262"/>
-      <c r="BE27" s="262"/>
-      <c r="BF27" s="262"/>
-      <c r="BG27" s="262"/>
-      <c r="BH27" s="263"/>
+      <c r="BA27" s="250"/>
+      <c r="BB27" s="251"/>
+      <c r="BC27" s="251"/>
+      <c r="BD27" s="251"/>
+      <c r="BE27" s="251"/>
+      <c r="BF27" s="251"/>
+      <c r="BG27" s="251"/>
+      <c r="BH27" s="252"/>
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
@@ -6914,18 +6917,18 @@
       <c r="AX29" s="53"/>
       <c r="AY29" s="53"/>
       <c r="AZ29" s="53"/>
-      <c r="BA29" s="264" t="s">
+      <c r="BA29" s="253" t="s">
         <v>356</v>
       </c>
-      <c r="BB29" s="265"/>
-      <c r="BC29" s="265"/>
-      <c r="BD29" s="266"/>
+      <c r="BB29" s="254"/>
+      <c r="BC29" s="254"/>
+      <c r="BD29" s="255"/>
       <c r="BE29" s="50"/>
-      <c r="BF29" s="264" t="s">
+      <c r="BF29" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="BG29" s="265"/>
-      <c r="BH29" s="266"/>
+      <c r="BG29" s="254"/>
+      <c r="BH29" s="255"/>
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
@@ -8238,18 +8241,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I26:U26"/>
-    <mergeCell ref="BA26:BH26"/>
-    <mergeCell ref="BA27:BH27"/>
-    <mergeCell ref="BA29:BD29"/>
-    <mergeCell ref="BF29:BH29"/>
-    <mergeCell ref="AO12:AQ12"/>
-    <mergeCell ref="M15:Y15"/>
-    <mergeCell ref="I25:U25"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="I23:AQ23"/>
-    <mergeCell ref="M14:Y14"/>
     <mergeCell ref="AL2:AR5"/>
     <mergeCell ref="B1:G5"/>
     <mergeCell ref="M8:AJ8"/>
@@ -8262,6 +8253,18 @@
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="V7:Z7"/>
     <mergeCell ref="AA7:AF7"/>
+    <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="M15:Y15"/>
+    <mergeCell ref="I25:U25"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="I23:AQ23"/>
+    <mergeCell ref="M14:Y14"/>
+    <mergeCell ref="I26:U26"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="BA27:BH27"/>
+    <mergeCell ref="BA29:BD29"/>
+    <mergeCell ref="BF29:BH29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7:C7" location="'Main-logged in'!A1" display="Home"/>
@@ -8920,14 +8923,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="227" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="234"/>
+      <c r="G1" s="228"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
@@ -9008,15 +9011,15 @@
       </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="241" t="s">
+      <c r="AL2" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="241"/>
-      <c r="AN2" s="241"/>
-      <c r="AO2" s="241"/>
-      <c r="AP2" s="241"/>
-      <c r="AQ2" s="241"/>
-      <c r="AR2" s="242"/>
+      <c r="AM2" s="235"/>
+      <c r="AN2" s="235"/>
+      <c r="AO2" s="235"/>
+      <c r="AP2" s="235"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="236"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -9055,13 +9058,13 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="241"/>
-      <c r="AM3" s="241"/>
-      <c r="AN3" s="241"/>
-      <c r="AO3" s="241"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="242"/>
+      <c r="AL3" s="235"/>
+      <c r="AM3" s="235"/>
+      <c r="AN3" s="235"/>
+      <c r="AO3" s="235"/>
+      <c r="AP3" s="235"/>
+      <c r="AQ3" s="235"/>
+      <c r="AR3" s="236"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -9099,13 +9102,13 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
-      <c r="AL4" s="241"/>
-      <c r="AM4" s="241"/>
-      <c r="AN4" s="241"/>
-      <c r="AO4" s="241"/>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="241"/>
-      <c r="AR4" s="242"/>
+      <c r="AL4" s="235"/>
+      <c r="AM4" s="235"/>
+      <c r="AN4" s="235"/>
+      <c r="AO4" s="235"/>
+      <c r="AP4" s="235"/>
+      <c r="AQ4" s="235"/>
+      <c r="AR4" s="236"/>
     </row>
     <row r="5" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -9144,60 +9147,60 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
-      <c r="AL5" s="243"/>
-      <c r="AM5" s="243"/>
-      <c r="AN5" s="243"/>
-      <c r="AO5" s="243"/>
-      <c r="AP5" s="243"/>
-      <c r="AQ5" s="243"/>
-      <c r="AR5" s="244"/>
+      <c r="AL5" s="237"/>
+      <c r="AM5" s="237"/>
+      <c r="AN5" s="237"/>
+      <c r="AO5" s="237"/>
+      <c r="AP5" s="237"/>
+      <c r="AQ5" s="237"/>
+      <c r="AR5" s="238"/>
     </row>
     <row r="6" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="175"/>
-      <c r="C6" s="270" t="s">
+      <c r="C6" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="271"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="279"/>
       <c r="H6" s="137"/>
       <c r="I6" s="137"/>
       <c r="J6" s="137"/>
       <c r="K6" s="59"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="225"/>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="226"/>
-      <c r="R6" s="248"/>
-      <c r="S6" s="249"/>
-      <c r="T6" s="249"/>
-      <c r="U6" s="250"/>
-      <c r="V6" s="224"/>
-      <c r="W6" s="225"/>
-      <c r="X6" s="225"/>
-      <c r="Y6" s="225"/>
-      <c r="Z6" s="226"/>
-      <c r="AA6" s="224"/>
-      <c r="AB6" s="225"/>
-      <c r="AC6" s="225"/>
-      <c r="AD6" s="225"/>
-      <c r="AE6" s="225"/>
-      <c r="AF6" s="226"/>
-      <c r="AG6" s="224"/>
-      <c r="AH6" s="225"/>
-      <c r="AI6" s="225"/>
-      <c r="AJ6" s="225"/>
-      <c r="AK6" s="225"/>
-      <c r="AL6" s="226"/>
-      <c r="AM6" s="224"/>
-      <c r="AN6" s="225"/>
-      <c r="AO6" s="225"/>
-      <c r="AP6" s="225"/>
-      <c r="AQ6" s="225"/>
-      <c r="AR6" s="226"/>
+      <c r="L6" s="239"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="264"/>
+      <c r="S6" s="265"/>
+      <c r="T6" s="265"/>
+      <c r="U6" s="266"/>
+      <c r="V6" s="239"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="240"/>
+      <c r="Y6" s="240"/>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="239"/>
+      <c r="AB6" s="240"/>
+      <c r="AC6" s="240"/>
+      <c r="AD6" s="240"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="241"/>
+      <c r="AG6" s="239"/>
+      <c r="AH6" s="240"/>
+      <c r="AI6" s="240"/>
+      <c r="AJ6" s="240"/>
+      <c r="AK6" s="240"/>
+      <c r="AL6" s="241"/>
+      <c r="AM6" s="239"/>
+      <c r="AN6" s="240"/>
+      <c r="AO6" s="240"/>
+      <c r="AP6" s="240"/>
+      <c r="AQ6" s="240"/>
+      <c r="AR6" s="241"/>
     </row>
     <row r="7" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -9211,30 +9214,30 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="247"/>
-      <c r="N7" s="247"/>
-      <c r="O7" s="247"/>
-      <c r="P7" s="247"/>
-      <c r="Q7" s="247"/>
-      <c r="R7" s="247"/>
-      <c r="S7" s="247"/>
-      <c r="T7" s="247"/>
-      <c r="U7" s="247"/>
-      <c r="V7" s="247"/>
-      <c r="W7" s="247"/>
-      <c r="X7" s="247"/>
-      <c r="Y7" s="247"/>
-      <c r="Z7" s="247"/>
-      <c r="AA7" s="247"/>
-      <c r="AB7" s="247"/>
-      <c r="AC7" s="247"/>
-      <c r="AD7" s="247"/>
-      <c r="AE7" s="247"/>
-      <c r="AF7" s="247"/>
-      <c r="AG7" s="247"/>
-      <c r="AH7" s="247"/>
-      <c r="AI7" s="247"/>
-      <c r="AJ7" s="247"/>
+      <c r="M7" s="263"/>
+      <c r="N7" s="263"/>
+      <c r="O7" s="263"/>
+      <c r="P7" s="263"/>
+      <c r="Q7" s="263"/>
+      <c r="R7" s="263"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="263"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="263"/>
+      <c r="AD7" s="263"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="263"/>
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="263"/>
+      <c r="AI7" s="263"/>
+      <c r="AJ7" s="263"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
@@ -9254,43 +9257,43 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="246" t="s">
+      <c r="I8" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="246"/>
-      <c r="W8" s="246"/>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="246"/>
-      <c r="AB8" s="246"/>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="246"/>
-      <c r="AE8" s="246"/>
-      <c r="AF8" s="246"/>
-      <c r="AG8" s="246"/>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="246"/>
-      <c r="AJ8" s="246"/>
-      <c r="AK8" s="246"/>
-      <c r="AL8" s="246"/>
-      <c r="AM8" s="246"/>
-      <c r="AN8" s="246"/>
-      <c r="AO8" s="246"/>
-      <c r="AP8" s="246"/>
-      <c r="AQ8" s="246"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
+      <c r="O8" s="243"/>
+      <c r="P8" s="243"/>
+      <c r="Q8" s="243"/>
+      <c r="R8" s="243"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="243"/>
+      <c r="U8" s="243"/>
+      <c r="V8" s="243"/>
+      <c r="W8" s="243"/>
+      <c r="X8" s="243"/>
+      <c r="Y8" s="243"/>
+      <c r="Z8" s="243"/>
+      <c r="AA8" s="243"/>
+      <c r="AB8" s="243"/>
+      <c r="AC8" s="243"/>
+      <c r="AD8" s="243"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="243"/>
+      <c r="AG8" s="243"/>
+      <c r="AH8" s="243"/>
+      <c r="AI8" s="243"/>
+      <c r="AJ8" s="243"/>
+      <c r="AK8" s="243"/>
+      <c r="AL8" s="243"/>
+      <c r="AM8" s="243"/>
+      <c r="AN8" s="243"/>
+      <c r="AO8" s="243"/>
+      <c r="AP8" s="243"/>
+      <c r="AQ8" s="243"/>
       <c r="AR8" s="13"/>
     </row>
     <row r="9" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9334,11 +9337,11 @@
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
       <c r="AN9" s="12"/>
-      <c r="AO9" s="267" t="s">
+      <c r="AO9" s="277" t="s">
         <v>314</v>
       </c>
-      <c r="AP9" s="268"/>
-      <c r="AQ9" s="269"/>
+      <c r="AP9" s="275"/>
+      <c r="AQ9" s="276"/>
       <c r="AR9" s="13"/>
     </row>
     <row r="10" spans="2:44" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9423,11 +9426,11 @@
       <c r="AL11" s="169"/>
       <c r="AM11" s="169"/>
       <c r="AN11" s="169"/>
-      <c r="AO11" s="275" t="s">
+      <c r="AO11" s="270" t="s">
         <v>337</v>
       </c>
-      <c r="AP11" s="276"/>
-      <c r="AQ11" s="277"/>
+      <c r="AP11" s="271"/>
+      <c r="AQ11" s="272"/>
       <c r="AR11" s="13"/>
     </row>
     <row r="12" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9469,15 +9472,15 @@
       <c r="AJ12" s="172"/>
       <c r="AK12" s="172"/>
       <c r="AL12" s="172"/>
-      <c r="AM12" s="279" t="s">
+      <c r="AM12" s="274" t="s">
         <v>21</v>
       </c>
-      <c r="AN12" s="269"/>
-      <c r="AO12" s="279" t="s">
+      <c r="AN12" s="276"/>
+      <c r="AO12" s="274" t="s">
         <v>337</v>
       </c>
-      <c r="AP12" s="268"/>
-      <c r="AQ12" s="269"/>
+      <c r="AP12" s="275"/>
+      <c r="AQ12" s="276"/>
       <c r="AR12" s="13"/>
     </row>
     <row r="13" spans="2:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9497,43 +9500,43 @@
       <c r="N13" s="169"/>
       <c r="O13" s="169"/>
       <c r="P13" s="169"/>
-      <c r="Q13" s="261" t="s">
+      <c r="Q13" s="250" t="s">
         <v>348</v>
       </c>
-      <c r="R13" s="262"/>
-      <c r="S13" s="262"/>
-      <c r="T13" s="262"/>
-      <c r="U13" s="263"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="252"/>
       <c r="V13" s="170"/>
-      <c r="W13" s="261" t="s">
+      <c r="W13" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="X13" s="262"/>
-      <c r="Y13" s="262"/>
-      <c r="Z13" s="262"/>
-      <c r="AA13" s="262"/>
-      <c r="AB13" s="263"/>
+      <c r="X13" s="251"/>
+      <c r="Y13" s="251"/>
+      <c r="Z13" s="251"/>
+      <c r="AA13" s="251"/>
+      <c r="AB13" s="252"/>
       <c r="AC13" s="168"/>
-      <c r="AD13" s="261" t="s">
+      <c r="AD13" s="250" t="s">
         <v>349</v>
       </c>
-      <c r="AE13" s="262"/>
-      <c r="AF13" s="262"/>
-      <c r="AG13" s="262"/>
-      <c r="AH13" s="262"/>
-      <c r="AI13" s="262"/>
-      <c r="AJ13" s="263"/>
+      <c r="AE13" s="251"/>
+      <c r="AF13" s="251"/>
+      <c r="AG13" s="251"/>
+      <c r="AH13" s="251"/>
+      <c r="AI13" s="251"/>
+      <c r="AJ13" s="252"/>
       <c r="AK13" s="169"/>
       <c r="AL13" s="169"/>
-      <c r="AM13" s="275" t="s">
+      <c r="AM13" s="270" t="s">
         <v>355</v>
       </c>
-      <c r="AN13" s="277"/>
-      <c r="AO13" s="275" t="s">
+      <c r="AN13" s="272"/>
+      <c r="AO13" s="270" t="s">
         <v>356</v>
       </c>
-      <c r="AP13" s="276"/>
-      <c r="AQ13" s="277"/>
+      <c r="AP13" s="271"/>
+      <c r="AQ13" s="272"/>
       <c r="AR13" s="13"/>
     </row>
     <row r="14" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9617,54 +9620,54 @@
       <c r="AL15" s="216"/>
       <c r="AM15" s="216"/>
       <c r="AN15" s="217"/>
-      <c r="AO15" s="279" t="s">
+      <c r="AO15" s="274" t="s">
         <v>368</v>
       </c>
-      <c r="AP15" s="268"/>
-      <c r="AQ15" s="269"/>
+      <c r="AP15" s="275"/>
+      <c r="AQ15" s="276"/>
       <c r="AR15" s="13"/>
     </row>
     <row r="16" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="G16" s="19"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="278" t="s">
+      <c r="I16" s="273" t="s">
         <v>334</v>
       </c>
-      <c r="J16" s="278"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="278"/>
-      <c r="M16" s="278"/>
-      <c r="N16" s="278"/>
-      <c r="O16" s="278"/>
-      <c r="P16" s="278"/>
-      <c r="Q16" s="278"/>
-      <c r="R16" s="278"/>
-      <c r="S16" s="278"/>
-      <c r="T16" s="278"/>
-      <c r="U16" s="278"/>
-      <c r="V16" s="278"/>
-      <c r="W16" s="278"/>
-      <c r="X16" s="278"/>
-      <c r="Y16" s="278"/>
-      <c r="Z16" s="278"/>
-      <c r="AA16" s="278"/>
-      <c r="AB16" s="278"/>
-      <c r="AC16" s="278"/>
-      <c r="AD16" s="278"/>
-      <c r="AE16" s="278"/>
-      <c r="AF16" s="278"/>
-      <c r="AG16" s="278"/>
-      <c r="AH16" s="278"/>
-      <c r="AI16" s="278"/>
-      <c r="AJ16" s="278"/>
-      <c r="AK16" s="278"/>
-      <c r="AL16" s="278"/>
-      <c r="AM16" s="278"/>
-      <c r="AN16" s="278"/>
-      <c r="AO16" s="278"/>
-      <c r="AP16" s="278"/>
-      <c r="AQ16" s="278"/>
+      <c r="J16" s="273"/>
+      <c r="K16" s="273"/>
+      <c r="L16" s="273"/>
+      <c r="M16" s="273"/>
+      <c r="N16" s="273"/>
+      <c r="O16" s="273"/>
+      <c r="P16" s="273"/>
+      <c r="Q16" s="273"/>
+      <c r="R16" s="273"/>
+      <c r="S16" s="273"/>
+      <c r="T16" s="273"/>
+      <c r="U16" s="273"/>
+      <c r="V16" s="273"/>
+      <c r="W16" s="273"/>
+      <c r="X16" s="273"/>
+      <c r="Y16" s="273"/>
+      <c r="Z16" s="273"/>
+      <c r="AA16" s="273"/>
+      <c r="AB16" s="273"/>
+      <c r="AC16" s="273"/>
+      <c r="AD16" s="273"/>
+      <c r="AE16" s="273"/>
+      <c r="AF16" s="273"/>
+      <c r="AG16" s="273"/>
+      <c r="AH16" s="273"/>
+      <c r="AI16" s="273"/>
+      <c r="AJ16" s="273"/>
+      <c r="AK16" s="273"/>
+      <c r="AL16" s="273"/>
+      <c r="AM16" s="273"/>
+      <c r="AN16" s="273"/>
+      <c r="AO16" s="273"/>
+      <c r="AP16" s="273"/>
+      <c r="AQ16" s="273"/>
       <c r="AR16" s="13"/>
     </row>
     <row r="17" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9885,43 +9888,43 @@
       <c r="B21" s="11"/>
       <c r="G21" s="19"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="278" t="s">
+      <c r="I21" s="273" t="s">
         <v>339</v>
       </c>
-      <c r="J21" s="278"/>
-      <c r="K21" s="278"/>
-      <c r="L21" s="278"/>
-      <c r="M21" s="278"/>
-      <c r="N21" s="278"/>
-      <c r="O21" s="278"/>
-      <c r="P21" s="278"/>
-      <c r="Q21" s="278"/>
-      <c r="R21" s="278"/>
-      <c r="S21" s="278"/>
-      <c r="T21" s="278"/>
-      <c r="U21" s="278"/>
-      <c r="V21" s="278"/>
-      <c r="W21" s="278"/>
-      <c r="X21" s="278"/>
-      <c r="Y21" s="278"/>
-      <c r="Z21" s="278"/>
-      <c r="AA21" s="278"/>
-      <c r="AB21" s="278"/>
-      <c r="AC21" s="278"/>
-      <c r="AD21" s="278"/>
-      <c r="AE21" s="278"/>
-      <c r="AF21" s="278"/>
-      <c r="AG21" s="278"/>
-      <c r="AH21" s="278"/>
-      <c r="AI21" s="278"/>
-      <c r="AJ21" s="278"/>
-      <c r="AK21" s="278"/>
-      <c r="AL21" s="278"/>
-      <c r="AM21" s="278"/>
-      <c r="AN21" s="278"/>
-      <c r="AO21" s="278"/>
-      <c r="AP21" s="278"/>
-      <c r="AQ21" s="278"/>
+      <c r="J21" s="273"/>
+      <c r="K21" s="273"/>
+      <c r="L21" s="273"/>
+      <c r="M21" s="273"/>
+      <c r="N21" s="273"/>
+      <c r="O21" s="273"/>
+      <c r="P21" s="273"/>
+      <c r="Q21" s="273"/>
+      <c r="R21" s="273"/>
+      <c r="S21" s="273"/>
+      <c r="T21" s="273"/>
+      <c r="U21" s="273"/>
+      <c r="V21" s="273"/>
+      <c r="W21" s="273"/>
+      <c r="X21" s="273"/>
+      <c r="Y21" s="273"/>
+      <c r="Z21" s="273"/>
+      <c r="AA21" s="273"/>
+      <c r="AB21" s="273"/>
+      <c r="AC21" s="273"/>
+      <c r="AD21" s="273"/>
+      <c r="AE21" s="273"/>
+      <c r="AF21" s="273"/>
+      <c r="AG21" s="273"/>
+      <c r="AH21" s="273"/>
+      <c r="AI21" s="273"/>
+      <c r="AJ21" s="273"/>
+      <c r="AK21" s="273"/>
+      <c r="AL21" s="273"/>
+      <c r="AM21" s="273"/>
+      <c r="AN21" s="273"/>
+      <c r="AO21" s="273"/>
+      <c r="AP21" s="273"/>
+      <c r="AQ21" s="273"/>
       <c r="AR21" s="13"/>
       <c r="AT21" s="53"/>
       <c r="AU21" s="106"/>
@@ -10486,50 +10489,50 @@
       <c r="B37" s="122">
         <v>1</v>
       </c>
-      <c r="C37" s="272" t="s">
+      <c r="C37" s="267" t="s">
         <v>436</v>
       </c>
-      <c r="D37" s="273"/>
-      <c r="E37" s="273"/>
-      <c r="F37" s="273"/>
-      <c r="G37" s="273"/>
-      <c r="H37" s="273"/>
-      <c r="I37" s="273"/>
-      <c r="J37" s="273"/>
-      <c r="K37" s="273"/>
-      <c r="L37" s="273"/>
-      <c r="M37" s="273"/>
-      <c r="N37" s="273"/>
-      <c r="O37" s="273"/>
-      <c r="P37" s="273"/>
-      <c r="Q37" s="273"/>
-      <c r="R37" s="273"/>
-      <c r="S37" s="273"/>
-      <c r="T37" s="273"/>
-      <c r="U37" s="273"/>
-      <c r="V37" s="273"/>
-      <c r="W37" s="273"/>
-      <c r="X37" s="273"/>
-      <c r="Y37" s="273"/>
-      <c r="Z37" s="273"/>
-      <c r="AA37" s="273"/>
-      <c r="AB37" s="273"/>
-      <c r="AC37" s="273"/>
-      <c r="AD37" s="273"/>
-      <c r="AE37" s="273"/>
-      <c r="AF37" s="273"/>
-      <c r="AG37" s="273"/>
-      <c r="AH37" s="273"/>
-      <c r="AI37" s="273"/>
-      <c r="AJ37" s="273"/>
-      <c r="AK37" s="273"/>
-      <c r="AL37" s="273"/>
-      <c r="AM37" s="273"/>
-      <c r="AN37" s="273"/>
-      <c r="AO37" s="273"/>
-      <c r="AP37" s="273"/>
-      <c r="AQ37" s="273"/>
-      <c r="AR37" s="274"/>
+      <c r="D37" s="268"/>
+      <c r="E37" s="268"/>
+      <c r="F37" s="268"/>
+      <c r="G37" s="268"/>
+      <c r="H37" s="268"/>
+      <c r="I37" s="268"/>
+      <c r="J37" s="268"/>
+      <c r="K37" s="268"/>
+      <c r="L37" s="268"/>
+      <c r="M37" s="268"/>
+      <c r="N37" s="268"/>
+      <c r="O37" s="268"/>
+      <c r="P37" s="268"/>
+      <c r="Q37" s="268"/>
+      <c r="R37" s="268"/>
+      <c r="S37" s="268"/>
+      <c r="T37" s="268"/>
+      <c r="U37" s="268"/>
+      <c r="V37" s="268"/>
+      <c r="W37" s="268"/>
+      <c r="X37" s="268"/>
+      <c r="Y37" s="268"/>
+      <c r="Z37" s="268"/>
+      <c r="AA37" s="268"/>
+      <c r="AB37" s="268"/>
+      <c r="AC37" s="268"/>
+      <c r="AD37" s="268"/>
+      <c r="AE37" s="268"/>
+      <c r="AF37" s="268"/>
+      <c r="AG37" s="268"/>
+      <c r="AH37" s="268"/>
+      <c r="AI37" s="268"/>
+      <c r="AJ37" s="268"/>
+      <c r="AK37" s="268"/>
+      <c r="AL37" s="268"/>
+      <c r="AM37" s="268"/>
+      <c r="AN37" s="268"/>
+      <c r="AO37" s="268"/>
+      <c r="AP37" s="268"/>
+      <c r="AQ37" s="268"/>
+      <c r="AR37" s="269"/>
       <c r="AS37" s="53"/>
       <c r="AU37" s="29"/>
     </row>
@@ -11373,6 +11376,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="AL2:AR5"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="AG6:AL6"/>
+    <mergeCell ref="AM6:AR6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="M7:AJ7"/>
+    <mergeCell ref="I8:AQ8"/>
     <mergeCell ref="C37:AR37"/>
     <mergeCell ref="AO11:AQ11"/>
     <mergeCell ref="AO13:AQ13"/>
@@ -11386,18 +11401,6 @@
     <mergeCell ref="AM12:AN12"/>
     <mergeCell ref="AO12:AQ12"/>
     <mergeCell ref="I21:AQ21"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="AL2:AR5"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AA6:AF6"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AM6:AR6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="M7:AJ7"/>
-    <mergeCell ref="I8:AQ8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AO1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -11974,14 +11977,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="227" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="234"/>
+      <c r="G1" s="228"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -12064,15 +12067,15 @@
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
-      <c r="AM2" s="241" t="s">
+      <c r="AM2" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="AN2" s="241"/>
-      <c r="AO2" s="241"/>
-      <c r="AP2" s="241"/>
-      <c r="AQ2" s="241"/>
-      <c r="AR2" s="241"/>
-      <c r="AS2" s="242"/>
+      <c r="AN2" s="235"/>
+      <c r="AO2" s="235"/>
+      <c r="AP2" s="235"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="235"/>
+      <c r="AS2" s="236"/>
     </row>
     <row r="3" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -12112,13 +12115,13 @@
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
-      <c r="AM3" s="241"/>
-      <c r="AN3" s="241"/>
-      <c r="AO3" s="241"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="241"/>
-      <c r="AS3" s="242"/>
+      <c r="AM3" s="235"/>
+      <c r="AN3" s="235"/>
+      <c r="AO3" s="235"/>
+      <c r="AP3" s="235"/>
+      <c r="AQ3" s="235"/>
+      <c r="AR3" s="235"/>
+      <c r="AS3" s="236"/>
     </row>
     <row r="4" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -12157,13 +12160,13 @@
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
       <c r="AK4" s="12"/>
-      <c r="AM4" s="241"/>
-      <c r="AN4" s="241"/>
-      <c r="AO4" s="241"/>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="241"/>
-      <c r="AR4" s="241"/>
-      <c r="AS4" s="242"/>
+      <c r="AM4" s="235"/>
+      <c r="AN4" s="235"/>
+      <c r="AO4" s="235"/>
+      <c r="AP4" s="235"/>
+      <c r="AQ4" s="235"/>
+      <c r="AR4" s="235"/>
+      <c r="AS4" s="236"/>
     </row>
     <row r="5" spans="2:58" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -12203,61 +12206,61 @@
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
       <c r="AL5" s="16"/>
-      <c r="AM5" s="243"/>
-      <c r="AN5" s="243"/>
-      <c r="AO5" s="243"/>
-      <c r="AP5" s="243"/>
-      <c r="AQ5" s="243"/>
-      <c r="AR5" s="243"/>
-      <c r="AS5" s="244"/>
+      <c r="AM5" s="237"/>
+      <c r="AN5" s="237"/>
+      <c r="AO5" s="237"/>
+      <c r="AP5" s="237"/>
+      <c r="AQ5" s="237"/>
+      <c r="AR5" s="237"/>
+      <c r="AS5" s="238"/>
     </row>
     <row r="6" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="225"/>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="226"/>
-      <c r="S6" s="248"/>
-      <c r="T6" s="249"/>
-      <c r="U6" s="249"/>
-      <c r="V6" s="250"/>
-      <c r="W6" s="224"/>
-      <c r="X6" s="225"/>
-      <c r="Y6" s="225"/>
-      <c r="Z6" s="225"/>
-      <c r="AA6" s="226"/>
-      <c r="AB6" s="224"/>
-      <c r="AC6" s="225"/>
-      <c r="AD6" s="225"/>
-      <c r="AE6" s="225"/>
-      <c r="AF6" s="225"/>
-      <c r="AG6" s="226"/>
-      <c r="AH6" s="224"/>
-      <c r="AI6" s="225"/>
-      <c r="AJ6" s="225"/>
-      <c r="AK6" s="225"/>
-      <c r="AL6" s="225"/>
-      <c r="AM6" s="226"/>
-      <c r="AN6" s="224"/>
-      <c r="AO6" s="225"/>
-      <c r="AP6" s="225"/>
-      <c r="AQ6" s="225"/>
-      <c r="AR6" s="225"/>
-      <c r="AS6" s="226"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="239"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="241"/>
+      <c r="S6" s="264"/>
+      <c r="T6" s="265"/>
+      <c r="U6" s="265"/>
+      <c r="V6" s="266"/>
+      <c r="W6" s="239"/>
+      <c r="X6" s="240"/>
+      <c r="Y6" s="240"/>
+      <c r="Z6" s="240"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="239"/>
+      <c r="AC6" s="240"/>
+      <c r="AD6" s="240"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="240"/>
+      <c r="AG6" s="241"/>
+      <c r="AH6" s="239"/>
+      <c r="AI6" s="240"/>
+      <c r="AJ6" s="240"/>
+      <c r="AK6" s="240"/>
+      <c r="AL6" s="240"/>
+      <c r="AM6" s="241"/>
+      <c r="AN6" s="239"/>
+      <c r="AO6" s="240"/>
+      <c r="AP6" s="240"/>
+      <c r="AQ6" s="240"/>
+      <c r="AR6" s="240"/>
+      <c r="AS6" s="241"/>
     </row>
     <row r="7" spans="2:58" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -12272,30 +12275,30 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="247"/>
-      <c r="O7" s="247"/>
-      <c r="P7" s="247"/>
-      <c r="Q7" s="247"/>
-      <c r="R7" s="247"/>
-      <c r="S7" s="247"/>
-      <c r="T7" s="247"/>
-      <c r="U7" s="247"/>
-      <c r="V7" s="247"/>
-      <c r="W7" s="247"/>
-      <c r="X7" s="247"/>
-      <c r="Y7" s="247"/>
-      <c r="Z7" s="247"/>
-      <c r="AA7" s="247"/>
-      <c r="AB7" s="247"/>
-      <c r="AC7" s="247"/>
-      <c r="AD7" s="247"/>
-      <c r="AE7" s="247"/>
-      <c r="AF7" s="247"/>
-      <c r="AG7" s="247"/>
-      <c r="AH7" s="247"/>
-      <c r="AI7" s="247"/>
-      <c r="AJ7" s="247"/>
-      <c r="AK7" s="247"/>
+      <c r="N7" s="263"/>
+      <c r="O7" s="263"/>
+      <c r="P7" s="263"/>
+      <c r="Q7" s="263"/>
+      <c r="R7" s="263"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="263"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="263"/>
+      <c r="AD7" s="263"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="263"/>
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="263"/>
+      <c r="AI7" s="263"/>
+      <c r="AJ7" s="263"/>
+      <c r="AK7" s="263"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
@@ -12315,44 +12318,44 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="246" t="s">
+      <c r="I8" s="243" t="s">
         <v>399</v>
       </c>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="246"/>
-      <c r="W8" s="246"/>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="246"/>
-      <c r="AB8" s="246"/>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="246"/>
-      <c r="AE8" s="246"/>
-      <c r="AF8" s="246"/>
-      <c r="AG8" s="246"/>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="246"/>
-      <c r="AJ8" s="246"/>
-      <c r="AK8" s="246"/>
-      <c r="AL8" s="246"/>
-      <c r="AM8" s="246"/>
-      <c r="AN8" s="246"/>
-      <c r="AO8" s="246"/>
-      <c r="AP8" s="246"/>
-      <c r="AQ8" s="246"/>
-      <c r="AR8" s="246"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
+      <c r="O8" s="243"/>
+      <c r="P8" s="243"/>
+      <c r="Q8" s="243"/>
+      <c r="R8" s="243"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="243"/>
+      <c r="U8" s="243"/>
+      <c r="V8" s="243"/>
+      <c r="W8" s="243"/>
+      <c r="X8" s="243"/>
+      <c r="Y8" s="243"/>
+      <c r="Z8" s="243"/>
+      <c r="AA8" s="243"/>
+      <c r="AB8" s="243"/>
+      <c r="AC8" s="243"/>
+      <c r="AD8" s="243"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="243"/>
+      <c r="AG8" s="243"/>
+      <c r="AH8" s="243"/>
+      <c r="AI8" s="243"/>
+      <c r="AJ8" s="243"/>
+      <c r="AK8" s="243"/>
+      <c r="AL8" s="243"/>
+      <c r="AM8" s="243"/>
+      <c r="AN8" s="243"/>
+      <c r="AO8" s="243"/>
+      <c r="AP8" s="243"/>
+      <c r="AQ8" s="243"/>
+      <c r="AR8" s="243"/>
       <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12507,15 +12510,15 @@
         <v>402</v>
       </c>
       <c r="K12" s="53"/>
-      <c r="L12" s="261" t="s">
+      <c r="L12" s="250" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="262"/>
-      <c r="N12" s="262"/>
-      <c r="O12" s="262"/>
-      <c r="P12" s="262"/>
-      <c r="Q12" s="262"/>
-      <c r="R12" s="263"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="251"/>
+      <c r="O12" s="251"/>
+      <c r="P12" s="251"/>
+      <c r="Q12" s="251"/>
+      <c r="R12" s="252"/>
       <c r="S12" s="53"/>
       <c r="T12" s="198" t="s">
         <v>400</v>
@@ -12537,14 +12540,14 @@
       <c r="AI12" s="199"/>
       <c r="AJ12" s="200"/>
       <c r="AK12" s="53"/>
-      <c r="AL12" s="230" t="s">
+      <c r="AL12" s="224" t="s">
         <v>403</v>
       </c>
-      <c r="AM12" s="231"/>
-      <c r="AN12" s="231"/>
-      <c r="AO12" s="231"/>
-      <c r="AP12" s="231"/>
-      <c r="AQ12" s="232"/>
+      <c r="AM12" s="225"/>
+      <c r="AN12" s="225"/>
+      <c r="AO12" s="225"/>
+      <c r="AP12" s="225"/>
+      <c r="AQ12" s="226"/>
       <c r="AR12" s="48"/>
       <c r="AS12" s="13"/>
     </row>
@@ -12718,14 +12721,14 @@
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="37"/>
-      <c r="R16" s="235" t="s">
+      <c r="R16" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="S16" s="236"/>
-      <c r="T16" s="236"/>
-      <c r="U16" s="236"/>
-      <c r="V16" s="236"/>
-      <c r="W16" s="237"/>
+      <c r="S16" s="230"/>
+      <c r="T16" s="230"/>
+      <c r="U16" s="230"/>
+      <c r="V16" s="230"/>
+      <c r="W16" s="231"/>
       <c r="X16" s="38" t="s">
         <v>48</v>
       </c>
@@ -12733,18 +12736,18 @@
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
-      <c r="AC16" s="235" t="s">
+      <c r="AC16" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="AD16" s="236"/>
-      <c r="AE16" s="236"/>
-      <c r="AF16" s="237"/>
+      <c r="AD16" s="230"/>
+      <c r="AE16" s="230"/>
+      <c r="AF16" s="231"/>
       <c r="AG16" s="38"/>
-      <c r="AH16" s="239" t="s">
+      <c r="AH16" s="233" t="s">
         <v>82</v>
       </c>
-      <c r="AI16" s="239"/>
-      <c r="AJ16" s="240"/>
+      <c r="AI16" s="233"/>
+      <c r="AJ16" s="234"/>
       <c r="AK16" s="36" t="s">
         <v>49</v>
       </c>
@@ -13213,18 +13216,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="104"/>
       <c r="J25" s="104"/>
-      <c r="K25" s="252"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="252"/>
-      <c r="N25" s="252"/>
-      <c r="O25" s="252"/>
-      <c r="P25" s="252"/>
-      <c r="Q25" s="252"/>
-      <c r="R25" s="252"/>
-      <c r="S25" s="252"/>
-      <c r="T25" s="252"/>
-      <c r="U25" s="252"/>
-      <c r="V25" s="252"/>
+      <c r="K25" s="257"/>
+      <c r="L25" s="257"/>
+      <c r="M25" s="257"/>
+      <c r="N25" s="257"/>
+      <c r="O25" s="257"/>
+      <c r="P25" s="257"/>
+      <c r="Q25" s="257"/>
+      <c r="R25" s="257"/>
+      <c r="S25" s="257"/>
+      <c r="T25" s="257"/>
+      <c r="U25" s="257"/>
+      <c r="V25" s="257"/>
       <c r="W25" s="104"/>
       <c r="X25" s="104"/>
       <c r="Y25" s="104"/>
@@ -14511,14 +14514,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="T10:AJ10"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="T12:AJ12"/>
     <mergeCell ref="AL12:AQ12"/>
     <mergeCell ref="N7:AK7"/>
     <mergeCell ref="I21:AR21"/>
@@ -14535,6 +14530,14 @@
     <mergeCell ref="AN6:AS6"/>
     <mergeCell ref="I8:AR8"/>
     <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="T10:AJ10"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="T12:AJ12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6:C6" location="'Main-logged in'!A1" display="Home"/>
@@ -25791,14 +25794,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="227" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="190"/>
       <c r="E1" s="190"/>
       <c r="F1" s="190"/>
-      <c r="G1" s="234"/>
+      <c r="G1" s="228"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -25886,14 +25889,14 @@
       </c>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
-      <c r="AP2" s="241" t="s">
+      <c r="AP2" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="AQ2" s="241"/>
-      <c r="AR2" s="241"/>
-      <c r="AS2" s="241"/>
-      <c r="AT2" s="241"/>
-      <c r="AU2" s="242"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="235"/>
+      <c r="AS2" s="235"/>
+      <c r="AT2" s="235"/>
+      <c r="AU2" s="236"/>
     </row>
     <row r="3" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="206"/>
@@ -25936,12 +25939,12 @@
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
       <c r="AO3" s="12"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="241"/>
-      <c r="AS3" s="241"/>
-      <c r="AT3" s="241"/>
-      <c r="AU3" s="242"/>
+      <c r="AP3" s="235"/>
+      <c r="AQ3" s="235"/>
+      <c r="AR3" s="235"/>
+      <c r="AS3" s="235"/>
+      <c r="AT3" s="235"/>
+      <c r="AU3" s="236"/>
     </row>
     <row r="4" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="206"/>
@@ -25983,12 +25986,12 @@
       <c r="AL4" s="12"/>
       <c r="AM4" s="12"/>
       <c r="AN4" s="12"/>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="241"/>
-      <c r="AR4" s="241"/>
-      <c r="AS4" s="241"/>
-      <c r="AT4" s="241"/>
-      <c r="AU4" s="242"/>
+      <c r="AP4" s="235"/>
+      <c r="AQ4" s="235"/>
+      <c r="AR4" s="235"/>
+      <c r="AS4" s="235"/>
+      <c r="AT4" s="235"/>
+      <c r="AU4" s="236"/>
     </row>
     <row r="5" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209"/>
@@ -26031,12 +26034,12 @@
       <c r="AM5" s="16"/>
       <c r="AN5" s="16"/>
       <c r="AO5" s="16"/>
-      <c r="AP5" s="243"/>
-      <c r="AQ5" s="243"/>
-      <c r="AR5" s="243"/>
-      <c r="AS5" s="243"/>
-      <c r="AT5" s="243"/>
-      <c r="AU5" s="244"/>
+      <c r="AP5" s="237"/>
+      <c r="AQ5" s="237"/>
+      <c r="AR5" s="237"/>
+      <c r="AS5" s="237"/>
+      <c r="AT5" s="237"/>
+      <c r="AU5" s="238"/>
     </row>
     <row r="6" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="136" t="s">
@@ -26049,44 +26052,44 @@
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="225"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="226"/>
-      <c r="O6" s="224"/>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="226"/>
-      <c r="U6" s="227"/>
-      <c r="V6" s="228"/>
-      <c r="W6" s="228"/>
-      <c r="X6" s="229"/>
-      <c r="Y6" s="224"/>
-      <c r="Z6" s="225"/>
-      <c r="AA6" s="225"/>
-      <c r="AB6" s="225"/>
-      <c r="AC6" s="226"/>
-      <c r="AD6" s="224"/>
-      <c r="AE6" s="225"/>
-      <c r="AF6" s="225"/>
-      <c r="AG6" s="225"/>
-      <c r="AH6" s="225"/>
-      <c r="AI6" s="226"/>
-      <c r="AJ6" s="224"/>
-      <c r="AK6" s="225"/>
-      <c r="AL6" s="225"/>
-      <c r="AM6" s="225"/>
-      <c r="AN6" s="225"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="224"/>
-      <c r="AQ6" s="225"/>
-      <c r="AR6" s="225"/>
-      <c r="AS6" s="225"/>
-      <c r="AT6" s="225"/>
-      <c r="AU6" s="245"/>
+      <c r="J6" s="239"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="239"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="244"/>
+      <c r="V6" s="245"/>
+      <c r="W6" s="245"/>
+      <c r="X6" s="246"/>
+      <c r="Y6" s="239"/>
+      <c r="Z6" s="240"/>
+      <c r="AA6" s="240"/>
+      <c r="AB6" s="240"/>
+      <c r="AC6" s="241"/>
+      <c r="AD6" s="239"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="240"/>
+      <c r="AG6" s="240"/>
+      <c r="AH6" s="240"/>
+      <c r="AI6" s="241"/>
+      <c r="AJ6" s="239"/>
+      <c r="AK6" s="240"/>
+      <c r="AL6" s="240"/>
+      <c r="AM6" s="240"/>
+      <c r="AN6" s="240"/>
+      <c r="AO6" s="241"/>
+      <c r="AP6" s="239"/>
+      <c r="AQ6" s="240"/>
+      <c r="AR6" s="240"/>
+      <c r="AS6" s="240"/>
+      <c r="AT6" s="240"/>
+      <c r="AU6" s="242"/>
     </row>
     <row r="7" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -26146,46 +26149,46 @@
       <c r="F8" s="12"/>
       <c r="G8" s="19"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="246" t="s">
+      <c r="I8" s="243" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="246"/>
-      <c r="W8" s="246"/>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="246"/>
-      <c r="AB8" s="246"/>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="246"/>
-      <c r="AE8" s="246"/>
-      <c r="AF8" s="246"/>
-      <c r="AG8" s="246"/>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="246"/>
-      <c r="AJ8" s="246"/>
-      <c r="AK8" s="246"/>
-      <c r="AL8" s="246"/>
-      <c r="AM8" s="246"/>
-      <c r="AN8" s="246"/>
-      <c r="AO8" s="246"/>
-      <c r="AP8" s="246"/>
-      <c r="AQ8" s="246"/>
-      <c r="AR8" s="246"/>
-      <c r="AS8" s="246"/>
-      <c r="AT8" s="246"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
+      <c r="O8" s="243"/>
+      <c r="P8" s="243"/>
+      <c r="Q8" s="243"/>
+      <c r="R8" s="243"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="243"/>
+      <c r="U8" s="243"/>
+      <c r="V8" s="243"/>
+      <c r="W8" s="243"/>
+      <c r="X8" s="243"/>
+      <c r="Y8" s="243"/>
+      <c r="Z8" s="243"/>
+      <c r="AA8" s="243"/>
+      <c r="AB8" s="243"/>
+      <c r="AC8" s="243"/>
+      <c r="AD8" s="243"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="243"/>
+      <c r="AG8" s="243"/>
+      <c r="AH8" s="243"/>
+      <c r="AI8" s="243"/>
+      <c r="AJ8" s="243"/>
+      <c r="AK8" s="243"/>
+      <c r="AL8" s="243"/>
+      <c r="AM8" s="243"/>
+      <c r="AN8" s="243"/>
+      <c r="AO8" s="243"/>
+      <c r="AP8" s="243"/>
+      <c r="AQ8" s="243"/>
+      <c r="AR8" s="243"/>
+      <c r="AS8" s="243"/>
+      <c r="AT8" s="243"/>
       <c r="AU8" s="13"/>
     </row>
     <row r="9" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -26557,14 +26560,14 @@
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="37"/>
-      <c r="R18" s="235" t="s">
+      <c r="R18" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="S18" s="236"/>
-      <c r="T18" s="236"/>
-      <c r="U18" s="236"/>
-      <c r="V18" s="236"/>
-      <c r="W18" s="237"/>
+      <c r="S18" s="230"/>
+      <c r="T18" s="230"/>
+      <c r="U18" s="230"/>
+      <c r="V18" s="230"/>
+      <c r="W18" s="231"/>
       <c r="X18" s="38" t="s">
         <v>48</v>
       </c>
@@ -26572,16 +26575,16 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
-      <c r="AC18" s="238"/>
-      <c r="AD18" s="239"/>
-      <c r="AE18" s="239"/>
-      <c r="AF18" s="240"/>
+      <c r="AC18" s="232"/>
+      <c r="AD18" s="233"/>
+      <c r="AE18" s="233"/>
+      <c r="AF18" s="234"/>
       <c r="AG18" s="38"/>
-      <c r="AH18" s="239" t="s">
+      <c r="AH18" s="233" t="s">
         <v>82</v>
       </c>
-      <c r="AI18" s="239"/>
-      <c r="AJ18" s="240"/>
+      <c r="AI18" s="233"/>
+      <c r="AJ18" s="234"/>
       <c r="AK18" s="36" t="s">
         <v>49</v>
       </c>
@@ -27070,12 +27073,12 @@
       <c r="AT25" s="35"/>
       <c r="AU25" s="13"/>
       <c r="AY25" s="11"/>
-      <c r="AZ25" s="230" t="s">
+      <c r="AZ25" s="224" t="s">
         <v>383</v>
       </c>
-      <c r="BA25" s="231"/>
-      <c r="BB25" s="231"/>
-      <c r="BC25" s="232"/>
+      <c r="BA25" s="225"/>
+      <c r="BB25" s="225"/>
+      <c r="BC25" s="226"/>
       <c r="BD25" s="12"/>
       <c r="BE25" s="12"/>
       <c r="BF25" s="12"/>
@@ -28110,6 +28113,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AM16:AP16"/>
     <mergeCell ref="C38:AR38"/>
     <mergeCell ref="AZ25:BC25"/>
     <mergeCell ref="B1:G5"/>
@@ -28126,11 +28134,6 @@
     <mergeCell ref="AP6:AU6"/>
     <mergeCell ref="AD6:AI6"/>
     <mergeCell ref="I8:AT8"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AM16:AP16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
